--- a/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>45436300</v>
+        <v>46782800</v>
       </c>
       <c r="E8" s="3">
-        <v>44863200</v>
+        <v>45833600</v>
       </c>
       <c r="F8" s="3">
-        <v>44928000</v>
+        <v>45255400</v>
       </c>
       <c r="G8" s="3">
-        <v>44179100</v>
+        <v>45320800</v>
       </c>
       <c r="H8" s="3">
-        <v>43310600</v>
+        <v>44565400</v>
       </c>
       <c r="I8" s="3">
-        <v>44997100</v>
+        <v>43689300</v>
       </c>
       <c r="J8" s="3">
+        <v>45390600</v>
+      </c>
+      <c r="K8" s="3">
         <v>47779500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>53146600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19085400</v>
+        <v>19523700</v>
       </c>
       <c r="E9" s="3">
-        <v>18921800</v>
+        <v>19252300</v>
       </c>
       <c r="F9" s="3">
-        <v>18803300</v>
+        <v>19087300</v>
       </c>
       <c r="G9" s="3">
-        <v>18154300</v>
+        <v>18967700</v>
       </c>
       <c r="H9" s="3">
-        <v>18941600</v>
+        <v>18313100</v>
       </c>
       <c r="I9" s="3">
-        <v>19725600</v>
+        <v>19107200</v>
       </c>
       <c r="J9" s="3">
+        <v>19898000</v>
+      </c>
+      <c r="K9" s="3">
         <v>20971800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23051300</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>26350900</v>
+        <v>27259100</v>
       </c>
       <c r="E10" s="3">
-        <v>25941300</v>
+        <v>26581300</v>
       </c>
       <c r="F10" s="3">
-        <v>26124700</v>
+        <v>26168200</v>
       </c>
       <c r="G10" s="3">
-        <v>26024800</v>
+        <v>26353100</v>
       </c>
       <c r="H10" s="3">
-        <v>24369000</v>
+        <v>26252300</v>
       </c>
       <c r="I10" s="3">
-        <v>25271600</v>
+        <v>24582100</v>
       </c>
       <c r="J10" s="3">
+        <v>25492500</v>
+      </c>
+      <c r="K10" s="3">
         <v>26807700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>30095300</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,69 +889,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>321700</v>
+        <v>285800</v>
       </c>
       <c r="E14" s="3">
-        <v>1338500</v>
+        <v>324500</v>
       </c>
       <c r="F14" s="3">
-        <v>2422200</v>
+        <v>1350200</v>
       </c>
       <c r="G14" s="3">
-        <v>636800</v>
+        <v>2443400</v>
       </c>
       <c r="H14" s="3">
-        <v>831200</v>
+        <v>642400</v>
       </c>
       <c r="I14" s="3">
-        <v>1074900</v>
+        <v>838500</v>
       </c>
       <c r="J14" s="3">
+        <v>1084300</v>
+      </c>
+      <c r="K14" s="3">
         <v>2062000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>569300</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>7737600</v>
+        <v>9247400</v>
       </c>
       <c r="E15" s="3">
-        <v>7516900</v>
+        <v>7805300</v>
       </c>
       <c r="F15" s="3">
-        <v>7387300</v>
+        <v>7582600</v>
       </c>
       <c r="G15" s="3">
-        <v>7098600</v>
+        <v>7451900</v>
       </c>
       <c r="H15" s="3">
-        <v>6629700</v>
+        <v>7160600</v>
       </c>
       <c r="I15" s="3">
-        <v>6645100</v>
+        <v>6687700</v>
       </c>
       <c r="J15" s="3">
+        <v>6703200</v>
+      </c>
+      <c r="K15" s="3">
         <v>6949200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7905600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40134100</v>
+        <v>40218100</v>
       </c>
       <c r="E17" s="3">
-        <v>39616900</v>
+        <v>40485000</v>
       </c>
       <c r="F17" s="3">
-        <v>41278200</v>
+        <v>39963300</v>
       </c>
       <c r="G17" s="3">
-        <v>38972400</v>
+        <v>41639100</v>
       </c>
       <c r="H17" s="3">
-        <v>38291700</v>
+        <v>39313200</v>
       </c>
       <c r="I17" s="3">
-        <v>39190900</v>
+        <v>38626400</v>
       </c>
       <c r="J17" s="3">
+        <v>39533600</v>
+      </c>
+      <c r="K17" s="3">
         <v>43318300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43817200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5302200</v>
+        <v>6564700</v>
       </c>
       <c r="E18" s="3">
-        <v>5246200</v>
+        <v>5348600</v>
       </c>
       <c r="F18" s="3">
-        <v>3649800</v>
+        <v>5292100</v>
       </c>
       <c r="G18" s="3">
-        <v>5206700</v>
+        <v>3681700</v>
       </c>
       <c r="H18" s="3">
-        <v>5019000</v>
+        <v>5252200</v>
       </c>
       <c r="I18" s="3">
-        <v>5806200</v>
+        <v>5062800</v>
       </c>
       <c r="J18" s="3">
+        <v>5857000</v>
+      </c>
+      <c r="K18" s="3">
         <v>4461200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9329400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>36200</v>
+        <v>137300</v>
       </c>
       <c r="E20" s="3">
-        <v>-393100</v>
+        <v>36600</v>
       </c>
       <c r="F20" s="3">
-        <v>136200</v>
+        <v>-396500</v>
       </c>
       <c r="G20" s="3">
-        <v>144900</v>
+        <v>137300</v>
       </c>
       <c r="H20" s="3">
-        <v>87800</v>
+        <v>146200</v>
       </c>
       <c r="I20" s="3">
+        <v>88600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>45000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>38700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13088100</v>
+        <v>15888500</v>
       </c>
       <c r="E21" s="3">
-        <v>12381700</v>
+        <v>13139000</v>
       </c>
       <c r="F21" s="3">
-        <v>11184700</v>
+        <v>12428200</v>
       </c>
       <c r="G21" s="3">
-        <v>12461200</v>
+        <v>11221800</v>
       </c>
       <c r="H21" s="3">
-        <v>11746800</v>
+        <v>12511900</v>
       </c>
       <c r="I21" s="3">
-        <v>12458300</v>
+        <v>11795100</v>
       </c>
       <c r="J21" s="3">
+        <v>12512700</v>
+      </c>
+      <c r="K21" s="3">
         <v>11466200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17279200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1531700</v>
+        <v>1526300</v>
       </c>
       <c r="E22" s="3">
-        <v>1490000</v>
+        <v>1545100</v>
       </c>
       <c r="F22" s="3">
-        <v>1611900</v>
+        <v>1503000</v>
       </c>
       <c r="G22" s="3">
-        <v>1883100</v>
+        <v>1626000</v>
       </c>
       <c r="H22" s="3">
-        <v>1886400</v>
+        <v>1899500</v>
       </c>
       <c r="I22" s="3">
-        <v>1918200</v>
+        <v>1902900</v>
       </c>
       <c r="J22" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="K22" s="3">
         <v>1942400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2425100</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3806800</v>
+        <v>5175800</v>
       </c>
       <c r="E23" s="3">
-        <v>3363200</v>
+        <v>3840000</v>
       </c>
       <c r="F23" s="3">
-        <v>2174000</v>
+        <v>3392600</v>
       </c>
       <c r="G23" s="3">
-        <v>3468600</v>
+        <v>2193000</v>
       </c>
       <c r="H23" s="3">
-        <v>3220400</v>
+        <v>3498900</v>
       </c>
       <c r="I23" s="3">
-        <v>3884700</v>
+        <v>3248600</v>
       </c>
       <c r="J23" s="3">
+        <v>3918700</v>
+      </c>
+      <c r="K23" s="3">
         <v>2563800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6943100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1437300</v>
+        <v>1602700</v>
       </c>
       <c r="E24" s="3">
-        <v>1155100</v>
+        <v>1449800</v>
       </c>
       <c r="F24" s="3">
-        <v>1065100</v>
+        <v>1165200</v>
       </c>
       <c r="G24" s="3">
-        <v>712600</v>
+        <v>1074400</v>
       </c>
       <c r="H24" s="3">
-        <v>1727200</v>
+        <v>718800</v>
       </c>
       <c r="I24" s="3">
-        <v>1542700</v>
+        <v>1742300</v>
       </c>
       <c r="J24" s="3">
+        <v>1556200</v>
+      </c>
+      <c r="K24" s="3">
         <v>1351600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2449700</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2369500</v>
+        <v>3573100</v>
       </c>
       <c r="E26" s="3">
-        <v>2208100</v>
+        <v>2390200</v>
       </c>
       <c r="F26" s="3">
-        <v>1109000</v>
+        <v>2227400</v>
       </c>
       <c r="G26" s="3">
-        <v>2756000</v>
+        <v>1118700</v>
       </c>
       <c r="H26" s="3">
-        <v>1493300</v>
+        <v>2780100</v>
       </c>
       <c r="I26" s="3">
-        <v>2342000</v>
+        <v>1506300</v>
       </c>
       <c r="J26" s="3">
+        <v>2362500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1212200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4493300</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1823800</v>
+        <v>3032600</v>
       </c>
       <c r="E27" s="3">
-        <v>1698600</v>
+        <v>1839700</v>
       </c>
       <c r="F27" s="3">
-        <v>433700</v>
+        <v>1713500</v>
       </c>
       <c r="G27" s="3">
-        <v>2420000</v>
+        <v>437500</v>
       </c>
       <c r="H27" s="3">
-        <v>1163900</v>
+        <v>2441200</v>
       </c>
       <c r="I27" s="3">
-        <v>2056600</v>
+        <v>1174100</v>
       </c>
       <c r="J27" s="3">
+        <v>2074500</v>
+      </c>
+      <c r="K27" s="3">
         <v>900400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4572000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1345,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,29 +1358,32 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>31800</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>2473800</v>
+        <v>32100</v>
       </c>
       <c r="G29" s="3">
-        <v>491900</v>
+        <v>2495400</v>
       </c>
       <c r="H29" s="3">
-        <v>-148200</v>
-      </c>
-      <c r="I29" s="3" t="s">
+        <v>496200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-149500</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-36200</v>
+        <v>-137300</v>
       </c>
       <c r="E32" s="3">
-        <v>393100</v>
+        <v>-36600</v>
       </c>
       <c r="F32" s="3">
-        <v>-136200</v>
+        <v>396500</v>
       </c>
       <c r="G32" s="3">
-        <v>-144900</v>
+        <v>-137300</v>
       </c>
       <c r="H32" s="3">
-        <v>-87800</v>
+        <v>-146200</v>
       </c>
       <c r="I32" s="3">
+        <v>-88600</v>
+      </c>
+      <c r="J32" s="3">
         <v>3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-45000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-38700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1823800</v>
+        <v>3032600</v>
       </c>
       <c r="E33" s="3">
-        <v>1730400</v>
+        <v>1839700</v>
       </c>
       <c r="F33" s="3">
-        <v>2907500</v>
+        <v>1745600</v>
       </c>
       <c r="G33" s="3">
-        <v>2911900</v>
+        <v>2932900</v>
       </c>
       <c r="H33" s="3">
-        <v>1015700</v>
+        <v>2937400</v>
       </c>
       <c r="I33" s="3">
-        <v>2056600</v>
+        <v>1024500</v>
       </c>
       <c r="J33" s="3">
+        <v>2074500</v>
+      </c>
+      <c r="K33" s="3">
         <v>900400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4572000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1823800</v>
+        <v>3032600</v>
       </c>
       <c r="E35" s="3">
-        <v>1730400</v>
+        <v>1839700</v>
       </c>
       <c r="F35" s="3">
-        <v>2907500</v>
+        <v>1745600</v>
       </c>
       <c r="G35" s="3">
-        <v>2911900</v>
+        <v>2932900</v>
       </c>
       <c r="H35" s="3">
-        <v>1015700</v>
+        <v>2937400</v>
       </c>
       <c r="I35" s="3">
-        <v>2056600</v>
+        <v>1024500</v>
       </c>
       <c r="J35" s="3">
+        <v>2074500</v>
+      </c>
+      <c r="K35" s="3">
         <v>900400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4572000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,278 +1647,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6186100</v>
+        <v>7192600</v>
       </c>
       <c r="E41" s="3">
-        <v>6379400</v>
+        <v>6252600</v>
       </c>
       <c r="F41" s="3">
-        <v>6977800</v>
+        <v>6447900</v>
       </c>
       <c r="G41" s="3">
-        <v>4907000</v>
+        <v>7052800</v>
       </c>
       <c r="H41" s="3">
-        <v>7420300</v>
+        <v>4959700</v>
       </c>
       <c r="I41" s="3">
-        <v>8237200</v>
+        <v>7500000</v>
       </c>
       <c r="J41" s="3">
+        <v>8325700</v>
+      </c>
+      <c r="K41" s="3">
         <v>10459500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9442100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3084300</v>
+        <v>5363700</v>
       </c>
       <c r="E42" s="3">
-        <v>9686600</v>
+        <v>3117400</v>
       </c>
       <c r="F42" s="3">
-        <v>2039000</v>
+        <v>9790700</v>
       </c>
       <c r="G42" s="3">
-        <v>1407600</v>
+        <v>2060900</v>
       </c>
       <c r="H42" s="3">
-        <v>269000</v>
+        <v>1422800</v>
       </c>
       <c r="I42" s="3">
-        <v>229500</v>
+        <v>271900</v>
       </c>
       <c r="J42" s="3">
+        <v>231900</v>
+      </c>
+      <c r="K42" s="3">
         <v>235000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1112800</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11661900</v>
+        <v>11949200</v>
       </c>
       <c r="E43" s="3">
-        <v>8300900</v>
+        <v>11787200</v>
       </c>
       <c r="F43" s="3">
-        <v>10044500</v>
+        <v>8390100</v>
       </c>
       <c r="G43" s="3">
-        <v>6514400</v>
+        <v>10152500</v>
       </c>
       <c r="H43" s="3">
-        <v>6186100</v>
+        <v>6584400</v>
       </c>
       <c r="I43" s="3">
-        <v>10751600</v>
+        <v>6252600</v>
       </c>
       <c r="J43" s="3">
+        <v>10867200</v>
+      </c>
+      <c r="K43" s="3">
         <v>11697000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7270600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1059600</v>
+        <v>1005500</v>
       </c>
       <c r="E44" s="3">
-        <v>908000</v>
+        <v>1071000</v>
       </c>
       <c r="F44" s="3">
-        <v>899300</v>
+        <v>917800</v>
       </c>
       <c r="G44" s="3">
-        <v>837800</v>
+        <v>908900</v>
       </c>
       <c r="H44" s="3">
-        <v>778500</v>
+        <v>846800</v>
       </c>
       <c r="I44" s="3">
-        <v>699400</v>
+        <v>786800</v>
       </c>
       <c r="J44" s="3">
+        <v>706900</v>
+      </c>
+      <c r="K44" s="3">
         <v>643400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>740700</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2044500</v>
+        <v>2219600</v>
       </c>
       <c r="E45" s="3">
-        <v>1738100</v>
+        <v>2066400</v>
       </c>
       <c r="F45" s="3">
-        <v>1833700</v>
+        <v>1756800</v>
       </c>
       <c r="G45" s="3">
-        <v>2047800</v>
+        <v>1853400</v>
       </c>
       <c r="H45" s="3">
-        <v>1226500</v>
+        <v>2069800</v>
       </c>
       <c r="I45" s="3">
-        <v>1415300</v>
+        <v>1239600</v>
       </c>
       <c r="J45" s="3">
+        <v>1430500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1173800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3190400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24036300</v>
+        <v>27730600</v>
       </c>
       <c r="E46" s="3">
-        <v>23867200</v>
+        <v>24294600</v>
       </c>
       <c r="F46" s="3">
-        <v>21794200</v>
+        <v>24123700</v>
       </c>
       <c r="G46" s="3">
-        <v>15714600</v>
+        <v>22028400</v>
       </c>
       <c r="H46" s="3">
-        <v>15880400</v>
+        <v>15883500</v>
       </c>
       <c r="I46" s="3">
-        <v>14762600</v>
+        <v>16051000</v>
       </c>
       <c r="J46" s="3">
+        <v>14921300</v>
+      </c>
+      <c r="K46" s="3">
         <v>17707400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21756600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4395300</v>
+        <v>2852200</v>
       </c>
       <c r="E47" s="3">
-        <v>8233900</v>
+        <v>4442500</v>
       </c>
       <c r="F47" s="3">
-        <v>5530600</v>
+        <v>8322400</v>
       </c>
       <c r="G47" s="3">
-        <v>1094700</v>
+        <v>5590100</v>
       </c>
       <c r="H47" s="3">
-        <v>5308800</v>
+        <v>1106500</v>
       </c>
       <c r="I47" s="3">
-        <v>11336900</v>
+        <v>5365900</v>
       </c>
       <c r="J47" s="3">
+        <v>11458700</v>
+      </c>
+      <c r="K47" s="3">
         <v>10534200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12992900</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30406900</v>
+        <v>38494500</v>
       </c>
       <c r="E48" s="3">
-        <v>58556300</v>
+        <v>30733700</v>
       </c>
       <c r="F48" s="3">
-        <v>28451400</v>
+        <v>59185600</v>
       </c>
       <c r="G48" s="3">
-        <v>27585100</v>
+        <v>28757100</v>
       </c>
       <c r="H48" s="3">
-        <v>25598800</v>
+        <v>27881500</v>
       </c>
       <c r="I48" s="3">
-        <v>50852800</v>
+        <v>25873900</v>
       </c>
       <c r="J48" s="3">
+        <v>51399300</v>
+      </c>
+      <c r="K48" s="3">
         <v>51961800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27741800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>45289200</v>
+        <v>47034400</v>
       </c>
       <c r="E49" s="3">
-        <v>61036700</v>
+        <v>45775900</v>
       </c>
       <c r="F49" s="3">
-        <v>45850300</v>
+        <v>61692700</v>
       </c>
       <c r="G49" s="3">
-        <v>45455000</v>
+        <v>46343000</v>
       </c>
       <c r="H49" s="3">
-        <v>40181300</v>
+        <v>45943500</v>
       </c>
       <c r="I49" s="3">
-        <v>53226600</v>
+        <v>40613100</v>
       </c>
       <c r="J49" s="3">
+        <v>53798700</v>
+      </c>
+      <c r="K49" s="3">
         <v>82549800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45406500</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1930300</v>
+        <v>1863400</v>
       </c>
       <c r="E52" s="3">
-        <v>2096100</v>
+        <v>1951000</v>
       </c>
       <c r="F52" s="3">
-        <v>3444400</v>
+        <v>2118600</v>
       </c>
       <c r="G52" s="3">
-        <v>10540800</v>
+        <v>3481400</v>
       </c>
       <c r="H52" s="3">
-        <v>10098300</v>
+        <v>10654100</v>
       </c>
       <c r="I52" s="3">
-        <v>5216600</v>
+        <v>10206800</v>
       </c>
       <c r="J52" s="3">
+        <v>5272700</v>
+      </c>
+      <c r="K52" s="3">
         <v>4554500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4885400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>106058000</v>
+        <v>117975000</v>
       </c>
       <c r="E54" s="3">
-        <v>104693000</v>
+        <v>107198000</v>
       </c>
       <c r="F54" s="3">
-        <v>103946000</v>
+        <v>105818000</v>
       </c>
       <c r="G54" s="3">
-        <v>100390000</v>
+        <v>105063000</v>
       </c>
       <c r="H54" s="3">
-        <v>97067600</v>
+        <v>101469000</v>
       </c>
       <c r="I54" s="3">
-        <v>94244600</v>
+        <v>98110800</v>
       </c>
       <c r="J54" s="3">
+        <v>95257500</v>
+      </c>
+      <c r="K54" s="3">
         <v>98798000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>112783000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,188 +2139,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7396100</v>
+        <v>7415700</v>
       </c>
       <c r="E57" s="3">
-        <v>7166600</v>
+        <v>7475600</v>
       </c>
       <c r="F57" s="3">
-        <v>6819700</v>
+        <v>7243700</v>
       </c>
       <c r="G57" s="3">
-        <v>6837200</v>
+        <v>6893000</v>
       </c>
       <c r="H57" s="3">
-        <v>6341000</v>
+        <v>6910700</v>
       </c>
       <c r="I57" s="3">
-        <v>6168600</v>
+        <v>6409100</v>
       </c>
       <c r="J57" s="3">
+        <v>6234900</v>
+      </c>
+      <c r="K57" s="3">
         <v>6215800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9567700</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7871600</v>
+        <v>10510900</v>
       </c>
       <c r="E58" s="3">
-        <v>16804900</v>
+        <v>13322000</v>
       </c>
       <c r="F58" s="3">
-        <v>9319800</v>
+        <v>16985500</v>
       </c>
       <c r="G58" s="3">
-        <v>3051300</v>
+        <v>9420000</v>
       </c>
       <c r="H58" s="3">
-        <v>5370300</v>
+        <v>3084100</v>
       </c>
       <c r="I58" s="3">
-        <v>15659700</v>
+        <v>5428000</v>
       </c>
       <c r="J58" s="3">
+        <v>15828000</v>
+      </c>
+      <c r="K58" s="3">
         <v>16259200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8755400</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17997300</v>
+        <v>12809300</v>
       </c>
       <c r="E59" s="3">
-        <v>13159500</v>
+        <v>12824800</v>
       </c>
       <c r="F59" s="3">
-        <v>12303100</v>
+        <v>13301000</v>
       </c>
       <c r="G59" s="3">
-        <v>13856800</v>
+        <v>12435300</v>
       </c>
       <c r="H59" s="3">
-        <v>10265200</v>
+        <v>14005700</v>
       </c>
       <c r="I59" s="3">
-        <v>10294800</v>
+        <v>10375500</v>
       </c>
       <c r="J59" s="3">
+        <v>10405500</v>
+      </c>
+      <c r="K59" s="3">
         <v>16813700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12397800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33265000</v>
+        <v>30735900</v>
       </c>
       <c r="E60" s="3">
-        <v>31904600</v>
+        <v>33622500</v>
       </c>
       <c r="F60" s="3">
-        <v>28442600</v>
+        <v>32247500</v>
       </c>
       <c r="G60" s="3">
-        <v>23745300</v>
+        <v>28748300</v>
       </c>
       <c r="H60" s="3">
-        <v>21976500</v>
+        <v>24000500</v>
       </c>
       <c r="I60" s="3">
-        <v>24327300</v>
+        <v>22212600</v>
       </c>
       <c r="J60" s="3">
+        <v>24588700</v>
+      </c>
+      <c r="K60" s="3">
         <v>27358900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30721000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29086000</v>
+        <v>42586400</v>
       </c>
       <c r="E61" s="3">
-        <v>28869700</v>
+        <v>29398600</v>
       </c>
       <c r="F61" s="3">
-        <v>31570800</v>
+        <v>29180000</v>
       </c>
       <c r="G61" s="3">
-        <v>32421700</v>
+        <v>31910100</v>
       </c>
       <c r="H61" s="3">
-        <v>32371200</v>
+        <v>32770200</v>
       </c>
       <c r="I61" s="3">
-        <v>33290300</v>
+        <v>32719100</v>
       </c>
       <c r="J61" s="3">
+        <v>33648000</v>
+      </c>
+      <c r="K61" s="3">
         <v>35029500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>40134900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7199600</v>
+        <v>6457900</v>
       </c>
       <c r="E62" s="3">
-        <v>7328100</v>
+        <v>7277000</v>
       </c>
       <c r="F62" s="3">
-        <v>7507000</v>
+        <v>7406800</v>
       </c>
       <c r="G62" s="3">
-        <v>7695900</v>
+        <v>7587700</v>
       </c>
       <c r="H62" s="3">
-        <v>7912200</v>
+        <v>7778600</v>
       </c>
       <c r="I62" s="3">
-        <v>7712400</v>
+        <v>7997200</v>
       </c>
       <c r="J62" s="3">
+        <v>7795200</v>
+      </c>
+      <c r="K62" s="3">
         <v>10722000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7191900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>72383500</v>
+        <v>82763300</v>
       </c>
       <c r="E66" s="3">
-        <v>70682700</v>
+        <v>73161300</v>
       </c>
       <c r="F66" s="3">
-        <v>70250000</v>
+        <v>71442300</v>
       </c>
       <c r="G66" s="3">
-        <v>66454300</v>
+        <v>71005000</v>
       </c>
       <c r="H66" s="3">
-        <v>64611800</v>
+        <v>67168400</v>
       </c>
       <c r="I66" s="3">
-        <v>67509400</v>
+        <v>65306200</v>
       </c>
       <c r="J66" s="3">
+        <v>68234900</v>
+      </c>
+      <c r="K66" s="3">
         <v>72110100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>80417700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2264100</v>
+        <v>-1190800</v>
       </c>
       <c r="E72" s="3">
-        <v>-2032400</v>
+        <v>-2288400</v>
       </c>
       <c r="F72" s="3">
-        <v>-5296800</v>
+        <v>-2054200</v>
       </c>
       <c r="G72" s="3">
-        <v>3866100</v>
+        <v>-5353700</v>
       </c>
       <c r="H72" s="3">
-        <v>2386000</v>
+        <v>3907600</v>
       </c>
       <c r="I72" s="3">
-        <v>-3334600</v>
+        <v>2411600</v>
       </c>
       <c r="J72" s="3">
+        <v>-3370500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3381800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1462600</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33674600</v>
+        <v>35211700</v>
       </c>
       <c r="E76" s="3">
-        <v>34010600</v>
+        <v>34036500</v>
       </c>
       <c r="F76" s="3">
-        <v>33695400</v>
+        <v>34376100</v>
       </c>
       <c r="G76" s="3">
-        <v>33935900</v>
+        <v>34057500</v>
       </c>
       <c r="H76" s="3">
-        <v>32455800</v>
+        <v>34300600</v>
       </c>
       <c r="I76" s="3">
-        <v>26735200</v>
+        <v>32804600</v>
       </c>
       <c r="J76" s="3">
+        <v>27022500</v>
+      </c>
+      <c r="K76" s="3">
         <v>26688000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32365500</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1823800</v>
+        <v>3032600</v>
       </c>
       <c r="E81" s="3">
-        <v>1730400</v>
+        <v>1839700</v>
       </c>
       <c r="F81" s="3">
-        <v>2907500</v>
+        <v>1745600</v>
       </c>
       <c r="G81" s="3">
-        <v>2911900</v>
+        <v>2932900</v>
       </c>
       <c r="H81" s="3">
-        <v>1015700</v>
+        <v>2937400</v>
       </c>
       <c r="I81" s="3">
-        <v>2056600</v>
+        <v>1024500</v>
       </c>
       <c r="J81" s="3">
+        <v>2074500</v>
+      </c>
+      <c r="K81" s="3">
         <v>900400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4572000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7737600</v>
+        <v>9247400</v>
       </c>
       <c r="E83" s="3">
-        <v>7516900</v>
+        <v>7805300</v>
       </c>
       <c r="F83" s="3">
-        <v>7387300</v>
+        <v>7582600</v>
       </c>
       <c r="G83" s="3">
-        <v>7098600</v>
+        <v>7451900</v>
       </c>
       <c r="H83" s="3">
-        <v>6629700</v>
+        <v>7160600</v>
       </c>
       <c r="I83" s="3">
-        <v>6645100</v>
+        <v>6687700</v>
       </c>
       <c r="J83" s="3">
+        <v>6703200</v>
+      </c>
+      <c r="K83" s="3">
         <v>6949200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7905600</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10437600</v>
+        <v>11252100</v>
       </c>
       <c r="E89" s="3">
-        <v>11171100</v>
+        <v>10528800</v>
       </c>
       <c r="F89" s="3">
-        <v>9607500</v>
+        <v>11268700</v>
       </c>
       <c r="G89" s="3">
-        <v>10460600</v>
+        <v>9691500</v>
       </c>
       <c r="H89" s="3">
-        <v>9664600</v>
+        <v>10552100</v>
       </c>
       <c r="I89" s="3">
-        <v>7970400</v>
+        <v>9749100</v>
       </c>
       <c r="J89" s="3">
+        <v>8040100</v>
+      </c>
+      <c r="K89" s="3">
         <v>10997600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15117500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8390900</v>
+        <v>-9328200</v>
       </c>
       <c r="E91" s="3">
-        <v>-8264600</v>
+        <v>-8464300</v>
       </c>
       <c r="F91" s="3">
-        <v>-9324200</v>
+        <v>-8336900</v>
       </c>
       <c r="G91" s="3">
-        <v>-8532600</v>
+        <v>-9405700</v>
       </c>
       <c r="H91" s="3">
-        <v>-6709900</v>
+        <v>-8607200</v>
       </c>
       <c r="I91" s="3">
-        <v>-6716500</v>
+        <v>-6768500</v>
       </c>
       <c r="J91" s="3">
+        <v>-6775200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7425800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7877400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9390100</v>
+        <v>-10378200</v>
       </c>
       <c r="E94" s="3">
-        <v>-8719200</v>
+        <v>-9472200</v>
       </c>
       <c r="F94" s="3">
-        <v>-5357100</v>
+        <v>-8795500</v>
       </c>
       <c r="G94" s="3">
-        <v>-10327800</v>
+        <v>-5404000</v>
       </c>
       <c r="H94" s="3">
-        <v>-6974500</v>
+        <v>-10418100</v>
       </c>
       <c r="I94" s="3">
-        <v>-6636300</v>
+        <v>-7035500</v>
       </c>
       <c r="J94" s="3">
+        <v>-6694300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5171600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7404400</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,38 +3293,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2042300</v>
+        <v>-2056800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1898400</v>
+        <v>-2060100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1752400</v>
+        <v>-1915000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1744700</v>
+        <v>-1767700</v>
       </c>
       <c r="H96" s="3">
-        <v>-2026900</v>
+        <v>-1760000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1442800</v>
+        <v>-2044600</v>
       </c>
       <c r="J96" s="3">
+        <v>-1455400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3987900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4346600</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1241800</v>
+        <v>60900</v>
       </c>
       <c r="E100" s="3">
-        <v>-3006300</v>
+        <v>-1252700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2067500</v>
+        <v>-3032600</v>
       </c>
       <c r="G100" s="3">
-        <v>-4308600</v>
+        <v>-2085600</v>
       </c>
       <c r="H100" s="3">
-        <v>-169100</v>
+        <v>-4346200</v>
       </c>
       <c r="I100" s="3">
-        <v>-3883600</v>
+        <v>-170600</v>
       </c>
       <c r="J100" s="3">
+        <v>-3917600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5569100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3357100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
-        <v>-43900</v>
-      </c>
       <c r="F101" s="3">
-        <v>-112000</v>
+        <v>-44300</v>
       </c>
       <c r="G101" s="3">
-        <v>1662400</v>
+        <v>-113000</v>
       </c>
       <c r="H101" s="3">
-        <v>-1616300</v>
+        <v>1676900</v>
       </c>
       <c r="I101" s="3">
-        <v>-71400</v>
+        <v>-1630400</v>
       </c>
       <c r="J101" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="K101" s="3">
         <v>28500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-91600</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-193200</v>
+        <v>938100</v>
       </c>
       <c r="E102" s="3">
-        <v>-598400</v>
+        <v>-194900</v>
       </c>
       <c r="F102" s="3">
-        <v>2070800</v>
+        <v>-603600</v>
       </c>
       <c r="G102" s="3">
-        <v>-2513300</v>
+        <v>2088900</v>
       </c>
       <c r="H102" s="3">
-        <v>904800</v>
+        <v>-2535300</v>
       </c>
       <c r="I102" s="3">
-        <v>-2620900</v>
+        <v>912700</v>
       </c>
       <c r="J102" s="3">
+        <v>-2643800</v>
+      </c>
+      <c r="K102" s="3">
         <v>285500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4264500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>46782800</v>
+        <v>49963300</v>
       </c>
       <c r="E8" s="3">
-        <v>45833600</v>
+        <v>48949600</v>
       </c>
       <c r="F8" s="3">
-        <v>45255400</v>
+        <v>48332100</v>
       </c>
       <c r="G8" s="3">
-        <v>45320800</v>
+        <v>48401900</v>
       </c>
       <c r="H8" s="3">
-        <v>44565400</v>
+        <v>47595200</v>
       </c>
       <c r="I8" s="3">
-        <v>43689300</v>
+        <v>46659500</v>
       </c>
       <c r="J8" s="3">
-        <v>45390600</v>
+        <v>48476400</v>
       </c>
       <c r="K8" s="3">
         <v>47779500</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19523700</v>
+        <v>20851000</v>
       </c>
       <c r="E9" s="3">
-        <v>19252300</v>
+        <v>20561200</v>
       </c>
       <c r="F9" s="3">
-        <v>19087300</v>
+        <v>20384900</v>
       </c>
       <c r="G9" s="3">
-        <v>18967700</v>
+        <v>20257200</v>
       </c>
       <c r="H9" s="3">
-        <v>18313100</v>
+        <v>19558100</v>
       </c>
       <c r="I9" s="3">
-        <v>19107200</v>
+        <v>20406200</v>
       </c>
       <c r="J9" s="3">
-        <v>19898000</v>
+        <v>21250800</v>
       </c>
       <c r="K9" s="3">
         <v>20971800</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>27259100</v>
+        <v>29112400</v>
       </c>
       <c r="E10" s="3">
-        <v>26581300</v>
+        <v>28388400</v>
       </c>
       <c r="F10" s="3">
-        <v>26168200</v>
+        <v>27947200</v>
       </c>
       <c r="G10" s="3">
-        <v>26353100</v>
+        <v>28144700</v>
       </c>
       <c r="H10" s="3">
-        <v>26252300</v>
+        <v>28037100</v>
       </c>
       <c r="I10" s="3">
-        <v>24582100</v>
+        <v>26253300</v>
       </c>
       <c r="J10" s="3">
-        <v>25492500</v>
+        <v>27225600</v>
       </c>
       <c r="K10" s="3">
         <v>26807700</v>
@@ -899,25 +899,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>285800</v>
+        <v>305200</v>
       </c>
       <c r="E14" s="3">
-        <v>324500</v>
+        <v>346600</v>
       </c>
       <c r="F14" s="3">
-        <v>1350200</v>
+        <v>1442000</v>
       </c>
       <c r="G14" s="3">
-        <v>2443400</v>
+        <v>2609500</v>
       </c>
       <c r="H14" s="3">
-        <v>642400</v>
+        <v>686100</v>
       </c>
       <c r="I14" s="3">
-        <v>838500</v>
+        <v>895500</v>
       </c>
       <c r="J14" s="3">
-        <v>1084300</v>
+        <v>1158100</v>
       </c>
       <c r="K14" s="3">
         <v>2062000</v>
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9247400</v>
+        <v>9876000</v>
       </c>
       <c r="E15" s="3">
-        <v>7805300</v>
+        <v>8335900</v>
       </c>
       <c r="F15" s="3">
-        <v>7582600</v>
+        <v>8098100</v>
       </c>
       <c r="G15" s="3">
-        <v>7451900</v>
+        <v>7958600</v>
       </c>
       <c r="H15" s="3">
-        <v>7160600</v>
+        <v>7647400</v>
       </c>
       <c r="I15" s="3">
-        <v>6687700</v>
+        <v>7142400</v>
       </c>
       <c r="J15" s="3">
-        <v>6703200</v>
+        <v>7158900</v>
       </c>
       <c r="K15" s="3">
         <v>6949200</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40218100</v>
+        <v>42952300</v>
       </c>
       <c r="E17" s="3">
-        <v>40485000</v>
+        <v>43237400</v>
       </c>
       <c r="F17" s="3">
-        <v>39963300</v>
+        <v>42680200</v>
       </c>
       <c r="G17" s="3">
-        <v>41639100</v>
+        <v>44469900</v>
       </c>
       <c r="H17" s="3">
-        <v>39313200</v>
+        <v>41985900</v>
       </c>
       <c r="I17" s="3">
-        <v>38626400</v>
+        <v>41252500</v>
       </c>
       <c r="J17" s="3">
-        <v>39533600</v>
+        <v>42221200</v>
       </c>
       <c r="K17" s="3">
         <v>43318300</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6564700</v>
+        <v>7011000</v>
       </c>
       <c r="E18" s="3">
-        <v>5348600</v>
+        <v>5712200</v>
       </c>
       <c r="F18" s="3">
-        <v>5292100</v>
+        <v>5651900</v>
       </c>
       <c r="G18" s="3">
-        <v>3681700</v>
+        <v>3932000</v>
       </c>
       <c r="H18" s="3">
-        <v>5252200</v>
+        <v>5609300</v>
       </c>
       <c r="I18" s="3">
-        <v>5062800</v>
+        <v>5407000</v>
       </c>
       <c r="J18" s="3">
-        <v>5857000</v>
+        <v>6255200</v>
       </c>
       <c r="K18" s="3">
         <v>4461200</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>137300</v>
+        <v>146700</v>
       </c>
       <c r="E20" s="3">
-        <v>36600</v>
+        <v>39000</v>
       </c>
       <c r="F20" s="3">
-        <v>-396500</v>
+        <v>-423500</v>
       </c>
       <c r="G20" s="3">
-        <v>137300</v>
+        <v>146700</v>
       </c>
       <c r="H20" s="3">
-        <v>146200</v>
+        <v>156100</v>
       </c>
       <c r="I20" s="3">
-        <v>88600</v>
+        <v>94600</v>
       </c>
       <c r="J20" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="K20" s="3">
         <v>45000</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15888500</v>
+        <v>17037200</v>
       </c>
       <c r="E21" s="3">
-        <v>13139000</v>
+        <v>14090000</v>
       </c>
       <c r="F21" s="3">
-        <v>12428200</v>
+        <v>13329400</v>
       </c>
       <c r="G21" s="3">
-        <v>11221800</v>
+        <v>12039900</v>
       </c>
       <c r="H21" s="3">
-        <v>12511900</v>
+        <v>13415600</v>
       </c>
       <c r="I21" s="3">
-        <v>11795100</v>
+        <v>12646500</v>
       </c>
       <c r="J21" s="3">
-        <v>12512700</v>
+        <v>13413000</v>
       </c>
       <c r="K21" s="3">
         <v>11466200</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1526300</v>
+        <v>1630000</v>
       </c>
       <c r="E22" s="3">
-        <v>1545100</v>
+        <v>1650100</v>
       </c>
       <c r="F22" s="3">
-        <v>1503000</v>
+        <v>1605200</v>
       </c>
       <c r="G22" s="3">
-        <v>1626000</v>
+        <v>1736500</v>
       </c>
       <c r="H22" s="3">
-        <v>1899500</v>
+        <v>2028700</v>
       </c>
       <c r="I22" s="3">
-        <v>1902900</v>
+        <v>2032200</v>
       </c>
       <c r="J22" s="3">
-        <v>1935000</v>
+        <v>2066500</v>
       </c>
       <c r="K22" s="3">
         <v>1942400</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5175800</v>
+        <v>5527700</v>
       </c>
       <c r="E23" s="3">
-        <v>3840000</v>
+        <v>4101100</v>
       </c>
       <c r="F23" s="3">
-        <v>3392600</v>
+        <v>3623200</v>
       </c>
       <c r="G23" s="3">
-        <v>2193000</v>
+        <v>2342100</v>
       </c>
       <c r="H23" s="3">
-        <v>3498900</v>
+        <v>3736800</v>
       </c>
       <c r="I23" s="3">
-        <v>3248600</v>
+        <v>3469400</v>
       </c>
       <c r="J23" s="3">
-        <v>3918700</v>
+        <v>4185100</v>
       </c>
       <c r="K23" s="3">
         <v>2563800</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1602700</v>
+        <v>1711700</v>
       </c>
       <c r="E24" s="3">
-        <v>1449800</v>
+        <v>1548400</v>
       </c>
       <c r="F24" s="3">
-        <v>1165200</v>
+        <v>1244400</v>
       </c>
       <c r="G24" s="3">
-        <v>1074400</v>
+        <v>1147400</v>
       </c>
       <c r="H24" s="3">
-        <v>718800</v>
+        <v>767700</v>
       </c>
       <c r="I24" s="3">
-        <v>1742300</v>
+        <v>1860700</v>
       </c>
       <c r="J24" s="3">
-        <v>1556200</v>
+        <v>1662000</v>
       </c>
       <c r="K24" s="3">
         <v>1351600</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3573100</v>
+        <v>3816000</v>
       </c>
       <c r="E26" s="3">
-        <v>2390200</v>
+        <v>2552700</v>
       </c>
       <c r="F26" s="3">
-        <v>2227400</v>
+        <v>2378800</v>
       </c>
       <c r="G26" s="3">
-        <v>1118700</v>
+        <v>1194700</v>
       </c>
       <c r="H26" s="3">
-        <v>2780100</v>
+        <v>2969100</v>
       </c>
       <c r="I26" s="3">
-        <v>1506300</v>
+        <v>1608700</v>
       </c>
       <c r="J26" s="3">
-        <v>2362500</v>
+        <v>2523100</v>
       </c>
       <c r="K26" s="3">
         <v>1212200</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3032600</v>
+        <v>3238800</v>
       </c>
       <c r="E27" s="3">
-        <v>1839700</v>
+        <v>1964800</v>
       </c>
       <c r="F27" s="3">
-        <v>1713500</v>
+        <v>1829900</v>
       </c>
       <c r="G27" s="3">
-        <v>437500</v>
+        <v>467200</v>
       </c>
       <c r="H27" s="3">
-        <v>2441200</v>
+        <v>2607100</v>
       </c>
       <c r="I27" s="3">
-        <v>1174100</v>
+        <v>1253900</v>
       </c>
       <c r="J27" s="3">
-        <v>2074500</v>
+        <v>2215600</v>
       </c>
       <c r="K27" s="3">
         <v>900400</v>
@@ -1361,16 +1361,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>32100</v>
+        <v>34300</v>
       </c>
       <c r="G29" s="3">
-        <v>2495400</v>
+        <v>2665100</v>
       </c>
       <c r="H29" s="3">
-        <v>496200</v>
+        <v>529900</v>
       </c>
       <c r="I29" s="3">
-        <v>-149500</v>
+        <v>-159700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-137300</v>
+        <v>-146700</v>
       </c>
       <c r="E32" s="3">
-        <v>-36600</v>
+        <v>-39000</v>
       </c>
       <c r="F32" s="3">
-        <v>396500</v>
+        <v>423500</v>
       </c>
       <c r="G32" s="3">
-        <v>-137300</v>
+        <v>-146700</v>
       </c>
       <c r="H32" s="3">
-        <v>-146200</v>
+        <v>-156100</v>
       </c>
       <c r="I32" s="3">
-        <v>-88600</v>
+        <v>-94600</v>
       </c>
       <c r="J32" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="K32" s="3">
         <v>-45000</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3032600</v>
+        <v>3238800</v>
       </c>
       <c r="E33" s="3">
-        <v>1839700</v>
+        <v>1964800</v>
       </c>
       <c r="F33" s="3">
-        <v>1745600</v>
+        <v>1864300</v>
       </c>
       <c r="G33" s="3">
-        <v>2932900</v>
+        <v>3132300</v>
       </c>
       <c r="H33" s="3">
-        <v>2937400</v>
+        <v>3137100</v>
       </c>
       <c r="I33" s="3">
-        <v>1024500</v>
+        <v>1094200</v>
       </c>
       <c r="J33" s="3">
-        <v>2074500</v>
+        <v>2215600</v>
       </c>
       <c r="K33" s="3">
         <v>900400</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3032600</v>
+        <v>3238800</v>
       </c>
       <c r="E35" s="3">
-        <v>1839700</v>
+        <v>1964800</v>
       </c>
       <c r="F35" s="3">
-        <v>1745600</v>
+        <v>1864300</v>
       </c>
       <c r="G35" s="3">
-        <v>2932900</v>
+        <v>3132300</v>
       </c>
       <c r="H35" s="3">
-        <v>2937400</v>
+        <v>3137100</v>
       </c>
       <c r="I35" s="3">
-        <v>1024500</v>
+        <v>1094200</v>
       </c>
       <c r="J35" s="3">
-        <v>2074500</v>
+        <v>2215600</v>
       </c>
       <c r="K35" s="3">
         <v>900400</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7192600</v>
+        <v>7666400</v>
       </c>
       <c r="E41" s="3">
-        <v>6252600</v>
+        <v>6664500</v>
       </c>
       <c r="F41" s="3">
-        <v>6447900</v>
+        <v>6872600</v>
       </c>
       <c r="G41" s="3">
-        <v>7052800</v>
+        <v>7517300</v>
       </c>
       <c r="H41" s="3">
-        <v>4959700</v>
+        <v>5286400</v>
       </c>
       <c r="I41" s="3">
-        <v>7500000</v>
+        <v>7994000</v>
       </c>
       <c r="J41" s="3">
-        <v>8325700</v>
+        <v>8874100</v>
       </c>
       <c r="K41" s="3">
         <v>10459500</v>
@@ -1687,25 +1687,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5363700</v>
+        <v>5717000</v>
       </c>
       <c r="E42" s="3">
-        <v>3117400</v>
+        <v>3322800</v>
       </c>
       <c r="F42" s="3">
-        <v>9790700</v>
+        <v>10435500</v>
       </c>
       <c r="G42" s="3">
-        <v>2060900</v>
+        <v>2196600</v>
       </c>
       <c r="H42" s="3">
-        <v>1422800</v>
+        <v>1516500</v>
       </c>
       <c r="I42" s="3">
-        <v>271900</v>
+        <v>289800</v>
       </c>
       <c r="J42" s="3">
-        <v>231900</v>
+        <v>247200</v>
       </c>
       <c r="K42" s="3">
         <v>235000</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11949200</v>
+        <v>12736300</v>
       </c>
       <c r="E43" s="3">
-        <v>11787200</v>
+        <v>12563600</v>
       </c>
       <c r="F43" s="3">
-        <v>8390100</v>
+        <v>8942700</v>
       </c>
       <c r="G43" s="3">
-        <v>10152500</v>
+        <v>10821200</v>
       </c>
       <c r="H43" s="3">
-        <v>6584400</v>
+        <v>7018100</v>
       </c>
       <c r="I43" s="3">
-        <v>6252600</v>
+        <v>6664500</v>
       </c>
       <c r="J43" s="3">
-        <v>10867200</v>
+        <v>11583000</v>
       </c>
       <c r="K43" s="3">
         <v>11697000</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1005500</v>
+        <v>1071700</v>
       </c>
       <c r="E44" s="3">
-        <v>1071000</v>
+        <v>1141500</v>
       </c>
       <c r="F44" s="3">
-        <v>917800</v>
+        <v>978300</v>
       </c>
       <c r="G44" s="3">
-        <v>908900</v>
+        <v>968800</v>
       </c>
       <c r="H44" s="3">
-        <v>846800</v>
+        <v>902600</v>
       </c>
       <c r="I44" s="3">
-        <v>786800</v>
+        <v>838700</v>
       </c>
       <c r="J44" s="3">
-        <v>706900</v>
+        <v>753500</v>
       </c>
       <c r="K44" s="3">
         <v>643400</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2219600</v>
+        <v>2365800</v>
       </c>
       <c r="E45" s="3">
-        <v>2066400</v>
+        <v>2202600</v>
       </c>
       <c r="F45" s="3">
-        <v>1756800</v>
+        <v>1872500</v>
       </c>
       <c r="G45" s="3">
-        <v>1853400</v>
+        <v>1975400</v>
       </c>
       <c r="H45" s="3">
-        <v>2069800</v>
+        <v>2206100</v>
       </c>
       <c r="I45" s="3">
-        <v>1239600</v>
+        <v>1321300</v>
       </c>
       <c r="J45" s="3">
-        <v>1430500</v>
+        <v>1524800</v>
       </c>
       <c r="K45" s="3">
         <v>1173800</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27730600</v>
+        <v>29557100</v>
       </c>
       <c r="E46" s="3">
-        <v>24294600</v>
+        <v>25894900</v>
       </c>
       <c r="F46" s="3">
-        <v>24123700</v>
+        <v>25712700</v>
       </c>
       <c r="G46" s="3">
-        <v>22028400</v>
+        <v>23479400</v>
       </c>
       <c r="H46" s="3">
-        <v>15883500</v>
+        <v>16929700</v>
       </c>
       <c r="I46" s="3">
-        <v>16051000</v>
+        <v>17108300</v>
       </c>
       <c r="J46" s="3">
-        <v>14921300</v>
+        <v>15904100</v>
       </c>
       <c r="K46" s="3">
         <v>17707400</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2852200</v>
+        <v>3040100</v>
       </c>
       <c r="E47" s="3">
-        <v>4442500</v>
+        <v>4735100</v>
       </c>
       <c r="F47" s="3">
-        <v>8322400</v>
+        <v>8870600</v>
       </c>
       <c r="G47" s="3">
-        <v>5590100</v>
+        <v>5958300</v>
       </c>
       <c r="H47" s="3">
-        <v>1106500</v>
+        <v>1179400</v>
       </c>
       <c r="I47" s="3">
-        <v>5365900</v>
+        <v>5719300</v>
       </c>
       <c r="J47" s="3">
-        <v>11458700</v>
+        <v>12213400</v>
       </c>
       <c r="K47" s="3">
         <v>10534200</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38494500</v>
+        <v>41030100</v>
       </c>
       <c r="E48" s="3">
-        <v>30733700</v>
+        <v>32758000</v>
       </c>
       <c r="F48" s="3">
-        <v>59185600</v>
+        <v>63084100</v>
       </c>
       <c r="G48" s="3">
-        <v>28757100</v>
+        <v>30651300</v>
       </c>
       <c r="H48" s="3">
-        <v>27881500</v>
+        <v>29718000</v>
       </c>
       <c r="I48" s="3">
-        <v>25873900</v>
+        <v>27578100</v>
       </c>
       <c r="J48" s="3">
-        <v>51399300</v>
+        <v>54784800</v>
       </c>
       <c r="K48" s="3">
         <v>51961800</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>47034400</v>
+        <v>50132500</v>
       </c>
       <c r="E49" s="3">
-        <v>45775900</v>
+        <v>48791100</v>
       </c>
       <c r="F49" s="3">
-        <v>61692700</v>
+        <v>65756200</v>
       </c>
       <c r="G49" s="3">
-        <v>46343000</v>
+        <v>49395500</v>
       </c>
       <c r="H49" s="3">
-        <v>45943500</v>
+        <v>48969700</v>
       </c>
       <c r="I49" s="3">
-        <v>40613100</v>
+        <v>43288200</v>
       </c>
       <c r="J49" s="3">
-        <v>53798700</v>
+        <v>57342300</v>
       </c>
       <c r="K49" s="3">
         <v>82549800</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1863400</v>
+        <v>1986100</v>
       </c>
       <c r="E52" s="3">
-        <v>1951000</v>
+        <v>2079500</v>
       </c>
       <c r="F52" s="3">
-        <v>2118600</v>
+        <v>2258200</v>
       </c>
       <c r="G52" s="3">
-        <v>3481400</v>
+        <v>3710800</v>
       </c>
       <c r="H52" s="3">
-        <v>10654100</v>
+        <v>11355800</v>
       </c>
       <c r="I52" s="3">
-        <v>10206800</v>
+        <v>10879100</v>
       </c>
       <c r="J52" s="3">
-        <v>5272700</v>
+        <v>5620000</v>
       </c>
       <c r="K52" s="3">
         <v>4554500</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>117975000</v>
+        <v>125746000</v>
       </c>
       <c r="E54" s="3">
-        <v>107198000</v>
+        <v>114259000</v>
       </c>
       <c r="F54" s="3">
-        <v>105818000</v>
+        <v>112788000</v>
       </c>
       <c r="G54" s="3">
-        <v>105063000</v>
+        <v>111983000</v>
       </c>
       <c r="H54" s="3">
-        <v>101469000</v>
+        <v>108153000</v>
       </c>
       <c r="I54" s="3">
-        <v>98110800</v>
+        <v>104573000</v>
       </c>
       <c r="J54" s="3">
-        <v>95257500</v>
+        <v>101532000</v>
       </c>
       <c r="K54" s="3">
         <v>98798000</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7415700</v>
+        <v>7904100</v>
       </c>
       <c r="E57" s="3">
-        <v>7475600</v>
+        <v>7968000</v>
       </c>
       <c r="F57" s="3">
-        <v>7243700</v>
+        <v>7720800</v>
       </c>
       <c r="G57" s="3">
-        <v>6893000</v>
+        <v>7347000</v>
       </c>
       <c r="H57" s="3">
-        <v>6910700</v>
+        <v>7365900</v>
       </c>
       <c r="I57" s="3">
-        <v>6409100</v>
+        <v>6831200</v>
       </c>
       <c r="J57" s="3">
-        <v>6234900</v>
+        <v>6645500</v>
       </c>
       <c r="K57" s="3">
         <v>6215800</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10510900</v>
+        <v>11203200</v>
       </c>
       <c r="E58" s="3">
-        <v>13322000</v>
+        <v>14199500</v>
       </c>
       <c r="F58" s="3">
-        <v>16985500</v>
+        <v>18104300</v>
       </c>
       <c r="G58" s="3">
-        <v>9420000</v>
+        <v>10040500</v>
       </c>
       <c r="H58" s="3">
-        <v>3084100</v>
+        <v>3287300</v>
       </c>
       <c r="I58" s="3">
-        <v>5428000</v>
+        <v>5785600</v>
       </c>
       <c r="J58" s="3">
-        <v>15828000</v>
+        <v>16870500</v>
       </c>
       <c r="K58" s="3">
         <v>16259200</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12809300</v>
+        <v>13653000</v>
       </c>
       <c r="E59" s="3">
-        <v>12824800</v>
+        <v>13669600</v>
       </c>
       <c r="F59" s="3">
-        <v>13301000</v>
+        <v>14177100</v>
       </c>
       <c r="G59" s="3">
-        <v>12435300</v>
+        <v>13254400</v>
       </c>
       <c r="H59" s="3">
-        <v>14005700</v>
+        <v>14928200</v>
       </c>
       <c r="I59" s="3">
-        <v>10375500</v>
+        <v>11058900</v>
       </c>
       <c r="J59" s="3">
-        <v>10405500</v>
+        <v>11090900</v>
       </c>
       <c r="K59" s="3">
         <v>16813700</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30735900</v>
+        <v>32760400</v>
       </c>
       <c r="E60" s="3">
-        <v>33622500</v>
+        <v>35837100</v>
       </c>
       <c r="F60" s="3">
-        <v>32247500</v>
+        <v>34371500</v>
       </c>
       <c r="G60" s="3">
-        <v>28748300</v>
+        <v>30641800</v>
       </c>
       <c r="H60" s="3">
-        <v>24000500</v>
+        <v>25581400</v>
       </c>
       <c r="I60" s="3">
-        <v>22212600</v>
+        <v>23675700</v>
       </c>
       <c r="J60" s="3">
-        <v>24588700</v>
+        <v>26208300</v>
       </c>
       <c r="K60" s="3">
         <v>27358900</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42586400</v>
+        <v>45391400</v>
       </c>
       <c r="E61" s="3">
-        <v>29398600</v>
+        <v>31335000</v>
       </c>
       <c r="F61" s="3">
-        <v>29180000</v>
+        <v>31102000</v>
       </c>
       <c r="G61" s="3">
-        <v>31910100</v>
+        <v>34011900</v>
       </c>
       <c r="H61" s="3">
-        <v>32770200</v>
+        <v>34928700</v>
       </c>
       <c r="I61" s="3">
-        <v>32719100</v>
+        <v>34874300</v>
       </c>
       <c r="J61" s="3">
-        <v>33648000</v>
+        <v>35864300</v>
       </c>
       <c r="K61" s="3">
         <v>35029500</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6457900</v>
+        <v>6883300</v>
       </c>
       <c r="E62" s="3">
-        <v>7277000</v>
+        <v>7756300</v>
       </c>
       <c r="F62" s="3">
-        <v>7406800</v>
+        <v>7894700</v>
       </c>
       <c r="G62" s="3">
-        <v>7587700</v>
+        <v>8087500</v>
       </c>
       <c r="H62" s="3">
-        <v>7778600</v>
+        <v>8290900</v>
       </c>
       <c r="I62" s="3">
-        <v>7997200</v>
+        <v>8524000</v>
       </c>
       <c r="J62" s="3">
-        <v>7795200</v>
+        <v>8308700</v>
       </c>
       <c r="K62" s="3">
         <v>10722000</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>82763300</v>
+        <v>88214800</v>
       </c>
       <c r="E66" s="3">
-        <v>73161300</v>
+        <v>77980300</v>
       </c>
       <c r="F66" s="3">
-        <v>71442300</v>
+        <v>76148000</v>
       </c>
       <c r="G66" s="3">
-        <v>71005000</v>
+        <v>75681900</v>
       </c>
       <c r="H66" s="3">
-        <v>67168400</v>
+        <v>71592700</v>
       </c>
       <c r="I66" s="3">
-        <v>65306200</v>
+        <v>69607800</v>
       </c>
       <c r="J66" s="3">
-        <v>68234900</v>
+        <v>72729400</v>
       </c>
       <c r="K66" s="3">
         <v>72110100</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1190800</v>
+        <v>-1269300</v>
       </c>
       <c r="E72" s="3">
-        <v>-2288400</v>
+        <v>-2439100</v>
       </c>
       <c r="F72" s="3">
-        <v>-2054200</v>
+        <v>-2189500</v>
       </c>
       <c r="G72" s="3">
-        <v>-5353700</v>
+        <v>-5706300</v>
       </c>
       <c r="H72" s="3">
-        <v>3907600</v>
+        <v>4165000</v>
       </c>
       <c r="I72" s="3">
-        <v>2411600</v>
+        <v>2570400</v>
       </c>
       <c r="J72" s="3">
-        <v>-3370500</v>
+        <v>-3592500</v>
       </c>
       <c r="K72" s="3">
         <v>-3381800</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35211700</v>
+        <v>37531100</v>
       </c>
       <c r="E76" s="3">
-        <v>34036500</v>
+        <v>36278400</v>
       </c>
       <c r="F76" s="3">
-        <v>34376100</v>
+        <v>36640300</v>
       </c>
       <c r="G76" s="3">
-        <v>34057500</v>
+        <v>36300800</v>
       </c>
       <c r="H76" s="3">
-        <v>34300600</v>
+        <v>36559900</v>
       </c>
       <c r="I76" s="3">
-        <v>32804600</v>
+        <v>34965300</v>
       </c>
       <c r="J76" s="3">
-        <v>27022500</v>
+        <v>28802400</v>
       </c>
       <c r="K76" s="3">
         <v>26688000</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3032600</v>
+        <v>3238800</v>
       </c>
       <c r="E81" s="3">
-        <v>1839700</v>
+        <v>1964800</v>
       </c>
       <c r="F81" s="3">
-        <v>1745600</v>
+        <v>1864300</v>
       </c>
       <c r="G81" s="3">
-        <v>2932900</v>
+        <v>3132300</v>
       </c>
       <c r="H81" s="3">
-        <v>2937400</v>
+        <v>3137100</v>
       </c>
       <c r="I81" s="3">
-        <v>1024500</v>
+        <v>1094200</v>
       </c>
       <c r="J81" s="3">
-        <v>2074500</v>
+        <v>2215600</v>
       </c>
       <c r="K81" s="3">
         <v>900400</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9247400</v>
+        <v>9876000</v>
       </c>
       <c r="E83" s="3">
-        <v>7805300</v>
+        <v>8335900</v>
       </c>
       <c r="F83" s="3">
-        <v>7582600</v>
+        <v>8098100</v>
       </c>
       <c r="G83" s="3">
-        <v>7451900</v>
+        <v>7958600</v>
       </c>
       <c r="H83" s="3">
-        <v>7160600</v>
+        <v>7647400</v>
       </c>
       <c r="I83" s="3">
-        <v>6687700</v>
+        <v>7142400</v>
       </c>
       <c r="J83" s="3">
-        <v>6703200</v>
+        <v>7158900</v>
       </c>
       <c r="K83" s="3">
         <v>6949200</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11252100</v>
+        <v>12017100</v>
       </c>
       <c r="E89" s="3">
-        <v>10528800</v>
+        <v>11244600</v>
       </c>
       <c r="F89" s="3">
-        <v>11268700</v>
+        <v>12034800</v>
       </c>
       <c r="G89" s="3">
-        <v>9691500</v>
+        <v>10350400</v>
       </c>
       <c r="H89" s="3">
-        <v>10552100</v>
+        <v>11269500</v>
       </c>
       <c r="I89" s="3">
-        <v>9749100</v>
+        <v>10411900</v>
       </c>
       <c r="J89" s="3">
-        <v>8040100</v>
+        <v>8586700</v>
       </c>
       <c r="K89" s="3">
         <v>10997600</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9328200</v>
+        <v>-9962400</v>
       </c>
       <c r="E91" s="3">
-        <v>-8464300</v>
+        <v>-9039700</v>
       </c>
       <c r="F91" s="3">
-        <v>-8336900</v>
+        <v>-8903700</v>
       </c>
       <c r="G91" s="3">
-        <v>-9405700</v>
+        <v>-10045200</v>
       </c>
       <c r="H91" s="3">
-        <v>-8607200</v>
+        <v>-9192300</v>
       </c>
       <c r="I91" s="3">
-        <v>-6768500</v>
+        <v>-7228700</v>
       </c>
       <c r="J91" s="3">
-        <v>-6775200</v>
+        <v>-7235800</v>
       </c>
       <c r="K91" s="3">
         <v>-7425800</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10378200</v>
+        <v>-11083800</v>
       </c>
       <c r="E94" s="3">
-        <v>-9472200</v>
+        <v>-10116200</v>
       </c>
       <c r="F94" s="3">
-        <v>-8795500</v>
+        <v>-9393400</v>
       </c>
       <c r="G94" s="3">
-        <v>-5404000</v>
+        <v>-5771400</v>
       </c>
       <c r="H94" s="3">
-        <v>-10418100</v>
+        <v>-11126400</v>
       </c>
       <c r="I94" s="3">
-        <v>-7035500</v>
+        <v>-7513800</v>
       </c>
       <c r="J94" s="3">
-        <v>-6694300</v>
+        <v>-7149400</v>
       </c>
       <c r="K94" s="3">
         <v>-5171600</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2056800</v>
+        <v>-2196600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2060100</v>
+        <v>-2200200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1915000</v>
+        <v>-2045200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1767700</v>
+        <v>-1887900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1760000</v>
+        <v>-1879600</v>
       </c>
       <c r="I96" s="3">
-        <v>-2044600</v>
+        <v>-2183600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1455400</v>
+        <v>-1554300</v>
       </c>
       <c r="K96" s="3">
         <v>-3987900</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>60900</v>
+        <v>65100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1252700</v>
+        <v>-1337900</v>
       </c>
       <c r="F100" s="3">
-        <v>-3032600</v>
+        <v>-3238800</v>
       </c>
       <c r="G100" s="3">
-        <v>-2085600</v>
+        <v>-2227400</v>
       </c>
       <c r="H100" s="3">
-        <v>-4346200</v>
+        <v>-4641700</v>
       </c>
       <c r="I100" s="3">
-        <v>-170600</v>
+        <v>-182200</v>
       </c>
       <c r="J100" s="3">
-        <v>-3917600</v>
+        <v>-4183900</v>
       </c>
       <c r="K100" s="3">
         <v>-5569100</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="E101" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F101" s="3">
-        <v>-44300</v>
+        <v>-47300</v>
       </c>
       <c r="G101" s="3">
-        <v>-113000</v>
+        <v>-120700</v>
       </c>
       <c r="H101" s="3">
-        <v>1676900</v>
+        <v>1790900</v>
       </c>
       <c r="I101" s="3">
-        <v>-1630400</v>
+        <v>-1741200</v>
       </c>
       <c r="J101" s="3">
-        <v>-72000</v>
+        <v>-76900</v>
       </c>
       <c r="K101" s="3">
         <v>28500</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>938100</v>
+        <v>1001900</v>
       </c>
       <c r="E102" s="3">
-        <v>-194900</v>
+        <v>-208200</v>
       </c>
       <c r="F102" s="3">
-        <v>-603600</v>
+        <v>-644700</v>
       </c>
       <c r="G102" s="3">
-        <v>2088900</v>
+        <v>2230900</v>
       </c>
       <c r="H102" s="3">
-        <v>-2535300</v>
+        <v>-2707700</v>
       </c>
       <c r="I102" s="3">
-        <v>912700</v>
+        <v>974700</v>
       </c>
       <c r="J102" s="3">
-        <v>-2643800</v>
+        <v>-2823600</v>
       </c>
       <c r="K102" s="3">
         <v>285500</v>

--- a/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49963300</v>
+        <v>50525100</v>
       </c>
       <c r="E8" s="3">
-        <v>48949600</v>
+        <v>49500000</v>
       </c>
       <c r="F8" s="3">
-        <v>48332100</v>
+        <v>48875500</v>
       </c>
       <c r="G8" s="3">
-        <v>48401900</v>
+        <v>48946100</v>
       </c>
       <c r="H8" s="3">
-        <v>47595200</v>
+        <v>48130300</v>
       </c>
       <c r="I8" s="3">
-        <v>46659500</v>
+        <v>47184100</v>
       </c>
       <c r="J8" s="3">
-        <v>48476400</v>
+        <v>49021500</v>
       </c>
       <c r="K8" s="3">
         <v>47779500</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20851000</v>
+        <v>21085400</v>
       </c>
       <c r="E9" s="3">
-        <v>20561200</v>
+        <v>20792300</v>
       </c>
       <c r="F9" s="3">
-        <v>20384900</v>
+        <v>20614100</v>
       </c>
       <c r="G9" s="3">
-        <v>20257200</v>
+        <v>20484900</v>
       </c>
       <c r="H9" s="3">
-        <v>19558100</v>
+        <v>19778000</v>
       </c>
       <c r="I9" s="3">
-        <v>20406200</v>
+        <v>20635600</v>
       </c>
       <c r="J9" s="3">
-        <v>21250800</v>
+        <v>21489700</v>
       </c>
       <c r="K9" s="3">
         <v>20971800</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29112400</v>
+        <v>29439700</v>
       </c>
       <c r="E10" s="3">
-        <v>28388400</v>
+        <v>28707600</v>
       </c>
       <c r="F10" s="3">
-        <v>27947200</v>
+        <v>28261400</v>
       </c>
       <c r="G10" s="3">
-        <v>28144700</v>
+        <v>28461200</v>
       </c>
       <c r="H10" s="3">
-        <v>28037100</v>
+        <v>28352300</v>
       </c>
       <c r="I10" s="3">
-        <v>26253300</v>
+        <v>26548500</v>
       </c>
       <c r="J10" s="3">
-        <v>27225600</v>
+        <v>27531700</v>
       </c>
       <c r="K10" s="3">
         <v>26807700</v>
@@ -899,25 +899,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>305200</v>
+        <v>308600</v>
       </c>
       <c r="E14" s="3">
-        <v>346600</v>
+        <v>350500</v>
       </c>
       <c r="F14" s="3">
-        <v>1442000</v>
+        <v>1458200</v>
       </c>
       <c r="G14" s="3">
-        <v>2609500</v>
+        <v>2638800</v>
       </c>
       <c r="H14" s="3">
-        <v>686100</v>
+        <v>693800</v>
       </c>
       <c r="I14" s="3">
-        <v>895500</v>
+        <v>905500</v>
       </c>
       <c r="J14" s="3">
-        <v>1158100</v>
+        <v>1171100</v>
       </c>
       <c r="K14" s="3">
         <v>2062000</v>
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9876000</v>
+        <v>9987100</v>
       </c>
       <c r="E15" s="3">
-        <v>8335900</v>
+        <v>8429600</v>
       </c>
       <c r="F15" s="3">
-        <v>8098100</v>
+        <v>8189200</v>
       </c>
       <c r="G15" s="3">
-        <v>7958600</v>
+        <v>8048000</v>
       </c>
       <c r="H15" s="3">
-        <v>7647400</v>
+        <v>7733400</v>
       </c>
       <c r="I15" s="3">
-        <v>7142400</v>
+        <v>7222700</v>
       </c>
       <c r="J15" s="3">
-        <v>7158900</v>
+        <v>7239400</v>
       </c>
       <c r="K15" s="3">
         <v>6949200</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42952300</v>
+        <v>43435200</v>
       </c>
       <c r="E17" s="3">
-        <v>43237400</v>
+        <v>43723500</v>
       </c>
       <c r="F17" s="3">
-        <v>42680200</v>
+        <v>43160100</v>
       </c>
       <c r="G17" s="3">
-        <v>44469900</v>
+        <v>44969900</v>
       </c>
       <c r="H17" s="3">
-        <v>41985900</v>
+        <v>42457900</v>
       </c>
       <c r="I17" s="3">
-        <v>41252500</v>
+        <v>41716300</v>
       </c>
       <c r="J17" s="3">
-        <v>42221200</v>
+        <v>42696000</v>
       </c>
       <c r="K17" s="3">
         <v>43318300</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7011000</v>
+        <v>7089900</v>
       </c>
       <c r="E18" s="3">
-        <v>5712200</v>
+        <v>5776400</v>
       </c>
       <c r="F18" s="3">
-        <v>5651900</v>
+        <v>5715400</v>
       </c>
       <c r="G18" s="3">
-        <v>3932000</v>
+        <v>3976200</v>
       </c>
       <c r="H18" s="3">
-        <v>5609300</v>
+        <v>5672400</v>
       </c>
       <c r="I18" s="3">
-        <v>5407000</v>
+        <v>5467800</v>
       </c>
       <c r="J18" s="3">
-        <v>6255200</v>
+        <v>6325500</v>
       </c>
       <c r="K18" s="3">
         <v>4461200</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>146700</v>
+        <v>148300</v>
       </c>
       <c r="E20" s="3">
-        <v>39000</v>
+        <v>39500</v>
       </c>
       <c r="F20" s="3">
-        <v>-423500</v>
+        <v>-428200</v>
       </c>
       <c r="G20" s="3">
-        <v>146700</v>
+        <v>148300</v>
       </c>
       <c r="H20" s="3">
-        <v>156100</v>
+        <v>157900</v>
       </c>
       <c r="I20" s="3">
-        <v>94600</v>
+        <v>95700</v>
       </c>
       <c r="J20" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="K20" s="3">
         <v>45000</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17037200</v>
+        <v>17184400</v>
       </c>
       <c r="E21" s="3">
-        <v>14090000</v>
+        <v>14211000</v>
       </c>
       <c r="F21" s="3">
-        <v>13329400</v>
+        <v>13442800</v>
       </c>
       <c r="G21" s="3">
-        <v>12039900</v>
+        <v>12139600</v>
       </c>
       <c r="H21" s="3">
-        <v>13415600</v>
+        <v>13532000</v>
       </c>
       <c r="I21" s="3">
-        <v>12646500</v>
+        <v>12756600</v>
       </c>
       <c r="J21" s="3">
-        <v>13413000</v>
+        <v>13531700</v>
       </c>
       <c r="K21" s="3">
         <v>11466200</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1630000</v>
+        <v>1648400</v>
       </c>
       <c r="E22" s="3">
-        <v>1650100</v>
+        <v>1668700</v>
       </c>
       <c r="F22" s="3">
-        <v>1605200</v>
+        <v>1623200</v>
       </c>
       <c r="G22" s="3">
-        <v>1736500</v>
+        <v>1756000</v>
       </c>
       <c r="H22" s="3">
-        <v>2028700</v>
+        <v>2051500</v>
       </c>
       <c r="I22" s="3">
-        <v>2032200</v>
+        <v>2055100</v>
       </c>
       <c r="J22" s="3">
-        <v>2066500</v>
+        <v>2089800</v>
       </c>
       <c r="K22" s="3">
         <v>1942400</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5527700</v>
+        <v>5589800</v>
       </c>
       <c r="E23" s="3">
-        <v>4101100</v>
+        <v>4147200</v>
       </c>
       <c r="F23" s="3">
-        <v>3623200</v>
+        <v>3664000</v>
       </c>
       <c r="G23" s="3">
-        <v>2342100</v>
+        <v>2368500</v>
       </c>
       <c r="H23" s="3">
-        <v>3736800</v>
+        <v>3778800</v>
       </c>
       <c r="I23" s="3">
-        <v>3469400</v>
+        <v>3508500</v>
       </c>
       <c r="J23" s="3">
-        <v>4185100</v>
+        <v>4232200</v>
       </c>
       <c r="K23" s="3">
         <v>2563800</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1711700</v>
+        <v>1730900</v>
       </c>
       <c r="E24" s="3">
-        <v>1548400</v>
+        <v>1565800</v>
       </c>
       <c r="F24" s="3">
-        <v>1244400</v>
+        <v>1258400</v>
       </c>
       <c r="G24" s="3">
-        <v>1147400</v>
+        <v>1160300</v>
       </c>
       <c r="H24" s="3">
-        <v>767700</v>
+        <v>776300</v>
       </c>
       <c r="I24" s="3">
-        <v>1860700</v>
+        <v>1881600</v>
       </c>
       <c r="J24" s="3">
-        <v>1662000</v>
+        <v>1680700</v>
       </c>
       <c r="K24" s="3">
         <v>1351600</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3816000</v>
+        <v>3858900</v>
       </c>
       <c r="E26" s="3">
-        <v>2552700</v>
+        <v>2581400</v>
       </c>
       <c r="F26" s="3">
-        <v>2378800</v>
+        <v>2405600</v>
       </c>
       <c r="G26" s="3">
-        <v>1194700</v>
+        <v>1208200</v>
       </c>
       <c r="H26" s="3">
-        <v>2969100</v>
+        <v>3002500</v>
       </c>
       <c r="I26" s="3">
-        <v>1608700</v>
+        <v>1626800</v>
       </c>
       <c r="J26" s="3">
-        <v>2523100</v>
+        <v>2551500</v>
       </c>
       <c r="K26" s="3">
         <v>1212200</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3238800</v>
+        <v>3275200</v>
       </c>
       <c r="E27" s="3">
-        <v>1964800</v>
+        <v>1986900</v>
       </c>
       <c r="F27" s="3">
-        <v>1829900</v>
+        <v>1850500</v>
       </c>
       <c r="G27" s="3">
-        <v>467200</v>
+        <v>472500</v>
       </c>
       <c r="H27" s="3">
-        <v>2607100</v>
+        <v>2636400</v>
       </c>
       <c r="I27" s="3">
-        <v>1253900</v>
+        <v>1268000</v>
       </c>
       <c r="J27" s="3">
-        <v>2215600</v>
+        <v>2240500</v>
       </c>
       <c r="K27" s="3">
         <v>900400</v>
@@ -1361,16 +1361,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>34300</v>
+        <v>34700</v>
       </c>
       <c r="G29" s="3">
-        <v>2665100</v>
+        <v>2695000</v>
       </c>
       <c r="H29" s="3">
-        <v>529900</v>
+        <v>535900</v>
       </c>
       <c r="I29" s="3">
-        <v>-159700</v>
+        <v>-161500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-146700</v>
+        <v>-148300</v>
       </c>
       <c r="E32" s="3">
-        <v>-39000</v>
+        <v>-39500</v>
       </c>
       <c r="F32" s="3">
-        <v>423500</v>
+        <v>428200</v>
       </c>
       <c r="G32" s="3">
-        <v>-146700</v>
+        <v>-148300</v>
       </c>
       <c r="H32" s="3">
-        <v>-156100</v>
+        <v>-157900</v>
       </c>
       <c r="I32" s="3">
-        <v>-94600</v>
+        <v>-95700</v>
       </c>
       <c r="J32" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K32" s="3">
         <v>-45000</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3238800</v>
+        <v>3275200</v>
       </c>
       <c r="E33" s="3">
-        <v>1964800</v>
+        <v>1986900</v>
       </c>
       <c r="F33" s="3">
-        <v>1864300</v>
+        <v>1885200</v>
       </c>
       <c r="G33" s="3">
-        <v>3132300</v>
+        <v>3167500</v>
       </c>
       <c r="H33" s="3">
-        <v>3137100</v>
+        <v>3172300</v>
       </c>
       <c r="I33" s="3">
-        <v>1094200</v>
+        <v>1106500</v>
       </c>
       <c r="J33" s="3">
-        <v>2215600</v>
+        <v>2240500</v>
       </c>
       <c r="K33" s="3">
         <v>900400</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3238800</v>
+        <v>3275200</v>
       </c>
       <c r="E35" s="3">
-        <v>1964800</v>
+        <v>1986900</v>
       </c>
       <c r="F35" s="3">
-        <v>1864300</v>
+        <v>1885200</v>
       </c>
       <c r="G35" s="3">
-        <v>3132300</v>
+        <v>3167500</v>
       </c>
       <c r="H35" s="3">
-        <v>3137100</v>
+        <v>3172300</v>
       </c>
       <c r="I35" s="3">
-        <v>1094200</v>
+        <v>1106500</v>
       </c>
       <c r="J35" s="3">
-        <v>2215600</v>
+        <v>2240500</v>
       </c>
       <c r="K35" s="3">
         <v>900400</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7666400</v>
+        <v>7752600</v>
       </c>
       <c r="E41" s="3">
-        <v>6664500</v>
+        <v>6739400</v>
       </c>
       <c r="F41" s="3">
-        <v>6872600</v>
+        <v>6949900</v>
       </c>
       <c r="G41" s="3">
-        <v>7517300</v>
+        <v>7601900</v>
       </c>
       <c r="H41" s="3">
-        <v>5286400</v>
+        <v>5345800</v>
       </c>
       <c r="I41" s="3">
-        <v>7994000</v>
+        <v>8083900</v>
       </c>
       <c r="J41" s="3">
-        <v>8874100</v>
+        <v>8973900</v>
       </c>
       <c r="K41" s="3">
         <v>10459500</v>
@@ -1687,25 +1687,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5717000</v>
+        <v>5781200</v>
       </c>
       <c r="E42" s="3">
-        <v>3322800</v>
+        <v>3360100</v>
       </c>
       <c r="F42" s="3">
-        <v>10435500</v>
+        <v>10552900</v>
       </c>
       <c r="G42" s="3">
-        <v>2196600</v>
+        <v>2221300</v>
       </c>
       <c r="H42" s="3">
-        <v>1516500</v>
+        <v>1533500</v>
       </c>
       <c r="I42" s="3">
-        <v>289800</v>
+        <v>293100</v>
       </c>
       <c r="J42" s="3">
-        <v>247200</v>
+        <v>250000</v>
       </c>
       <c r="K42" s="3">
         <v>235000</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12736300</v>
+        <v>12879500</v>
       </c>
       <c r="E43" s="3">
-        <v>12563600</v>
+        <v>12704800</v>
       </c>
       <c r="F43" s="3">
-        <v>8942700</v>
+        <v>9043300</v>
       </c>
       <c r="G43" s="3">
-        <v>10821200</v>
+        <v>10942800</v>
       </c>
       <c r="H43" s="3">
-        <v>7018100</v>
+        <v>7097100</v>
       </c>
       <c r="I43" s="3">
-        <v>6664500</v>
+        <v>6739400</v>
       </c>
       <c r="J43" s="3">
-        <v>11583000</v>
+        <v>11713200</v>
       </c>
       <c r="K43" s="3">
         <v>11697000</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1071700</v>
+        <v>1083800</v>
       </c>
       <c r="E44" s="3">
-        <v>1141500</v>
+        <v>1154300</v>
       </c>
       <c r="F44" s="3">
-        <v>978300</v>
+        <v>989300</v>
       </c>
       <c r="G44" s="3">
-        <v>968800</v>
+        <v>979700</v>
       </c>
       <c r="H44" s="3">
-        <v>902600</v>
+        <v>912700</v>
       </c>
       <c r="I44" s="3">
-        <v>838700</v>
+        <v>848100</v>
       </c>
       <c r="J44" s="3">
-        <v>753500</v>
+        <v>762000</v>
       </c>
       <c r="K44" s="3">
         <v>643400</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2365800</v>
+        <v>2392400</v>
       </c>
       <c r="E45" s="3">
-        <v>2202600</v>
+        <v>2227300</v>
       </c>
       <c r="F45" s="3">
-        <v>1872500</v>
+        <v>1893600</v>
       </c>
       <c r="G45" s="3">
-        <v>1975400</v>
+        <v>1997700</v>
       </c>
       <c r="H45" s="3">
-        <v>2206100</v>
+        <v>2230900</v>
       </c>
       <c r="I45" s="3">
-        <v>1321300</v>
+        <v>1336200</v>
       </c>
       <c r="J45" s="3">
-        <v>1524800</v>
+        <v>1541900</v>
       </c>
       <c r="K45" s="3">
         <v>1173800</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29557100</v>
+        <v>29889400</v>
       </c>
       <c r="E46" s="3">
-        <v>25894900</v>
+        <v>26186000</v>
       </c>
       <c r="F46" s="3">
-        <v>25712700</v>
+        <v>26001800</v>
       </c>
       <c r="G46" s="3">
-        <v>23479400</v>
+        <v>23743400</v>
       </c>
       <c r="H46" s="3">
-        <v>16929700</v>
+        <v>17120000</v>
       </c>
       <c r="I46" s="3">
-        <v>17108300</v>
+        <v>17300600</v>
       </c>
       <c r="J46" s="3">
-        <v>15904100</v>
+        <v>16082900</v>
       </c>
       <c r="K46" s="3">
         <v>17707400</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3040100</v>
+        <v>3074200</v>
       </c>
       <c r="E47" s="3">
-        <v>4735100</v>
+        <v>4788400</v>
       </c>
       <c r="F47" s="3">
-        <v>8870600</v>
+        <v>8970300</v>
       </c>
       <c r="G47" s="3">
-        <v>5958300</v>
+        <v>6025300</v>
       </c>
       <c r="H47" s="3">
-        <v>1179400</v>
+        <v>1192600</v>
       </c>
       <c r="I47" s="3">
-        <v>5719300</v>
+        <v>5783600</v>
       </c>
       <c r="J47" s="3">
-        <v>12213400</v>
+        <v>12350800</v>
       </c>
       <c r="K47" s="3">
         <v>10534200</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41030100</v>
+        <v>41491400</v>
       </c>
       <c r="E48" s="3">
-        <v>32758000</v>
+        <v>33126400</v>
       </c>
       <c r="F48" s="3">
-        <v>63084100</v>
+        <v>63793300</v>
       </c>
       <c r="G48" s="3">
-        <v>30651300</v>
+        <v>30995900</v>
       </c>
       <c r="H48" s="3">
-        <v>29718000</v>
+        <v>30052100</v>
       </c>
       <c r="I48" s="3">
-        <v>27578100</v>
+        <v>27888200</v>
       </c>
       <c r="J48" s="3">
-        <v>54784800</v>
+        <v>55400800</v>
       </c>
       <c r="K48" s="3">
         <v>51961800</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>50132500</v>
+        <v>50696200</v>
       </c>
       <c r="E49" s="3">
-        <v>48791100</v>
+        <v>49339700</v>
       </c>
       <c r="F49" s="3">
-        <v>65756200</v>
+        <v>66495600</v>
       </c>
       <c r="G49" s="3">
-        <v>49395500</v>
+        <v>49950900</v>
       </c>
       <c r="H49" s="3">
-        <v>48969700</v>
+        <v>49520300</v>
       </c>
       <c r="I49" s="3">
-        <v>43288200</v>
+        <v>43774900</v>
       </c>
       <c r="J49" s="3">
-        <v>57342300</v>
+        <v>57987000</v>
       </c>
       <c r="K49" s="3">
         <v>82549800</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1986100</v>
+        <v>2008400</v>
       </c>
       <c r="E52" s="3">
-        <v>2079500</v>
+        <v>2102900</v>
       </c>
       <c r="F52" s="3">
-        <v>2258200</v>
+        <v>2283500</v>
       </c>
       <c r="G52" s="3">
-        <v>3710800</v>
+        <v>3752500</v>
       </c>
       <c r="H52" s="3">
-        <v>11355800</v>
+        <v>11483500</v>
       </c>
       <c r="I52" s="3">
-        <v>10879100</v>
+        <v>11001500</v>
       </c>
       <c r="J52" s="3">
-        <v>5620000</v>
+        <v>5683100</v>
       </c>
       <c r="K52" s="3">
         <v>4554500</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>125746000</v>
+        <v>127160000</v>
       </c>
       <c r="E54" s="3">
-        <v>114259000</v>
+        <v>115543000</v>
       </c>
       <c r="F54" s="3">
-        <v>112788000</v>
+        <v>114057000</v>
       </c>
       <c r="G54" s="3">
-        <v>111983000</v>
+        <v>113242000</v>
       </c>
       <c r="H54" s="3">
-        <v>108153000</v>
+        <v>109369000</v>
       </c>
       <c r="I54" s="3">
-        <v>104573000</v>
+        <v>105749000</v>
       </c>
       <c r="J54" s="3">
-        <v>101532000</v>
+        <v>102673000</v>
       </c>
       <c r="K54" s="3">
         <v>98798000</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7904100</v>
+        <v>7993000</v>
       </c>
       <c r="E57" s="3">
-        <v>7968000</v>
+        <v>8057600</v>
       </c>
       <c r="F57" s="3">
-        <v>7720800</v>
+        <v>7807600</v>
       </c>
       <c r="G57" s="3">
-        <v>7347000</v>
+        <v>7429600</v>
       </c>
       <c r="H57" s="3">
-        <v>7365900</v>
+        <v>7448700</v>
       </c>
       <c r="I57" s="3">
-        <v>6831200</v>
+        <v>6908100</v>
       </c>
       <c r="J57" s="3">
-        <v>6645500</v>
+        <v>6720300</v>
       </c>
       <c r="K57" s="3">
         <v>6215800</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11203200</v>
+        <v>11329200</v>
       </c>
       <c r="E58" s="3">
-        <v>14199500</v>
+        <v>14359200</v>
       </c>
       <c r="F58" s="3">
-        <v>18104300</v>
+        <v>18307800</v>
       </c>
       <c r="G58" s="3">
-        <v>10040500</v>
+        <v>10153300</v>
       </c>
       <c r="H58" s="3">
-        <v>3287300</v>
+        <v>3324200</v>
       </c>
       <c r="I58" s="3">
-        <v>5785600</v>
+        <v>5850600</v>
       </c>
       <c r="J58" s="3">
-        <v>16870500</v>
+        <v>17060200</v>
       </c>
       <c r="K58" s="3">
         <v>16259200</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13653000</v>
+        <v>13806500</v>
       </c>
       <c r="E59" s="3">
-        <v>13669600</v>
+        <v>13823300</v>
       </c>
       <c r="F59" s="3">
-        <v>14177100</v>
+        <v>14336500</v>
       </c>
       <c r="G59" s="3">
-        <v>13254400</v>
+        <v>13403400</v>
       </c>
       <c r="H59" s="3">
-        <v>14928200</v>
+        <v>15096000</v>
       </c>
       <c r="I59" s="3">
-        <v>11058900</v>
+        <v>11183300</v>
       </c>
       <c r="J59" s="3">
-        <v>11090900</v>
+        <v>11215600</v>
       </c>
       <c r="K59" s="3">
         <v>16813700</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32760400</v>
+        <v>33128800</v>
       </c>
       <c r="E60" s="3">
-        <v>35837100</v>
+        <v>36240100</v>
       </c>
       <c r="F60" s="3">
-        <v>34371500</v>
+        <v>34758000</v>
       </c>
       <c r="G60" s="3">
-        <v>30641800</v>
+        <v>30986400</v>
       </c>
       <c r="H60" s="3">
-        <v>25581400</v>
+        <v>25869000</v>
       </c>
       <c r="I60" s="3">
-        <v>23675700</v>
+        <v>23941900</v>
       </c>
       <c r="J60" s="3">
-        <v>26208300</v>
+        <v>26503000</v>
       </c>
       <c r="K60" s="3">
         <v>27358900</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>45391400</v>
+        <v>45901800</v>
       </c>
       <c r="E61" s="3">
-        <v>31335000</v>
+        <v>31687300</v>
       </c>
       <c r="F61" s="3">
-        <v>31102000</v>
+        <v>31451700</v>
       </c>
       <c r="G61" s="3">
-        <v>34011900</v>
+        <v>34394300</v>
       </c>
       <c r="H61" s="3">
-        <v>34928700</v>
+        <v>35321400</v>
       </c>
       <c r="I61" s="3">
-        <v>34874300</v>
+        <v>35266400</v>
       </c>
       <c r="J61" s="3">
-        <v>35864300</v>
+        <v>36267600</v>
       </c>
       <c r="K61" s="3">
         <v>35029500</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6883300</v>
+        <v>6960700</v>
       </c>
       <c r="E62" s="3">
-        <v>7756300</v>
+        <v>7843500</v>
       </c>
       <c r="F62" s="3">
-        <v>7894700</v>
+        <v>7983400</v>
       </c>
       <c r="G62" s="3">
-        <v>8087500</v>
+        <v>8178400</v>
       </c>
       <c r="H62" s="3">
-        <v>8290900</v>
+        <v>8384200</v>
       </c>
       <c r="I62" s="3">
-        <v>8524000</v>
+        <v>8619800</v>
       </c>
       <c r="J62" s="3">
-        <v>8308700</v>
+        <v>8402100</v>
       </c>
       <c r="K62" s="3">
         <v>10722000</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>88214800</v>
+        <v>89206600</v>
       </c>
       <c r="E66" s="3">
-        <v>77980300</v>
+        <v>78857100</v>
       </c>
       <c r="F66" s="3">
-        <v>76148000</v>
+        <v>77004200</v>
       </c>
       <c r="G66" s="3">
-        <v>75681900</v>
+        <v>76532900</v>
       </c>
       <c r="H66" s="3">
-        <v>71592700</v>
+        <v>72397600</v>
       </c>
       <c r="I66" s="3">
-        <v>69607800</v>
+        <v>70390400</v>
       </c>
       <c r="J66" s="3">
-        <v>72729400</v>
+        <v>73547200</v>
       </c>
       <c r="K66" s="3">
         <v>72110100</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1269300</v>
+        <v>-1283500</v>
       </c>
       <c r="E72" s="3">
-        <v>-2439100</v>
+        <v>-2466600</v>
       </c>
       <c r="F72" s="3">
-        <v>-2189500</v>
+        <v>-2214200</v>
       </c>
       <c r="G72" s="3">
-        <v>-5706300</v>
+        <v>-5770500</v>
       </c>
       <c r="H72" s="3">
-        <v>4165000</v>
+        <v>4211800</v>
       </c>
       <c r="I72" s="3">
-        <v>2570400</v>
+        <v>2599300</v>
       </c>
       <c r="J72" s="3">
-        <v>-3592500</v>
+        <v>-3632900</v>
       </c>
       <c r="K72" s="3">
         <v>-3381800</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37531100</v>
+        <v>37953000</v>
       </c>
       <c r="E76" s="3">
-        <v>36278400</v>
+        <v>36686300</v>
       </c>
       <c r="F76" s="3">
-        <v>36640300</v>
+        <v>37052300</v>
       </c>
       <c r="G76" s="3">
-        <v>36300800</v>
+        <v>36709000</v>
       </c>
       <c r="H76" s="3">
-        <v>36559900</v>
+        <v>36971000</v>
       </c>
       <c r="I76" s="3">
-        <v>34965300</v>
+        <v>35358500</v>
       </c>
       <c r="J76" s="3">
-        <v>28802400</v>
+        <v>29126300</v>
       </c>
       <c r="K76" s="3">
         <v>26688000</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3238800</v>
+        <v>3275200</v>
       </c>
       <c r="E81" s="3">
-        <v>1964800</v>
+        <v>1986900</v>
       </c>
       <c r="F81" s="3">
-        <v>1864300</v>
+        <v>1885200</v>
       </c>
       <c r="G81" s="3">
-        <v>3132300</v>
+        <v>3167500</v>
       </c>
       <c r="H81" s="3">
-        <v>3137100</v>
+        <v>3172300</v>
       </c>
       <c r="I81" s="3">
-        <v>1094200</v>
+        <v>1106500</v>
       </c>
       <c r="J81" s="3">
-        <v>2215600</v>
+        <v>2240500</v>
       </c>
       <c r="K81" s="3">
         <v>900400</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9876000</v>
+        <v>9987100</v>
       </c>
       <c r="E83" s="3">
-        <v>8335900</v>
+        <v>8429600</v>
       </c>
       <c r="F83" s="3">
-        <v>8098100</v>
+        <v>8189200</v>
       </c>
       <c r="G83" s="3">
-        <v>7958600</v>
+        <v>8048000</v>
       </c>
       <c r="H83" s="3">
-        <v>7647400</v>
+        <v>7733400</v>
       </c>
       <c r="I83" s="3">
-        <v>7142400</v>
+        <v>7222700</v>
       </c>
       <c r="J83" s="3">
-        <v>7158900</v>
+        <v>7239400</v>
       </c>
       <c r="K83" s="3">
         <v>6949200</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12017100</v>
+        <v>12152200</v>
       </c>
       <c r="E89" s="3">
-        <v>11244600</v>
+        <v>11371100</v>
       </c>
       <c r="F89" s="3">
-        <v>12034800</v>
+        <v>12170100</v>
       </c>
       <c r="G89" s="3">
-        <v>10350400</v>
+        <v>10466800</v>
       </c>
       <c r="H89" s="3">
-        <v>11269500</v>
+        <v>11396200</v>
       </c>
       <c r="I89" s="3">
-        <v>10411900</v>
+        <v>10529000</v>
       </c>
       <c r="J89" s="3">
-        <v>8586700</v>
+        <v>8683200</v>
       </c>
       <c r="K89" s="3">
         <v>10997600</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9962400</v>
+        <v>-10074400</v>
       </c>
       <c r="E91" s="3">
-        <v>-9039700</v>
+        <v>-9141400</v>
       </c>
       <c r="F91" s="3">
-        <v>-8903700</v>
+        <v>-9003800</v>
       </c>
       <c r="G91" s="3">
-        <v>-10045200</v>
+        <v>-10158100</v>
       </c>
       <c r="H91" s="3">
-        <v>-9192300</v>
+        <v>-9295700</v>
       </c>
       <c r="I91" s="3">
-        <v>-7228700</v>
+        <v>-7310000</v>
       </c>
       <c r="J91" s="3">
-        <v>-7235800</v>
+        <v>-7317200</v>
       </c>
       <c r="K91" s="3">
         <v>-7425800</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11083800</v>
+        <v>-11208400</v>
       </c>
       <c r="E94" s="3">
-        <v>-10116200</v>
+        <v>-10229900</v>
       </c>
       <c r="F94" s="3">
-        <v>-9393400</v>
+        <v>-9499000</v>
       </c>
       <c r="G94" s="3">
-        <v>-5771400</v>
+        <v>-5836300</v>
       </c>
       <c r="H94" s="3">
-        <v>-11126400</v>
+        <v>-11251500</v>
       </c>
       <c r="I94" s="3">
-        <v>-7513800</v>
+        <v>-7598300</v>
       </c>
       <c r="J94" s="3">
-        <v>-7149400</v>
+        <v>-7229800</v>
       </c>
       <c r="K94" s="3">
         <v>-5171600</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2196600</v>
+        <v>-2221300</v>
       </c>
       <c r="E96" s="3">
-        <v>-2200200</v>
+        <v>-2224900</v>
       </c>
       <c r="F96" s="3">
-        <v>-2045200</v>
+        <v>-2068200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1887900</v>
+        <v>-1909100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1879600</v>
+        <v>-1900800</v>
       </c>
       <c r="I96" s="3">
-        <v>-2183600</v>
+        <v>-2208200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1554300</v>
+        <v>-1571800</v>
       </c>
       <c r="K96" s="3">
         <v>-3987900</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>65100</v>
+        <v>65800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1337900</v>
+        <v>-1352900</v>
       </c>
       <c r="F100" s="3">
-        <v>-3238800</v>
+        <v>-3275200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2227400</v>
+        <v>-2252400</v>
       </c>
       <c r="H100" s="3">
-        <v>-4641700</v>
+        <v>-4693900</v>
       </c>
       <c r="I100" s="3">
-        <v>-182200</v>
+        <v>-184200</v>
       </c>
       <c r="J100" s="3">
-        <v>-4183900</v>
+        <v>-4231000</v>
       </c>
       <c r="K100" s="3">
         <v>-5569100</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E101" s="3">
         <v>1200</v>
       </c>
       <c r="F101" s="3">
-        <v>-47300</v>
+        <v>-47800</v>
       </c>
       <c r="G101" s="3">
-        <v>-120700</v>
+        <v>-122000</v>
       </c>
       <c r="H101" s="3">
-        <v>1790900</v>
+        <v>1811000</v>
       </c>
       <c r="I101" s="3">
-        <v>-1741200</v>
+        <v>-1760800</v>
       </c>
       <c r="J101" s="3">
-        <v>-76900</v>
+        <v>-77800</v>
       </c>
       <c r="K101" s="3">
         <v>28500</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1001900</v>
+        <v>1013200</v>
       </c>
       <c r="E102" s="3">
-        <v>-208200</v>
+        <v>-210500</v>
       </c>
       <c r="F102" s="3">
-        <v>-644700</v>
+        <v>-651900</v>
       </c>
       <c r="G102" s="3">
-        <v>2230900</v>
+        <v>2256000</v>
       </c>
       <c r="H102" s="3">
-        <v>-2707700</v>
+        <v>-2738100</v>
       </c>
       <c r="I102" s="3">
-        <v>974700</v>
+        <v>985700</v>
       </c>
       <c r="J102" s="3">
-        <v>-2823600</v>
+        <v>-2855300</v>
       </c>
       <c r="K102" s="3">
         <v>285500</v>

--- a/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>50525100</v>
+        <v>49726400</v>
       </c>
       <c r="E8" s="3">
-        <v>49500000</v>
+        <v>49688800</v>
       </c>
       <c r="F8" s="3">
-        <v>48875500</v>
+        <v>48680600</v>
       </c>
       <c r="G8" s="3">
-        <v>48946100</v>
+        <v>48066500</v>
       </c>
       <c r="H8" s="3">
-        <v>48130300</v>
+        <v>48135900</v>
       </c>
       <c r="I8" s="3">
-        <v>47184100</v>
+        <v>47333600</v>
       </c>
       <c r="J8" s="3">
+        <v>46403100</v>
+      </c>
+      <c r="K8" s="3">
         <v>49021500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>47779500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>53146600</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>21085400</v>
+        <v>19768200</v>
       </c>
       <c r="E9" s="3">
-        <v>20792300</v>
+        <v>19758800</v>
       </c>
       <c r="F9" s="3">
-        <v>20614100</v>
+        <v>20448200</v>
       </c>
       <c r="G9" s="3">
-        <v>20484900</v>
+        <v>20272900</v>
       </c>
       <c r="H9" s="3">
-        <v>19778000</v>
+        <v>20145900</v>
       </c>
       <c r="I9" s="3">
-        <v>20635600</v>
+        <v>19450600</v>
       </c>
       <c r="J9" s="3">
+        <v>20294100</v>
+      </c>
+      <c r="K9" s="3">
         <v>21489700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20971800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23051300</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29439700</v>
+        <v>29958200</v>
       </c>
       <c r="E10" s="3">
-        <v>28707600</v>
+        <v>29930000</v>
       </c>
       <c r="F10" s="3">
-        <v>28261400</v>
+        <v>28232400</v>
       </c>
       <c r="G10" s="3">
-        <v>28461200</v>
+        <v>27793600</v>
       </c>
       <c r="H10" s="3">
-        <v>28352300</v>
+        <v>27990100</v>
       </c>
       <c r="I10" s="3">
-        <v>26548500</v>
+        <v>27883000</v>
       </c>
       <c r="J10" s="3">
+        <v>26109000</v>
+      </c>
+      <c r="K10" s="3">
         <v>27531700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26807700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>30095300</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,75 +908,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>308600</v>
+        <v>469400</v>
       </c>
       <c r="E14" s="3">
-        <v>350500</v>
+        <v>338800</v>
       </c>
       <c r="F14" s="3">
-        <v>1458200</v>
+        <v>344700</v>
       </c>
       <c r="G14" s="3">
-        <v>2638800</v>
+        <v>1434000</v>
       </c>
       <c r="H14" s="3">
-        <v>693800</v>
+        <v>2595100</v>
       </c>
       <c r="I14" s="3">
-        <v>905500</v>
+        <v>682300</v>
       </c>
       <c r="J14" s="3">
+        <v>890500</v>
+      </c>
+      <c r="K14" s="3">
         <v>1171100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2062000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>569300</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9987100</v>
+        <v>10020600</v>
       </c>
       <c r="E15" s="3">
-        <v>8429600</v>
+        <v>9862900</v>
       </c>
       <c r="F15" s="3">
-        <v>8189200</v>
+        <v>8290100</v>
       </c>
       <c r="G15" s="3">
-        <v>8048000</v>
+        <v>8053600</v>
       </c>
       <c r="H15" s="3">
-        <v>7733400</v>
+        <v>7914800</v>
       </c>
       <c r="I15" s="3">
-        <v>7222700</v>
+        <v>7605400</v>
       </c>
       <c r="J15" s="3">
+        <v>7103100</v>
+      </c>
+      <c r="K15" s="3">
         <v>7239400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6949200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7905600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>43435200</v>
+        <v>43231500</v>
       </c>
       <c r="E17" s="3">
-        <v>43723500</v>
+        <v>42712700</v>
       </c>
       <c r="F17" s="3">
-        <v>43160100</v>
+        <v>42999800</v>
       </c>
       <c r="G17" s="3">
-        <v>44969900</v>
+        <v>42445700</v>
       </c>
       <c r="H17" s="3">
-        <v>42457900</v>
+        <v>44225600</v>
       </c>
       <c r="I17" s="3">
-        <v>41716300</v>
+        <v>41755100</v>
       </c>
       <c r="J17" s="3">
+        <v>41025800</v>
+      </c>
+      <c r="K17" s="3">
         <v>42696000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43318300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43817200</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7089900</v>
+        <v>6494900</v>
       </c>
       <c r="E18" s="3">
-        <v>5776400</v>
+        <v>6976100</v>
       </c>
       <c r="F18" s="3">
-        <v>5715400</v>
+        <v>5680800</v>
       </c>
       <c r="G18" s="3">
-        <v>3976200</v>
+        <v>5620800</v>
       </c>
       <c r="H18" s="3">
-        <v>5672400</v>
+        <v>3910400</v>
       </c>
       <c r="I18" s="3">
-        <v>5467800</v>
+        <v>5578500</v>
       </c>
       <c r="J18" s="3">
+        <v>5377300</v>
+      </c>
+      <c r="K18" s="3">
         <v>6325500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4461200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9329400</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>148300</v>
+        <v>-48200</v>
       </c>
       <c r="E20" s="3">
-        <v>39500</v>
+        <v>145900</v>
       </c>
       <c r="F20" s="3">
-        <v>-428200</v>
+        <v>38800</v>
       </c>
       <c r="G20" s="3">
-        <v>148300</v>
+        <v>-421200</v>
       </c>
       <c r="H20" s="3">
-        <v>157900</v>
+        <v>145900</v>
       </c>
       <c r="I20" s="3">
-        <v>95700</v>
+        <v>155300</v>
       </c>
       <c r="J20" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>45000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>38700</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17184400</v>
+        <v>16508100</v>
       </c>
       <c r="E21" s="3">
-        <v>14211000</v>
+        <v>17026300</v>
       </c>
       <c r="F21" s="3">
-        <v>13442800</v>
+        <v>14043600</v>
       </c>
       <c r="G21" s="3">
-        <v>12139600</v>
+        <v>13286200</v>
       </c>
       <c r="H21" s="3">
-        <v>13532000</v>
+        <v>12003300</v>
       </c>
       <c r="I21" s="3">
-        <v>12756600</v>
+        <v>13370200</v>
       </c>
       <c r="J21" s="3">
+        <v>12603500</v>
+      </c>
+      <c r="K21" s="3">
         <v>13531700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11466200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17279200</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1648400</v>
+        <v>1497600</v>
       </c>
       <c r="E22" s="3">
-        <v>1668700</v>
+        <v>1629300</v>
       </c>
       <c r="F22" s="3">
-        <v>1623200</v>
+        <v>1641100</v>
       </c>
       <c r="G22" s="3">
-        <v>1756000</v>
+        <v>1596400</v>
       </c>
       <c r="H22" s="3">
-        <v>2051500</v>
+        <v>1727000</v>
       </c>
       <c r="I22" s="3">
-        <v>2055100</v>
+        <v>2017500</v>
       </c>
       <c r="J22" s="3">
+        <v>2021100</v>
+      </c>
+      <c r="K22" s="3">
         <v>2089800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1942400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2425100</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5589800</v>
+        <v>4949100</v>
       </c>
       <c r="E23" s="3">
-        <v>4147200</v>
+        <v>5492600</v>
       </c>
       <c r="F23" s="3">
-        <v>3664000</v>
+        <v>4078600</v>
       </c>
       <c r="G23" s="3">
-        <v>2368500</v>
+        <v>3603300</v>
       </c>
       <c r="H23" s="3">
-        <v>3778800</v>
+        <v>2329300</v>
       </c>
       <c r="I23" s="3">
-        <v>3508500</v>
+        <v>3716200</v>
       </c>
       <c r="J23" s="3">
+        <v>3450400</v>
+      </c>
+      <c r="K23" s="3">
         <v>4232200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2563800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6943100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1730900</v>
+        <v>-997600</v>
       </c>
       <c r="E24" s="3">
-        <v>1565800</v>
+        <v>1702300</v>
       </c>
       <c r="F24" s="3">
-        <v>1258400</v>
+        <v>1539900</v>
       </c>
       <c r="G24" s="3">
-        <v>1160300</v>
+        <v>1237600</v>
       </c>
       <c r="H24" s="3">
-        <v>776300</v>
+        <v>1141100</v>
       </c>
       <c r="I24" s="3">
-        <v>1881600</v>
+        <v>763500</v>
       </c>
       <c r="J24" s="3">
+        <v>1850500</v>
+      </c>
+      <c r="K24" s="3">
         <v>1680700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1351600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2449700</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3858900</v>
+        <v>5946700</v>
       </c>
       <c r="E26" s="3">
-        <v>2581400</v>
+        <v>3790400</v>
       </c>
       <c r="F26" s="3">
-        <v>2405600</v>
+        <v>2538700</v>
       </c>
       <c r="G26" s="3">
-        <v>1208200</v>
+        <v>2365700</v>
       </c>
       <c r="H26" s="3">
-        <v>3002500</v>
+        <v>1188200</v>
       </c>
       <c r="I26" s="3">
-        <v>1626800</v>
+        <v>2952800</v>
       </c>
       <c r="J26" s="3">
+        <v>1599900</v>
+      </c>
+      <c r="K26" s="3">
         <v>2551500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1212200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4493300</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3275200</v>
+        <v>5372600</v>
       </c>
       <c r="E27" s="3">
-        <v>1986900</v>
+        <v>3218600</v>
       </c>
       <c r="F27" s="3">
-        <v>1850500</v>
+        <v>1954000</v>
       </c>
       <c r="G27" s="3">
-        <v>472500</v>
+        <v>1819900</v>
       </c>
       <c r="H27" s="3">
-        <v>2636400</v>
+        <v>464700</v>
       </c>
       <c r="I27" s="3">
-        <v>1268000</v>
+        <v>2592800</v>
       </c>
       <c r="J27" s="3">
+        <v>1247000</v>
+      </c>
+      <c r="K27" s="3">
         <v>2240500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>900400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4572000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,42 +1405,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>34700</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>2695000</v>
+        <v>34100</v>
       </c>
       <c r="H29" s="3">
-        <v>535900</v>
+        <v>2650400</v>
       </c>
       <c r="I29" s="3">
-        <v>-161500</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>527000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-158800</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-148300</v>
+        <v>48200</v>
       </c>
       <c r="E32" s="3">
-        <v>-39500</v>
+        <v>-145900</v>
       </c>
       <c r="F32" s="3">
-        <v>428200</v>
+        <v>-38800</v>
       </c>
       <c r="G32" s="3">
-        <v>-148300</v>
+        <v>421200</v>
       </c>
       <c r="H32" s="3">
-        <v>-157900</v>
+        <v>-145900</v>
       </c>
       <c r="I32" s="3">
-        <v>-95700</v>
+        <v>-155300</v>
       </c>
       <c r="J32" s="3">
+        <v>-94100</v>
+      </c>
+      <c r="K32" s="3">
         <v>3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-45000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-38700</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3275200</v>
+        <v>5372600</v>
       </c>
       <c r="E33" s="3">
-        <v>1986900</v>
+        <v>3218600</v>
       </c>
       <c r="F33" s="3">
-        <v>1885200</v>
+        <v>1954000</v>
       </c>
       <c r="G33" s="3">
-        <v>3167500</v>
+        <v>1854000</v>
       </c>
       <c r="H33" s="3">
-        <v>3172300</v>
+        <v>3115100</v>
       </c>
       <c r="I33" s="3">
-        <v>1106500</v>
+        <v>3119800</v>
       </c>
       <c r="J33" s="3">
+        <v>1088200</v>
+      </c>
+      <c r="K33" s="3">
         <v>2240500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>900400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4572000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3275200</v>
+        <v>5372600</v>
       </c>
       <c r="E35" s="3">
-        <v>1986900</v>
+        <v>3218600</v>
       </c>
       <c r="F35" s="3">
-        <v>1885200</v>
+        <v>1954000</v>
       </c>
       <c r="G35" s="3">
-        <v>3167500</v>
+        <v>1854000</v>
       </c>
       <c r="H35" s="3">
-        <v>3172300</v>
+        <v>3115100</v>
       </c>
       <c r="I35" s="3">
-        <v>1106500</v>
+        <v>3119800</v>
       </c>
       <c r="J35" s="3">
+        <v>1088200</v>
+      </c>
+      <c r="K35" s="3">
         <v>2240500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>900400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4572000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,305 +1733,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7752600</v>
+        <v>9581800</v>
       </c>
       <c r="E41" s="3">
-        <v>6739400</v>
+        <v>7624200</v>
       </c>
       <c r="F41" s="3">
-        <v>6949900</v>
+        <v>6627800</v>
       </c>
       <c r="G41" s="3">
-        <v>7601900</v>
+        <v>6834900</v>
       </c>
       <c r="H41" s="3">
-        <v>5345800</v>
+        <v>7476000</v>
       </c>
       <c r="I41" s="3">
-        <v>8083900</v>
+        <v>5257300</v>
       </c>
       <c r="J41" s="3">
+        <v>7950100</v>
+      </c>
+      <c r="K41" s="3">
         <v>8973900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10459500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9442100</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5781200</v>
+        <v>3826800</v>
       </c>
       <c r="E42" s="3">
-        <v>3360100</v>
+        <v>5685500</v>
       </c>
       <c r="F42" s="3">
-        <v>10552900</v>
+        <v>3304500</v>
       </c>
       <c r="G42" s="3">
-        <v>2221300</v>
+        <v>10378200</v>
       </c>
       <c r="H42" s="3">
-        <v>1533500</v>
+        <v>2184600</v>
       </c>
       <c r="I42" s="3">
-        <v>293100</v>
+        <v>1508100</v>
       </c>
       <c r="J42" s="3">
+        <v>288200</v>
+      </c>
+      <c r="K42" s="3">
         <v>250000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>235000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1112800</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12879500</v>
+        <v>11962800</v>
       </c>
       <c r="E43" s="3">
-        <v>12704800</v>
+        <v>12666300</v>
       </c>
       <c r="F43" s="3">
-        <v>9043300</v>
+        <v>12494500</v>
       </c>
       <c r="G43" s="3">
-        <v>10942800</v>
+        <v>8893600</v>
       </c>
       <c r="H43" s="3">
-        <v>7097100</v>
+        <v>10761700</v>
       </c>
       <c r="I43" s="3">
-        <v>6739400</v>
+        <v>6979600</v>
       </c>
       <c r="J43" s="3">
+        <v>6627800</v>
+      </c>
+      <c r="K43" s="3">
         <v>11713200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11697000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7270600</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1083800</v>
+        <v>957600</v>
       </c>
       <c r="E44" s="3">
-        <v>1154300</v>
+        <v>1065800</v>
       </c>
       <c r="F44" s="3">
-        <v>989300</v>
+        <v>1135200</v>
       </c>
       <c r="G44" s="3">
-        <v>979700</v>
+        <v>972900</v>
       </c>
       <c r="H44" s="3">
-        <v>912700</v>
+        <v>963500</v>
       </c>
       <c r="I44" s="3">
-        <v>848100</v>
+        <v>897600</v>
       </c>
       <c r="J44" s="3">
+        <v>834100</v>
+      </c>
+      <c r="K44" s="3">
         <v>762000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>643400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>740700</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2392400</v>
+        <v>3191600</v>
       </c>
       <c r="E45" s="3">
-        <v>2227300</v>
+        <v>2352800</v>
       </c>
       <c r="F45" s="3">
-        <v>1893600</v>
+        <v>2190500</v>
       </c>
       <c r="G45" s="3">
-        <v>1997700</v>
+        <v>1862200</v>
       </c>
       <c r="H45" s="3">
-        <v>2230900</v>
+        <v>1964600</v>
       </c>
       <c r="I45" s="3">
-        <v>1336200</v>
+        <v>2194000</v>
       </c>
       <c r="J45" s="3">
+        <v>1314000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1541900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1173800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3190400</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29889400</v>
+        <v>29520600</v>
       </c>
       <c r="E46" s="3">
-        <v>26186000</v>
+        <v>29394700</v>
       </c>
       <c r="F46" s="3">
-        <v>26001800</v>
+        <v>25752600</v>
       </c>
       <c r="G46" s="3">
-        <v>23743400</v>
+        <v>25571400</v>
       </c>
       <c r="H46" s="3">
-        <v>17120000</v>
+        <v>23350400</v>
       </c>
       <c r="I46" s="3">
-        <v>17300600</v>
+        <v>16836600</v>
       </c>
       <c r="J46" s="3">
+        <v>17014300</v>
+      </c>
+      <c r="K46" s="3">
         <v>16082900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17707400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21756600</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3074200</v>
+        <v>3322200</v>
       </c>
       <c r="E47" s="3">
-        <v>4788400</v>
+        <v>3023300</v>
       </c>
       <c r="F47" s="3">
-        <v>8970300</v>
+        <v>4709100</v>
       </c>
       <c r="G47" s="3">
-        <v>6025300</v>
+        <v>8821800</v>
       </c>
       <c r="H47" s="3">
-        <v>1192600</v>
+        <v>5925500</v>
       </c>
       <c r="I47" s="3">
-        <v>5783600</v>
+        <v>1172900</v>
       </c>
       <c r="J47" s="3">
+        <v>5687900</v>
+      </c>
+      <c r="K47" s="3">
         <v>12350800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10534200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12992900</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41491400</v>
+        <v>42449200</v>
       </c>
       <c r="E48" s="3">
-        <v>33126400</v>
+        <v>82122100</v>
       </c>
       <c r="F48" s="3">
-        <v>63793300</v>
+        <v>32578000</v>
       </c>
       <c r="G48" s="3">
-        <v>30995900</v>
+        <v>62737400</v>
       </c>
       <c r="H48" s="3">
-        <v>30052100</v>
+        <v>30482900</v>
       </c>
       <c r="I48" s="3">
-        <v>27888200</v>
+        <v>29554700</v>
       </c>
       <c r="J48" s="3">
+        <v>27426600</v>
+      </c>
+      <c r="K48" s="3">
         <v>55400800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>51961800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27741800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>50696200</v>
+        <v>50268700</v>
       </c>
       <c r="E49" s="3">
-        <v>49339700</v>
+        <v>99714000</v>
       </c>
       <c r="F49" s="3">
-        <v>66495600</v>
+        <v>48523000</v>
       </c>
       <c r="G49" s="3">
-        <v>49950900</v>
+        <v>65394900</v>
       </c>
       <c r="H49" s="3">
-        <v>49520300</v>
+        <v>49124100</v>
       </c>
       <c r="I49" s="3">
-        <v>43774900</v>
+        <v>48700600</v>
       </c>
       <c r="J49" s="3">
+        <v>43050400</v>
+      </c>
+      <c r="K49" s="3">
         <v>57987000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>82549800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45406500</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2008400</v>
+        <v>1176400</v>
       </c>
       <c r="E52" s="3">
-        <v>2102900</v>
+        <v>1976400</v>
       </c>
       <c r="F52" s="3">
-        <v>2283500</v>
+        <v>2068100</v>
       </c>
       <c r="G52" s="3">
-        <v>3752500</v>
+        <v>2245700</v>
       </c>
       <c r="H52" s="3">
-        <v>11483500</v>
+        <v>3690400</v>
       </c>
       <c r="I52" s="3">
-        <v>11001500</v>
+        <v>11293400</v>
       </c>
       <c r="J52" s="3">
+        <v>10819400</v>
+      </c>
+      <c r="K52" s="3">
         <v>5683100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4554500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4885400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>127160000</v>
+        <v>126737000</v>
       </c>
       <c r="E54" s="3">
-        <v>115543000</v>
+        <v>125570000</v>
       </c>
       <c r="F54" s="3">
-        <v>114057000</v>
+        <v>113631000</v>
       </c>
       <c r="G54" s="3">
-        <v>113242000</v>
+        <v>112169000</v>
       </c>
       <c r="H54" s="3">
-        <v>109369000</v>
+        <v>111367000</v>
       </c>
       <c r="I54" s="3">
-        <v>105749000</v>
+        <v>107558000</v>
       </c>
       <c r="J54" s="3">
+        <v>103999000</v>
+      </c>
+      <c r="K54" s="3">
         <v>102673000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98798000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>112783000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7993000</v>
+        <v>7617200</v>
       </c>
       <c r="E57" s="3">
-        <v>8057600</v>
+        <v>7860700</v>
       </c>
       <c r="F57" s="3">
-        <v>7807600</v>
+        <v>7924200</v>
       </c>
       <c r="G57" s="3">
-        <v>7429600</v>
+        <v>7678400</v>
       </c>
       <c r="H57" s="3">
-        <v>7448700</v>
+        <v>7306600</v>
       </c>
       <c r="I57" s="3">
-        <v>6908100</v>
+        <v>7325400</v>
       </c>
       <c r="J57" s="3">
+        <v>6793700</v>
+      </c>
+      <c r="K57" s="3">
         <v>6720300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6215800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9567700</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11329200</v>
+        <v>11521700</v>
       </c>
       <c r="E58" s="3">
-        <v>14359200</v>
+        <v>11226400</v>
       </c>
       <c r="F58" s="3">
-        <v>18307800</v>
+        <v>14121500</v>
       </c>
       <c r="G58" s="3">
-        <v>10153300</v>
+        <v>18004800</v>
       </c>
       <c r="H58" s="3">
-        <v>3324200</v>
+        <v>9985300</v>
       </c>
       <c r="I58" s="3">
-        <v>5850600</v>
+        <v>3269200</v>
       </c>
       <c r="J58" s="3">
+        <v>5753800</v>
+      </c>
+      <c r="K58" s="3">
         <v>17060200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16259200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8755400</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13806500</v>
+        <v>14146200</v>
       </c>
       <c r="E59" s="3">
-        <v>13823300</v>
+        <v>13578000</v>
       </c>
       <c r="F59" s="3">
-        <v>14336500</v>
+        <v>13594500</v>
       </c>
       <c r="G59" s="3">
-        <v>13403400</v>
+        <v>14099200</v>
       </c>
       <c r="H59" s="3">
-        <v>15096000</v>
+        <v>13181600</v>
       </c>
       <c r="I59" s="3">
-        <v>11183300</v>
+        <v>14846200</v>
       </c>
       <c r="J59" s="3">
+        <v>10998200</v>
+      </c>
+      <c r="K59" s="3">
         <v>11215600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16813700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12397800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33128800</v>
+        <v>33285100</v>
       </c>
       <c r="E60" s="3">
-        <v>36240100</v>
+        <v>32665100</v>
       </c>
       <c r="F60" s="3">
-        <v>34758000</v>
+        <v>35640200</v>
       </c>
       <c r="G60" s="3">
-        <v>30986400</v>
+        <v>34182700</v>
       </c>
       <c r="H60" s="3">
-        <v>25869000</v>
+        <v>30473500</v>
       </c>
       <c r="I60" s="3">
-        <v>23941900</v>
+        <v>25440800</v>
       </c>
       <c r="J60" s="3">
+        <v>23545600</v>
+      </c>
+      <c r="K60" s="3">
         <v>26503000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27358900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>30721000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>45901800</v>
+        <v>42308000</v>
       </c>
       <c r="E61" s="3">
-        <v>31687300</v>
+        <v>45574900</v>
       </c>
       <c r="F61" s="3">
-        <v>31451700</v>
+        <v>31162800</v>
       </c>
       <c r="G61" s="3">
-        <v>34394300</v>
+        <v>30931100</v>
       </c>
       <c r="H61" s="3">
-        <v>35321400</v>
+        <v>33825000</v>
       </c>
       <c r="I61" s="3">
-        <v>35266400</v>
+        <v>34736700</v>
       </c>
       <c r="J61" s="3">
+        <v>34682600</v>
+      </c>
+      <c r="K61" s="3">
         <v>36267600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35029500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>40134900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6960700</v>
+        <v>7572500</v>
       </c>
       <c r="E62" s="3">
-        <v>7843500</v>
+        <v>6846600</v>
       </c>
       <c r="F62" s="3">
-        <v>7983400</v>
+        <v>7713700</v>
       </c>
       <c r="G62" s="3">
-        <v>8178400</v>
+        <v>7851300</v>
       </c>
       <c r="H62" s="3">
-        <v>8384200</v>
+        <v>8043000</v>
       </c>
       <c r="I62" s="3">
-        <v>8619800</v>
+        <v>8245400</v>
       </c>
       <c r="J62" s="3">
+        <v>8477100</v>
+      </c>
+      <c r="K62" s="3">
         <v>8402100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10722000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7191900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>89206600</v>
+        <v>86274800</v>
       </c>
       <c r="E66" s="3">
-        <v>78857100</v>
+        <v>88248800</v>
       </c>
       <c r="F66" s="3">
-        <v>77004200</v>
+        <v>77551800</v>
       </c>
       <c r="G66" s="3">
-        <v>76532900</v>
+        <v>75729600</v>
       </c>
       <c r="H66" s="3">
-        <v>72397600</v>
+        <v>75266100</v>
       </c>
       <c r="I66" s="3">
-        <v>70390400</v>
+        <v>71199300</v>
       </c>
       <c r="J66" s="3">
+        <v>69225300</v>
+      </c>
+      <c r="K66" s="3">
         <v>73547200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>72110100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>80417700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1283500</v>
+        <v>2177500</v>
       </c>
       <c r="E72" s="3">
-        <v>-2466600</v>
+        <v>-1264600</v>
       </c>
       <c r="F72" s="3">
-        <v>-2214200</v>
+        <v>-2425700</v>
       </c>
       <c r="G72" s="3">
-        <v>-5770500</v>
+        <v>-2177500</v>
       </c>
       <c r="H72" s="3">
-        <v>4211800</v>
+        <v>-5675000</v>
       </c>
       <c r="I72" s="3">
-        <v>2599300</v>
+        <v>4142100</v>
       </c>
       <c r="J72" s="3">
+        <v>2556300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3632900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3381800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1462600</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37953000</v>
+        <v>40462300</v>
       </c>
       <c r="E76" s="3">
-        <v>36686300</v>
+        <v>37321300</v>
       </c>
       <c r="F76" s="3">
-        <v>37052300</v>
+        <v>36079000</v>
       </c>
       <c r="G76" s="3">
-        <v>36709000</v>
+        <v>36439000</v>
       </c>
       <c r="H76" s="3">
-        <v>36971000</v>
+        <v>36101400</v>
       </c>
       <c r="I76" s="3">
-        <v>35358500</v>
+        <v>36359000</v>
       </c>
       <c r="J76" s="3">
+        <v>34773200</v>
+      </c>
+      <c r="K76" s="3">
         <v>29126300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26688000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32365500</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3275200</v>
+        <v>5372600</v>
       </c>
       <c r="E81" s="3">
-        <v>1986900</v>
+        <v>3218600</v>
       </c>
       <c r="F81" s="3">
-        <v>1885200</v>
+        <v>1954000</v>
       </c>
       <c r="G81" s="3">
-        <v>3167500</v>
+        <v>1854000</v>
       </c>
       <c r="H81" s="3">
-        <v>3172300</v>
+        <v>3115100</v>
       </c>
       <c r="I81" s="3">
-        <v>1106500</v>
+        <v>3119800</v>
       </c>
       <c r="J81" s="3">
+        <v>1088200</v>
+      </c>
+      <c r="K81" s="3">
         <v>2240500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>900400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4572000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9987100</v>
+        <v>10020600</v>
       </c>
       <c r="E83" s="3">
-        <v>8429600</v>
+        <v>9864100</v>
       </c>
       <c r="F83" s="3">
-        <v>8189200</v>
+        <v>8290100</v>
       </c>
       <c r="G83" s="3">
-        <v>8048000</v>
+        <v>8053600</v>
       </c>
       <c r="H83" s="3">
-        <v>7733400</v>
+        <v>7914800</v>
       </c>
       <c r="I83" s="3">
-        <v>7222700</v>
+        <v>7605400</v>
       </c>
       <c r="J83" s="3">
+        <v>7103100</v>
+      </c>
+      <c r="K83" s="3">
         <v>7239400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6949200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7905600</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12152200</v>
+        <v>14936800</v>
       </c>
       <c r="E89" s="3">
-        <v>11371100</v>
+        <v>11987500</v>
       </c>
       <c r="F89" s="3">
-        <v>12170100</v>
+        <v>11182900</v>
       </c>
       <c r="G89" s="3">
-        <v>10466800</v>
+        <v>11968700</v>
       </c>
       <c r="H89" s="3">
-        <v>11396200</v>
+        <v>10293500</v>
       </c>
       <c r="I89" s="3">
-        <v>10529000</v>
+        <v>11207600</v>
       </c>
       <c r="J89" s="3">
+        <v>10354700</v>
+      </c>
+      <c r="K89" s="3">
         <v>8683200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10997600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15117500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10074400</v>
+        <v>-10053500</v>
       </c>
       <c r="E91" s="3">
-        <v>-9141400</v>
+        <v>-9907600</v>
       </c>
       <c r="F91" s="3">
-        <v>-9003800</v>
+        <v>-8990000</v>
       </c>
       <c r="G91" s="3">
-        <v>-10158100</v>
+        <v>-8854800</v>
       </c>
       <c r="H91" s="3">
-        <v>-9295700</v>
+        <v>-9990000</v>
       </c>
       <c r="I91" s="3">
-        <v>-7310000</v>
+        <v>-9141800</v>
       </c>
       <c r="J91" s="3">
+        <v>-7189000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7317200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7425800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7877400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11208400</v>
+        <v>-6545500</v>
       </c>
       <c r="E94" s="3">
-        <v>-10229900</v>
+        <v>-11022900</v>
       </c>
       <c r="F94" s="3">
-        <v>-9499000</v>
+        <v>-10060600</v>
       </c>
       <c r="G94" s="3">
-        <v>-5836300</v>
+        <v>-9341800</v>
       </c>
       <c r="H94" s="3">
-        <v>-11251500</v>
+        <v>-5739700</v>
       </c>
       <c r="I94" s="3">
-        <v>-7598300</v>
+        <v>-11065200</v>
       </c>
       <c r="J94" s="3">
+        <v>-7472500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7229800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5171600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7404400</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2221300</v>
+        <v>-1876400</v>
       </c>
       <c r="E96" s="3">
-        <v>-2224900</v>
+        <v>-2184600</v>
       </c>
       <c r="F96" s="3">
-        <v>-2068200</v>
+        <v>-2188100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1909100</v>
+        <v>-2034000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1900800</v>
+        <v>-1877500</v>
       </c>
       <c r="I96" s="3">
-        <v>-2208200</v>
+        <v>-1869300</v>
       </c>
       <c r="J96" s="3">
+        <v>-2171600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1571800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3987900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4346600</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>65800</v>
+        <v>-6364300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1352900</v>
+        <v>28200</v>
       </c>
       <c r="F100" s="3">
-        <v>-3275200</v>
+        <v>-1330500</v>
       </c>
       <c r="G100" s="3">
-        <v>-2252400</v>
+        <v>-3221000</v>
       </c>
       <c r="H100" s="3">
-        <v>-4693900</v>
+        <v>-2215200</v>
       </c>
       <c r="I100" s="3">
-        <v>-184200</v>
+        <v>-4616200</v>
       </c>
       <c r="J100" s="3">
+        <v>-181200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4231000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5569100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3357100</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3600</v>
+        <v>-69400</v>
       </c>
       <c r="E101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F101" s="3">
         <v>1200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-47800</v>
-      </c>
       <c r="G101" s="3">
-        <v>-122000</v>
+        <v>-47100</v>
       </c>
       <c r="H101" s="3">
-        <v>1811000</v>
+        <v>-120000</v>
       </c>
       <c r="I101" s="3">
-        <v>-1760800</v>
+        <v>1781100</v>
       </c>
       <c r="J101" s="3">
+        <v>-1731700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-77800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>28500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-91600</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1013200</v>
+        <v>1957500</v>
       </c>
       <c r="E102" s="3">
-        <v>-210500</v>
+        <v>996400</v>
       </c>
       <c r="F102" s="3">
-        <v>-651900</v>
+        <v>-207000</v>
       </c>
       <c r="G102" s="3">
-        <v>2256000</v>
+        <v>-641100</v>
       </c>
       <c r="H102" s="3">
-        <v>-2738100</v>
+        <v>2218700</v>
       </c>
       <c r="I102" s="3">
-        <v>985700</v>
+        <v>-2692800</v>
       </c>
       <c r="J102" s="3">
+        <v>969400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2855300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>285500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4264500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49726400</v>
+        <v>51780300</v>
       </c>
       <c r="E8" s="3">
-        <v>49688800</v>
+        <v>51741100</v>
       </c>
       <c r="F8" s="3">
-        <v>48680600</v>
+        <v>50691300</v>
       </c>
       <c r="G8" s="3">
-        <v>48066500</v>
+        <v>50051900</v>
       </c>
       <c r="H8" s="3">
-        <v>48135900</v>
+        <v>50124100</v>
       </c>
       <c r="I8" s="3">
-        <v>47333600</v>
+        <v>49288700</v>
       </c>
       <c r="J8" s="3">
-        <v>46403100</v>
+        <v>48319700</v>
       </c>
       <c r="K8" s="3">
         <v>49021500</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19768200</v>
+        <v>20584700</v>
       </c>
       <c r="E9" s="3">
-        <v>19758800</v>
+        <v>20574900</v>
       </c>
       <c r="F9" s="3">
-        <v>20448200</v>
+        <v>21292800</v>
       </c>
       <c r="G9" s="3">
-        <v>20272900</v>
+        <v>21110300</v>
       </c>
       <c r="H9" s="3">
-        <v>20145900</v>
+        <v>20978000</v>
       </c>
       <c r="I9" s="3">
-        <v>19450600</v>
+        <v>20254000</v>
       </c>
       <c r="J9" s="3">
-        <v>20294100</v>
+        <v>21132300</v>
       </c>
       <c r="K9" s="3">
         <v>21489700</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29958200</v>
+        <v>31195600</v>
       </c>
       <c r="E10" s="3">
-        <v>29930000</v>
+        <v>31166200</v>
       </c>
       <c r="F10" s="3">
-        <v>28232400</v>
+        <v>29398500</v>
       </c>
       <c r="G10" s="3">
-        <v>27793600</v>
+        <v>28941600</v>
       </c>
       <c r="H10" s="3">
-        <v>27990100</v>
+        <v>29146200</v>
       </c>
       <c r="I10" s="3">
-        <v>27883000</v>
+        <v>29034700</v>
       </c>
       <c r="J10" s="3">
-        <v>26109000</v>
+        <v>27187400</v>
       </c>
       <c r="K10" s="3">
         <v>27531700</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>469400</v>
+        <v>488800</v>
       </c>
       <c r="E14" s="3">
-        <v>338800</v>
+        <v>352800</v>
       </c>
       <c r="F14" s="3">
-        <v>344700</v>
+        <v>358900</v>
       </c>
       <c r="G14" s="3">
-        <v>1434000</v>
+        <v>1493300</v>
       </c>
       <c r="H14" s="3">
-        <v>2595100</v>
+        <v>2702300</v>
       </c>
       <c r="I14" s="3">
-        <v>682300</v>
+        <v>710500</v>
       </c>
       <c r="J14" s="3">
-        <v>890500</v>
+        <v>927300</v>
       </c>
       <c r="K14" s="3">
         <v>1171100</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10020600</v>
+        <v>10434500</v>
       </c>
       <c r="E15" s="3">
-        <v>9862900</v>
+        <v>10270300</v>
       </c>
       <c r="F15" s="3">
-        <v>8290100</v>
+        <v>8632500</v>
       </c>
       <c r="G15" s="3">
-        <v>8053600</v>
+        <v>8386300</v>
       </c>
       <c r="H15" s="3">
-        <v>7914800</v>
+        <v>8241700</v>
       </c>
       <c r="I15" s="3">
-        <v>7605400</v>
+        <v>7919600</v>
       </c>
       <c r="J15" s="3">
-        <v>7103100</v>
+        <v>7396500</v>
       </c>
       <c r="K15" s="3">
         <v>7239400</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>43231500</v>
+        <v>45017200</v>
       </c>
       <c r="E17" s="3">
-        <v>42712700</v>
+        <v>44476900</v>
       </c>
       <c r="F17" s="3">
-        <v>42999800</v>
+        <v>44775800</v>
       </c>
       <c r="G17" s="3">
-        <v>42445700</v>
+        <v>44198900</v>
       </c>
       <c r="H17" s="3">
-        <v>44225600</v>
+        <v>46052300</v>
       </c>
       <c r="I17" s="3">
-        <v>41755100</v>
+        <v>43479800</v>
       </c>
       <c r="J17" s="3">
-        <v>41025800</v>
+        <v>42720300</v>
       </c>
       <c r="K17" s="3">
         <v>42696000</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6494900</v>
+        <v>6763200</v>
       </c>
       <c r="E18" s="3">
-        <v>6976100</v>
+        <v>7264200</v>
       </c>
       <c r="F18" s="3">
-        <v>5680800</v>
+        <v>5915500</v>
       </c>
       <c r="G18" s="3">
-        <v>5620800</v>
+        <v>5853000</v>
       </c>
       <c r="H18" s="3">
-        <v>3910400</v>
+        <v>4071900</v>
       </c>
       <c r="I18" s="3">
-        <v>5578500</v>
+        <v>5808900</v>
       </c>
       <c r="J18" s="3">
-        <v>5377300</v>
+        <v>5599400</v>
       </c>
       <c r="K18" s="3">
         <v>6325500</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-48200</v>
+        <v>-50200</v>
       </c>
       <c r="E20" s="3">
-        <v>145900</v>
+        <v>151900</v>
       </c>
       <c r="F20" s="3">
-        <v>38800</v>
+        <v>40400</v>
       </c>
       <c r="G20" s="3">
-        <v>-421200</v>
+        <v>-438500</v>
       </c>
       <c r="H20" s="3">
-        <v>145900</v>
+        <v>151900</v>
       </c>
       <c r="I20" s="3">
-        <v>155300</v>
+        <v>161700</v>
       </c>
       <c r="J20" s="3">
-        <v>94100</v>
+        <v>98000</v>
       </c>
       <c r="K20" s="3">
         <v>-3600</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16508100</v>
+        <v>17117600</v>
       </c>
       <c r="E21" s="3">
-        <v>17026300</v>
+        <v>17658300</v>
       </c>
       <c r="F21" s="3">
-        <v>14043600</v>
+        <v>14563700</v>
       </c>
       <c r="G21" s="3">
-        <v>13286200</v>
+        <v>13776800</v>
       </c>
       <c r="H21" s="3">
-        <v>12003300</v>
+        <v>12442000</v>
       </c>
       <c r="I21" s="3">
-        <v>13370200</v>
+        <v>13867500</v>
       </c>
       <c r="J21" s="3">
-        <v>12603500</v>
+        <v>13072800</v>
       </c>
       <c r="K21" s="3">
         <v>13531700</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1497600</v>
+        <v>1559400</v>
       </c>
       <c r="E22" s="3">
-        <v>1629300</v>
+        <v>1696600</v>
       </c>
       <c r="F22" s="3">
-        <v>1641100</v>
+        <v>1708900</v>
       </c>
       <c r="G22" s="3">
-        <v>1596400</v>
+        <v>1662300</v>
       </c>
       <c r="H22" s="3">
-        <v>1727000</v>
+        <v>1798300</v>
       </c>
       <c r="I22" s="3">
-        <v>2017500</v>
+        <v>2100900</v>
       </c>
       <c r="J22" s="3">
-        <v>2021100</v>
+        <v>2104500</v>
       </c>
       <c r="K22" s="3">
         <v>2089800</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4949100</v>
+        <v>5153500</v>
       </c>
       <c r="E23" s="3">
-        <v>5492600</v>
+        <v>5719500</v>
       </c>
       <c r="F23" s="3">
-        <v>4078600</v>
+        <v>4247000</v>
       </c>
       <c r="G23" s="3">
-        <v>3603300</v>
+        <v>3752100</v>
       </c>
       <c r="H23" s="3">
-        <v>2329300</v>
+        <v>2425500</v>
       </c>
       <c r="I23" s="3">
-        <v>3716200</v>
+        <v>3869700</v>
       </c>
       <c r="J23" s="3">
-        <v>3450400</v>
+        <v>3592900</v>
       </c>
       <c r="K23" s="3">
         <v>4232200</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-997600</v>
+        <v>-1038800</v>
       </c>
       <c r="E24" s="3">
-        <v>1702300</v>
+        <v>1772600</v>
       </c>
       <c r="F24" s="3">
-        <v>1539900</v>
+        <v>1603500</v>
       </c>
       <c r="G24" s="3">
-        <v>1237600</v>
+        <v>1288700</v>
       </c>
       <c r="H24" s="3">
-        <v>1141100</v>
+        <v>1188200</v>
       </c>
       <c r="I24" s="3">
-        <v>763500</v>
+        <v>795000</v>
       </c>
       <c r="J24" s="3">
-        <v>1850500</v>
+        <v>1926900</v>
       </c>
       <c r="K24" s="3">
         <v>1680700</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5946700</v>
+        <v>6192300</v>
       </c>
       <c r="E26" s="3">
-        <v>3790400</v>
+        <v>3946900</v>
       </c>
       <c r="F26" s="3">
-        <v>2538700</v>
+        <v>2643500</v>
       </c>
       <c r="G26" s="3">
-        <v>2365700</v>
+        <v>2463500</v>
       </c>
       <c r="H26" s="3">
-        <v>1188200</v>
+        <v>1237200</v>
       </c>
       <c r="I26" s="3">
-        <v>2952800</v>
+        <v>3074700</v>
       </c>
       <c r="J26" s="3">
-        <v>1599900</v>
+        <v>1666000</v>
       </c>
       <c r="K26" s="3">
         <v>2551500</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5372600</v>
+        <v>5594500</v>
       </c>
       <c r="E27" s="3">
-        <v>3218600</v>
+        <v>3351600</v>
       </c>
       <c r="F27" s="3">
-        <v>1954000</v>
+        <v>2034700</v>
       </c>
       <c r="G27" s="3">
-        <v>1819900</v>
+        <v>1895100</v>
       </c>
       <c r="H27" s="3">
-        <v>464700</v>
+        <v>483900</v>
       </c>
       <c r="I27" s="3">
-        <v>2592800</v>
+        <v>2699900</v>
       </c>
       <c r="J27" s="3">
-        <v>1247000</v>
+        <v>1298500</v>
       </c>
       <c r="K27" s="3">
         <v>2240500</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>34100</v>
+        <v>35500</v>
       </c>
       <c r="H29" s="3">
-        <v>2650400</v>
+        <v>2759900</v>
       </c>
       <c r="I29" s="3">
-        <v>527000</v>
+        <v>548800</v>
       </c>
       <c r="J29" s="3">
-        <v>-158800</v>
+        <v>-165400</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>48200</v>
+        <v>50200</v>
       </c>
       <c r="E32" s="3">
-        <v>-145900</v>
+        <v>-151900</v>
       </c>
       <c r="F32" s="3">
-        <v>-38800</v>
+        <v>-40400</v>
       </c>
       <c r="G32" s="3">
-        <v>421200</v>
+        <v>438500</v>
       </c>
       <c r="H32" s="3">
-        <v>-145900</v>
+        <v>-151900</v>
       </c>
       <c r="I32" s="3">
-        <v>-155300</v>
+        <v>-161700</v>
       </c>
       <c r="J32" s="3">
-        <v>-94100</v>
+        <v>-98000</v>
       </c>
       <c r="K32" s="3">
         <v>3600</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5372600</v>
+        <v>5594500</v>
       </c>
       <c r="E33" s="3">
-        <v>3218600</v>
+        <v>3351600</v>
       </c>
       <c r="F33" s="3">
-        <v>1954000</v>
+        <v>2034700</v>
       </c>
       <c r="G33" s="3">
-        <v>1854000</v>
+        <v>1930600</v>
       </c>
       <c r="H33" s="3">
-        <v>3115100</v>
+        <v>3243800</v>
       </c>
       <c r="I33" s="3">
-        <v>3119800</v>
+        <v>3248700</v>
       </c>
       <c r="J33" s="3">
-        <v>1088200</v>
+        <v>1133100</v>
       </c>
       <c r="K33" s="3">
         <v>2240500</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5372600</v>
+        <v>5594500</v>
       </c>
       <c r="E35" s="3">
-        <v>3218600</v>
+        <v>3351600</v>
       </c>
       <c r="F35" s="3">
-        <v>1954000</v>
+        <v>2034700</v>
       </c>
       <c r="G35" s="3">
-        <v>1854000</v>
+        <v>1930600</v>
       </c>
       <c r="H35" s="3">
-        <v>3115100</v>
+        <v>3243800</v>
       </c>
       <c r="I35" s="3">
-        <v>3119800</v>
+        <v>3248700</v>
       </c>
       <c r="J35" s="3">
-        <v>1088200</v>
+        <v>1133100</v>
       </c>
       <c r="K35" s="3">
         <v>2240500</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9581800</v>
+        <v>9977500</v>
       </c>
       <c r="E41" s="3">
-        <v>7624200</v>
+        <v>7939200</v>
       </c>
       <c r="F41" s="3">
-        <v>6627800</v>
+        <v>6901600</v>
       </c>
       <c r="G41" s="3">
-        <v>6834900</v>
+        <v>7117200</v>
       </c>
       <c r="H41" s="3">
-        <v>7476000</v>
+        <v>7784800</v>
       </c>
       <c r="I41" s="3">
-        <v>5257300</v>
+        <v>5474500</v>
       </c>
       <c r="J41" s="3">
-        <v>7950100</v>
+        <v>8278500</v>
       </c>
       <c r="K41" s="3">
         <v>8973900</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3826800</v>
+        <v>3984900</v>
       </c>
       <c r="E42" s="3">
-        <v>5685500</v>
+        <v>5920400</v>
       </c>
       <c r="F42" s="3">
-        <v>3304500</v>
+        <v>3441000</v>
       </c>
       <c r="G42" s="3">
-        <v>10378200</v>
+        <v>10806900</v>
       </c>
       <c r="H42" s="3">
-        <v>2184600</v>
+        <v>2274800</v>
       </c>
       <c r="I42" s="3">
-        <v>1508100</v>
+        <v>1570400</v>
       </c>
       <c r="J42" s="3">
-        <v>288200</v>
+        <v>300100</v>
       </c>
       <c r="K42" s="3">
         <v>250000</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11962800</v>
+        <v>12456900</v>
       </c>
       <c r="E43" s="3">
-        <v>12666300</v>
+        <v>13189500</v>
       </c>
       <c r="F43" s="3">
-        <v>12494500</v>
+        <v>13010600</v>
       </c>
       <c r="G43" s="3">
-        <v>8893600</v>
+        <v>9260900</v>
       </c>
       <c r="H43" s="3">
-        <v>10761700</v>
+        <v>11206200</v>
       </c>
       <c r="I43" s="3">
-        <v>6979600</v>
+        <v>7267900</v>
       </c>
       <c r="J43" s="3">
-        <v>6627800</v>
+        <v>6901600</v>
       </c>
       <c r="K43" s="3">
         <v>11713200</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>957600</v>
+        <v>997100</v>
       </c>
       <c r="E44" s="3">
-        <v>1065800</v>
+        <v>1109800</v>
       </c>
       <c r="F44" s="3">
-        <v>1135200</v>
+        <v>1182100</v>
       </c>
       <c r="G44" s="3">
-        <v>972900</v>
+        <v>1013100</v>
       </c>
       <c r="H44" s="3">
-        <v>963500</v>
+        <v>1003300</v>
       </c>
       <c r="I44" s="3">
-        <v>897600</v>
+        <v>934700</v>
       </c>
       <c r="J44" s="3">
-        <v>834100</v>
+        <v>868500</v>
       </c>
       <c r="K44" s="3">
         <v>762000</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3191600</v>
+        <v>3323400</v>
       </c>
       <c r="E45" s="3">
-        <v>2352800</v>
+        <v>2450000</v>
       </c>
       <c r="F45" s="3">
-        <v>2190500</v>
+        <v>2280900</v>
       </c>
       <c r="G45" s="3">
-        <v>1862200</v>
+        <v>1939200</v>
       </c>
       <c r="H45" s="3">
-        <v>1964600</v>
+        <v>2045700</v>
       </c>
       <c r="I45" s="3">
-        <v>2194000</v>
+        <v>2284600</v>
       </c>
       <c r="J45" s="3">
-        <v>1314000</v>
+        <v>1368300</v>
       </c>
       <c r="K45" s="3">
         <v>1541900</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29520600</v>
+        <v>30739900</v>
       </c>
       <c r="E46" s="3">
-        <v>29394700</v>
+        <v>30608800</v>
       </c>
       <c r="F46" s="3">
-        <v>25752600</v>
+        <v>26816300</v>
       </c>
       <c r="G46" s="3">
-        <v>25571400</v>
+        <v>26627600</v>
       </c>
       <c r="H46" s="3">
-        <v>23350400</v>
+        <v>24314800</v>
       </c>
       <c r="I46" s="3">
-        <v>16836600</v>
+        <v>17532100</v>
       </c>
       <c r="J46" s="3">
-        <v>17014300</v>
+        <v>17717000</v>
       </c>
       <c r="K46" s="3">
         <v>16082900</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3322200</v>
+        <v>3459400</v>
       </c>
       <c r="E47" s="3">
-        <v>3023300</v>
+        <v>3148200</v>
       </c>
       <c r="F47" s="3">
-        <v>4709100</v>
+        <v>4903600</v>
       </c>
       <c r="G47" s="3">
-        <v>8821800</v>
+        <v>9186200</v>
       </c>
       <c r="H47" s="3">
-        <v>5925500</v>
+        <v>6170300</v>
       </c>
       <c r="I47" s="3">
-        <v>1172900</v>
+        <v>1221300</v>
       </c>
       <c r="J47" s="3">
-        <v>5687900</v>
+        <v>5922800</v>
       </c>
       <c r="K47" s="3">
         <v>12350800</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42449200</v>
+        <v>44202500</v>
       </c>
       <c r="E48" s="3">
-        <v>82122100</v>
+        <v>85514100</v>
       </c>
       <c r="F48" s="3">
-        <v>32578000</v>
+        <v>33923600</v>
       </c>
       <c r="G48" s="3">
-        <v>62737400</v>
+        <v>65328700</v>
       </c>
       <c r="H48" s="3">
-        <v>30482900</v>
+        <v>31741900</v>
       </c>
       <c r="I48" s="3">
-        <v>29554700</v>
+        <v>30775400</v>
       </c>
       <c r="J48" s="3">
-        <v>27426600</v>
+        <v>28559400</v>
       </c>
       <c r="K48" s="3">
         <v>55400800</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>50268700</v>
+        <v>52345000</v>
       </c>
       <c r="E49" s="3">
-        <v>99714000</v>
+        <v>103833000</v>
       </c>
       <c r="F49" s="3">
-        <v>48523000</v>
+        <v>50527200</v>
       </c>
       <c r="G49" s="3">
-        <v>65394900</v>
+        <v>68096000</v>
       </c>
       <c r="H49" s="3">
-        <v>49124100</v>
+        <v>51153100</v>
       </c>
       <c r="I49" s="3">
-        <v>48700600</v>
+        <v>50712100</v>
       </c>
       <c r="J49" s="3">
-        <v>43050400</v>
+        <v>44828500</v>
       </c>
       <c r="K49" s="3">
         <v>57987000</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1176400</v>
+        <v>1225000</v>
       </c>
       <c r="E52" s="3">
-        <v>1976400</v>
+        <v>2058000</v>
       </c>
       <c r="F52" s="3">
-        <v>2068100</v>
+        <v>2153500</v>
       </c>
       <c r="G52" s="3">
-        <v>2245700</v>
+        <v>2338500</v>
       </c>
       <c r="H52" s="3">
-        <v>3690400</v>
+        <v>3842800</v>
       </c>
       <c r="I52" s="3">
-        <v>11293400</v>
+        <v>11759900</v>
       </c>
       <c r="J52" s="3">
-        <v>10819400</v>
+        <v>11266200</v>
       </c>
       <c r="K52" s="3">
         <v>5683100</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>126737000</v>
+        <v>131972000</v>
       </c>
       <c r="E54" s="3">
-        <v>125570000</v>
+        <v>130757000</v>
       </c>
       <c r="F54" s="3">
-        <v>113631000</v>
+        <v>118324000</v>
       </c>
       <c r="G54" s="3">
-        <v>112169000</v>
+        <v>116802000</v>
       </c>
       <c r="H54" s="3">
-        <v>111367000</v>
+        <v>115967000</v>
       </c>
       <c r="I54" s="3">
-        <v>107558000</v>
+        <v>112001000</v>
       </c>
       <c r="J54" s="3">
-        <v>103999000</v>
+        <v>108294000</v>
       </c>
       <c r="K54" s="3">
         <v>102673000</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7617200</v>
+        <v>7931800</v>
       </c>
       <c r="E57" s="3">
-        <v>7860700</v>
+        <v>8185400</v>
       </c>
       <c r="F57" s="3">
-        <v>7924200</v>
+        <v>8251500</v>
       </c>
       <c r="G57" s="3">
-        <v>7678400</v>
+        <v>7995500</v>
       </c>
       <c r="H57" s="3">
-        <v>7306600</v>
+        <v>7608400</v>
       </c>
       <c r="I57" s="3">
-        <v>7325400</v>
+        <v>7628000</v>
       </c>
       <c r="J57" s="3">
-        <v>6793700</v>
+        <v>7074300</v>
       </c>
       <c r="K57" s="3">
         <v>6720300</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11521700</v>
+        <v>11997600</v>
       </c>
       <c r="E58" s="3">
-        <v>11226400</v>
+        <v>11690100</v>
       </c>
       <c r="F58" s="3">
-        <v>14121500</v>
+        <v>14704800</v>
       </c>
       <c r="G58" s="3">
-        <v>18004800</v>
+        <v>18748500</v>
       </c>
       <c r="H58" s="3">
-        <v>9985300</v>
+        <v>10397700</v>
       </c>
       <c r="I58" s="3">
-        <v>3269200</v>
+        <v>3404200</v>
       </c>
       <c r="J58" s="3">
-        <v>5753800</v>
+        <v>5991400</v>
       </c>
       <c r="K58" s="3">
         <v>17060200</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14146200</v>
+        <v>14730500</v>
       </c>
       <c r="E59" s="3">
-        <v>13578000</v>
+        <v>14138800</v>
       </c>
       <c r="F59" s="3">
-        <v>13594500</v>
+        <v>14156000</v>
       </c>
       <c r="G59" s="3">
-        <v>14099200</v>
+        <v>14681500</v>
       </c>
       <c r="H59" s="3">
-        <v>13181600</v>
+        <v>13726000</v>
       </c>
       <c r="I59" s="3">
-        <v>14846200</v>
+        <v>15459400</v>
       </c>
       <c r="J59" s="3">
-        <v>10998200</v>
+        <v>11452400</v>
       </c>
       <c r="K59" s="3">
         <v>11215600</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33285100</v>
+        <v>34659900</v>
       </c>
       <c r="E60" s="3">
-        <v>32665100</v>
+        <v>34014300</v>
       </c>
       <c r="F60" s="3">
-        <v>35640200</v>
+        <v>37112300</v>
       </c>
       <c r="G60" s="3">
-        <v>34182700</v>
+        <v>35594500</v>
       </c>
       <c r="H60" s="3">
-        <v>30473500</v>
+        <v>31732100</v>
       </c>
       <c r="I60" s="3">
-        <v>25440800</v>
+        <v>26491600</v>
       </c>
       <c r="J60" s="3">
-        <v>23545600</v>
+        <v>24518200</v>
       </c>
       <c r="K60" s="3">
         <v>26503000</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42308000</v>
+        <v>44055500</v>
       </c>
       <c r="E61" s="3">
-        <v>45574900</v>
+        <v>47457300</v>
       </c>
       <c r="F61" s="3">
-        <v>31162800</v>
+        <v>32450000</v>
       </c>
       <c r="G61" s="3">
-        <v>30931100</v>
+        <v>32208700</v>
       </c>
       <c r="H61" s="3">
-        <v>33825000</v>
+        <v>35222100</v>
       </c>
       <c r="I61" s="3">
-        <v>34736700</v>
+        <v>36171500</v>
       </c>
       <c r="J61" s="3">
-        <v>34682600</v>
+        <v>36115200</v>
       </c>
       <c r="K61" s="3">
         <v>36267600</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7572500</v>
+        <v>7885300</v>
       </c>
       <c r="E62" s="3">
-        <v>6846600</v>
+        <v>7129400</v>
       </c>
       <c r="F62" s="3">
-        <v>7713700</v>
+        <v>8032300</v>
       </c>
       <c r="G62" s="3">
-        <v>7851300</v>
+        <v>8175600</v>
       </c>
       <c r="H62" s="3">
-        <v>8043000</v>
+        <v>8375300</v>
       </c>
       <c r="I62" s="3">
-        <v>8245400</v>
+        <v>8586000</v>
       </c>
       <c r="J62" s="3">
-        <v>8477100</v>
+        <v>8827300</v>
       </c>
       <c r="K62" s="3">
         <v>8402100</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>86274800</v>
+        <v>89838300</v>
       </c>
       <c r="E66" s="3">
-        <v>88248800</v>
+        <v>91893800</v>
       </c>
       <c r="F66" s="3">
-        <v>77551800</v>
+        <v>80755000</v>
       </c>
       <c r="G66" s="3">
-        <v>75729600</v>
+        <v>78857500</v>
       </c>
       <c r="H66" s="3">
-        <v>75266100</v>
+        <v>78374900</v>
       </c>
       <c r="I66" s="3">
-        <v>71199300</v>
+        <v>74140100</v>
       </c>
       <c r="J66" s="3">
-        <v>69225300</v>
+        <v>72084500</v>
       </c>
       <c r="K66" s="3">
         <v>73547200</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2177500</v>
+        <v>2267500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1264600</v>
+        <v>-1316900</v>
       </c>
       <c r="F72" s="3">
-        <v>-2425700</v>
+        <v>-2525900</v>
       </c>
       <c r="G72" s="3">
-        <v>-2177500</v>
+        <v>-2267500</v>
       </c>
       <c r="H72" s="3">
-        <v>-5675000</v>
+        <v>-5909400</v>
       </c>
       <c r="I72" s="3">
-        <v>4142100</v>
+        <v>4313200</v>
       </c>
       <c r="J72" s="3">
-        <v>2556300</v>
+        <v>2661900</v>
       </c>
       <c r="K72" s="3">
         <v>-3632900</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40462300</v>
+        <v>42133500</v>
       </c>
       <c r="E76" s="3">
-        <v>37321300</v>
+        <v>38862800</v>
       </c>
       <c r="F76" s="3">
-        <v>36079000</v>
+        <v>37569200</v>
       </c>
       <c r="G76" s="3">
-        <v>36439000</v>
+        <v>37944100</v>
       </c>
       <c r="H76" s="3">
-        <v>36101400</v>
+        <v>37592500</v>
       </c>
       <c r="I76" s="3">
-        <v>36359000</v>
+        <v>37860800</v>
       </c>
       <c r="J76" s="3">
-        <v>34773200</v>
+        <v>36209500</v>
       </c>
       <c r="K76" s="3">
         <v>29126300</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5372600</v>
+        <v>5594500</v>
       </c>
       <c r="E81" s="3">
-        <v>3218600</v>
+        <v>3351600</v>
       </c>
       <c r="F81" s="3">
-        <v>1954000</v>
+        <v>2034700</v>
       </c>
       <c r="G81" s="3">
-        <v>1854000</v>
+        <v>1930600</v>
       </c>
       <c r="H81" s="3">
-        <v>3115100</v>
+        <v>3243800</v>
       </c>
       <c r="I81" s="3">
-        <v>3119800</v>
+        <v>3248700</v>
       </c>
       <c r="J81" s="3">
-        <v>1088200</v>
+        <v>1133100</v>
       </c>
       <c r="K81" s="3">
         <v>2240500</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10020600</v>
+        <v>10434500</v>
       </c>
       <c r="E83" s="3">
-        <v>9864100</v>
+        <v>10271500</v>
       </c>
       <c r="F83" s="3">
-        <v>8290100</v>
+        <v>8632500</v>
       </c>
       <c r="G83" s="3">
-        <v>8053600</v>
+        <v>8386300</v>
       </c>
       <c r="H83" s="3">
-        <v>7914800</v>
+        <v>8241700</v>
       </c>
       <c r="I83" s="3">
-        <v>7605400</v>
+        <v>7919600</v>
       </c>
       <c r="J83" s="3">
-        <v>7103100</v>
+        <v>7396500</v>
       </c>
       <c r="K83" s="3">
         <v>7239400</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14936800</v>
+        <v>15553700</v>
       </c>
       <c r="E89" s="3">
-        <v>11987500</v>
+        <v>12482600</v>
       </c>
       <c r="F89" s="3">
-        <v>11182900</v>
+        <v>11644800</v>
       </c>
       <c r="G89" s="3">
-        <v>11968700</v>
+        <v>12463000</v>
       </c>
       <c r="H89" s="3">
-        <v>10293500</v>
+        <v>10718700</v>
       </c>
       <c r="I89" s="3">
-        <v>11207600</v>
+        <v>11670500</v>
       </c>
       <c r="J89" s="3">
-        <v>10354700</v>
+        <v>10782400</v>
       </c>
       <c r="K89" s="3">
         <v>8683200</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10053500</v>
+        <v>-10468800</v>
       </c>
       <c r="E91" s="3">
-        <v>-9907600</v>
+        <v>-10316900</v>
       </c>
       <c r="F91" s="3">
-        <v>-8990000</v>
+        <v>-9361400</v>
       </c>
       <c r="G91" s="3">
-        <v>-8854800</v>
+        <v>-9220500</v>
       </c>
       <c r="H91" s="3">
-        <v>-9990000</v>
+        <v>-10402600</v>
       </c>
       <c r="I91" s="3">
-        <v>-9141800</v>
+        <v>-9519400</v>
       </c>
       <c r="J91" s="3">
-        <v>-7189000</v>
+        <v>-7485900</v>
       </c>
       <c r="K91" s="3">
         <v>-7317200</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6545500</v>
+        <v>-6815800</v>
       </c>
       <c r="E94" s="3">
-        <v>-11022900</v>
+        <v>-11478200</v>
       </c>
       <c r="F94" s="3">
-        <v>-10060600</v>
+        <v>-10476100</v>
       </c>
       <c r="G94" s="3">
-        <v>-9341800</v>
+        <v>-9727600</v>
       </c>
       <c r="H94" s="3">
-        <v>-5739700</v>
+        <v>-5976700</v>
       </c>
       <c r="I94" s="3">
-        <v>-11065200</v>
+        <v>-11522300</v>
       </c>
       <c r="J94" s="3">
-        <v>-7472500</v>
+        <v>-7781100</v>
       </c>
       <c r="K94" s="3">
         <v>-7229800</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1876400</v>
+        <v>-1953900</v>
       </c>
       <c r="E96" s="3">
-        <v>-2184600</v>
+        <v>-2274800</v>
       </c>
       <c r="F96" s="3">
-        <v>-2188100</v>
+        <v>-2278500</v>
       </c>
       <c r="G96" s="3">
-        <v>-2034000</v>
+        <v>-2118000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1877500</v>
+        <v>-1955100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1869300</v>
+        <v>-1946500</v>
       </c>
       <c r="J96" s="3">
-        <v>-2171600</v>
+        <v>-2261300</v>
       </c>
       <c r="K96" s="3">
         <v>-1571800</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6364300</v>
+        <v>-6627200</v>
       </c>
       <c r="E100" s="3">
-        <v>28200</v>
+        <v>29400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1330500</v>
+        <v>-1385500</v>
       </c>
       <c r="G100" s="3">
-        <v>-3221000</v>
+        <v>-3354000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2215200</v>
+        <v>-2306700</v>
       </c>
       <c r="I100" s="3">
-        <v>-4616200</v>
+        <v>-4806900</v>
       </c>
       <c r="J100" s="3">
-        <v>-181200</v>
+        <v>-188600</v>
       </c>
       <c r="K100" s="3">
         <v>-4231000</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-69400</v>
+        <v>-72300</v>
       </c>
       <c r="E101" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="F101" s="3">
         <v>1200</v>
       </c>
       <c r="G101" s="3">
-        <v>-47100</v>
+        <v>-49000</v>
       </c>
       <c r="H101" s="3">
-        <v>-120000</v>
+        <v>-124900</v>
       </c>
       <c r="I101" s="3">
-        <v>1781100</v>
+        <v>1854600</v>
       </c>
       <c r="J101" s="3">
-        <v>-1731700</v>
+        <v>-1803200</v>
       </c>
       <c r="K101" s="3">
         <v>-77800</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1957500</v>
+        <v>2038400</v>
       </c>
       <c r="E102" s="3">
-        <v>996400</v>
+        <v>1037600</v>
       </c>
       <c r="F102" s="3">
-        <v>-207000</v>
+        <v>-215600</v>
       </c>
       <c r="G102" s="3">
-        <v>-641100</v>
+        <v>-667600</v>
       </c>
       <c r="H102" s="3">
-        <v>2218700</v>
+        <v>2310300</v>
       </c>
       <c r="I102" s="3">
-        <v>-2692800</v>
+        <v>-2804000</v>
       </c>
       <c r="J102" s="3">
-        <v>969400</v>
+        <v>1009400</v>
       </c>
       <c r="K102" s="3">
         <v>-2855300</v>

--- a/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>51780300</v>
+        <v>49346400</v>
       </c>
       <c r="E8" s="3">
-        <v>51741100</v>
+        <v>49309100</v>
       </c>
       <c r="F8" s="3">
-        <v>50691300</v>
+        <v>48308600</v>
       </c>
       <c r="G8" s="3">
-        <v>50051900</v>
+        <v>47699200</v>
       </c>
       <c r="H8" s="3">
-        <v>50124100</v>
+        <v>47768100</v>
       </c>
       <c r="I8" s="3">
-        <v>49288700</v>
+        <v>46971900</v>
       </c>
       <c r="J8" s="3">
-        <v>48319700</v>
+        <v>46048500</v>
       </c>
       <c r="K8" s="3">
         <v>49021500</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20584700</v>
+        <v>19617200</v>
       </c>
       <c r="E9" s="3">
-        <v>20574900</v>
+        <v>19607800</v>
       </c>
       <c r="F9" s="3">
-        <v>21292800</v>
+        <v>20291900</v>
       </c>
       <c r="G9" s="3">
-        <v>21110300</v>
+        <v>20118000</v>
       </c>
       <c r="H9" s="3">
-        <v>20978000</v>
+        <v>19991900</v>
       </c>
       <c r="I9" s="3">
-        <v>20254000</v>
+        <v>19302000</v>
       </c>
       <c r="J9" s="3">
-        <v>21132300</v>
+        <v>20139000</v>
       </c>
       <c r="K9" s="3">
         <v>21489700</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31195600</v>
+        <v>29729300</v>
       </c>
       <c r="E10" s="3">
-        <v>31166200</v>
+        <v>29701200</v>
       </c>
       <c r="F10" s="3">
-        <v>29398500</v>
+        <v>28016700</v>
       </c>
       <c r="G10" s="3">
-        <v>28941600</v>
+        <v>27581200</v>
       </c>
       <c r="H10" s="3">
-        <v>29146200</v>
+        <v>27776200</v>
       </c>
       <c r="I10" s="3">
-        <v>29034700</v>
+        <v>27670000</v>
       </c>
       <c r="J10" s="3">
-        <v>27187400</v>
+        <v>25909500</v>
       </c>
       <c r="K10" s="3">
         <v>27531700</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>488800</v>
+        <v>465800</v>
       </c>
       <c r="E14" s="3">
-        <v>352800</v>
+        <v>336200</v>
       </c>
       <c r="F14" s="3">
-        <v>358900</v>
+        <v>342100</v>
       </c>
       <c r="G14" s="3">
-        <v>1493300</v>
+        <v>1423100</v>
       </c>
       <c r="H14" s="3">
-        <v>2702300</v>
+        <v>2575300</v>
       </c>
       <c r="I14" s="3">
-        <v>710500</v>
+        <v>677100</v>
       </c>
       <c r="J14" s="3">
-        <v>927300</v>
+        <v>883700</v>
       </c>
       <c r="K14" s="3">
         <v>1171100</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10434500</v>
+        <v>9944000</v>
       </c>
       <c r="E15" s="3">
-        <v>10270300</v>
+        <v>9787600</v>
       </c>
       <c r="F15" s="3">
-        <v>8632500</v>
+        <v>8226700</v>
       </c>
       <c r="G15" s="3">
-        <v>8386300</v>
+        <v>7992100</v>
       </c>
       <c r="H15" s="3">
-        <v>8241700</v>
+        <v>7854300</v>
       </c>
       <c r="I15" s="3">
-        <v>7919600</v>
+        <v>7547300</v>
       </c>
       <c r="J15" s="3">
-        <v>7396500</v>
+        <v>7048800</v>
       </c>
       <c r="K15" s="3">
         <v>7239400</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>45017200</v>
+        <v>42901200</v>
       </c>
       <c r="E17" s="3">
-        <v>44476900</v>
+        <v>42386300</v>
       </c>
       <c r="F17" s="3">
-        <v>44775800</v>
+        <v>42671200</v>
       </c>
       <c r="G17" s="3">
-        <v>44198900</v>
+        <v>42121300</v>
       </c>
       <c r="H17" s="3">
-        <v>46052300</v>
+        <v>43887600</v>
       </c>
       <c r="I17" s="3">
-        <v>43479800</v>
+        <v>41436100</v>
       </c>
       <c r="J17" s="3">
-        <v>42720300</v>
+        <v>40712300</v>
       </c>
       <c r="K17" s="3">
         <v>42696000</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6763200</v>
+        <v>6445300</v>
       </c>
       <c r="E18" s="3">
-        <v>7264200</v>
+        <v>6922700</v>
       </c>
       <c r="F18" s="3">
-        <v>5915500</v>
+        <v>5637400</v>
       </c>
       <c r="G18" s="3">
-        <v>5853000</v>
+        <v>5577900</v>
       </c>
       <c r="H18" s="3">
-        <v>4071900</v>
+        <v>3880500</v>
       </c>
       <c r="I18" s="3">
-        <v>5808900</v>
+        <v>5535900</v>
       </c>
       <c r="J18" s="3">
-        <v>5599400</v>
+        <v>5336200</v>
       </c>
       <c r="K18" s="3">
         <v>6325500</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-50200</v>
+        <v>-47900</v>
       </c>
       <c r="E20" s="3">
-        <v>151900</v>
+        <v>144800</v>
       </c>
       <c r="F20" s="3">
-        <v>40400</v>
+        <v>38500</v>
       </c>
       <c r="G20" s="3">
-        <v>-438500</v>
+        <v>-417900</v>
       </c>
       <c r="H20" s="3">
-        <v>151900</v>
+        <v>144800</v>
       </c>
       <c r="I20" s="3">
-        <v>161700</v>
+        <v>154100</v>
       </c>
       <c r="J20" s="3">
-        <v>98000</v>
+        <v>93400</v>
       </c>
       <c r="K20" s="3">
         <v>-3600</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17117600</v>
+        <v>16372000</v>
       </c>
       <c r="E21" s="3">
-        <v>17658300</v>
+        <v>16886300</v>
       </c>
       <c r="F21" s="3">
-        <v>14563700</v>
+        <v>13928000</v>
       </c>
       <c r="G21" s="3">
-        <v>13776800</v>
+        <v>13176600</v>
       </c>
       <c r="H21" s="3">
-        <v>12442000</v>
+        <v>11903700</v>
       </c>
       <c r="I21" s="3">
-        <v>13867500</v>
+        <v>13260500</v>
       </c>
       <c r="J21" s="3">
-        <v>13072800</v>
+        <v>12500100</v>
       </c>
       <c r="K21" s="3">
         <v>13531700</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1559400</v>
+        <v>1486100</v>
       </c>
       <c r="E22" s="3">
-        <v>1696600</v>
+        <v>1616900</v>
       </c>
       <c r="F22" s="3">
-        <v>1708900</v>
+        <v>1628500</v>
       </c>
       <c r="G22" s="3">
-        <v>1662300</v>
+        <v>1584200</v>
       </c>
       <c r="H22" s="3">
-        <v>1798300</v>
+        <v>1713800</v>
       </c>
       <c r="I22" s="3">
-        <v>2100900</v>
+        <v>2002100</v>
       </c>
       <c r="J22" s="3">
-        <v>2104500</v>
+        <v>2005600</v>
       </c>
       <c r="K22" s="3">
         <v>2089800</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5153500</v>
+        <v>4911300</v>
       </c>
       <c r="E23" s="3">
-        <v>5719500</v>
+        <v>5450600</v>
       </c>
       <c r="F23" s="3">
-        <v>4247000</v>
+        <v>4047400</v>
       </c>
       <c r="G23" s="3">
-        <v>3752100</v>
+        <v>3575800</v>
       </c>
       <c r="H23" s="3">
-        <v>2425500</v>
+        <v>2311500</v>
       </c>
       <c r="I23" s="3">
-        <v>3869700</v>
+        <v>3687800</v>
       </c>
       <c r="J23" s="3">
-        <v>3592900</v>
+        <v>3424000</v>
       </c>
       <c r="K23" s="3">
         <v>4232200</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1038800</v>
+        <v>-990000</v>
       </c>
       <c r="E24" s="3">
-        <v>1772600</v>
+        <v>1689200</v>
       </c>
       <c r="F24" s="3">
-        <v>1603500</v>
+        <v>1528100</v>
       </c>
       <c r="G24" s="3">
-        <v>1288700</v>
+        <v>1228100</v>
       </c>
       <c r="H24" s="3">
-        <v>1188200</v>
+        <v>1132400</v>
       </c>
       <c r="I24" s="3">
-        <v>795000</v>
+        <v>757600</v>
       </c>
       <c r="J24" s="3">
-        <v>1926900</v>
+        <v>1836300</v>
       </c>
       <c r="K24" s="3">
         <v>1680700</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6192300</v>
+        <v>5901300</v>
       </c>
       <c r="E26" s="3">
-        <v>3946900</v>
+        <v>3761400</v>
       </c>
       <c r="F26" s="3">
-        <v>2643500</v>
+        <v>2519300</v>
       </c>
       <c r="G26" s="3">
-        <v>2463500</v>
+        <v>2347700</v>
       </c>
       <c r="H26" s="3">
-        <v>1237200</v>
+        <v>1179100</v>
       </c>
       <c r="I26" s="3">
-        <v>3074700</v>
+        <v>2930200</v>
       </c>
       <c r="J26" s="3">
-        <v>1666000</v>
+        <v>1587700</v>
       </c>
       <c r="K26" s="3">
         <v>2551500</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5594500</v>
+        <v>5331600</v>
       </c>
       <c r="E27" s="3">
-        <v>3351600</v>
+        <v>3194000</v>
       </c>
       <c r="F27" s="3">
-        <v>2034700</v>
+        <v>1939100</v>
       </c>
       <c r="G27" s="3">
-        <v>1895100</v>
+        <v>1806000</v>
       </c>
       <c r="H27" s="3">
-        <v>483900</v>
+        <v>461100</v>
       </c>
       <c r="I27" s="3">
-        <v>2699900</v>
+        <v>2573000</v>
       </c>
       <c r="J27" s="3">
-        <v>1298500</v>
+        <v>1237500</v>
       </c>
       <c r="K27" s="3">
         <v>2240500</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>35500</v>
+        <v>33900</v>
       </c>
       <c r="H29" s="3">
-        <v>2759900</v>
+        <v>2630200</v>
       </c>
       <c r="I29" s="3">
-        <v>548800</v>
+        <v>523000</v>
       </c>
       <c r="J29" s="3">
-        <v>-165400</v>
+        <v>-157600</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>50200</v>
+        <v>47900</v>
       </c>
       <c r="E32" s="3">
-        <v>-151900</v>
+        <v>-144800</v>
       </c>
       <c r="F32" s="3">
-        <v>-40400</v>
+        <v>-38500</v>
       </c>
       <c r="G32" s="3">
-        <v>438500</v>
+        <v>417900</v>
       </c>
       <c r="H32" s="3">
-        <v>-151900</v>
+        <v>-144800</v>
       </c>
       <c r="I32" s="3">
-        <v>-161700</v>
+        <v>-154100</v>
       </c>
       <c r="J32" s="3">
-        <v>-98000</v>
+        <v>-93400</v>
       </c>
       <c r="K32" s="3">
         <v>3600</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5594500</v>
+        <v>5331600</v>
       </c>
       <c r="E33" s="3">
-        <v>3351600</v>
+        <v>3194000</v>
       </c>
       <c r="F33" s="3">
-        <v>2034700</v>
+        <v>1939100</v>
       </c>
       <c r="G33" s="3">
-        <v>1930600</v>
+        <v>1839800</v>
       </c>
       <c r="H33" s="3">
-        <v>3243800</v>
+        <v>3091300</v>
       </c>
       <c r="I33" s="3">
-        <v>3248700</v>
+        <v>3096000</v>
       </c>
       <c r="J33" s="3">
-        <v>1133100</v>
+        <v>1079900</v>
       </c>
       <c r="K33" s="3">
         <v>2240500</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5594500</v>
+        <v>5331600</v>
       </c>
       <c r="E35" s="3">
-        <v>3351600</v>
+        <v>3194000</v>
       </c>
       <c r="F35" s="3">
-        <v>2034700</v>
+        <v>1939100</v>
       </c>
       <c r="G35" s="3">
-        <v>1930600</v>
+        <v>1839800</v>
       </c>
       <c r="H35" s="3">
-        <v>3243800</v>
+        <v>3091300</v>
       </c>
       <c r="I35" s="3">
-        <v>3248700</v>
+        <v>3096000</v>
       </c>
       <c r="J35" s="3">
-        <v>1133100</v>
+        <v>1079900</v>
       </c>
       <c r="K35" s="3">
         <v>2240500</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9977500</v>
+        <v>9508600</v>
       </c>
       <c r="E41" s="3">
-        <v>7939200</v>
+        <v>7566000</v>
       </c>
       <c r="F41" s="3">
-        <v>6901600</v>
+        <v>6577200</v>
       </c>
       <c r="G41" s="3">
-        <v>7117200</v>
+        <v>6782700</v>
       </c>
       <c r="H41" s="3">
-        <v>7784800</v>
+        <v>7418900</v>
       </c>
       <c r="I41" s="3">
-        <v>5474500</v>
+        <v>5217200</v>
       </c>
       <c r="J41" s="3">
-        <v>8278500</v>
+        <v>7889400</v>
       </c>
       <c r="K41" s="3">
         <v>8973900</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3984900</v>
+        <v>3797600</v>
       </c>
       <c r="E42" s="3">
-        <v>5920400</v>
+        <v>5642100</v>
       </c>
       <c r="F42" s="3">
-        <v>3441000</v>
+        <v>3279300</v>
       </c>
       <c r="G42" s="3">
-        <v>10806900</v>
+        <v>10298900</v>
       </c>
       <c r="H42" s="3">
-        <v>2274800</v>
+        <v>2167900</v>
       </c>
       <c r="I42" s="3">
-        <v>1570400</v>
+        <v>1496600</v>
       </c>
       <c r="J42" s="3">
-        <v>300100</v>
+        <v>286000</v>
       </c>
       <c r="K42" s="3">
         <v>250000</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12456900</v>
+        <v>11871400</v>
       </c>
       <c r="E43" s="3">
-        <v>13189500</v>
+        <v>12569500</v>
       </c>
       <c r="F43" s="3">
-        <v>13010600</v>
+        <v>12399100</v>
       </c>
       <c r="G43" s="3">
-        <v>9260900</v>
+        <v>8825600</v>
       </c>
       <c r="H43" s="3">
-        <v>11206200</v>
+        <v>10679500</v>
       </c>
       <c r="I43" s="3">
-        <v>7267900</v>
+        <v>6926200</v>
       </c>
       <c r="J43" s="3">
-        <v>6901600</v>
+        <v>6577200</v>
       </c>
       <c r="K43" s="3">
         <v>11713200</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>997100</v>
+        <v>950300</v>
       </c>
       <c r="E44" s="3">
-        <v>1109800</v>
+        <v>1057700</v>
       </c>
       <c r="F44" s="3">
-        <v>1182100</v>
+        <v>1126600</v>
       </c>
       <c r="G44" s="3">
-        <v>1013100</v>
+        <v>965400</v>
       </c>
       <c r="H44" s="3">
-        <v>1003300</v>
+        <v>956100</v>
       </c>
       <c r="I44" s="3">
-        <v>934700</v>
+        <v>890700</v>
       </c>
       <c r="J44" s="3">
-        <v>868500</v>
+        <v>827700</v>
       </c>
       <c r="K44" s="3">
         <v>762000</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3323400</v>
+        <v>3167200</v>
       </c>
       <c r="E45" s="3">
-        <v>2450000</v>
+        <v>2334800</v>
       </c>
       <c r="F45" s="3">
-        <v>2280900</v>
+        <v>2173700</v>
       </c>
       <c r="G45" s="3">
-        <v>1939200</v>
+        <v>1848000</v>
       </c>
       <c r="H45" s="3">
-        <v>2045700</v>
+        <v>1949600</v>
       </c>
       <c r="I45" s="3">
-        <v>2284600</v>
+        <v>2177200</v>
       </c>
       <c r="J45" s="3">
-        <v>1368300</v>
+        <v>1304000</v>
       </c>
       <c r="K45" s="3">
         <v>1541900</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>30739900</v>
+        <v>29295000</v>
       </c>
       <c r="E46" s="3">
-        <v>30608800</v>
+        <v>29170100</v>
       </c>
       <c r="F46" s="3">
-        <v>26816300</v>
+        <v>25555800</v>
       </c>
       <c r="G46" s="3">
-        <v>26627600</v>
+        <v>25376000</v>
       </c>
       <c r="H46" s="3">
-        <v>24314800</v>
+        <v>23171900</v>
       </c>
       <c r="I46" s="3">
-        <v>17532100</v>
+        <v>16708000</v>
       </c>
       <c r="J46" s="3">
-        <v>17717000</v>
+        <v>16884300</v>
       </c>
       <c r="K46" s="3">
         <v>16082900</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3459400</v>
+        <v>3296800</v>
       </c>
       <c r="E47" s="3">
-        <v>3148200</v>
+        <v>3000200</v>
       </c>
       <c r="F47" s="3">
-        <v>4903600</v>
+        <v>4673100</v>
       </c>
       <c r="G47" s="3">
-        <v>9186200</v>
+        <v>8754400</v>
       </c>
       <c r="H47" s="3">
-        <v>6170300</v>
+        <v>5880200</v>
       </c>
       <c r="I47" s="3">
-        <v>1221300</v>
+        <v>1163900</v>
       </c>
       <c r="J47" s="3">
-        <v>5922800</v>
+        <v>5644400</v>
       </c>
       <c r="K47" s="3">
         <v>12350800</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>44202500</v>
+        <v>42124800</v>
       </c>
       <c r="E48" s="3">
-        <v>85514100</v>
+        <v>81494600</v>
       </c>
       <c r="F48" s="3">
-        <v>33923600</v>
+        <v>32329100</v>
       </c>
       <c r="G48" s="3">
-        <v>65328700</v>
+        <v>62258000</v>
       </c>
       <c r="H48" s="3">
-        <v>31741900</v>
+        <v>30249900</v>
       </c>
       <c r="I48" s="3">
-        <v>30775400</v>
+        <v>29328800</v>
       </c>
       <c r="J48" s="3">
-        <v>28559400</v>
+        <v>27217000</v>
       </c>
       <c r="K48" s="3">
         <v>55400800</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>52345000</v>
+        <v>49884600</v>
       </c>
       <c r="E49" s="3">
-        <v>103833000</v>
+        <v>98952000</v>
       </c>
       <c r="F49" s="3">
-        <v>50527200</v>
+        <v>48152200</v>
       </c>
       <c r="G49" s="3">
-        <v>68096000</v>
+        <v>64895200</v>
       </c>
       <c r="H49" s="3">
-        <v>51153100</v>
+        <v>48748700</v>
       </c>
       <c r="I49" s="3">
-        <v>50712100</v>
+        <v>48328400</v>
       </c>
       <c r="J49" s="3">
-        <v>44828500</v>
+        <v>42721400</v>
       </c>
       <c r="K49" s="3">
         <v>57987000</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1225000</v>
+        <v>1167400</v>
       </c>
       <c r="E52" s="3">
-        <v>2058000</v>
+        <v>1961200</v>
       </c>
       <c r="F52" s="3">
-        <v>2153500</v>
+        <v>2052300</v>
       </c>
       <c r="G52" s="3">
-        <v>2338500</v>
+        <v>2228600</v>
       </c>
       <c r="H52" s="3">
-        <v>3842800</v>
+        <v>3662200</v>
       </c>
       <c r="I52" s="3">
-        <v>11759900</v>
+        <v>11207100</v>
       </c>
       <c r="J52" s="3">
-        <v>11266200</v>
+        <v>10736700</v>
       </c>
       <c r="K52" s="3">
         <v>5683100</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>131972000</v>
+        <v>125769000</v>
       </c>
       <c r="E54" s="3">
-        <v>130757000</v>
+        <v>124611000</v>
       </c>
       <c r="F54" s="3">
-        <v>118324000</v>
+        <v>112763000</v>
       </c>
       <c r="G54" s="3">
-        <v>116802000</v>
+        <v>111311000</v>
       </c>
       <c r="H54" s="3">
-        <v>115967000</v>
+        <v>110516000</v>
       </c>
       <c r="I54" s="3">
-        <v>112001000</v>
+        <v>106736000</v>
       </c>
       <c r="J54" s="3">
-        <v>108294000</v>
+        <v>103204000</v>
       </c>
       <c r="K54" s="3">
         <v>102673000</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7931800</v>
+        <v>7559000</v>
       </c>
       <c r="E57" s="3">
-        <v>8185400</v>
+        <v>7800600</v>
       </c>
       <c r="F57" s="3">
-        <v>8251500</v>
+        <v>7863700</v>
       </c>
       <c r="G57" s="3">
-        <v>7995500</v>
+        <v>7619700</v>
       </c>
       <c r="H57" s="3">
-        <v>7608400</v>
+        <v>7250800</v>
       </c>
       <c r="I57" s="3">
-        <v>7628000</v>
+        <v>7269500</v>
       </c>
       <c r="J57" s="3">
-        <v>7074300</v>
+        <v>6741800</v>
       </c>
       <c r="K57" s="3">
         <v>6720300</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11997600</v>
+        <v>11433600</v>
       </c>
       <c r="E58" s="3">
-        <v>11690100</v>
+        <v>11140600</v>
       </c>
       <c r="F58" s="3">
-        <v>14704800</v>
+        <v>14013600</v>
       </c>
       <c r="G58" s="3">
-        <v>18748500</v>
+        <v>17867200</v>
       </c>
       <c r="H58" s="3">
-        <v>10397700</v>
+        <v>9909000</v>
       </c>
       <c r="I58" s="3">
-        <v>3404200</v>
+        <v>3244200</v>
       </c>
       <c r="J58" s="3">
-        <v>5991400</v>
+        <v>5709800</v>
       </c>
       <c r="K58" s="3">
         <v>17060200</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14730500</v>
+        <v>14038100</v>
       </c>
       <c r="E59" s="3">
-        <v>14138800</v>
+        <v>13474200</v>
       </c>
       <c r="F59" s="3">
-        <v>14156000</v>
+        <v>13490600</v>
       </c>
       <c r="G59" s="3">
-        <v>14681500</v>
+        <v>13991400</v>
       </c>
       <c r="H59" s="3">
-        <v>13726000</v>
+        <v>13080800</v>
       </c>
       <c r="I59" s="3">
-        <v>15459400</v>
+        <v>14732700</v>
       </c>
       <c r="J59" s="3">
-        <v>11452400</v>
+        <v>10914100</v>
       </c>
       <c r="K59" s="3">
         <v>11215600</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>34659900</v>
+        <v>33030700</v>
       </c>
       <c r="E60" s="3">
-        <v>34014300</v>
+        <v>32415500</v>
       </c>
       <c r="F60" s="3">
-        <v>37112300</v>
+        <v>35367900</v>
       </c>
       <c r="G60" s="3">
-        <v>35594500</v>
+        <v>33921400</v>
       </c>
       <c r="H60" s="3">
-        <v>31732100</v>
+        <v>30240600</v>
       </c>
       <c r="I60" s="3">
-        <v>26491600</v>
+        <v>25246400</v>
       </c>
       <c r="J60" s="3">
-        <v>24518200</v>
+        <v>23365700</v>
       </c>
       <c r="K60" s="3">
         <v>26503000</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>44055500</v>
+        <v>41984700</v>
       </c>
       <c r="E61" s="3">
-        <v>47457300</v>
+        <v>45226600</v>
       </c>
       <c r="F61" s="3">
-        <v>32450000</v>
+        <v>30924700</v>
       </c>
       <c r="G61" s="3">
-        <v>32208700</v>
+        <v>30694700</v>
       </c>
       <c r="H61" s="3">
-        <v>35222100</v>
+        <v>33566500</v>
       </c>
       <c r="I61" s="3">
-        <v>36171500</v>
+        <v>34471300</v>
       </c>
       <c r="J61" s="3">
-        <v>36115200</v>
+        <v>34417600</v>
       </c>
       <c r="K61" s="3">
         <v>36267600</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7885300</v>
+        <v>7514600</v>
       </c>
       <c r="E62" s="3">
-        <v>7129400</v>
+        <v>6794300</v>
       </c>
       <c r="F62" s="3">
-        <v>8032300</v>
+        <v>7654700</v>
       </c>
       <c r="G62" s="3">
-        <v>8175600</v>
+        <v>7791300</v>
       </c>
       <c r="H62" s="3">
-        <v>8375300</v>
+        <v>7981600</v>
       </c>
       <c r="I62" s="3">
-        <v>8586000</v>
+        <v>8182400</v>
       </c>
       <c r="J62" s="3">
-        <v>8827300</v>
+        <v>8412400</v>
       </c>
       <c r="K62" s="3">
         <v>8402100</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>89838300</v>
+        <v>85615500</v>
       </c>
       <c r="E66" s="3">
-        <v>91893800</v>
+        <v>87574400</v>
       </c>
       <c r="F66" s="3">
-        <v>80755000</v>
+        <v>76959200</v>
       </c>
       <c r="G66" s="3">
-        <v>78857500</v>
+        <v>75150900</v>
       </c>
       <c r="H66" s="3">
-        <v>78374900</v>
+        <v>74690900</v>
       </c>
       <c r="I66" s="3">
-        <v>74140100</v>
+        <v>70655200</v>
       </c>
       <c r="J66" s="3">
-        <v>72084500</v>
+        <v>68696200</v>
       </c>
       <c r="K66" s="3">
         <v>73547200</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2267500</v>
+        <v>2160900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1316900</v>
+        <v>-1255000</v>
       </c>
       <c r="F72" s="3">
-        <v>-2525900</v>
+        <v>-2407200</v>
       </c>
       <c r="G72" s="3">
-        <v>-2267500</v>
+        <v>-2160900</v>
       </c>
       <c r="H72" s="3">
-        <v>-5909400</v>
+        <v>-5631600</v>
       </c>
       <c r="I72" s="3">
-        <v>4313200</v>
+        <v>4110500</v>
       </c>
       <c r="J72" s="3">
-        <v>2661900</v>
+        <v>2536800</v>
       </c>
       <c r="K72" s="3">
         <v>-3632900</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42133500</v>
+        <v>40153100</v>
       </c>
       <c r="E76" s="3">
-        <v>38862800</v>
+        <v>37036100</v>
       </c>
       <c r="F76" s="3">
-        <v>37569200</v>
+        <v>35803300</v>
       </c>
       <c r="G76" s="3">
-        <v>37944100</v>
+        <v>36160500</v>
       </c>
       <c r="H76" s="3">
-        <v>37592500</v>
+        <v>35825500</v>
       </c>
       <c r="I76" s="3">
-        <v>37860800</v>
+        <v>36081100</v>
       </c>
       <c r="J76" s="3">
-        <v>36209500</v>
+        <v>34507500</v>
       </c>
       <c r="K76" s="3">
         <v>29126300</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5594500</v>
+        <v>5331600</v>
       </c>
       <c r="E81" s="3">
-        <v>3351600</v>
+        <v>3194000</v>
       </c>
       <c r="F81" s="3">
-        <v>2034700</v>
+        <v>1939100</v>
       </c>
       <c r="G81" s="3">
-        <v>1930600</v>
+        <v>1839800</v>
       </c>
       <c r="H81" s="3">
-        <v>3243800</v>
+        <v>3091300</v>
       </c>
       <c r="I81" s="3">
-        <v>3248700</v>
+        <v>3096000</v>
       </c>
       <c r="J81" s="3">
-        <v>1133100</v>
+        <v>1079900</v>
       </c>
       <c r="K81" s="3">
         <v>2240500</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10434500</v>
+        <v>9944000</v>
       </c>
       <c r="E83" s="3">
-        <v>10271500</v>
+        <v>9788700</v>
       </c>
       <c r="F83" s="3">
-        <v>8632500</v>
+        <v>8226700</v>
       </c>
       <c r="G83" s="3">
-        <v>8386300</v>
+        <v>7992100</v>
       </c>
       <c r="H83" s="3">
-        <v>8241700</v>
+        <v>7854300</v>
       </c>
       <c r="I83" s="3">
-        <v>7919600</v>
+        <v>7547300</v>
       </c>
       <c r="J83" s="3">
-        <v>7396500</v>
+        <v>7048800</v>
       </c>
       <c r="K83" s="3">
         <v>7239400</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15553700</v>
+        <v>14822600</v>
       </c>
       <c r="E89" s="3">
-        <v>12482600</v>
+        <v>11895900</v>
       </c>
       <c r="F89" s="3">
-        <v>11644800</v>
+        <v>11097400</v>
       </c>
       <c r="G89" s="3">
-        <v>12463000</v>
+        <v>11877200</v>
       </c>
       <c r="H89" s="3">
-        <v>10718700</v>
+        <v>10214800</v>
       </c>
       <c r="I89" s="3">
-        <v>11670500</v>
+        <v>11121900</v>
       </c>
       <c r="J89" s="3">
-        <v>10782400</v>
+        <v>10275500</v>
       </c>
       <c r="K89" s="3">
         <v>8683200</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10468800</v>
+        <v>-9976700</v>
       </c>
       <c r="E91" s="3">
-        <v>-10316900</v>
+        <v>-9831900</v>
       </c>
       <c r="F91" s="3">
-        <v>-9361400</v>
+        <v>-8921300</v>
       </c>
       <c r="G91" s="3">
-        <v>-9220500</v>
+        <v>-8787100</v>
       </c>
       <c r="H91" s="3">
-        <v>-10402600</v>
+        <v>-9913600</v>
       </c>
       <c r="I91" s="3">
-        <v>-9519400</v>
+        <v>-9071900</v>
       </c>
       <c r="J91" s="3">
-        <v>-7485900</v>
+        <v>-7134000</v>
       </c>
       <c r="K91" s="3">
         <v>-7317200</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6815800</v>
+        <v>-6495500</v>
       </c>
       <c r="E94" s="3">
-        <v>-11478200</v>
+        <v>-10938600</v>
       </c>
       <c r="F94" s="3">
-        <v>-10476100</v>
+        <v>-9983700</v>
       </c>
       <c r="G94" s="3">
-        <v>-9727600</v>
+        <v>-9270400</v>
       </c>
       <c r="H94" s="3">
-        <v>-5976700</v>
+        <v>-5695800</v>
       </c>
       <c r="I94" s="3">
-        <v>-11522300</v>
+        <v>-10980700</v>
       </c>
       <c r="J94" s="3">
-        <v>-7781100</v>
+        <v>-7415400</v>
       </c>
       <c r="K94" s="3">
         <v>-7229800</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1953900</v>
+        <v>-1862000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2274800</v>
+        <v>-2167900</v>
       </c>
       <c r="F96" s="3">
-        <v>-2278500</v>
+        <v>-2171400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2118000</v>
+        <v>-2018500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1955100</v>
+        <v>-1863200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1946500</v>
+        <v>-1855000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2261300</v>
+        <v>-2155000</v>
       </c>
       <c r="K96" s="3">
         <v>-1571800</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6627200</v>
+        <v>-6315700</v>
       </c>
       <c r="E100" s="3">
-        <v>29400</v>
+        <v>28000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1385500</v>
+        <v>-1320300</v>
       </c>
       <c r="G100" s="3">
-        <v>-3354000</v>
+        <v>-3196400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2306700</v>
+        <v>-2198200</v>
       </c>
       <c r="I100" s="3">
-        <v>-4806900</v>
+        <v>-4580900</v>
       </c>
       <c r="J100" s="3">
-        <v>-188600</v>
+        <v>-179800</v>
       </c>
       <c r="K100" s="3">
         <v>-4231000</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-72300</v>
+        <v>-68900</v>
       </c>
       <c r="E101" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F101" s="3">
         <v>1200</v>
       </c>
       <c r="G101" s="3">
-        <v>-49000</v>
+        <v>-46700</v>
       </c>
       <c r="H101" s="3">
-        <v>-124900</v>
+        <v>-119100</v>
       </c>
       <c r="I101" s="3">
-        <v>1854600</v>
+        <v>1767500</v>
       </c>
       <c r="J101" s="3">
-        <v>-1803200</v>
+        <v>-1718400</v>
       </c>
       <c r="K101" s="3">
         <v>-77800</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2038400</v>
+        <v>1942600</v>
       </c>
       <c r="E102" s="3">
-        <v>1037600</v>
+        <v>988800</v>
       </c>
       <c r="F102" s="3">
-        <v>-215600</v>
+        <v>-205500</v>
       </c>
       <c r="G102" s="3">
-        <v>-667600</v>
+        <v>-636200</v>
       </c>
       <c r="H102" s="3">
-        <v>2310300</v>
+        <v>2201700</v>
       </c>
       <c r="I102" s="3">
-        <v>-2804000</v>
+        <v>-2672200</v>
       </c>
       <c r="J102" s="3">
-        <v>1009400</v>
+        <v>961900</v>
       </c>
       <c r="K102" s="3">
         <v>-2855300</v>

--- a/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
@@ -665,7 +665,9 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
@@ -722,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49346400</v>
+        <v>47727100</v>
       </c>
       <c r="E8" s="3">
-        <v>49309100</v>
+        <v>47690900</v>
       </c>
       <c r="F8" s="3">
-        <v>48308600</v>
+        <v>46723300</v>
       </c>
       <c r="G8" s="3">
-        <v>47699200</v>
+        <v>46133900</v>
       </c>
       <c r="H8" s="3">
-        <v>47768100</v>
+        <v>46200500</v>
       </c>
       <c r="I8" s="3">
-        <v>46971900</v>
+        <v>45430500</v>
       </c>
       <c r="J8" s="3">
-        <v>46048500</v>
+        <v>44537300</v>
       </c>
       <c r="K8" s="3">
         <v>49021500</v>
@@ -758,25 +760,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19617200</v>
+        <v>18973400</v>
       </c>
       <c r="E9" s="3">
-        <v>19607800</v>
+        <v>18964400</v>
       </c>
       <c r="F9" s="3">
-        <v>20291900</v>
+        <v>19626000</v>
       </c>
       <c r="G9" s="3">
-        <v>20118000</v>
+        <v>19457800</v>
       </c>
       <c r="H9" s="3">
-        <v>19991900</v>
+        <v>19335800</v>
       </c>
       <c r="I9" s="3">
-        <v>19302000</v>
+        <v>18668500</v>
       </c>
       <c r="J9" s="3">
-        <v>20139000</v>
+        <v>19478100</v>
       </c>
       <c r="K9" s="3">
         <v>21489700</v>
@@ -794,25 +796,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29729300</v>
+        <v>28753700</v>
       </c>
       <c r="E10" s="3">
-        <v>29701200</v>
+        <v>28726600</v>
       </c>
       <c r="F10" s="3">
-        <v>28016700</v>
+        <v>27097300</v>
       </c>
       <c r="G10" s="3">
-        <v>27581200</v>
+        <v>26676100</v>
       </c>
       <c r="H10" s="3">
-        <v>27776200</v>
+        <v>26864700</v>
       </c>
       <c r="I10" s="3">
-        <v>27670000</v>
+        <v>26761900</v>
       </c>
       <c r="J10" s="3">
-        <v>25909500</v>
+        <v>25059200</v>
       </c>
       <c r="K10" s="3">
         <v>27531700</v>
@@ -918,25 +920,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>465800</v>
+        <v>450500</v>
       </c>
       <c r="E14" s="3">
-        <v>336200</v>
+        <v>325200</v>
       </c>
       <c r="F14" s="3">
-        <v>342100</v>
+        <v>330800</v>
       </c>
       <c r="G14" s="3">
-        <v>1423100</v>
+        <v>1376400</v>
       </c>
       <c r="H14" s="3">
-        <v>2575300</v>
+        <v>2490800</v>
       </c>
       <c r="I14" s="3">
-        <v>677100</v>
+        <v>654900</v>
       </c>
       <c r="J14" s="3">
-        <v>883700</v>
+        <v>854700</v>
       </c>
       <c r="K14" s="3">
         <v>1171100</v>
@@ -954,25 +956,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9944000</v>
+        <v>9617700</v>
       </c>
       <c r="E15" s="3">
-        <v>9787600</v>
+        <v>9466400</v>
       </c>
       <c r="F15" s="3">
-        <v>8226700</v>
+        <v>7956800</v>
       </c>
       <c r="G15" s="3">
-        <v>7992100</v>
+        <v>7729800</v>
       </c>
       <c r="H15" s="3">
-        <v>7854300</v>
+        <v>7596600</v>
       </c>
       <c r="I15" s="3">
-        <v>7547300</v>
+        <v>7299600</v>
       </c>
       <c r="J15" s="3">
-        <v>7048800</v>
+        <v>6817500</v>
       </c>
       <c r="K15" s="3">
         <v>7239400</v>
@@ -1003,25 +1005,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42901200</v>
+        <v>41493300</v>
       </c>
       <c r="E17" s="3">
-        <v>42386300</v>
+        <v>40995400</v>
       </c>
       <c r="F17" s="3">
-        <v>42671200</v>
+        <v>41270900</v>
       </c>
       <c r="G17" s="3">
-        <v>42121300</v>
+        <v>40739100</v>
       </c>
       <c r="H17" s="3">
-        <v>43887600</v>
+        <v>42447400</v>
       </c>
       <c r="I17" s="3">
-        <v>41436100</v>
+        <v>40076300</v>
       </c>
       <c r="J17" s="3">
-        <v>40712300</v>
+        <v>39376200</v>
       </c>
       <c r="K17" s="3">
         <v>42696000</v>
@@ -1039,25 +1041,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6445300</v>
+        <v>6233800</v>
       </c>
       <c r="E18" s="3">
-        <v>6922700</v>
+        <v>6695600</v>
       </c>
       <c r="F18" s="3">
-        <v>5637400</v>
+        <v>5452400</v>
       </c>
       <c r="G18" s="3">
-        <v>5577900</v>
+        <v>5394800</v>
       </c>
       <c r="H18" s="3">
-        <v>3880500</v>
+        <v>3753100</v>
       </c>
       <c r="I18" s="3">
-        <v>5535900</v>
+        <v>5354200</v>
       </c>
       <c r="J18" s="3">
-        <v>5336200</v>
+        <v>5161100</v>
       </c>
       <c r="K18" s="3">
         <v>6325500</v>
@@ -1091,25 +1093,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-47900</v>
+        <v>-46300</v>
       </c>
       <c r="E20" s="3">
-        <v>144800</v>
+        <v>140000</v>
       </c>
       <c r="F20" s="3">
-        <v>38500</v>
+        <v>37300</v>
       </c>
       <c r="G20" s="3">
-        <v>-417900</v>
+        <v>-404200</v>
       </c>
       <c r="H20" s="3">
-        <v>144800</v>
+        <v>140000</v>
       </c>
       <c r="I20" s="3">
-        <v>154100</v>
+        <v>149000</v>
       </c>
       <c r="J20" s="3">
-        <v>93400</v>
+        <v>90300</v>
       </c>
       <c r="K20" s="3">
         <v>-3600</v>
@@ -1127,25 +1129,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16372000</v>
+        <v>15827300</v>
       </c>
       <c r="E21" s="3">
-        <v>16886300</v>
+        <v>16324900</v>
       </c>
       <c r="F21" s="3">
-        <v>13928000</v>
+        <v>13464800</v>
       </c>
       <c r="G21" s="3">
-        <v>13176600</v>
+        <v>12738200</v>
       </c>
       <c r="H21" s="3">
-        <v>11903700</v>
+        <v>11507200</v>
       </c>
       <c r="I21" s="3">
-        <v>13260500</v>
+        <v>12819700</v>
       </c>
       <c r="J21" s="3">
-        <v>12500100</v>
+        <v>12084600</v>
       </c>
       <c r="K21" s="3">
         <v>13531700</v>
@@ -1163,25 +1165,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1486100</v>
+        <v>1437300</v>
       </c>
       <c r="E22" s="3">
-        <v>1616900</v>
+        <v>1563800</v>
       </c>
       <c r="F22" s="3">
-        <v>1628500</v>
+        <v>1575100</v>
       </c>
       <c r="G22" s="3">
-        <v>1584200</v>
+        <v>1532200</v>
       </c>
       <c r="H22" s="3">
-        <v>1713800</v>
+        <v>1657500</v>
       </c>
       <c r="I22" s="3">
-        <v>2002100</v>
+        <v>1936400</v>
       </c>
       <c r="J22" s="3">
-        <v>2005600</v>
+        <v>1939800</v>
       </c>
       <c r="K22" s="3">
         <v>2089800</v>
@@ -1199,25 +1201,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4911300</v>
+        <v>4750100</v>
       </c>
       <c r="E23" s="3">
-        <v>5450600</v>
+        <v>5271800</v>
       </c>
       <c r="F23" s="3">
-        <v>4047400</v>
+        <v>3914600</v>
       </c>
       <c r="G23" s="3">
-        <v>3575800</v>
+        <v>3458400</v>
       </c>
       <c r="H23" s="3">
-        <v>2311500</v>
+        <v>2235600</v>
       </c>
       <c r="I23" s="3">
-        <v>3687800</v>
+        <v>3566800</v>
       </c>
       <c r="J23" s="3">
-        <v>3424000</v>
+        <v>3311700</v>
       </c>
       <c r="K23" s="3">
         <v>4232200</v>
@@ -1235,25 +1237,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-990000</v>
+        <v>-957500</v>
       </c>
       <c r="E24" s="3">
-        <v>1689200</v>
+        <v>1633800</v>
       </c>
       <c r="F24" s="3">
-        <v>1528100</v>
+        <v>1478000</v>
       </c>
       <c r="G24" s="3">
-        <v>1228100</v>
+        <v>1187800</v>
       </c>
       <c r="H24" s="3">
-        <v>1132400</v>
+        <v>1095200</v>
       </c>
       <c r="I24" s="3">
-        <v>757600</v>
+        <v>732800</v>
       </c>
       <c r="J24" s="3">
-        <v>1836300</v>
+        <v>1776100</v>
       </c>
       <c r="K24" s="3">
         <v>1680700</v>
@@ -1307,25 +1309,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5901300</v>
+        <v>5707600</v>
       </c>
       <c r="E26" s="3">
-        <v>3761400</v>
+        <v>3638000</v>
       </c>
       <c r="F26" s="3">
-        <v>2519300</v>
+        <v>2436600</v>
       </c>
       <c r="G26" s="3">
-        <v>2347700</v>
+        <v>2270600</v>
       </c>
       <c r="H26" s="3">
-        <v>1179100</v>
+        <v>1140400</v>
       </c>
       <c r="I26" s="3">
-        <v>2930200</v>
+        <v>2834000</v>
       </c>
       <c r="J26" s="3">
-        <v>1587700</v>
+        <v>1535600</v>
       </c>
       <c r="K26" s="3">
         <v>2551500</v>
@@ -1343,25 +1345,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5331600</v>
+        <v>5156600</v>
       </c>
       <c r="E27" s="3">
-        <v>3194000</v>
+        <v>3089200</v>
       </c>
       <c r="F27" s="3">
-        <v>1939100</v>
+        <v>1875400</v>
       </c>
       <c r="G27" s="3">
-        <v>1806000</v>
+        <v>1746700</v>
       </c>
       <c r="H27" s="3">
-        <v>461100</v>
+        <v>446000</v>
       </c>
       <c r="I27" s="3">
-        <v>2573000</v>
+        <v>2488500</v>
       </c>
       <c r="J27" s="3">
-        <v>1237500</v>
+        <v>1196800</v>
       </c>
       <c r="K27" s="3">
         <v>2240500</v>
@@ -1424,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>33900</v>
+        <v>32700</v>
       </c>
       <c r="H29" s="3">
-        <v>2630200</v>
+        <v>2543900</v>
       </c>
       <c r="I29" s="3">
-        <v>523000</v>
+        <v>505800</v>
       </c>
       <c r="J29" s="3">
-        <v>-157600</v>
+        <v>-152400</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1523,25 +1525,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>47900</v>
+        <v>46300</v>
       </c>
       <c r="E32" s="3">
-        <v>-144800</v>
+        <v>-140000</v>
       </c>
       <c r="F32" s="3">
-        <v>-38500</v>
+        <v>-37300</v>
       </c>
       <c r="G32" s="3">
-        <v>417900</v>
+        <v>404200</v>
       </c>
       <c r="H32" s="3">
-        <v>-144800</v>
+        <v>-140000</v>
       </c>
       <c r="I32" s="3">
-        <v>-154100</v>
+        <v>-149000</v>
       </c>
       <c r="J32" s="3">
-        <v>-93400</v>
+        <v>-90300</v>
       </c>
       <c r="K32" s="3">
         <v>3600</v>
@@ -1559,25 +1561,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5331600</v>
+        <v>5156600</v>
       </c>
       <c r="E33" s="3">
-        <v>3194000</v>
+        <v>3089200</v>
       </c>
       <c r="F33" s="3">
-        <v>1939100</v>
+        <v>1875400</v>
       </c>
       <c r="G33" s="3">
-        <v>1839800</v>
+        <v>1779500</v>
       </c>
       <c r="H33" s="3">
-        <v>3091300</v>
+        <v>2989900</v>
       </c>
       <c r="I33" s="3">
-        <v>3096000</v>
+        <v>2994400</v>
       </c>
       <c r="J33" s="3">
-        <v>1079900</v>
+        <v>1044400</v>
       </c>
       <c r="K33" s="3">
         <v>2240500</v>
@@ -1631,25 +1633,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5331600</v>
+        <v>5156600</v>
       </c>
       <c r="E35" s="3">
-        <v>3194000</v>
+        <v>3089200</v>
       </c>
       <c r="F35" s="3">
-        <v>1939100</v>
+        <v>1875400</v>
       </c>
       <c r="G35" s="3">
-        <v>1839800</v>
+        <v>1779500</v>
       </c>
       <c r="H35" s="3">
-        <v>3091300</v>
+        <v>2989900</v>
       </c>
       <c r="I35" s="3">
-        <v>3096000</v>
+        <v>2994400</v>
       </c>
       <c r="J35" s="3">
-        <v>1079900</v>
+        <v>1044400</v>
       </c>
       <c r="K35" s="3">
         <v>2240500</v>
@@ -1740,25 +1742,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9508600</v>
+        <v>9196500</v>
       </c>
       <c r="E41" s="3">
-        <v>7566000</v>
+        <v>7317700</v>
       </c>
       <c r="F41" s="3">
-        <v>6577200</v>
+        <v>6361300</v>
       </c>
       <c r="G41" s="3">
-        <v>6782700</v>
+        <v>6560100</v>
       </c>
       <c r="H41" s="3">
-        <v>7418900</v>
+        <v>7175400</v>
       </c>
       <c r="I41" s="3">
-        <v>5217200</v>
+        <v>5045900</v>
       </c>
       <c r="J41" s="3">
-        <v>7889400</v>
+        <v>7630500</v>
       </c>
       <c r="K41" s="3">
         <v>8973900</v>
@@ -1776,25 +1778,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3797600</v>
+        <v>3673000</v>
       </c>
       <c r="E42" s="3">
-        <v>5642100</v>
+        <v>5456900</v>
       </c>
       <c r="F42" s="3">
-        <v>3279300</v>
+        <v>3171600</v>
       </c>
       <c r="G42" s="3">
-        <v>10298900</v>
+        <v>9960900</v>
       </c>
       <c r="H42" s="3">
-        <v>2167900</v>
+        <v>2096700</v>
       </c>
       <c r="I42" s="3">
-        <v>1496600</v>
+        <v>1447500</v>
       </c>
       <c r="J42" s="3">
-        <v>286000</v>
+        <v>276600</v>
       </c>
       <c r="K42" s="3">
         <v>250000</v>
@@ -1812,25 +1814,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11871400</v>
+        <v>11481800</v>
       </c>
       <c r="E43" s="3">
-        <v>12569500</v>
+        <v>12157000</v>
       </c>
       <c r="F43" s="3">
-        <v>12399100</v>
+        <v>11992200</v>
       </c>
       <c r="G43" s="3">
-        <v>8825600</v>
+        <v>8536000</v>
       </c>
       <c r="H43" s="3">
-        <v>10679500</v>
+        <v>10329000</v>
       </c>
       <c r="I43" s="3">
-        <v>6926200</v>
+        <v>6699000</v>
       </c>
       <c r="J43" s="3">
-        <v>6577200</v>
+        <v>6361300</v>
       </c>
       <c r="K43" s="3">
         <v>11713200</v>
@@ -1848,25 +1850,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>950300</v>
+        <v>919100</v>
       </c>
       <c r="E44" s="3">
-        <v>1057700</v>
+        <v>1023000</v>
       </c>
       <c r="F44" s="3">
-        <v>1126600</v>
+        <v>1089600</v>
       </c>
       <c r="G44" s="3">
-        <v>965400</v>
+        <v>933800</v>
       </c>
       <c r="H44" s="3">
-        <v>956100</v>
+        <v>924700</v>
       </c>
       <c r="I44" s="3">
-        <v>890700</v>
+        <v>861500</v>
       </c>
       <c r="J44" s="3">
-        <v>827700</v>
+        <v>800500</v>
       </c>
       <c r="K44" s="3">
         <v>762000</v>
@@ -1884,25 +1886,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3167200</v>
+        <v>3063200</v>
       </c>
       <c r="E45" s="3">
-        <v>2334800</v>
+        <v>2258200</v>
       </c>
       <c r="F45" s="3">
-        <v>2173700</v>
+        <v>2102400</v>
       </c>
       <c r="G45" s="3">
-        <v>1848000</v>
+        <v>1787400</v>
       </c>
       <c r="H45" s="3">
-        <v>1949600</v>
+        <v>1885600</v>
       </c>
       <c r="I45" s="3">
-        <v>2177200</v>
+        <v>2105800</v>
       </c>
       <c r="J45" s="3">
-        <v>1304000</v>
+        <v>1261200</v>
       </c>
       <c r="K45" s="3">
         <v>1541900</v>
@@ -1920,25 +1922,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29295000</v>
+        <v>28333600</v>
       </c>
       <c r="E46" s="3">
-        <v>29170100</v>
+        <v>28212800</v>
       </c>
       <c r="F46" s="3">
-        <v>25555800</v>
+        <v>24717100</v>
       </c>
       <c r="G46" s="3">
-        <v>25376000</v>
+        <v>24543200</v>
       </c>
       <c r="H46" s="3">
-        <v>23171900</v>
+        <v>22411500</v>
       </c>
       <c r="I46" s="3">
-        <v>16708000</v>
+        <v>16159700</v>
       </c>
       <c r="J46" s="3">
-        <v>16884300</v>
+        <v>16330200</v>
       </c>
       <c r="K46" s="3">
         <v>16082900</v>
@@ -1956,25 +1958,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3296800</v>
+        <v>3188600</v>
       </c>
       <c r="E47" s="3">
-        <v>3000200</v>
+        <v>2901800</v>
       </c>
       <c r="F47" s="3">
-        <v>4673100</v>
+        <v>4519800</v>
       </c>
       <c r="G47" s="3">
-        <v>8754400</v>
+        <v>8467100</v>
       </c>
       <c r="H47" s="3">
-        <v>5880200</v>
+        <v>5687300</v>
       </c>
       <c r="I47" s="3">
-        <v>1163900</v>
+        <v>1125700</v>
       </c>
       <c r="J47" s="3">
-        <v>5644400</v>
+        <v>5459200</v>
       </c>
       <c r="K47" s="3">
         <v>12350800</v>
@@ -1992,25 +1994,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42124800</v>
+        <v>40742400</v>
       </c>
       <c r="E48" s="3">
-        <v>81494600</v>
+        <v>78820200</v>
       </c>
       <c r="F48" s="3">
-        <v>32329100</v>
+        <v>31268200</v>
       </c>
       <c r="G48" s="3">
-        <v>62258000</v>
+        <v>60214900</v>
       </c>
       <c r="H48" s="3">
-        <v>30249900</v>
+        <v>29257200</v>
       </c>
       <c r="I48" s="3">
-        <v>29328800</v>
+        <v>28366400</v>
       </c>
       <c r="J48" s="3">
-        <v>27217000</v>
+        <v>26323800</v>
       </c>
       <c r="K48" s="3">
         <v>55400800</v>
@@ -2028,25 +2030,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>49884600</v>
+        <v>48247600</v>
       </c>
       <c r="E49" s="3">
-        <v>98952000</v>
+        <v>95704800</v>
       </c>
       <c r="F49" s="3">
-        <v>48152200</v>
+        <v>46572000</v>
       </c>
       <c r="G49" s="3">
-        <v>64895200</v>
+        <v>62765500</v>
       </c>
       <c r="H49" s="3">
-        <v>48748700</v>
+        <v>47149000</v>
       </c>
       <c r="I49" s="3">
-        <v>48328400</v>
+        <v>46742500</v>
       </c>
       <c r="J49" s="3">
-        <v>42721400</v>
+        <v>41319400</v>
       </c>
       <c r="K49" s="3">
         <v>57987000</v>
@@ -2136,25 +2138,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1167400</v>
+        <v>1129100</v>
       </c>
       <c r="E52" s="3">
-        <v>1961200</v>
+        <v>1896900</v>
       </c>
       <c r="F52" s="3">
-        <v>2052300</v>
+        <v>1985000</v>
       </c>
       <c r="G52" s="3">
-        <v>2228600</v>
+        <v>2155500</v>
       </c>
       <c r="H52" s="3">
-        <v>3662200</v>
+        <v>3542000</v>
       </c>
       <c r="I52" s="3">
-        <v>11207100</v>
+        <v>10839400</v>
       </c>
       <c r="J52" s="3">
-        <v>10736700</v>
+        <v>10384300</v>
       </c>
       <c r="K52" s="3">
         <v>5683100</v>
@@ -2208,25 +2210,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>125769000</v>
+        <v>121641000</v>
       </c>
       <c r="E54" s="3">
-        <v>124611000</v>
+        <v>120521000</v>
       </c>
       <c r="F54" s="3">
-        <v>112763000</v>
+        <v>109062000</v>
       </c>
       <c r="G54" s="3">
-        <v>111311000</v>
+        <v>107659000</v>
       </c>
       <c r="H54" s="3">
-        <v>110516000</v>
+        <v>106890000</v>
       </c>
       <c r="I54" s="3">
-        <v>106736000</v>
+        <v>103234000</v>
       </c>
       <c r="J54" s="3">
-        <v>103204000</v>
+        <v>99817000</v>
       </c>
       <c r="K54" s="3">
         <v>102673000</v>
@@ -2276,25 +2278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7559000</v>
+        <v>7310900</v>
       </c>
       <c r="E57" s="3">
-        <v>7800600</v>
+        <v>7544600</v>
       </c>
       <c r="F57" s="3">
-        <v>7863700</v>
+        <v>7605600</v>
       </c>
       <c r="G57" s="3">
-        <v>7619700</v>
+        <v>7369600</v>
       </c>
       <c r="H57" s="3">
-        <v>7250800</v>
+        <v>7012800</v>
       </c>
       <c r="I57" s="3">
-        <v>7269500</v>
+        <v>7030900</v>
       </c>
       <c r="J57" s="3">
-        <v>6741800</v>
+        <v>6520600</v>
       </c>
       <c r="K57" s="3">
         <v>6720300</v>
@@ -2312,25 +2314,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11433600</v>
+        <v>11058400</v>
       </c>
       <c r="E58" s="3">
-        <v>11140600</v>
+        <v>10775000</v>
       </c>
       <c r="F58" s="3">
-        <v>14013600</v>
+        <v>13553700</v>
       </c>
       <c r="G58" s="3">
-        <v>17867200</v>
+        <v>17280900</v>
       </c>
       <c r="H58" s="3">
-        <v>9909000</v>
+        <v>9583800</v>
       </c>
       <c r="I58" s="3">
-        <v>3244200</v>
+        <v>3137800</v>
       </c>
       <c r="J58" s="3">
-        <v>5709800</v>
+        <v>5522400</v>
       </c>
       <c r="K58" s="3">
         <v>17060200</v>
@@ -2348,25 +2350,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14038100</v>
+        <v>13577400</v>
       </c>
       <c r="E59" s="3">
-        <v>13474200</v>
+        <v>13032100</v>
       </c>
       <c r="F59" s="3">
-        <v>13490600</v>
+        <v>13047900</v>
       </c>
       <c r="G59" s="3">
-        <v>13991400</v>
+        <v>13532300</v>
       </c>
       <c r="H59" s="3">
-        <v>13080800</v>
+        <v>12651600</v>
       </c>
       <c r="I59" s="3">
-        <v>14732700</v>
+        <v>14249200</v>
       </c>
       <c r="J59" s="3">
-        <v>10914100</v>
+        <v>10556000</v>
       </c>
       <c r="K59" s="3">
         <v>11215600</v>
@@ -2384,25 +2386,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33030700</v>
+        <v>31946800</v>
       </c>
       <c r="E60" s="3">
-        <v>32415500</v>
+        <v>31351700</v>
       </c>
       <c r="F60" s="3">
-        <v>35367900</v>
+        <v>34207200</v>
       </c>
       <c r="G60" s="3">
-        <v>33921400</v>
+        <v>32808300</v>
       </c>
       <c r="H60" s="3">
-        <v>30240600</v>
+        <v>29248200</v>
       </c>
       <c r="I60" s="3">
-        <v>25246400</v>
+        <v>24417900</v>
       </c>
       <c r="J60" s="3">
-        <v>23365700</v>
+        <v>22598900</v>
       </c>
       <c r="K60" s="3">
         <v>26503000</v>
@@ -2420,25 +2422,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>41984700</v>
+        <v>40607000</v>
       </c>
       <c r="E61" s="3">
-        <v>45226600</v>
+        <v>43742500</v>
       </c>
       <c r="F61" s="3">
-        <v>30924700</v>
+        <v>29909900</v>
       </c>
       <c r="G61" s="3">
-        <v>30694700</v>
+        <v>29687400</v>
       </c>
       <c r="H61" s="3">
-        <v>33566500</v>
+        <v>32465000</v>
       </c>
       <c r="I61" s="3">
-        <v>34471300</v>
+        <v>33340100</v>
       </c>
       <c r="J61" s="3">
-        <v>34417600</v>
+        <v>33288100</v>
       </c>
       <c r="K61" s="3">
         <v>36267600</v>
@@ -2456,25 +2458,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7514600</v>
+        <v>7268000</v>
       </c>
       <c r="E62" s="3">
-        <v>6794300</v>
+        <v>6571400</v>
       </c>
       <c r="F62" s="3">
-        <v>7654700</v>
+        <v>7403500</v>
       </c>
       <c r="G62" s="3">
-        <v>7791300</v>
+        <v>7535600</v>
       </c>
       <c r="H62" s="3">
-        <v>7981600</v>
+        <v>7719700</v>
       </c>
       <c r="I62" s="3">
-        <v>8182400</v>
+        <v>7913900</v>
       </c>
       <c r="J62" s="3">
-        <v>8412400</v>
+        <v>8136300</v>
       </c>
       <c r="K62" s="3">
         <v>8402100</v>
@@ -2600,25 +2602,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>85615500</v>
+        <v>82805900</v>
       </c>
       <c r="E66" s="3">
-        <v>87574400</v>
+        <v>84700600</v>
       </c>
       <c r="F66" s="3">
-        <v>76959200</v>
+        <v>74433700</v>
       </c>
       <c r="G66" s="3">
-        <v>75150900</v>
+        <v>72684700</v>
       </c>
       <c r="H66" s="3">
-        <v>74690900</v>
+        <v>72239800</v>
       </c>
       <c r="I66" s="3">
-        <v>70655200</v>
+        <v>68336500</v>
       </c>
       <c r="J66" s="3">
-        <v>68696200</v>
+        <v>66441900</v>
       </c>
       <c r="K66" s="3">
         <v>73547200</v>
@@ -2796,25 +2798,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2160900</v>
+        <v>2090000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1255000</v>
+        <v>-1213800</v>
       </c>
       <c r="F72" s="3">
-        <v>-2407200</v>
+        <v>-2328200</v>
       </c>
       <c r="G72" s="3">
-        <v>-2160900</v>
+        <v>-2090000</v>
       </c>
       <c r="H72" s="3">
-        <v>-5631600</v>
+        <v>-5446800</v>
       </c>
       <c r="I72" s="3">
-        <v>4110500</v>
+        <v>3975600</v>
       </c>
       <c r="J72" s="3">
-        <v>2536800</v>
+        <v>2453500</v>
       </c>
       <c r="K72" s="3">
         <v>-3632900</v>
@@ -2940,25 +2942,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40153100</v>
+        <v>38835400</v>
       </c>
       <c r="E76" s="3">
-        <v>37036100</v>
+        <v>35820700</v>
       </c>
       <c r="F76" s="3">
-        <v>35803300</v>
+        <v>34628400</v>
       </c>
       <c r="G76" s="3">
-        <v>36160500</v>
+        <v>34973900</v>
       </c>
       <c r="H76" s="3">
-        <v>35825500</v>
+        <v>34649800</v>
       </c>
       <c r="I76" s="3">
-        <v>36081100</v>
+        <v>34897100</v>
       </c>
       <c r="J76" s="3">
-        <v>34507500</v>
+        <v>33375100</v>
       </c>
       <c r="K76" s="3">
         <v>29126300</v>
@@ -3053,25 +3055,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5331600</v>
+        <v>5156600</v>
       </c>
       <c r="E81" s="3">
-        <v>3194000</v>
+        <v>3089200</v>
       </c>
       <c r="F81" s="3">
-        <v>1939100</v>
+        <v>1875400</v>
       </c>
       <c r="G81" s="3">
-        <v>1839800</v>
+        <v>1779500</v>
       </c>
       <c r="H81" s="3">
-        <v>3091300</v>
+        <v>2989900</v>
       </c>
       <c r="I81" s="3">
-        <v>3096000</v>
+        <v>2994400</v>
       </c>
       <c r="J81" s="3">
-        <v>1079900</v>
+        <v>1044400</v>
       </c>
       <c r="K81" s="3">
         <v>2240500</v>
@@ -3105,25 +3107,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9944000</v>
+        <v>9617700</v>
       </c>
       <c r="E83" s="3">
-        <v>9788700</v>
+        <v>9467500</v>
       </c>
       <c r="F83" s="3">
-        <v>8226700</v>
+        <v>7956800</v>
       </c>
       <c r="G83" s="3">
-        <v>7992100</v>
+        <v>7729800</v>
       </c>
       <c r="H83" s="3">
-        <v>7854300</v>
+        <v>7596600</v>
       </c>
       <c r="I83" s="3">
-        <v>7547300</v>
+        <v>7299600</v>
       </c>
       <c r="J83" s="3">
-        <v>7048800</v>
+        <v>6817500</v>
       </c>
       <c r="K83" s="3">
         <v>7239400</v>
@@ -3321,25 +3323,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14822600</v>
+        <v>14336200</v>
       </c>
       <c r="E89" s="3">
-        <v>11895900</v>
+        <v>11505500</v>
       </c>
       <c r="F89" s="3">
-        <v>11097400</v>
+        <v>10733200</v>
       </c>
       <c r="G89" s="3">
-        <v>11877200</v>
+        <v>11487500</v>
       </c>
       <c r="H89" s="3">
-        <v>10214800</v>
+        <v>9879600</v>
       </c>
       <c r="I89" s="3">
-        <v>11121900</v>
+        <v>10756900</v>
       </c>
       <c r="J89" s="3">
-        <v>10275500</v>
+        <v>9938300</v>
       </c>
       <c r="K89" s="3">
         <v>8683200</v>
@@ -3373,25 +3375,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9976700</v>
+        <v>-9649300</v>
       </c>
       <c r="E91" s="3">
-        <v>-9831900</v>
+        <v>-9509300</v>
       </c>
       <c r="F91" s="3">
-        <v>-8921300</v>
+        <v>-8628600</v>
       </c>
       <c r="G91" s="3">
-        <v>-8787100</v>
+        <v>-8498700</v>
       </c>
       <c r="H91" s="3">
-        <v>-9913600</v>
+        <v>-9588300</v>
       </c>
       <c r="I91" s="3">
-        <v>-9071900</v>
+        <v>-8774200</v>
       </c>
       <c r="J91" s="3">
-        <v>-7134000</v>
+        <v>-6899900</v>
       </c>
       <c r="K91" s="3">
         <v>-7317200</v>
@@ -3481,25 +3483,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6495500</v>
+        <v>-6282300</v>
       </c>
       <c r="E94" s="3">
-        <v>-10938600</v>
+        <v>-10579700</v>
       </c>
       <c r="F94" s="3">
-        <v>-9983700</v>
+        <v>-9656100</v>
       </c>
       <c r="G94" s="3">
-        <v>-9270400</v>
+        <v>-8966200</v>
       </c>
       <c r="H94" s="3">
-        <v>-5695800</v>
+        <v>-5508900</v>
       </c>
       <c r="I94" s="3">
-        <v>-10980700</v>
+        <v>-10620300</v>
       </c>
       <c r="J94" s="3">
-        <v>-7415400</v>
+        <v>-7172000</v>
       </c>
       <c r="K94" s="3">
         <v>-7229800</v>
@@ -3533,25 +3535,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1862000</v>
+        <v>-1800900</v>
       </c>
       <c r="E96" s="3">
-        <v>-2167900</v>
+        <v>-2096700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2171400</v>
+        <v>-2100100</v>
       </c>
       <c r="G96" s="3">
-        <v>-2018500</v>
+        <v>-1952200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1863200</v>
+        <v>-1802000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1855000</v>
+        <v>-1794100</v>
       </c>
       <c r="J96" s="3">
-        <v>-2155000</v>
+        <v>-2084300</v>
       </c>
       <c r="K96" s="3">
         <v>-1571800</v>
@@ -3677,25 +3679,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6315700</v>
+        <v>-6108400</v>
       </c>
       <c r="E100" s="3">
-        <v>28000</v>
+        <v>27100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1320300</v>
+        <v>-1277000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3196400</v>
+        <v>-3091500</v>
       </c>
       <c r="H100" s="3">
-        <v>-2198200</v>
+        <v>-2126100</v>
       </c>
       <c r="I100" s="3">
-        <v>-4580900</v>
+        <v>-4430600</v>
       </c>
       <c r="J100" s="3">
-        <v>-179800</v>
+        <v>-173900</v>
       </c>
       <c r="K100" s="3">
         <v>-4231000</v>
@@ -3713,25 +3715,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-68900</v>
+        <v>-66600</v>
       </c>
       <c r="E101" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F101" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G101" s="3">
-        <v>-46700</v>
+        <v>-45200</v>
       </c>
       <c r="H101" s="3">
-        <v>-119100</v>
+        <v>-115200</v>
       </c>
       <c r="I101" s="3">
-        <v>1767500</v>
+        <v>1709500</v>
       </c>
       <c r="J101" s="3">
-        <v>-1718400</v>
+        <v>-1662000</v>
       </c>
       <c r="K101" s="3">
         <v>-77800</v>
@@ -3749,25 +3751,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1942600</v>
+        <v>1878800</v>
       </c>
       <c r="E102" s="3">
-        <v>988800</v>
+        <v>956300</v>
       </c>
       <c r="F102" s="3">
-        <v>-205500</v>
+        <v>-198700</v>
       </c>
       <c r="G102" s="3">
-        <v>-636200</v>
+        <v>-615400</v>
       </c>
       <c r="H102" s="3">
-        <v>2201700</v>
+        <v>2129500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2672200</v>
+        <v>-2584500</v>
       </c>
       <c r="J102" s="3">
-        <v>961900</v>
+        <v>930400</v>
       </c>
       <c r="K102" s="3">
         <v>-2855300</v>

--- a/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47727100</v>
+        <v>46112800</v>
       </c>
       <c r="E8" s="3">
-        <v>47690900</v>
+        <v>46077900</v>
       </c>
       <c r="F8" s="3">
-        <v>46723300</v>
+        <v>45142900</v>
       </c>
       <c r="G8" s="3">
-        <v>46133900</v>
+        <v>44573500</v>
       </c>
       <c r="H8" s="3">
-        <v>46200500</v>
+        <v>44637900</v>
       </c>
       <c r="I8" s="3">
-        <v>45430500</v>
+        <v>43893900</v>
       </c>
       <c r="J8" s="3">
-        <v>44537300</v>
+        <v>43030900</v>
       </c>
       <c r="K8" s="3">
         <v>49021500</v>
@@ -760,25 +760,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18973400</v>
+        <v>18331700</v>
       </c>
       <c r="E9" s="3">
-        <v>18964400</v>
+        <v>18322900</v>
       </c>
       <c r="F9" s="3">
-        <v>19626000</v>
+        <v>18962200</v>
       </c>
       <c r="G9" s="3">
-        <v>19457800</v>
+        <v>18799700</v>
       </c>
       <c r="H9" s="3">
-        <v>19335800</v>
+        <v>18681800</v>
       </c>
       <c r="I9" s="3">
-        <v>18668500</v>
+        <v>18037100</v>
       </c>
       <c r="J9" s="3">
-        <v>19478100</v>
+        <v>18819300</v>
       </c>
       <c r="K9" s="3">
         <v>21489700</v>
@@ -796,25 +796,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>28753700</v>
+        <v>27781100</v>
       </c>
       <c r="E10" s="3">
-        <v>28726600</v>
+        <v>27754900</v>
       </c>
       <c r="F10" s="3">
-        <v>27097300</v>
+        <v>26180700</v>
       </c>
       <c r="G10" s="3">
-        <v>26676100</v>
+        <v>25773800</v>
       </c>
       <c r="H10" s="3">
-        <v>26864700</v>
+        <v>25956000</v>
       </c>
       <c r="I10" s="3">
-        <v>26761900</v>
+        <v>25856700</v>
       </c>
       <c r="J10" s="3">
-        <v>25059200</v>
+        <v>24211700</v>
       </c>
       <c r="K10" s="3">
         <v>27531700</v>
@@ -920,25 +920,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>450500</v>
+        <v>435300</v>
       </c>
       <c r="E14" s="3">
-        <v>325200</v>
+        <v>314200</v>
       </c>
       <c r="F14" s="3">
-        <v>330800</v>
+        <v>319600</v>
       </c>
       <c r="G14" s="3">
-        <v>1376400</v>
+        <v>1329800</v>
       </c>
       <c r="H14" s="3">
-        <v>2490800</v>
+        <v>2406500</v>
       </c>
       <c r="I14" s="3">
-        <v>654900</v>
+        <v>632700</v>
       </c>
       <c r="J14" s="3">
-        <v>854700</v>
+        <v>825800</v>
       </c>
       <c r="K14" s="3">
         <v>1171100</v>
@@ -956,25 +956,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9617700</v>
+        <v>9292400</v>
       </c>
       <c r="E15" s="3">
-        <v>9466400</v>
+        <v>9146200</v>
       </c>
       <c r="F15" s="3">
-        <v>7956800</v>
+        <v>7687600</v>
       </c>
       <c r="G15" s="3">
-        <v>7729800</v>
+        <v>7468400</v>
       </c>
       <c r="H15" s="3">
-        <v>7596600</v>
+        <v>7339600</v>
       </c>
       <c r="I15" s="3">
-        <v>7299600</v>
+        <v>7052700</v>
       </c>
       <c r="J15" s="3">
-        <v>6817500</v>
+        <v>6586900</v>
       </c>
       <c r="K15" s="3">
         <v>7239400</v>
@@ -1005,25 +1005,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41493300</v>
+        <v>40089900</v>
       </c>
       <c r="E17" s="3">
-        <v>40995400</v>
+        <v>39608800</v>
       </c>
       <c r="F17" s="3">
-        <v>41270900</v>
+        <v>39874900</v>
       </c>
       <c r="G17" s="3">
-        <v>40739100</v>
+        <v>39361100</v>
       </c>
       <c r="H17" s="3">
-        <v>42447400</v>
+        <v>41011700</v>
       </c>
       <c r="I17" s="3">
-        <v>40076300</v>
+        <v>38720800</v>
       </c>
       <c r="J17" s="3">
-        <v>39376200</v>
+        <v>38044400</v>
       </c>
       <c r="K17" s="3">
         <v>42696000</v>
@@ -1041,25 +1041,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6233800</v>
+        <v>6022900</v>
       </c>
       <c r="E18" s="3">
-        <v>6695600</v>
+        <v>6469100</v>
       </c>
       <c r="F18" s="3">
-        <v>5452400</v>
+        <v>5268000</v>
       </c>
       <c r="G18" s="3">
-        <v>5394800</v>
+        <v>5212400</v>
       </c>
       <c r="H18" s="3">
-        <v>3753100</v>
+        <v>3626200</v>
       </c>
       <c r="I18" s="3">
-        <v>5354200</v>
+        <v>5173100</v>
       </c>
       <c r="J18" s="3">
-        <v>5161100</v>
+        <v>4986500</v>
       </c>
       <c r="K18" s="3">
         <v>6325500</v>
@@ -1093,25 +1093,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-46300</v>
+        <v>-44700</v>
       </c>
       <c r="E20" s="3">
-        <v>140000</v>
+        <v>135300</v>
       </c>
       <c r="F20" s="3">
-        <v>37300</v>
+        <v>36000</v>
       </c>
       <c r="G20" s="3">
-        <v>-404200</v>
+        <v>-390500</v>
       </c>
       <c r="H20" s="3">
-        <v>140000</v>
+        <v>135300</v>
       </c>
       <c r="I20" s="3">
-        <v>149000</v>
+        <v>144000</v>
       </c>
       <c r="J20" s="3">
-        <v>90300</v>
+        <v>87300</v>
       </c>
       <c r="K20" s="3">
         <v>-3600</v>
@@ -1129,25 +1129,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15827300</v>
+        <v>15412000</v>
       </c>
       <c r="E21" s="3">
-        <v>16324900</v>
+        <v>15890800</v>
       </c>
       <c r="F21" s="3">
-        <v>13464800</v>
+        <v>13108600</v>
       </c>
       <c r="G21" s="3">
-        <v>12738200</v>
+        <v>12403800</v>
       </c>
       <c r="H21" s="3">
-        <v>11507200</v>
+        <v>11212800</v>
       </c>
       <c r="I21" s="3">
-        <v>12819700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>12084600</v>
+        <v>12477100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>13531700</v>
@@ -1165,25 +1165,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1437300</v>
+        <v>1388700</v>
       </c>
       <c r="E22" s="3">
-        <v>1563800</v>
+        <v>1510900</v>
       </c>
       <c r="F22" s="3">
-        <v>1575100</v>
+        <v>1521800</v>
       </c>
       <c r="G22" s="3">
-        <v>1532200</v>
+        <v>1480400</v>
       </c>
       <c r="H22" s="3">
-        <v>1657500</v>
+        <v>1601500</v>
       </c>
       <c r="I22" s="3">
-        <v>1936400</v>
+        <v>1870900</v>
       </c>
       <c r="J22" s="3">
-        <v>1939800</v>
+        <v>1874200</v>
       </c>
       <c r="K22" s="3">
         <v>2089800</v>
@@ -1201,25 +1201,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4750100</v>
+        <v>4589500</v>
       </c>
       <c r="E23" s="3">
-        <v>5271800</v>
+        <v>5093500</v>
       </c>
       <c r="F23" s="3">
-        <v>3914600</v>
+        <v>3782200</v>
       </c>
       <c r="G23" s="3">
-        <v>3458400</v>
+        <v>3341500</v>
       </c>
       <c r="H23" s="3">
-        <v>2235600</v>
+        <v>2160000</v>
       </c>
       <c r="I23" s="3">
-        <v>3566800</v>
+        <v>3446200</v>
       </c>
       <c r="J23" s="3">
-        <v>3311700</v>
+        <v>3199600</v>
       </c>
       <c r="K23" s="3">
         <v>4232200</v>
@@ -1237,25 +1237,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-957500</v>
+        <v>-925100</v>
       </c>
       <c r="E24" s="3">
-        <v>1633800</v>
+        <v>1578500</v>
       </c>
       <c r="F24" s="3">
-        <v>1478000</v>
+        <v>1428000</v>
       </c>
       <c r="G24" s="3">
-        <v>1187800</v>
+        <v>1147600</v>
       </c>
       <c r="H24" s="3">
-        <v>1095200</v>
+        <v>1058200</v>
       </c>
       <c r="I24" s="3">
-        <v>732800</v>
+        <v>708000</v>
       </c>
       <c r="J24" s="3">
-        <v>1776100</v>
+        <v>1716000</v>
       </c>
       <c r="K24" s="3">
         <v>1680700</v>
@@ -1309,25 +1309,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5707600</v>
+        <v>5514600</v>
       </c>
       <c r="E26" s="3">
-        <v>3638000</v>
+        <v>3514900</v>
       </c>
       <c r="F26" s="3">
-        <v>2436600</v>
+        <v>2354200</v>
       </c>
       <c r="G26" s="3">
-        <v>2270600</v>
+        <v>2193800</v>
       </c>
       <c r="H26" s="3">
-        <v>1140400</v>
+        <v>1101800</v>
       </c>
       <c r="I26" s="3">
-        <v>2834000</v>
+        <v>2738200</v>
       </c>
       <c r="J26" s="3">
-        <v>1535600</v>
+        <v>1483600</v>
       </c>
       <c r="K26" s="3">
         <v>2551500</v>
@@ -1345,25 +1345,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5156600</v>
+        <v>4982200</v>
       </c>
       <c r="E27" s="3">
-        <v>3089200</v>
+        <v>2984700</v>
       </c>
       <c r="F27" s="3">
-        <v>1875400</v>
+        <v>1812000</v>
       </c>
       <c r="G27" s="3">
-        <v>1746700</v>
+        <v>1687600</v>
       </c>
       <c r="H27" s="3">
-        <v>446000</v>
+        <v>430900</v>
       </c>
       <c r="I27" s="3">
-        <v>2488500</v>
+        <v>2404400</v>
       </c>
       <c r="J27" s="3">
-        <v>1196800</v>
+        <v>1156400</v>
       </c>
       <c r="K27" s="3">
         <v>2240500</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>32700</v>
+        <v>31600</v>
       </c>
       <c r="H29" s="3">
-        <v>2543900</v>
+        <v>2457800</v>
       </c>
       <c r="I29" s="3">
-        <v>505800</v>
+        <v>488700</v>
       </c>
       <c r="J29" s="3">
-        <v>-152400</v>
+        <v>-147300</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1525,25 +1525,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>46300</v>
+        <v>44700</v>
       </c>
       <c r="E32" s="3">
-        <v>-140000</v>
+        <v>-135300</v>
       </c>
       <c r="F32" s="3">
-        <v>-37300</v>
+        <v>-36000</v>
       </c>
       <c r="G32" s="3">
-        <v>404200</v>
+        <v>390500</v>
       </c>
       <c r="H32" s="3">
-        <v>-140000</v>
+        <v>-135300</v>
       </c>
       <c r="I32" s="3">
-        <v>-149000</v>
+        <v>-144000</v>
       </c>
       <c r="J32" s="3">
-        <v>-90300</v>
+        <v>-87300</v>
       </c>
       <c r="K32" s="3">
         <v>3600</v>
@@ -1561,25 +1561,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5156600</v>
+        <v>4982200</v>
       </c>
       <c r="E33" s="3">
-        <v>3089200</v>
+        <v>2984700</v>
       </c>
       <c r="F33" s="3">
-        <v>1875400</v>
+        <v>1812000</v>
       </c>
       <c r="G33" s="3">
-        <v>1779500</v>
+        <v>1719300</v>
       </c>
       <c r="H33" s="3">
-        <v>2989900</v>
+        <v>2888700</v>
       </c>
       <c r="I33" s="3">
-        <v>2994400</v>
+        <v>2893100</v>
       </c>
       <c r="J33" s="3">
-        <v>1044400</v>
+        <v>1009100</v>
       </c>
       <c r="K33" s="3">
         <v>2240500</v>
@@ -1633,25 +1633,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5156600</v>
+        <v>4982200</v>
       </c>
       <c r="E35" s="3">
-        <v>3089200</v>
+        <v>2984700</v>
       </c>
       <c r="F35" s="3">
-        <v>1875400</v>
+        <v>1812000</v>
       </c>
       <c r="G35" s="3">
-        <v>1779500</v>
+        <v>1719300</v>
       </c>
       <c r="H35" s="3">
-        <v>2989900</v>
+        <v>2888700</v>
       </c>
       <c r="I35" s="3">
-        <v>2994400</v>
+        <v>2893100</v>
       </c>
       <c r="J35" s="3">
-        <v>1044400</v>
+        <v>1009100</v>
       </c>
       <c r="K35" s="3">
         <v>2240500</v>
@@ -1742,25 +1742,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9196500</v>
+        <v>9404700</v>
       </c>
       <c r="E41" s="3">
-        <v>7317700</v>
+        <v>8885500</v>
       </c>
       <c r="F41" s="3">
-        <v>6361300</v>
+        <v>7070200</v>
       </c>
       <c r="G41" s="3">
-        <v>6560100</v>
+        <v>6146200</v>
       </c>
       <c r="H41" s="3">
-        <v>7175400</v>
+        <v>6338200</v>
       </c>
       <c r="I41" s="3">
-        <v>5045900</v>
+        <v>6932700</v>
       </c>
       <c r="J41" s="3">
-        <v>7630500</v>
+        <v>4875300</v>
       </c>
       <c r="K41" s="3">
         <v>8973900</v>
@@ -1778,25 +1778,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3673000</v>
+        <v>2517800</v>
       </c>
       <c r="E42" s="3">
-        <v>5456900</v>
+        <v>3548700</v>
       </c>
       <c r="F42" s="3">
-        <v>3171600</v>
+        <v>5272400</v>
       </c>
       <c r="G42" s="3">
-        <v>9960900</v>
+        <v>3064400</v>
       </c>
       <c r="H42" s="3">
-        <v>2096700</v>
+        <v>9624000</v>
       </c>
       <c r="I42" s="3">
-        <v>1447500</v>
+        <v>2025800</v>
       </c>
       <c r="J42" s="3">
-        <v>276600</v>
+        <v>1398500</v>
       </c>
       <c r="K42" s="3">
         <v>250000</v>
@@ -1814,25 +1814,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11481800</v>
+        <v>12238900</v>
       </c>
       <c r="E43" s="3">
-        <v>12157000</v>
+        <v>11093500</v>
       </c>
       <c r="F43" s="3">
-        <v>11992200</v>
+        <v>11745800</v>
       </c>
       <c r="G43" s="3">
-        <v>8536000</v>
+        <v>11586600</v>
       </c>
       <c r="H43" s="3">
-        <v>10329000</v>
+        <v>8247300</v>
       </c>
       <c r="I43" s="3">
-        <v>6699000</v>
+        <v>9979600</v>
       </c>
       <c r="J43" s="3">
-        <v>6361300</v>
+        <v>6472400</v>
       </c>
       <c r="K43" s="3">
         <v>11713200</v>
@@ -1850,25 +1850,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>919100</v>
+        <v>1038500</v>
       </c>
       <c r="E44" s="3">
-        <v>1023000</v>
+        <v>888000</v>
       </c>
       <c r="F44" s="3">
-        <v>1089600</v>
+        <v>988400</v>
       </c>
       <c r="G44" s="3">
-        <v>933800</v>
+        <v>1052700</v>
       </c>
       <c r="H44" s="3">
-        <v>924700</v>
+        <v>902200</v>
       </c>
       <c r="I44" s="3">
-        <v>861500</v>
+        <v>893500</v>
       </c>
       <c r="J44" s="3">
-        <v>800500</v>
+        <v>832400</v>
       </c>
       <c r="K44" s="3">
         <v>762000</v>
@@ -1886,25 +1886,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3063200</v>
+        <v>2982500</v>
       </c>
       <c r="E45" s="3">
-        <v>2258200</v>
+        <v>2959600</v>
       </c>
       <c r="F45" s="3">
-        <v>2102400</v>
+        <v>2181800</v>
       </c>
       <c r="G45" s="3">
-        <v>1787400</v>
+        <v>2031300</v>
       </c>
       <c r="H45" s="3">
-        <v>1885600</v>
+        <v>1726900</v>
       </c>
       <c r="I45" s="3">
-        <v>2105800</v>
+        <v>1821800</v>
       </c>
       <c r="J45" s="3">
-        <v>1261200</v>
+        <v>2034500</v>
       </c>
       <c r="K45" s="3">
         <v>1541900</v>
@@ -1922,25 +1922,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28333600</v>
+        <v>28182600</v>
       </c>
       <c r="E46" s="3">
-        <v>28212800</v>
+        <v>27375300</v>
       </c>
       <c r="F46" s="3">
-        <v>24717100</v>
+        <v>27258600</v>
       </c>
       <c r="G46" s="3">
-        <v>24543200</v>
+        <v>23881100</v>
       </c>
       <c r="H46" s="3">
-        <v>22411500</v>
+        <v>23713100</v>
       </c>
       <c r="I46" s="3">
-        <v>16159700</v>
+        <v>21653500</v>
       </c>
       <c r="J46" s="3">
-        <v>16330200</v>
+        <v>15613100</v>
       </c>
       <c r="K46" s="3">
         <v>16082900</v>
@@ -1958,25 +1958,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3188600</v>
+        <v>3589100</v>
       </c>
       <c r="E47" s="3">
-        <v>2901800</v>
+        <v>3080700</v>
       </c>
       <c r="F47" s="3">
-        <v>4519800</v>
+        <v>2803600</v>
       </c>
       <c r="G47" s="3">
-        <v>8467100</v>
+        <v>4366900</v>
       </c>
       <c r="H47" s="3">
-        <v>5687300</v>
+        <v>8180700</v>
       </c>
       <c r="I47" s="3">
-        <v>1125700</v>
+        <v>5494900</v>
       </c>
       <c r="J47" s="3">
-        <v>5459200</v>
+        <v>1087600</v>
       </c>
       <c r="K47" s="3">
         <v>12350800</v>
@@ -1994,25 +1994,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40742400</v>
+        <v>41657500</v>
       </c>
       <c r="E48" s="3">
-        <v>78820200</v>
+        <v>39364400</v>
       </c>
       <c r="F48" s="3">
-        <v>31268200</v>
+        <v>76154200</v>
       </c>
       <c r="G48" s="3">
-        <v>60214900</v>
+        <v>30210600</v>
       </c>
       <c r="H48" s="3">
-        <v>29257200</v>
+        <v>58178200</v>
       </c>
       <c r="I48" s="3">
-        <v>28366400</v>
+        <v>28267700</v>
       </c>
       <c r="J48" s="3">
-        <v>26323800</v>
+        <v>27406900</v>
       </c>
       <c r="K48" s="3">
         <v>55400800</v>
@@ -2030,25 +2030,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>48247600</v>
+        <v>42689500</v>
       </c>
       <c r="E49" s="3">
-        <v>95704800</v>
+        <v>46615700</v>
       </c>
       <c r="F49" s="3">
-        <v>46572000</v>
+        <v>92467700</v>
       </c>
       <c r="G49" s="3">
-        <v>62765500</v>
+        <v>44996800</v>
       </c>
       <c r="H49" s="3">
-        <v>47149000</v>
+        <v>60642600</v>
       </c>
       <c r="I49" s="3">
-        <v>46742500</v>
+        <v>45554200</v>
       </c>
       <c r="J49" s="3">
-        <v>41319400</v>
+        <v>45161500</v>
       </c>
       <c r="K49" s="3">
         <v>57987000</v>
@@ -2138,25 +2138,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1129100</v>
+        <v>1777100</v>
       </c>
       <c r="E52" s="3">
-        <v>1896900</v>
+        <v>1090900</v>
       </c>
       <c r="F52" s="3">
-        <v>1985000</v>
+        <v>1832700</v>
       </c>
       <c r="G52" s="3">
-        <v>2155500</v>
+        <v>1917800</v>
       </c>
       <c r="H52" s="3">
-        <v>3542000</v>
+        <v>2082500</v>
       </c>
       <c r="I52" s="3">
-        <v>10839400</v>
+        <v>3422200</v>
       </c>
       <c r="J52" s="3">
-        <v>10384300</v>
+        <v>10472700</v>
       </c>
       <c r="K52" s="3">
         <v>5683100</v>
@@ -2210,25 +2210,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>121641000</v>
+        <v>117896000</v>
       </c>
       <c r="E54" s="3">
-        <v>120521000</v>
+        <v>117527000</v>
       </c>
       <c r="F54" s="3">
-        <v>109062000</v>
+        <v>116445000</v>
       </c>
       <c r="G54" s="3">
-        <v>107659000</v>
+        <v>105373000</v>
       </c>
       <c r="H54" s="3">
-        <v>106890000</v>
+        <v>104017000</v>
       </c>
       <c r="I54" s="3">
-        <v>103234000</v>
+        <v>103274000</v>
       </c>
       <c r="J54" s="3">
-        <v>99817000</v>
+        <v>99741900</v>
       </c>
       <c r="K54" s="3">
         <v>102673000</v>
@@ -2278,25 +2278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7310900</v>
+        <v>7350600</v>
       </c>
       <c r="E57" s="3">
-        <v>7544600</v>
+        <v>7063600</v>
       </c>
       <c r="F57" s="3">
-        <v>7605600</v>
+        <v>7289500</v>
       </c>
       <c r="G57" s="3">
-        <v>7369600</v>
+        <v>7348400</v>
       </c>
       <c r="H57" s="3">
-        <v>7012800</v>
+        <v>7120400</v>
       </c>
       <c r="I57" s="3">
-        <v>7030900</v>
+        <v>6775600</v>
       </c>
       <c r="J57" s="3">
-        <v>6520600</v>
+        <v>6793100</v>
       </c>
       <c r="K57" s="3">
         <v>6720300</v>
@@ -2314,25 +2314,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11058400</v>
+        <v>8673800</v>
       </c>
       <c r="E58" s="3">
-        <v>10775000</v>
+        <v>10684400</v>
       </c>
       <c r="F58" s="3">
-        <v>13553700</v>
+        <v>10410600</v>
       </c>
       <c r="G58" s="3">
-        <v>17280900</v>
+        <v>13095300</v>
       </c>
       <c r="H58" s="3">
-        <v>9583800</v>
+        <v>16696400</v>
       </c>
       <c r="I58" s="3">
-        <v>3137800</v>
+        <v>9259600</v>
       </c>
       <c r="J58" s="3">
-        <v>5522400</v>
+        <v>3031600</v>
       </c>
       <c r="K58" s="3">
         <v>17060200</v>
@@ -2350,25 +2350,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13577400</v>
+        <v>13731300</v>
       </c>
       <c r="E59" s="3">
-        <v>13032100</v>
+        <v>13118200</v>
       </c>
       <c r="F59" s="3">
-        <v>13047900</v>
+        <v>12591300</v>
       </c>
       <c r="G59" s="3">
-        <v>13532300</v>
+        <v>12606600</v>
       </c>
       <c r="H59" s="3">
-        <v>12651600</v>
+        <v>13074600</v>
       </c>
       <c r="I59" s="3">
-        <v>14249200</v>
+        <v>12223600</v>
       </c>
       <c r="J59" s="3">
-        <v>10556000</v>
+        <v>13767300</v>
       </c>
       <c r="K59" s="3">
         <v>11215600</v>
@@ -2386,25 +2386,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31946800</v>
+        <v>29755700</v>
       </c>
       <c r="E60" s="3">
-        <v>31351700</v>
+        <v>30866200</v>
       </c>
       <c r="F60" s="3">
-        <v>34207200</v>
+        <v>30291300</v>
       </c>
       <c r="G60" s="3">
-        <v>32808300</v>
+        <v>33050200</v>
       </c>
       <c r="H60" s="3">
-        <v>29248200</v>
+        <v>31698600</v>
       </c>
       <c r="I60" s="3">
-        <v>24417900</v>
+        <v>28258900</v>
       </c>
       <c r="J60" s="3">
-        <v>22598900</v>
+        <v>23592000</v>
       </c>
       <c r="K60" s="3">
         <v>26503000</v>
@@ -2422,25 +2422,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40607000</v>
+        <v>42128800</v>
       </c>
       <c r="E61" s="3">
-        <v>43742500</v>
+        <v>39233500</v>
       </c>
       <c r="F61" s="3">
-        <v>29909900</v>
+        <v>42262900</v>
       </c>
       <c r="G61" s="3">
-        <v>29687400</v>
+        <v>28898200</v>
       </c>
       <c r="H61" s="3">
-        <v>32465000</v>
+        <v>28683300</v>
       </c>
       <c r="I61" s="3">
-        <v>33340100</v>
+        <v>31366900</v>
       </c>
       <c r="J61" s="3">
-        <v>33288100</v>
+        <v>32212400</v>
       </c>
       <c r="K61" s="3">
         <v>36267600</v>
@@ -2458,25 +2458,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7268000</v>
+        <v>7435600</v>
       </c>
       <c r="E62" s="3">
-        <v>6571400</v>
+        <v>7022200</v>
       </c>
       <c r="F62" s="3">
-        <v>7403500</v>
+        <v>6349100</v>
       </c>
       <c r="G62" s="3">
-        <v>7535600</v>
+        <v>7153100</v>
       </c>
       <c r="H62" s="3">
-        <v>7719700</v>
+        <v>7280700</v>
       </c>
       <c r="I62" s="3">
-        <v>7913900</v>
+        <v>7458600</v>
       </c>
       <c r="J62" s="3">
-        <v>8136300</v>
+        <v>7646200</v>
       </c>
       <c r="K62" s="3">
         <v>8402100</v>
@@ -2602,25 +2602,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>82805900</v>
+        <v>82614600</v>
       </c>
       <c r="E66" s="3">
-        <v>84700600</v>
+        <v>80005200</v>
       </c>
       <c r="F66" s="3">
-        <v>74433700</v>
+        <v>81835700</v>
       </c>
       <c r="G66" s="3">
-        <v>72684700</v>
+        <v>71916100</v>
       </c>
       <c r="H66" s="3">
-        <v>72239800</v>
+        <v>70226200</v>
       </c>
       <c r="I66" s="3">
-        <v>68336500</v>
+        <v>69796400</v>
       </c>
       <c r="J66" s="3">
-        <v>66441900</v>
+        <v>66025100</v>
       </c>
       <c r="K66" s="3">
         <v>73547200</v>
@@ -2798,25 +2798,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2090000</v>
+        <v>-435300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1213800</v>
+        <v>2019300</v>
       </c>
       <c r="F72" s="3">
-        <v>-2328200</v>
+        <v>-1172700</v>
       </c>
       <c r="G72" s="3">
-        <v>-2090000</v>
+        <v>-2249500</v>
       </c>
       <c r="H72" s="3">
-        <v>-5446800</v>
+        <v>-2019300</v>
       </c>
       <c r="I72" s="3">
-        <v>3975600</v>
+        <v>-5262500</v>
       </c>
       <c r="J72" s="3">
-        <v>2453500</v>
+        <v>3841100</v>
       </c>
       <c r="K72" s="3">
         <v>-3632900</v>
@@ -2942,25 +2942,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38835400</v>
+        <v>35281100</v>
       </c>
       <c r="E76" s="3">
-        <v>35820700</v>
+        <v>37521800</v>
       </c>
       <c r="F76" s="3">
-        <v>34628400</v>
+        <v>34609100</v>
       </c>
       <c r="G76" s="3">
-        <v>34973900</v>
+        <v>33457100</v>
       </c>
       <c r="H76" s="3">
-        <v>34649800</v>
+        <v>33790900</v>
       </c>
       <c r="I76" s="3">
-        <v>34897100</v>
+        <v>33477800</v>
       </c>
       <c r="J76" s="3">
-        <v>33375100</v>
+        <v>33716800</v>
       </c>
       <c r="K76" s="3">
         <v>29126300</v>
@@ -3055,25 +3055,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5156600</v>
+        <v>4982200</v>
       </c>
       <c r="E81" s="3">
-        <v>3089200</v>
+        <v>2984700</v>
       </c>
       <c r="F81" s="3">
-        <v>1875400</v>
+        <v>1812000</v>
       </c>
       <c r="G81" s="3">
-        <v>1779500</v>
+        <v>1719300</v>
       </c>
       <c r="H81" s="3">
-        <v>2989900</v>
+        <v>2888700</v>
       </c>
       <c r="I81" s="3">
-        <v>2994400</v>
+        <v>2893100</v>
       </c>
       <c r="J81" s="3">
-        <v>1044400</v>
+        <v>1009100</v>
       </c>
       <c r="K81" s="3">
         <v>2240500</v>
@@ -3107,25 +3107,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9617700</v>
+        <v>9292400</v>
       </c>
       <c r="E83" s="3">
-        <v>9467500</v>
+        <v>9147300</v>
       </c>
       <c r="F83" s="3">
-        <v>7956800</v>
+        <v>7687600</v>
       </c>
       <c r="G83" s="3">
-        <v>7729800</v>
+        <v>7468400</v>
       </c>
       <c r="H83" s="3">
-        <v>7596600</v>
+        <v>7339600</v>
       </c>
       <c r="I83" s="3">
-        <v>7299600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>6817500</v>
+        <v>7052700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>7239400</v>
@@ -3323,25 +3323,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14336200</v>
+        <v>13851300</v>
       </c>
       <c r="E89" s="3">
-        <v>11505500</v>
+        <v>11116400</v>
       </c>
       <c r="F89" s="3">
-        <v>10733200</v>
+        <v>10370200</v>
       </c>
       <c r="G89" s="3">
-        <v>11487500</v>
+        <v>11098900</v>
       </c>
       <c r="H89" s="3">
-        <v>9879600</v>
+        <v>9545500</v>
       </c>
       <c r="I89" s="3">
-        <v>10756900</v>
+        <v>10393100</v>
       </c>
       <c r="J89" s="3">
-        <v>9938300</v>
+        <v>9602200</v>
       </c>
       <c r="K89" s="3">
         <v>8683200</v>
@@ -3375,25 +3375,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9649300</v>
+        <v>-9322900</v>
       </c>
       <c r="E91" s="3">
-        <v>-9509300</v>
+        <v>-9187600</v>
       </c>
       <c r="F91" s="3">
-        <v>-8628600</v>
+        <v>-8336700</v>
       </c>
       <c r="G91" s="3">
-        <v>-8498700</v>
+        <v>-8211300</v>
       </c>
       <c r="H91" s="3">
-        <v>-9588300</v>
+        <v>-9264000</v>
       </c>
       <c r="I91" s="3">
-        <v>-8774200</v>
+        <v>-8477500</v>
       </c>
       <c r="J91" s="3">
-        <v>-6899900</v>
+        <v>-6666600</v>
       </c>
       <c r="K91" s="3">
         <v>-7317200</v>
@@ -3483,25 +3483,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6282300</v>
+        <v>-6069800</v>
       </c>
       <c r="E94" s="3">
-        <v>-10579700</v>
+        <v>-10221800</v>
       </c>
       <c r="F94" s="3">
-        <v>-9656100</v>
+        <v>-9329500</v>
       </c>
       <c r="G94" s="3">
-        <v>-8966200</v>
+        <v>-8662900</v>
       </c>
       <c r="H94" s="3">
-        <v>-5508900</v>
+        <v>-5322500</v>
       </c>
       <c r="I94" s="3">
-        <v>-10620300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-7172000</v>
+        <v>-10261100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-7229800</v>
@@ -3535,25 +3535,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1800900</v>
+        <v>-1740000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2096700</v>
+        <v>-2025800</v>
       </c>
       <c r="F96" s="3">
-        <v>-2100100</v>
+        <v>-2029100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1952200</v>
+        <v>-1886200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1802000</v>
+        <v>-1741100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1794100</v>
+        <v>-1733500</v>
       </c>
       <c r="J96" s="3">
-        <v>-2084300</v>
+        <v>-2013800</v>
       </c>
       <c r="K96" s="3">
         <v>-1571800</v>
@@ -3679,25 +3679,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6108400</v>
+        <v>-5901800</v>
       </c>
       <c r="E100" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1277000</v>
+        <v>-1233800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3091500</v>
+        <v>-2986900</v>
       </c>
       <c r="H100" s="3">
-        <v>-2126100</v>
+        <v>-2054200</v>
       </c>
       <c r="I100" s="3">
-        <v>-4430600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-173900</v>
+        <v>-4280700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-4231000</v>
@@ -3715,25 +3715,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-66600</v>
+        <v>-64400</v>
       </c>
       <c r="E101" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F101" s="3">
         <v>1100</v>
       </c>
       <c r="G101" s="3">
-        <v>-45200</v>
+        <v>-43600</v>
       </c>
       <c r="H101" s="3">
-        <v>-115200</v>
+        <v>-111300</v>
       </c>
       <c r="I101" s="3">
-        <v>1709500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-1662000</v>
+        <v>1651600</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-77800</v>
@@ -3751,25 +3751,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1878800</v>
+        <v>1815300</v>
       </c>
       <c r="E102" s="3">
-        <v>956300</v>
+        <v>924000</v>
       </c>
       <c r="F102" s="3">
-        <v>-198700</v>
+        <v>-192000</v>
       </c>
       <c r="G102" s="3">
-        <v>-615400</v>
+        <v>-594500</v>
       </c>
       <c r="H102" s="3">
-        <v>2129500</v>
+        <v>2057500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2584500</v>
+        <v>-2497100</v>
       </c>
       <c r="J102" s="3">
-        <v>930400</v>
+        <v>898900</v>
       </c>
       <c r="K102" s="3">
         <v>-2855300</v>

--- a/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,181 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>46112800</v>
+        <v>44133600</v>
       </c>
       <c r="E8" s="3">
-        <v>46077900</v>
+        <v>43872000</v>
       </c>
       <c r="F8" s="3">
-        <v>45142900</v>
+        <v>43838800</v>
       </c>
       <c r="G8" s="3">
-        <v>44573500</v>
+        <v>42949300</v>
       </c>
       <c r="H8" s="3">
-        <v>44637900</v>
+        <v>42407600</v>
       </c>
       <c r="I8" s="3">
-        <v>43893900</v>
+        <v>42468800</v>
       </c>
       <c r="J8" s="3">
+        <v>41760900</v>
+      </c>
+      <c r="K8" s="3">
         <v>43030900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>49021500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>47779500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>53146600</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18331700</v>
+        <v>17688900</v>
       </c>
       <c r="E9" s="3">
-        <v>18322900</v>
+        <v>17440900</v>
       </c>
       <c r="F9" s="3">
-        <v>18962200</v>
+        <v>17432600</v>
       </c>
       <c r="G9" s="3">
-        <v>18799700</v>
+        <v>18040800</v>
       </c>
       <c r="H9" s="3">
-        <v>18681800</v>
+        <v>17886100</v>
       </c>
       <c r="I9" s="3">
-        <v>18037100</v>
+        <v>17774000</v>
       </c>
       <c r="J9" s="3">
+        <v>17160600</v>
+      </c>
+      <c r="K9" s="3">
         <v>18819300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21489700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20971800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>23051300</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>27781100</v>
+        <v>26444700</v>
       </c>
       <c r="E10" s="3">
-        <v>27754900</v>
+        <v>26431200</v>
       </c>
       <c r="F10" s="3">
-        <v>26180700</v>
+        <v>26406300</v>
       </c>
       <c r="G10" s="3">
-        <v>25773800</v>
+        <v>24908600</v>
       </c>
       <c r="H10" s="3">
-        <v>25956000</v>
+        <v>24521400</v>
       </c>
       <c r="I10" s="3">
-        <v>25856700</v>
+        <v>24694800</v>
       </c>
       <c r="J10" s="3">
+        <v>24600300</v>
+      </c>
+      <c r="K10" s="3">
         <v>24211700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27531700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26807700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>30095300</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +854,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,9 +890,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -913,81 +929,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>435300</v>
+        <v>5863100</v>
       </c>
       <c r="E14" s="3">
-        <v>314200</v>
+        <v>414100</v>
       </c>
       <c r="F14" s="3">
-        <v>319600</v>
+        <v>298900</v>
       </c>
       <c r="G14" s="3">
-        <v>1329800</v>
+        <v>304100</v>
       </c>
       <c r="H14" s="3">
-        <v>2406500</v>
+        <v>1265200</v>
       </c>
       <c r="I14" s="3">
-        <v>632700</v>
+        <v>2289600</v>
       </c>
       <c r="J14" s="3">
+        <v>602000</v>
+      </c>
+      <c r="K14" s="3">
         <v>825800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1171100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2062000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>569300</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9292400</v>
+        <v>8880300</v>
       </c>
       <c r="E15" s="3">
-        <v>9146200</v>
+        <v>8840800</v>
       </c>
       <c r="F15" s="3">
-        <v>7687600</v>
+        <v>8701800</v>
       </c>
       <c r="G15" s="3">
-        <v>7468400</v>
+        <v>7314100</v>
       </c>
       <c r="H15" s="3">
-        <v>7339600</v>
+        <v>7105500</v>
       </c>
       <c r="I15" s="3">
-        <v>7052700</v>
+        <v>6983000</v>
       </c>
       <c r="J15" s="3">
+        <v>6710000</v>
+      </c>
+      <c r="K15" s="3">
         <v>6586900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7239400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6949200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7905600</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -999,80 +1024,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40089900</v>
+        <v>41517000</v>
       </c>
       <c r="E17" s="3">
-        <v>39608800</v>
+        <v>38141800</v>
       </c>
       <c r="F17" s="3">
-        <v>39874900</v>
+        <v>37684100</v>
       </c>
       <c r="G17" s="3">
-        <v>39361100</v>
+        <v>37937300</v>
       </c>
       <c r="H17" s="3">
-        <v>41011700</v>
+        <v>37448500</v>
       </c>
       <c r="I17" s="3">
-        <v>38720800</v>
+        <v>39018800</v>
       </c>
       <c r="J17" s="3">
+        <v>36839200</v>
+      </c>
+      <c r="K17" s="3">
         <v>38044400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42696000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43318300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43817200</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6022900</v>
+        <v>2616500</v>
       </c>
       <c r="E18" s="3">
-        <v>6469100</v>
+        <v>5730200</v>
       </c>
       <c r="F18" s="3">
-        <v>5268000</v>
+        <v>6154700</v>
       </c>
       <c r="G18" s="3">
-        <v>5212400</v>
+        <v>5012000</v>
       </c>
       <c r="H18" s="3">
-        <v>3626200</v>
+        <v>4959100</v>
       </c>
       <c r="I18" s="3">
-        <v>5173100</v>
+        <v>3450000</v>
       </c>
       <c r="J18" s="3">
+        <v>4921700</v>
+      </c>
+      <c r="K18" s="3">
         <v>4986500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6325500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4461200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9329400</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1087,188 +1119,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-44700</v>
+        <v>370500</v>
       </c>
       <c r="E20" s="3">
-        <v>135300</v>
+        <v>-42600</v>
       </c>
       <c r="F20" s="3">
-        <v>36000</v>
+        <v>128700</v>
       </c>
       <c r="G20" s="3">
-        <v>-390500</v>
+        <v>34300</v>
       </c>
       <c r="H20" s="3">
-        <v>135300</v>
+        <v>-371600</v>
       </c>
       <c r="I20" s="3">
-        <v>144000</v>
+        <v>128700</v>
       </c>
       <c r="J20" s="3">
+        <v>137000</v>
+      </c>
+      <c r="K20" s="3">
         <v>87300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>45000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>38700</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15412000</v>
+        <v>11979200</v>
       </c>
       <c r="E21" s="3">
-        <v>15890800</v>
+        <v>14641000</v>
       </c>
       <c r="F21" s="3">
-        <v>13108600</v>
+        <v>15096900</v>
       </c>
       <c r="G21" s="3">
-        <v>12403800</v>
+        <v>12453400</v>
       </c>
       <c r="H21" s="3">
-        <v>11212800</v>
+        <v>11783300</v>
       </c>
       <c r="I21" s="3">
-        <v>12477100</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>10650500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>11854100</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13531700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11466200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17279200</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1388700</v>
+        <v>1182200</v>
       </c>
       <c r="E22" s="3">
-        <v>1510900</v>
+        <v>1321200</v>
       </c>
       <c r="F22" s="3">
-        <v>1521800</v>
+        <v>1437500</v>
       </c>
       <c r="G22" s="3">
-        <v>1480400</v>
+        <v>1447900</v>
       </c>
       <c r="H22" s="3">
-        <v>1601500</v>
+        <v>1408400</v>
       </c>
       <c r="I22" s="3">
-        <v>1870900</v>
+        <v>1523600</v>
       </c>
       <c r="J22" s="3">
+        <v>1780000</v>
+      </c>
+      <c r="K22" s="3">
         <v>1874200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2089800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1942400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2425100</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4589500</v>
+        <v>1804900</v>
       </c>
       <c r="E23" s="3">
-        <v>5093500</v>
+        <v>4366400</v>
       </c>
       <c r="F23" s="3">
-        <v>3782200</v>
+        <v>4846000</v>
       </c>
       <c r="G23" s="3">
-        <v>3341500</v>
+        <v>3598400</v>
       </c>
       <c r="H23" s="3">
-        <v>2160000</v>
+        <v>3179100</v>
       </c>
       <c r="I23" s="3">
-        <v>3446200</v>
+        <v>2055000</v>
       </c>
       <c r="J23" s="3">
+        <v>3278700</v>
+      </c>
+      <c r="K23" s="3">
         <v>3199600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4232200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2563800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6943100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-925100</v>
+        <v>998500</v>
       </c>
       <c r="E24" s="3">
-        <v>1578500</v>
+        <v>-880100</v>
       </c>
       <c r="F24" s="3">
-        <v>1428000</v>
+        <v>1501800</v>
       </c>
       <c r="G24" s="3">
-        <v>1147600</v>
+        <v>1358600</v>
       </c>
       <c r="H24" s="3">
-        <v>1058200</v>
+        <v>1091900</v>
       </c>
       <c r="I24" s="3">
-        <v>708000</v>
+        <v>1006800</v>
       </c>
       <c r="J24" s="3">
+        <v>673600</v>
+      </c>
+      <c r="K24" s="3">
         <v>1716000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1680700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1351600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2449700</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1302,81 +1350,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5514600</v>
+        <v>806400</v>
       </c>
       <c r="E26" s="3">
-        <v>3514900</v>
+        <v>5246600</v>
       </c>
       <c r="F26" s="3">
-        <v>2354200</v>
+        <v>3344100</v>
       </c>
       <c r="G26" s="3">
-        <v>2193800</v>
+        <v>2239800</v>
       </c>
       <c r="H26" s="3">
-        <v>1101800</v>
+        <v>2087200</v>
       </c>
       <c r="I26" s="3">
-        <v>2738200</v>
+        <v>1048300</v>
       </c>
       <c r="J26" s="3">
+        <v>2605100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1483600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2551500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1212200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4493300</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4982200</v>
+        <v>8300</v>
       </c>
       <c r="E27" s="3">
-        <v>2984700</v>
+        <v>4740100</v>
       </c>
       <c r="F27" s="3">
-        <v>1812000</v>
+        <v>2839700</v>
       </c>
       <c r="G27" s="3">
-        <v>1687600</v>
+        <v>1724000</v>
       </c>
       <c r="H27" s="3">
-        <v>430900</v>
+        <v>1605600</v>
       </c>
       <c r="I27" s="3">
-        <v>2404400</v>
+        <v>410000</v>
       </c>
       <c r="J27" s="3">
+        <v>2287500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1156400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2240500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>900400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4572000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1410,45 +1467,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>31600</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>2457800</v>
+        <v>30100</v>
       </c>
       <c r="I29" s="3">
-        <v>488700</v>
+        <v>2338400</v>
       </c>
       <c r="J29" s="3">
+        <v>465000</v>
+      </c>
+      <c r="K29" s="3">
         <v>-147300</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1482,9 +1545,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1518,81 +1584,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>44700</v>
+        <v>-370500</v>
       </c>
       <c r="E32" s="3">
-        <v>-135300</v>
+        <v>42600</v>
       </c>
       <c r="F32" s="3">
-        <v>-36000</v>
+        <v>-128700</v>
       </c>
       <c r="G32" s="3">
-        <v>390500</v>
+        <v>-34300</v>
       </c>
       <c r="H32" s="3">
-        <v>-135300</v>
+        <v>371600</v>
       </c>
       <c r="I32" s="3">
-        <v>-144000</v>
+        <v>-128700</v>
       </c>
       <c r="J32" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-87300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-45000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-38700</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4982200</v>
+        <v>8300</v>
       </c>
       <c r="E33" s="3">
-        <v>2984700</v>
+        <v>4740100</v>
       </c>
       <c r="F33" s="3">
-        <v>1812000</v>
+        <v>2839700</v>
       </c>
       <c r="G33" s="3">
-        <v>1719300</v>
+        <v>1724000</v>
       </c>
       <c r="H33" s="3">
-        <v>2888700</v>
+        <v>1635700</v>
       </c>
       <c r="I33" s="3">
-        <v>2893100</v>
+        <v>2748400</v>
       </c>
       <c r="J33" s="3">
+        <v>2752500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1009100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2240500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>900400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4572000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1626,86 +1701,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4982200</v>
+        <v>8300</v>
       </c>
       <c r="E35" s="3">
-        <v>2984700</v>
+        <v>4740100</v>
       </c>
       <c r="F35" s="3">
-        <v>1812000</v>
+        <v>2839700</v>
       </c>
       <c r="G35" s="3">
-        <v>1719300</v>
+        <v>1724000</v>
       </c>
       <c r="H35" s="3">
-        <v>2888700</v>
+        <v>1635700</v>
       </c>
       <c r="I35" s="3">
-        <v>2893100</v>
+        <v>2748400</v>
       </c>
       <c r="J35" s="3">
+        <v>2752500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1009100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2240500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>900400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4572000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1804,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1736,332 +1821,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9404700</v>
+        <v>8947700</v>
       </c>
       <c r="E41" s="3">
-        <v>8885500</v>
+        <v>8453700</v>
       </c>
       <c r="F41" s="3">
-        <v>7070200</v>
+        <v>6726600</v>
       </c>
       <c r="G41" s="3">
-        <v>6146200</v>
+        <v>5847500</v>
       </c>
       <c r="H41" s="3">
-        <v>6338200</v>
+        <v>6030200</v>
       </c>
       <c r="I41" s="3">
-        <v>6932700</v>
+        <v>6595900</v>
       </c>
       <c r="J41" s="3">
+        <v>4638400</v>
+      </c>
+      <c r="K41" s="3">
         <v>4875300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8973900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10459500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9442100</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2517800</v>
+        <v>2395500</v>
       </c>
       <c r="E42" s="3">
-        <v>3548700</v>
+        <v>3376300</v>
       </c>
       <c r="F42" s="3">
-        <v>5272400</v>
+        <v>5016200</v>
       </c>
       <c r="G42" s="3">
-        <v>3064400</v>
+        <v>2915500</v>
       </c>
       <c r="H42" s="3">
-        <v>9624000</v>
+        <v>9156400</v>
       </c>
       <c r="I42" s="3">
-        <v>2025800</v>
+        <v>1927400</v>
       </c>
       <c r="J42" s="3">
+        <v>1330600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1398500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>250000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>235000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1112800</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12238900</v>
+        <v>11644200</v>
       </c>
       <c r="E43" s="3">
-        <v>11093500</v>
+        <v>10554400</v>
       </c>
       <c r="F43" s="3">
-        <v>11745800</v>
+        <v>11175100</v>
       </c>
       <c r="G43" s="3">
-        <v>11586600</v>
+        <v>11023500</v>
       </c>
       <c r="H43" s="3">
-        <v>8247300</v>
+        <v>7846500</v>
       </c>
       <c r="I43" s="3">
-        <v>9979600</v>
+        <v>9494700</v>
       </c>
       <c r="J43" s="3">
+        <v>6157900</v>
+      </c>
+      <c r="K43" s="3">
         <v>6472400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11713200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11697000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7270600</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1038500</v>
+        <v>988100</v>
       </c>
       <c r="E44" s="3">
-        <v>888000</v>
+        <v>844900</v>
       </c>
       <c r="F44" s="3">
-        <v>988400</v>
+        <v>940300</v>
       </c>
       <c r="G44" s="3">
-        <v>1052700</v>
+        <v>1001600</v>
       </c>
       <c r="H44" s="3">
-        <v>902200</v>
+        <v>858300</v>
       </c>
       <c r="I44" s="3">
-        <v>893500</v>
+        <v>850000</v>
       </c>
       <c r="J44" s="3">
+        <v>791900</v>
+      </c>
+      <c r="K44" s="3">
         <v>832400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>762000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>643400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>740700</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2982500</v>
+        <v>2837600</v>
       </c>
       <c r="E45" s="3">
-        <v>2959600</v>
+        <v>2815800</v>
       </c>
       <c r="F45" s="3">
-        <v>2181800</v>
+        <v>2075800</v>
       </c>
       <c r="G45" s="3">
-        <v>2031300</v>
+        <v>1932600</v>
       </c>
       <c r="H45" s="3">
-        <v>1726900</v>
+        <v>1643000</v>
       </c>
       <c r="I45" s="3">
-        <v>1821800</v>
+        <v>1733300</v>
       </c>
       <c r="J45" s="3">
+        <v>1935700</v>
+      </c>
+      <c r="K45" s="3">
         <v>2034500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1541900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1173800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3190400</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28182600</v>
+        <v>26813100</v>
       </c>
       <c r="E46" s="3">
-        <v>27375300</v>
+        <v>26045100</v>
       </c>
       <c r="F46" s="3">
-        <v>27258600</v>
+        <v>25934000</v>
       </c>
       <c r="G46" s="3">
-        <v>23881100</v>
+        <v>22720700</v>
       </c>
       <c r="H46" s="3">
-        <v>23713100</v>
+        <v>22560800</v>
       </c>
       <c r="I46" s="3">
-        <v>21653500</v>
+        <v>20601300</v>
       </c>
       <c r="J46" s="3">
+        <v>14854400</v>
+      </c>
+      <c r="K46" s="3">
         <v>15613100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16082900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17707400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21756600</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3589100</v>
+        <v>3414700</v>
       </c>
       <c r="E47" s="3">
-        <v>3080700</v>
+        <v>2931000</v>
       </c>
       <c r="F47" s="3">
-        <v>2803600</v>
+        <v>2667400</v>
       </c>
       <c r="G47" s="3">
-        <v>4366900</v>
+        <v>4154700</v>
       </c>
       <c r="H47" s="3">
-        <v>8180700</v>
+        <v>7783200</v>
       </c>
       <c r="I47" s="3">
-        <v>5494900</v>
+        <v>5227900</v>
       </c>
       <c r="J47" s="3">
+        <v>1034800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1087600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12350800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10534200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12992900</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41657500</v>
+        <v>39633200</v>
       </c>
       <c r="E48" s="3">
-        <v>39364400</v>
+        <v>37451600</v>
       </c>
       <c r="F48" s="3">
-        <v>76154200</v>
+        <v>72453700</v>
       </c>
       <c r="G48" s="3">
-        <v>30210600</v>
+        <v>28742600</v>
       </c>
       <c r="H48" s="3">
-        <v>58178200</v>
+        <v>55351200</v>
       </c>
       <c r="I48" s="3">
-        <v>28267700</v>
+        <v>26894100</v>
       </c>
       <c r="J48" s="3">
+        <v>26075200</v>
+      </c>
+      <c r="K48" s="3">
         <v>27406900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>55400800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>51961800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27741800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>42689500</v>
+        <v>40615100</v>
       </c>
       <c r="E49" s="3">
-        <v>46615700</v>
+        <v>44350500</v>
       </c>
       <c r="F49" s="3">
-        <v>92467700</v>
+        <v>87974500</v>
       </c>
       <c r="G49" s="3">
-        <v>44996800</v>
+        <v>42810300</v>
       </c>
       <c r="H49" s="3">
-        <v>60642600</v>
+        <v>57695800</v>
       </c>
       <c r="I49" s="3">
-        <v>45554200</v>
+        <v>43340600</v>
       </c>
       <c r="J49" s="3">
+        <v>42967000</v>
+      </c>
+      <c r="K49" s="3">
         <v>45161500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>57987000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>82549800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45406500</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2095,9 +2208,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2131,45 +2247,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1777100</v>
+        <v>1690700</v>
       </c>
       <c r="E52" s="3">
-        <v>1090900</v>
+        <v>1037900</v>
       </c>
       <c r="F52" s="3">
-        <v>1832700</v>
+        <v>1743700</v>
       </c>
       <c r="G52" s="3">
-        <v>1917800</v>
+        <v>1824600</v>
       </c>
       <c r="H52" s="3">
-        <v>2082500</v>
+        <v>1981400</v>
       </c>
       <c r="I52" s="3">
-        <v>3422200</v>
+        <v>3255900</v>
       </c>
       <c r="J52" s="3">
+        <v>9963800</v>
+      </c>
+      <c r="K52" s="3">
         <v>10472700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5683100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4554500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4885400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2203,45 +2325,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>117896000</v>
+        <v>112167000</v>
       </c>
       <c r="E54" s="3">
-        <v>117527000</v>
+        <v>111816000</v>
       </c>
       <c r="F54" s="3">
-        <v>116445000</v>
+        <v>110787000</v>
       </c>
       <c r="G54" s="3">
-        <v>105373000</v>
+        <v>100253000</v>
       </c>
       <c r="H54" s="3">
-        <v>104017000</v>
+        <v>98962700</v>
       </c>
       <c r="I54" s="3">
-        <v>103274000</v>
+        <v>98255900</v>
       </c>
       <c r="J54" s="3">
+        <v>94895200</v>
+      </c>
+      <c r="K54" s="3">
         <v>99741900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>102673000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>98798000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>112783000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2256,8 +2384,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2272,224 +2401,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7350600</v>
+        <v>6993400</v>
       </c>
       <c r="E57" s="3">
-        <v>7063600</v>
+        <v>6720400</v>
       </c>
       <c r="F57" s="3">
-        <v>7289500</v>
+        <v>6935200</v>
       </c>
       <c r="G57" s="3">
-        <v>7348400</v>
+        <v>6991300</v>
       </c>
       <c r="H57" s="3">
-        <v>7120400</v>
+        <v>6774400</v>
       </c>
       <c r="I57" s="3">
-        <v>6775600</v>
+        <v>6446400</v>
       </c>
       <c r="J57" s="3">
+        <v>6463000</v>
+      </c>
+      <c r="K57" s="3">
         <v>6793100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6720300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6215800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9567700</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8673800</v>
+        <v>8252300</v>
       </c>
       <c r="E58" s="3">
-        <v>10684400</v>
+        <v>10165200</v>
       </c>
       <c r="F58" s="3">
-        <v>10410600</v>
+        <v>9904700</v>
       </c>
       <c r="G58" s="3">
-        <v>13095300</v>
+        <v>12459000</v>
       </c>
       <c r="H58" s="3">
-        <v>16696400</v>
+        <v>15885100</v>
       </c>
       <c r="I58" s="3">
-        <v>9259600</v>
+        <v>8809700</v>
       </c>
       <c r="J58" s="3">
+        <v>2884300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3031600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17060200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>16259200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8755400</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13731300</v>
+        <v>13064000</v>
       </c>
       <c r="E59" s="3">
-        <v>13118200</v>
+        <v>12480700</v>
       </c>
       <c r="F59" s="3">
-        <v>12591300</v>
+        <v>11979400</v>
       </c>
       <c r="G59" s="3">
-        <v>12606600</v>
+        <v>11994000</v>
       </c>
       <c r="H59" s="3">
-        <v>13074600</v>
+        <v>12439200</v>
       </c>
       <c r="I59" s="3">
-        <v>12223600</v>
+        <v>11629700</v>
       </c>
       <c r="J59" s="3">
+        <v>13098300</v>
+      </c>
+      <c r="K59" s="3">
         <v>13767300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11215600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16813700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12397800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29755700</v>
+        <v>28309800</v>
       </c>
       <c r="E60" s="3">
-        <v>30866200</v>
+        <v>29366300</v>
       </c>
       <c r="F60" s="3">
-        <v>30291300</v>
+        <v>28819400</v>
       </c>
       <c r="G60" s="3">
-        <v>33050200</v>
+        <v>31444200</v>
       </c>
       <c r="H60" s="3">
-        <v>31698600</v>
+        <v>30158300</v>
       </c>
       <c r="I60" s="3">
-        <v>28258900</v>
+        <v>26885800</v>
       </c>
       <c r="J60" s="3">
+        <v>22445600</v>
+      </c>
+      <c r="K60" s="3">
         <v>23592000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26503000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27358900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>30721000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42128800</v>
+        <v>40081600</v>
       </c>
       <c r="E61" s="3">
-        <v>39233500</v>
+        <v>37327000</v>
       </c>
       <c r="F61" s="3">
-        <v>42262900</v>
+        <v>40209300</v>
       </c>
       <c r="G61" s="3">
-        <v>28898200</v>
+        <v>27494000</v>
       </c>
       <c r="H61" s="3">
-        <v>28683300</v>
+        <v>27289500</v>
       </c>
       <c r="I61" s="3">
-        <v>31366900</v>
+        <v>29842700</v>
       </c>
       <c r="J61" s="3">
+        <v>30647100</v>
+      </c>
+      <c r="K61" s="3">
         <v>32212400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36267600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35029500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>40134900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7435600</v>
+        <v>7074300</v>
       </c>
       <c r="E62" s="3">
-        <v>7022200</v>
+        <v>6681000</v>
       </c>
       <c r="F62" s="3">
-        <v>6349100</v>
+        <v>6040600</v>
       </c>
       <c r="G62" s="3">
-        <v>7153100</v>
+        <v>6805500</v>
       </c>
       <c r="H62" s="3">
-        <v>7280700</v>
+        <v>6926900</v>
       </c>
       <c r="I62" s="3">
-        <v>7458600</v>
+        <v>7096100</v>
       </c>
       <c r="J62" s="3">
+        <v>7274600</v>
+      </c>
+      <c r="K62" s="3">
         <v>7646200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8402100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10722000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7191900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2523,9 +2671,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2559,9 +2710,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2595,45 +2749,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>82614600</v>
+        <v>78600200</v>
       </c>
       <c r="E66" s="3">
-        <v>80005200</v>
+        <v>76117500</v>
       </c>
       <c r="F66" s="3">
-        <v>81835700</v>
+        <v>77859100</v>
       </c>
       <c r="G66" s="3">
-        <v>71916100</v>
+        <v>68421500</v>
       </c>
       <c r="H66" s="3">
-        <v>70226200</v>
+        <v>66813800</v>
       </c>
       <c r="I66" s="3">
-        <v>69796400</v>
+        <v>66404800</v>
       </c>
       <c r="J66" s="3">
+        <v>62816800</v>
+      </c>
+      <c r="K66" s="3">
         <v>66025100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>73547200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72110100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>80417700</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2648,8 +2808,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2683,9 +2844,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2719,9 +2883,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2755,9 +2922,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2791,45 +2961,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-435300</v>
+        <v>-414100</v>
       </c>
       <c r="E72" s="3">
-        <v>2019300</v>
+        <v>1921200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1172700</v>
+        <v>-1115700</v>
       </c>
       <c r="G72" s="3">
-        <v>-2249500</v>
+        <v>-2140100</v>
       </c>
       <c r="H72" s="3">
-        <v>-2019300</v>
+        <v>-1921200</v>
       </c>
       <c r="I72" s="3">
-        <v>-5262500</v>
+        <v>-5006800</v>
       </c>
       <c r="J72" s="3">
+        <v>3654400</v>
+      </c>
+      <c r="K72" s="3">
         <v>3841100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3632900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3381800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1462600</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2863,9 +3039,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2899,9 +3078,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2935,45 +3117,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35281100</v>
+        <v>33566700</v>
       </c>
       <c r="E76" s="3">
-        <v>37521800</v>
+        <v>35698600</v>
       </c>
       <c r="F76" s="3">
-        <v>34609100</v>
+        <v>32927400</v>
       </c>
       <c r="G76" s="3">
-        <v>33457100</v>
+        <v>31831400</v>
       </c>
       <c r="H76" s="3">
-        <v>33790900</v>
+        <v>32149000</v>
       </c>
       <c r="I76" s="3">
-        <v>33477800</v>
+        <v>31851100</v>
       </c>
       <c r="J76" s="3">
+        <v>32078400</v>
+      </c>
+      <c r="K76" s="3">
         <v>33716800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29126300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26688000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32365500</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3007,86 +3195,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4982200</v>
+        <v>8300</v>
       </c>
       <c r="E81" s="3">
-        <v>2984700</v>
+        <v>4740100</v>
       </c>
       <c r="F81" s="3">
-        <v>1812000</v>
+        <v>2839700</v>
       </c>
       <c r="G81" s="3">
-        <v>1719300</v>
+        <v>1724000</v>
       </c>
       <c r="H81" s="3">
-        <v>2888700</v>
+        <v>1635700</v>
       </c>
       <c r="I81" s="3">
-        <v>2893100</v>
+        <v>2748400</v>
       </c>
       <c r="J81" s="3">
+        <v>2752500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1009100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2240500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>900400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4572000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3101,44 +3298,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9292400</v>
+        <v>8879200</v>
       </c>
       <c r="E83" s="3">
-        <v>9147300</v>
+        <v>8840800</v>
       </c>
       <c r="F83" s="3">
-        <v>7687600</v>
+        <v>8702800</v>
       </c>
       <c r="G83" s="3">
-        <v>7468400</v>
+        <v>7314100</v>
       </c>
       <c r="H83" s="3">
-        <v>7339600</v>
+        <v>7105500</v>
       </c>
       <c r="I83" s="3">
-        <v>7052700</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>6983000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>6710000</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7239400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6949200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7905600</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3172,9 +3373,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3208,9 +3412,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3244,9 +3451,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3280,9 +3490,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3316,45 +3529,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13851300</v>
+        <v>11661800</v>
       </c>
       <c r="E89" s="3">
-        <v>11116400</v>
+        <v>13178200</v>
       </c>
       <c r="F89" s="3">
-        <v>10370200</v>
+        <v>10576200</v>
       </c>
       <c r="G89" s="3">
-        <v>11098900</v>
+        <v>9866300</v>
       </c>
       <c r="H89" s="3">
-        <v>9545500</v>
+        <v>10559600</v>
       </c>
       <c r="I89" s="3">
-        <v>10393100</v>
+        <v>9081600</v>
       </c>
       <c r="J89" s="3">
+        <v>9888100</v>
+      </c>
+      <c r="K89" s="3">
         <v>9602200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8683200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10997600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15117500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3369,44 +3588,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9322900</v>
+        <v>-9080600</v>
       </c>
       <c r="E91" s="3">
-        <v>-9187600</v>
+        <v>-8869900</v>
       </c>
       <c r="F91" s="3">
-        <v>-8336700</v>
+        <v>-8741200</v>
       </c>
       <c r="G91" s="3">
-        <v>-8211300</v>
+        <v>-7931600</v>
       </c>
       <c r="H91" s="3">
-        <v>-9264000</v>
+        <v>-7812300</v>
       </c>
       <c r="I91" s="3">
-        <v>-8477500</v>
+        <v>-8813800</v>
       </c>
       <c r="J91" s="3">
+        <v>-8065500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6666600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7317200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7425800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7877400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3440,9 +3663,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3476,45 +3702,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6069800</v>
+        <v>-6202500</v>
       </c>
       <c r="E94" s="3">
-        <v>-10221800</v>
+        <v>-5774900</v>
       </c>
       <c r="F94" s="3">
-        <v>-9329500</v>
+        <v>-9725100</v>
       </c>
       <c r="G94" s="3">
-        <v>-8662900</v>
+        <v>-8876100</v>
       </c>
       <c r="H94" s="3">
-        <v>-5322500</v>
+        <v>-8242000</v>
       </c>
       <c r="I94" s="3">
-        <v>-10261100</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-5063900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-9762500</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7229800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5171600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7404400</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3529,44 +3761,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1740000</v>
+        <v>-2207600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2025800</v>
+        <v>-1655500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2029100</v>
+        <v>-1927400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1886200</v>
+        <v>-1930500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1741100</v>
+        <v>-1794500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1733500</v>
+        <v>-1656500</v>
       </c>
       <c r="J96" s="3">
+        <v>-1649200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2013800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1571800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3987900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4346600</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3600,9 +3836,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3636,9 +3875,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3672,115 +3914,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5901800</v>
+        <v>-5017200</v>
       </c>
       <c r="E100" s="3">
-        <v>26200</v>
+        <v>-5615000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1233800</v>
+        <v>24900</v>
       </c>
       <c r="G100" s="3">
-        <v>-2986900</v>
+        <v>-1173900</v>
       </c>
       <c r="H100" s="3">
-        <v>-2054200</v>
+        <v>-2841800</v>
       </c>
       <c r="I100" s="3">
-        <v>-4280700</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-1954400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-4072700</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4231000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5569100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3357100</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-64400</v>
+        <v>51900</v>
       </c>
       <c r="E101" s="3">
-        <v>3300</v>
+        <v>-61200</v>
       </c>
       <c r="F101" s="3">
-        <v>1100</v>
+        <v>3100</v>
       </c>
       <c r="G101" s="3">
-        <v>-43600</v>
+        <v>1000</v>
       </c>
       <c r="H101" s="3">
-        <v>-111300</v>
+        <v>-41500</v>
       </c>
       <c r="I101" s="3">
-        <v>1651600</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-105900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1571400</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-77800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>28500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-91600</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1815300</v>
+        <v>494000</v>
       </c>
       <c r="E102" s="3">
-        <v>924000</v>
+        <v>1727100</v>
       </c>
       <c r="F102" s="3">
-        <v>-192000</v>
+        <v>879100</v>
       </c>
       <c r="G102" s="3">
-        <v>-594500</v>
+        <v>-182700</v>
       </c>
       <c r="H102" s="3">
-        <v>2057500</v>
+        <v>-565700</v>
       </c>
       <c r="I102" s="3">
-        <v>-2497100</v>
+        <v>1957500</v>
       </c>
       <c r="J102" s="3">
+        <v>-2375800</v>
+      </c>
+      <c r="K102" s="3">
         <v>898900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2855300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>285500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4264500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>44133600</v>
+        <v>42411400</v>
       </c>
       <c r="E8" s="3">
-        <v>43872000</v>
+        <v>42160100</v>
       </c>
       <c r="F8" s="3">
-        <v>43838800</v>
+        <v>42128200</v>
       </c>
       <c r="G8" s="3">
-        <v>42949300</v>
+        <v>41273400</v>
       </c>
       <c r="H8" s="3">
-        <v>42407600</v>
+        <v>40752800</v>
       </c>
       <c r="I8" s="3">
-        <v>42468800</v>
+        <v>40811600</v>
       </c>
       <c r="J8" s="3">
-        <v>41760900</v>
+        <v>40131400</v>
       </c>
       <c r="K8" s="3">
         <v>43030900</v>
@@ -766,25 +766,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17688900</v>
+        <v>16998700</v>
       </c>
       <c r="E9" s="3">
-        <v>17440900</v>
+        <v>16760300</v>
       </c>
       <c r="F9" s="3">
-        <v>17432600</v>
+        <v>16752300</v>
       </c>
       <c r="G9" s="3">
-        <v>18040800</v>
+        <v>17336800</v>
       </c>
       <c r="H9" s="3">
-        <v>17886100</v>
+        <v>17188200</v>
       </c>
       <c r="I9" s="3">
-        <v>17774000</v>
+        <v>17080500</v>
       </c>
       <c r="J9" s="3">
-        <v>17160600</v>
+        <v>16491000</v>
       </c>
       <c r="K9" s="3">
         <v>18819300</v>
@@ -805,25 +805,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>26444700</v>
+        <v>25412800</v>
       </c>
       <c r="E10" s="3">
-        <v>26431200</v>
+        <v>25399800</v>
       </c>
       <c r="F10" s="3">
-        <v>26406300</v>
+        <v>25375900</v>
       </c>
       <c r="G10" s="3">
-        <v>24908600</v>
+        <v>23936600</v>
       </c>
       <c r="H10" s="3">
-        <v>24521400</v>
+        <v>23564600</v>
       </c>
       <c r="I10" s="3">
-        <v>24694800</v>
+        <v>23731100</v>
       </c>
       <c r="J10" s="3">
-        <v>24600300</v>
+        <v>23640400</v>
       </c>
       <c r="K10" s="3">
         <v>24211700</v>
@@ -939,25 +939,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5863100</v>
+        <v>5634300</v>
       </c>
       <c r="E14" s="3">
-        <v>414100</v>
+        <v>398000</v>
       </c>
       <c r="F14" s="3">
-        <v>298900</v>
+        <v>287300</v>
       </c>
       <c r="G14" s="3">
-        <v>304100</v>
+        <v>292200</v>
       </c>
       <c r="H14" s="3">
-        <v>1265200</v>
+        <v>1215800</v>
       </c>
       <c r="I14" s="3">
-        <v>2289600</v>
+        <v>2200300</v>
       </c>
       <c r="J14" s="3">
-        <v>602000</v>
+        <v>578500</v>
       </c>
       <c r="K14" s="3">
         <v>825800</v>
@@ -978,25 +978,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8880300</v>
+        <v>8533800</v>
       </c>
       <c r="E15" s="3">
-        <v>8840800</v>
+        <v>8495900</v>
       </c>
       <c r="F15" s="3">
-        <v>8701800</v>
+        <v>8362200</v>
       </c>
       <c r="G15" s="3">
-        <v>7314100</v>
+        <v>7028700</v>
       </c>
       <c r="H15" s="3">
-        <v>7105500</v>
+        <v>6828200</v>
       </c>
       <c r="I15" s="3">
-        <v>6983000</v>
+        <v>6710500</v>
       </c>
       <c r="J15" s="3">
-        <v>6710000</v>
+        <v>6448200</v>
       </c>
       <c r="K15" s="3">
         <v>6586900</v>
@@ -1031,25 +1031,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41517000</v>
+        <v>39897000</v>
       </c>
       <c r="E17" s="3">
-        <v>38141800</v>
+        <v>36653500</v>
       </c>
       <c r="F17" s="3">
-        <v>37684100</v>
+        <v>36213600</v>
       </c>
       <c r="G17" s="3">
-        <v>37937300</v>
+        <v>36457000</v>
       </c>
       <c r="H17" s="3">
-        <v>37448500</v>
+        <v>35987200</v>
       </c>
       <c r="I17" s="3">
-        <v>39018800</v>
+        <v>37496300</v>
       </c>
       <c r="J17" s="3">
-        <v>36839200</v>
+        <v>35401700</v>
       </c>
       <c r="K17" s="3">
         <v>38044400</v>
@@ -1070,25 +1070,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2616500</v>
+        <v>2514400</v>
       </c>
       <c r="E18" s="3">
-        <v>5730200</v>
+        <v>5506600</v>
       </c>
       <c r="F18" s="3">
-        <v>6154700</v>
+        <v>5914600</v>
       </c>
       <c r="G18" s="3">
-        <v>5012000</v>
+        <v>4816400</v>
       </c>
       <c r="H18" s="3">
-        <v>4959100</v>
+        <v>4765600</v>
       </c>
       <c r="I18" s="3">
-        <v>3450000</v>
+        <v>3315400</v>
       </c>
       <c r="J18" s="3">
-        <v>4921700</v>
+        <v>4729700</v>
       </c>
       <c r="K18" s="3">
         <v>4986500</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>370500</v>
+        <v>356100</v>
       </c>
       <c r="E20" s="3">
-        <v>-42600</v>
+        <v>-40900</v>
       </c>
       <c r="F20" s="3">
-        <v>128700</v>
+        <v>123700</v>
       </c>
       <c r="G20" s="3">
-        <v>34300</v>
+        <v>32900</v>
       </c>
       <c r="H20" s="3">
-        <v>-371600</v>
+        <v>-357100</v>
       </c>
       <c r="I20" s="3">
-        <v>128700</v>
+        <v>123700</v>
       </c>
       <c r="J20" s="3">
-        <v>137000</v>
+        <v>131700</v>
       </c>
       <c r="K20" s="3">
         <v>87300</v>
@@ -1165,25 +1165,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11979200</v>
+        <v>11395600</v>
       </c>
       <c r="E21" s="3">
-        <v>14641000</v>
+        <v>13953900</v>
       </c>
       <c r="F21" s="3">
-        <v>15096900</v>
+        <v>14393900</v>
       </c>
       <c r="G21" s="3">
-        <v>12453400</v>
+        <v>11871700</v>
       </c>
       <c r="H21" s="3">
-        <v>11783300</v>
+        <v>11230500</v>
       </c>
       <c r="I21" s="3">
-        <v>10650500</v>
+        <v>10143500</v>
       </c>
       <c r="J21" s="3">
-        <v>11854100</v>
+        <v>11303700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1204,25 +1204,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1182200</v>
+        <v>1136000</v>
       </c>
       <c r="E22" s="3">
-        <v>1321200</v>
+        <v>1269700</v>
       </c>
       <c r="F22" s="3">
-        <v>1437500</v>
+        <v>1381400</v>
       </c>
       <c r="G22" s="3">
-        <v>1447900</v>
+        <v>1391400</v>
       </c>
       <c r="H22" s="3">
-        <v>1408400</v>
+        <v>1353500</v>
       </c>
       <c r="I22" s="3">
-        <v>1523600</v>
+        <v>1464200</v>
       </c>
       <c r="J22" s="3">
-        <v>1780000</v>
+        <v>1710500</v>
       </c>
       <c r="K22" s="3">
         <v>1874200</v>
@@ -1243,25 +1243,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1804900</v>
+        <v>1734500</v>
       </c>
       <c r="E23" s="3">
-        <v>4366400</v>
+        <v>4196100</v>
       </c>
       <c r="F23" s="3">
-        <v>4846000</v>
+        <v>4656900</v>
       </c>
       <c r="G23" s="3">
-        <v>3598400</v>
+        <v>3458000</v>
       </c>
       <c r="H23" s="3">
-        <v>3179100</v>
+        <v>3055000</v>
       </c>
       <c r="I23" s="3">
-        <v>2055000</v>
+        <v>1974900</v>
       </c>
       <c r="J23" s="3">
-        <v>3278700</v>
+        <v>3150800</v>
       </c>
       <c r="K23" s="3">
         <v>3199600</v>
@@ -1282,25 +1282,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>998500</v>
+        <v>959500</v>
       </c>
       <c r="E24" s="3">
-        <v>-880100</v>
+        <v>-845800</v>
       </c>
       <c r="F24" s="3">
-        <v>1501800</v>
+        <v>1443200</v>
       </c>
       <c r="G24" s="3">
-        <v>1358600</v>
+        <v>1305600</v>
       </c>
       <c r="H24" s="3">
-        <v>1091900</v>
+        <v>1049300</v>
       </c>
       <c r="I24" s="3">
-        <v>1006800</v>
+        <v>967500</v>
       </c>
       <c r="J24" s="3">
-        <v>673600</v>
+        <v>647300</v>
       </c>
       <c r="K24" s="3">
         <v>1716000</v>
@@ -1360,25 +1360,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>806400</v>
+        <v>775000</v>
       </c>
       <c r="E26" s="3">
-        <v>5246600</v>
+        <v>5041900</v>
       </c>
       <c r="F26" s="3">
-        <v>3344100</v>
+        <v>3213600</v>
       </c>
       <c r="G26" s="3">
-        <v>2239800</v>
+        <v>2152400</v>
       </c>
       <c r="H26" s="3">
-        <v>2087200</v>
+        <v>2005800</v>
       </c>
       <c r="I26" s="3">
-        <v>1048300</v>
+        <v>1007400</v>
       </c>
       <c r="J26" s="3">
-        <v>2605100</v>
+        <v>2503500</v>
       </c>
       <c r="K26" s="3">
         <v>1483600</v>
@@ -1399,25 +1399,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="E27" s="3">
-        <v>4740100</v>
+        <v>4555100</v>
       </c>
       <c r="F27" s="3">
-        <v>2839700</v>
+        <v>2728900</v>
       </c>
       <c r="G27" s="3">
-        <v>1724000</v>
+        <v>1656700</v>
       </c>
       <c r="H27" s="3">
-        <v>1605600</v>
+        <v>1543000</v>
       </c>
       <c r="I27" s="3">
-        <v>410000</v>
+        <v>394000</v>
       </c>
       <c r="J27" s="3">
-        <v>2287500</v>
+        <v>2198300</v>
       </c>
       <c r="K27" s="3">
         <v>1156400</v>
@@ -1489,13 +1489,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>30100</v>
+        <v>28900</v>
       </c>
       <c r="I29" s="3">
-        <v>2338400</v>
+        <v>2247100</v>
       </c>
       <c r="J29" s="3">
-        <v>465000</v>
+        <v>446800</v>
       </c>
       <c r="K29" s="3">
         <v>-147300</v>
@@ -1594,25 +1594,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-370500</v>
+        <v>-356100</v>
       </c>
       <c r="E32" s="3">
-        <v>42600</v>
+        <v>40900</v>
       </c>
       <c r="F32" s="3">
-        <v>-128700</v>
+        <v>-123700</v>
       </c>
       <c r="G32" s="3">
-        <v>-34300</v>
+        <v>-32900</v>
       </c>
       <c r="H32" s="3">
-        <v>371600</v>
+        <v>357100</v>
       </c>
       <c r="I32" s="3">
-        <v>-128700</v>
+        <v>-123700</v>
       </c>
       <c r="J32" s="3">
-        <v>-137000</v>
+        <v>-131700</v>
       </c>
       <c r="K32" s="3">
         <v>-87300</v>
@@ -1633,25 +1633,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="E33" s="3">
-        <v>4740100</v>
+        <v>4555100</v>
       </c>
       <c r="F33" s="3">
-        <v>2839700</v>
+        <v>2728900</v>
       </c>
       <c r="G33" s="3">
-        <v>1724000</v>
+        <v>1656700</v>
       </c>
       <c r="H33" s="3">
-        <v>1635700</v>
+        <v>1571900</v>
       </c>
       <c r="I33" s="3">
-        <v>2748400</v>
+        <v>2641100</v>
       </c>
       <c r="J33" s="3">
-        <v>2752500</v>
+        <v>2645100</v>
       </c>
       <c r="K33" s="3">
         <v>1009100</v>
@@ -1711,25 +1711,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="E35" s="3">
-        <v>4740100</v>
+        <v>4555100</v>
       </c>
       <c r="F35" s="3">
-        <v>2839700</v>
+        <v>2728900</v>
       </c>
       <c r="G35" s="3">
-        <v>1724000</v>
+        <v>1656700</v>
       </c>
       <c r="H35" s="3">
-        <v>1635700</v>
+        <v>1571900</v>
       </c>
       <c r="I35" s="3">
-        <v>2748400</v>
+        <v>2641100</v>
       </c>
       <c r="J35" s="3">
-        <v>2752500</v>
+        <v>2645100</v>
       </c>
       <c r="K35" s="3">
         <v>1009100</v>
@@ -1828,25 +1828,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8947700</v>
+        <v>8598600</v>
       </c>
       <c r="E41" s="3">
-        <v>8453700</v>
+        <v>8123800</v>
       </c>
       <c r="F41" s="3">
-        <v>6726600</v>
+        <v>6464100</v>
       </c>
       <c r="G41" s="3">
-        <v>5847500</v>
+        <v>5619400</v>
       </c>
       <c r="H41" s="3">
-        <v>6030200</v>
+        <v>5794900</v>
       </c>
       <c r="I41" s="3">
-        <v>6595900</v>
+        <v>6338500</v>
       </c>
       <c r="J41" s="3">
-        <v>4638400</v>
+        <v>4457400</v>
       </c>
       <c r="K41" s="3">
         <v>4875300</v>
@@ -1867,25 +1867,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2395500</v>
+        <v>2302000</v>
       </c>
       <c r="E42" s="3">
-        <v>3376300</v>
+        <v>3244500</v>
       </c>
       <c r="F42" s="3">
-        <v>5016200</v>
+        <v>4820400</v>
       </c>
       <c r="G42" s="3">
-        <v>2915500</v>
+        <v>2801700</v>
       </c>
       <c r="H42" s="3">
-        <v>9156400</v>
+        <v>8799100</v>
       </c>
       <c r="I42" s="3">
-        <v>1927400</v>
+        <v>1852200</v>
       </c>
       <c r="J42" s="3">
-        <v>1330600</v>
+        <v>1278700</v>
       </c>
       <c r="K42" s="3">
         <v>1398500</v>
@@ -1906,25 +1906,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11644200</v>
+        <v>11189800</v>
       </c>
       <c r="E43" s="3">
-        <v>10554400</v>
+        <v>10142600</v>
       </c>
       <c r="F43" s="3">
-        <v>11175100</v>
+        <v>10739000</v>
       </c>
       <c r="G43" s="3">
-        <v>11023500</v>
+        <v>10593400</v>
       </c>
       <c r="H43" s="3">
-        <v>7846500</v>
+        <v>7540300</v>
       </c>
       <c r="I43" s="3">
-        <v>9494700</v>
+        <v>9124200</v>
       </c>
       <c r="J43" s="3">
-        <v>6157900</v>
+        <v>5917600</v>
       </c>
       <c r="K43" s="3">
         <v>6472400</v>
@@ -1945,25 +1945,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>988100</v>
+        <v>949500</v>
       </c>
       <c r="E44" s="3">
-        <v>844900</v>
+        <v>811900</v>
       </c>
       <c r="F44" s="3">
-        <v>940300</v>
+        <v>903600</v>
       </c>
       <c r="G44" s="3">
-        <v>1001600</v>
+        <v>962500</v>
       </c>
       <c r="H44" s="3">
-        <v>858300</v>
+        <v>824800</v>
       </c>
       <c r="I44" s="3">
-        <v>850000</v>
+        <v>816900</v>
       </c>
       <c r="J44" s="3">
-        <v>791900</v>
+        <v>761000</v>
       </c>
       <c r="K44" s="3">
         <v>832400</v>
@@ -1984,25 +1984,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2837600</v>
+        <v>2726900</v>
       </c>
       <c r="E45" s="3">
-        <v>2815800</v>
+        <v>2705900</v>
       </c>
       <c r="F45" s="3">
-        <v>2075800</v>
+        <v>1994800</v>
       </c>
       <c r="G45" s="3">
-        <v>1932600</v>
+        <v>1857200</v>
       </c>
       <c r="H45" s="3">
-        <v>1643000</v>
+        <v>1578900</v>
       </c>
       <c r="I45" s="3">
-        <v>1733300</v>
+        <v>1665700</v>
       </c>
       <c r="J45" s="3">
-        <v>1935700</v>
+        <v>1860200</v>
       </c>
       <c r="K45" s="3">
         <v>2034500</v>
@@ -2023,25 +2023,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26813100</v>
+        <v>25766800</v>
       </c>
       <c r="E46" s="3">
-        <v>26045100</v>
+        <v>25028800</v>
       </c>
       <c r="F46" s="3">
-        <v>25934000</v>
+        <v>24922000</v>
       </c>
       <c r="G46" s="3">
-        <v>22720700</v>
+        <v>21834100</v>
       </c>
       <c r="H46" s="3">
-        <v>22560800</v>
+        <v>21680500</v>
       </c>
       <c r="I46" s="3">
-        <v>20601300</v>
+        <v>19797400</v>
       </c>
       <c r="J46" s="3">
-        <v>14854400</v>
+        <v>14274800</v>
       </c>
       <c r="K46" s="3">
         <v>15613100</v>
@@ -2062,25 +2062,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3414700</v>
+        <v>3281400</v>
       </c>
       <c r="E47" s="3">
-        <v>2931000</v>
+        <v>2816700</v>
       </c>
       <c r="F47" s="3">
-        <v>2667400</v>
+        <v>2563300</v>
       </c>
       <c r="G47" s="3">
-        <v>4154700</v>
+        <v>3992600</v>
       </c>
       <c r="H47" s="3">
-        <v>7783200</v>
+        <v>7479500</v>
       </c>
       <c r="I47" s="3">
-        <v>5227900</v>
+        <v>5023900</v>
       </c>
       <c r="J47" s="3">
-        <v>1034800</v>
+        <v>994400</v>
       </c>
       <c r="K47" s="3">
         <v>1087600</v>
@@ -2101,25 +2101,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39633200</v>
+        <v>38086700</v>
       </c>
       <c r="E48" s="3">
-        <v>37451600</v>
+        <v>35990200</v>
       </c>
       <c r="F48" s="3">
-        <v>72453700</v>
+        <v>69626500</v>
       </c>
       <c r="G48" s="3">
-        <v>28742600</v>
+        <v>27621000</v>
       </c>
       <c r="H48" s="3">
-        <v>55351200</v>
+        <v>53191300</v>
       </c>
       <c r="I48" s="3">
-        <v>26894100</v>
+        <v>25844600</v>
       </c>
       <c r="J48" s="3">
-        <v>26075200</v>
+        <v>25057700</v>
       </c>
       <c r="K48" s="3">
         <v>27406900</v>
@@ -2140,25 +2140,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>40615100</v>
+        <v>39030300</v>
       </c>
       <c r="E49" s="3">
-        <v>44350500</v>
+        <v>42619900</v>
       </c>
       <c r="F49" s="3">
-        <v>87974500</v>
+        <v>84541600</v>
       </c>
       <c r="G49" s="3">
-        <v>42810300</v>
+        <v>41139800</v>
       </c>
       <c r="H49" s="3">
-        <v>57695800</v>
+        <v>55444500</v>
       </c>
       <c r="I49" s="3">
-        <v>43340600</v>
+        <v>41649400</v>
       </c>
       <c r="J49" s="3">
-        <v>42967000</v>
+        <v>41290400</v>
       </c>
       <c r="K49" s="3">
         <v>45161500</v>
@@ -2257,25 +2257,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1690700</v>
+        <v>1624800</v>
       </c>
       <c r="E52" s="3">
-        <v>1037900</v>
+        <v>997400</v>
       </c>
       <c r="F52" s="3">
-        <v>1743700</v>
+        <v>1675600</v>
       </c>
       <c r="G52" s="3">
-        <v>1824600</v>
+        <v>1753400</v>
       </c>
       <c r="H52" s="3">
-        <v>1981400</v>
+        <v>1904000</v>
       </c>
       <c r="I52" s="3">
-        <v>3255900</v>
+        <v>3128800</v>
       </c>
       <c r="J52" s="3">
-        <v>9963800</v>
+        <v>9575000</v>
       </c>
       <c r="K52" s="3">
         <v>10472700</v>
@@ -2335,25 +2335,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>112167000</v>
+        <v>107790000</v>
       </c>
       <c r="E54" s="3">
-        <v>111816000</v>
+        <v>107453000</v>
       </c>
       <c r="F54" s="3">
-        <v>110787000</v>
+        <v>106464000</v>
       </c>
       <c r="G54" s="3">
-        <v>100253000</v>
+        <v>96340900</v>
       </c>
       <c r="H54" s="3">
-        <v>98962700</v>
+        <v>95101100</v>
       </c>
       <c r="I54" s="3">
-        <v>98255900</v>
+        <v>94421900</v>
       </c>
       <c r="J54" s="3">
-        <v>94895200</v>
+        <v>91192300</v>
       </c>
       <c r="K54" s="3">
         <v>99741900</v>
@@ -2408,25 +2408,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6993400</v>
+        <v>6720500</v>
       </c>
       <c r="E57" s="3">
-        <v>6720400</v>
+        <v>6458200</v>
       </c>
       <c r="F57" s="3">
-        <v>6935200</v>
+        <v>6664600</v>
       </c>
       <c r="G57" s="3">
-        <v>6991300</v>
+        <v>6718500</v>
       </c>
       <c r="H57" s="3">
-        <v>6774400</v>
+        <v>6510000</v>
       </c>
       <c r="I57" s="3">
-        <v>6446400</v>
+        <v>6194900</v>
       </c>
       <c r="J57" s="3">
-        <v>6463000</v>
+        <v>6210800</v>
       </c>
       <c r="K57" s="3">
         <v>6793100</v>
@@ -2447,25 +2447,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8252300</v>
+        <v>7930300</v>
       </c>
       <c r="E58" s="3">
-        <v>10165200</v>
+        <v>9768500</v>
       </c>
       <c r="F58" s="3">
-        <v>9904700</v>
+        <v>9518200</v>
       </c>
       <c r="G58" s="3">
-        <v>12459000</v>
+        <v>11972800</v>
       </c>
       <c r="H58" s="3">
-        <v>15885100</v>
+        <v>15265200</v>
       </c>
       <c r="I58" s="3">
-        <v>8809700</v>
+        <v>8465900</v>
       </c>
       <c r="J58" s="3">
-        <v>2884300</v>
+        <v>2771800</v>
       </c>
       <c r="K58" s="3">
         <v>3031600</v>
@@ -2486,25 +2486,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13064000</v>
+        <v>12554300</v>
       </c>
       <c r="E59" s="3">
-        <v>12480700</v>
+        <v>11993700</v>
       </c>
       <c r="F59" s="3">
-        <v>11979400</v>
+        <v>11512000</v>
       </c>
       <c r="G59" s="3">
-        <v>11994000</v>
+        <v>11526000</v>
       </c>
       <c r="H59" s="3">
-        <v>12439200</v>
+        <v>11953800</v>
       </c>
       <c r="I59" s="3">
-        <v>11629700</v>
+        <v>11175900</v>
       </c>
       <c r="J59" s="3">
-        <v>13098300</v>
+        <v>12587200</v>
       </c>
       <c r="K59" s="3">
         <v>13767300</v>
@@ -2525,25 +2525,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28309800</v>
+        <v>27205100</v>
       </c>
       <c r="E60" s="3">
-        <v>29366300</v>
+        <v>28220400</v>
       </c>
       <c r="F60" s="3">
-        <v>28819400</v>
+        <v>27694800</v>
       </c>
       <c r="G60" s="3">
-        <v>31444200</v>
+        <v>30217200</v>
       </c>
       <c r="H60" s="3">
-        <v>30158300</v>
+        <v>28981500</v>
       </c>
       <c r="I60" s="3">
-        <v>26885800</v>
+        <v>25836600</v>
       </c>
       <c r="J60" s="3">
-        <v>22445600</v>
+        <v>21569800</v>
       </c>
       <c r="K60" s="3">
         <v>23592000</v>
@@ -2564,25 +2564,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40081600</v>
+        <v>38517600</v>
       </c>
       <c r="E61" s="3">
-        <v>37327000</v>
+        <v>35870500</v>
       </c>
       <c r="F61" s="3">
-        <v>40209300</v>
+        <v>38640300</v>
       </c>
       <c r="G61" s="3">
-        <v>27494000</v>
+        <v>26421100</v>
       </c>
       <c r="H61" s="3">
-        <v>27289500</v>
+        <v>26224600</v>
       </c>
       <c r="I61" s="3">
-        <v>29842700</v>
+        <v>28678200</v>
       </c>
       <c r="J61" s="3">
-        <v>30647100</v>
+        <v>29451200</v>
       </c>
       <c r="K61" s="3">
         <v>32212400</v>
@@ -2603,25 +2603,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7074300</v>
+        <v>6798300</v>
       </c>
       <c r="E62" s="3">
-        <v>6681000</v>
+        <v>6420300</v>
       </c>
       <c r="F62" s="3">
-        <v>6040600</v>
+        <v>5804900</v>
       </c>
       <c r="G62" s="3">
-        <v>6805500</v>
+        <v>6540000</v>
       </c>
       <c r="H62" s="3">
-        <v>6926900</v>
+        <v>6656600</v>
       </c>
       <c r="I62" s="3">
-        <v>7096100</v>
+        <v>6819200</v>
       </c>
       <c r="J62" s="3">
-        <v>7274600</v>
+        <v>6990800</v>
       </c>
       <c r="K62" s="3">
         <v>7646200</v>
@@ -2759,25 +2759,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>78600200</v>
+        <v>75533100</v>
       </c>
       <c r="E66" s="3">
-        <v>76117500</v>
+        <v>73147300</v>
       </c>
       <c r="F66" s="3">
-        <v>77859100</v>
+        <v>74821000</v>
       </c>
       <c r="G66" s="3">
-        <v>68421500</v>
+        <v>65751600</v>
       </c>
       <c r="H66" s="3">
-        <v>66813800</v>
+        <v>64206600</v>
       </c>
       <c r="I66" s="3">
-        <v>66404800</v>
+        <v>63813700</v>
       </c>
       <c r="J66" s="3">
-        <v>62816800</v>
+        <v>60365600</v>
       </c>
       <c r="K66" s="3">
         <v>66025100</v>
@@ -2971,25 +2971,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-414100</v>
+        <v>-398000</v>
       </c>
       <c r="E72" s="3">
-        <v>1921200</v>
+        <v>1846200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1115700</v>
+        <v>-1072200</v>
       </c>
       <c r="G72" s="3">
-        <v>-2140100</v>
+        <v>-2056600</v>
       </c>
       <c r="H72" s="3">
-        <v>-1921200</v>
+        <v>-1846200</v>
       </c>
       <c r="I72" s="3">
-        <v>-5006800</v>
+        <v>-4811500</v>
       </c>
       <c r="J72" s="3">
-        <v>3654400</v>
+        <v>3511800</v>
       </c>
       <c r="K72" s="3">
         <v>3841100</v>
@@ -3127,25 +3127,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33566700</v>
+        <v>32256900</v>
       </c>
       <c r="E76" s="3">
-        <v>35698600</v>
+        <v>34305600</v>
       </c>
       <c r="F76" s="3">
-        <v>32927400</v>
+        <v>31642500</v>
       </c>
       <c r="G76" s="3">
-        <v>31831400</v>
+        <v>30589300</v>
       </c>
       <c r="H76" s="3">
-        <v>32149000</v>
+        <v>30894500</v>
       </c>
       <c r="I76" s="3">
-        <v>31851100</v>
+        <v>30608200</v>
       </c>
       <c r="J76" s="3">
-        <v>32078400</v>
+        <v>30826600</v>
       </c>
       <c r="K76" s="3">
         <v>33716800</v>
@@ -3249,25 +3249,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="E81" s="3">
-        <v>4740100</v>
+        <v>4555100</v>
       </c>
       <c r="F81" s="3">
-        <v>2839700</v>
+        <v>2728900</v>
       </c>
       <c r="G81" s="3">
-        <v>1724000</v>
+        <v>1656700</v>
       </c>
       <c r="H81" s="3">
-        <v>1635700</v>
+        <v>1571900</v>
       </c>
       <c r="I81" s="3">
-        <v>2748400</v>
+        <v>2641100</v>
       </c>
       <c r="J81" s="3">
-        <v>2752500</v>
+        <v>2645100</v>
       </c>
       <c r="K81" s="3">
         <v>1009100</v>
@@ -3305,25 +3305,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8879200</v>
+        <v>8532800</v>
       </c>
       <c r="E83" s="3">
-        <v>8840800</v>
+        <v>8495900</v>
       </c>
       <c r="F83" s="3">
-        <v>8702800</v>
+        <v>8363200</v>
       </c>
       <c r="G83" s="3">
-        <v>7314100</v>
+        <v>7028700</v>
       </c>
       <c r="H83" s="3">
-        <v>7105500</v>
+        <v>6828200</v>
       </c>
       <c r="I83" s="3">
-        <v>6983000</v>
+        <v>6710500</v>
       </c>
       <c r="J83" s="3">
-        <v>6710000</v>
+        <v>6448200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3539,25 +3539,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11661800</v>
+        <v>11206800</v>
       </c>
       <c r="E89" s="3">
-        <v>13178200</v>
+        <v>12664000</v>
       </c>
       <c r="F89" s="3">
-        <v>10576200</v>
+        <v>10163500</v>
       </c>
       <c r="G89" s="3">
-        <v>9866300</v>
+        <v>9481300</v>
       </c>
       <c r="H89" s="3">
-        <v>10559600</v>
+        <v>10147500</v>
       </c>
       <c r="I89" s="3">
-        <v>9081600</v>
+        <v>8727300</v>
       </c>
       <c r="J89" s="3">
-        <v>9888100</v>
+        <v>9502200</v>
       </c>
       <c r="K89" s="3">
         <v>9602200</v>
@@ -3595,25 +3595,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9080600</v>
+        <v>-8726300</v>
       </c>
       <c r="E91" s="3">
-        <v>-8869900</v>
+        <v>-8523800</v>
       </c>
       <c r="F91" s="3">
-        <v>-8741200</v>
+        <v>-8400100</v>
       </c>
       <c r="G91" s="3">
-        <v>-7931600</v>
+        <v>-7622100</v>
       </c>
       <c r="H91" s="3">
-        <v>-7812300</v>
+        <v>-7507400</v>
       </c>
       <c r="I91" s="3">
-        <v>-8813800</v>
+        <v>-8469900</v>
       </c>
       <c r="J91" s="3">
-        <v>-8065500</v>
+        <v>-7750800</v>
       </c>
       <c r="K91" s="3">
         <v>-6666600</v>
@@ -3712,25 +3712,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6202500</v>
+        <v>-5960500</v>
       </c>
       <c r="E94" s="3">
-        <v>-5774900</v>
+        <v>-5549500</v>
       </c>
       <c r="F94" s="3">
-        <v>-9725100</v>
+        <v>-9345600</v>
       </c>
       <c r="G94" s="3">
-        <v>-8876100</v>
+        <v>-8529800</v>
       </c>
       <c r="H94" s="3">
-        <v>-8242000</v>
+        <v>-7920400</v>
       </c>
       <c r="I94" s="3">
-        <v>-5063900</v>
+        <v>-4866300</v>
       </c>
       <c r="J94" s="3">
-        <v>-9762500</v>
+        <v>-9381500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3768,25 +3768,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2207600</v>
+        <v>-2121500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1655500</v>
+        <v>-1590900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1927400</v>
+        <v>-1852200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1930500</v>
+        <v>-1855200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1794500</v>
+        <v>-1724500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1656500</v>
+        <v>-1591900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1649200</v>
+        <v>-1584900</v>
       </c>
       <c r="K96" s="3">
         <v>-2013800</v>
@@ -3924,25 +3924,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5017200</v>
+        <v>-4821400</v>
       </c>
       <c r="E100" s="3">
-        <v>-5615000</v>
+        <v>-5395900</v>
       </c>
       <c r="F100" s="3">
-        <v>24900</v>
+        <v>23900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1173900</v>
+        <v>-1128100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2841800</v>
+        <v>-2730900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1954400</v>
+        <v>-1878100</v>
       </c>
       <c r="J100" s="3">
-        <v>-4072700</v>
+        <v>-3913800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3963,25 +3963,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>51900</v>
+        <v>49900</v>
       </c>
       <c r="E101" s="3">
-        <v>-61200</v>
+        <v>-58800</v>
       </c>
       <c r="F101" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G101" s="3">
         <v>1000</v>
       </c>
       <c r="H101" s="3">
-        <v>-41500</v>
+        <v>-39900</v>
       </c>
       <c r="I101" s="3">
-        <v>-105900</v>
+        <v>-101700</v>
       </c>
       <c r="J101" s="3">
-        <v>1571400</v>
+        <v>1510100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4002,25 +4002,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>494000</v>
+        <v>474800</v>
       </c>
       <c r="E102" s="3">
-        <v>1727100</v>
+        <v>1659700</v>
       </c>
       <c r="F102" s="3">
-        <v>879100</v>
+        <v>844800</v>
       </c>
       <c r="G102" s="3">
-        <v>-182700</v>
+        <v>-175500</v>
       </c>
       <c r="H102" s="3">
-        <v>-565700</v>
+        <v>-543600</v>
       </c>
       <c r="I102" s="3">
-        <v>1957500</v>
+        <v>1881100</v>
       </c>
       <c r="J102" s="3">
-        <v>-2375800</v>
+        <v>-2283000</v>
       </c>
       <c r="K102" s="3">
         <v>898900</v>

--- a/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>42411400</v>
+        <v>43406500</v>
       </c>
       <c r="E8" s="3">
-        <v>42160100</v>
+        <v>43149200</v>
       </c>
       <c r="F8" s="3">
-        <v>42128200</v>
+        <v>43116600</v>
       </c>
       <c r="G8" s="3">
-        <v>41273400</v>
+        <v>42241700</v>
       </c>
       <c r="H8" s="3">
-        <v>40752800</v>
+        <v>41708900</v>
       </c>
       <c r="I8" s="3">
-        <v>40811600</v>
+        <v>41769100</v>
       </c>
       <c r="J8" s="3">
-        <v>40131400</v>
+        <v>41072900</v>
       </c>
       <c r="K8" s="3">
         <v>43030900</v>
@@ -766,25 +766,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16998700</v>
+        <v>17397500</v>
       </c>
       <c r="E9" s="3">
-        <v>16760300</v>
+        <v>17153500</v>
       </c>
       <c r="F9" s="3">
-        <v>16752300</v>
+        <v>17145400</v>
       </c>
       <c r="G9" s="3">
-        <v>17336800</v>
+        <v>17743500</v>
       </c>
       <c r="H9" s="3">
-        <v>17188200</v>
+        <v>17591400</v>
       </c>
       <c r="I9" s="3">
-        <v>17080500</v>
+        <v>17481200</v>
       </c>
       <c r="J9" s="3">
-        <v>16491000</v>
+        <v>16877900</v>
       </c>
       <c r="K9" s="3">
         <v>18819300</v>
@@ -805,25 +805,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>25412800</v>
+        <v>26009000</v>
       </c>
       <c r="E10" s="3">
-        <v>25399800</v>
+        <v>25995700</v>
       </c>
       <c r="F10" s="3">
-        <v>25375900</v>
+        <v>25971200</v>
       </c>
       <c r="G10" s="3">
-        <v>23936600</v>
+        <v>24498200</v>
       </c>
       <c r="H10" s="3">
-        <v>23564600</v>
+        <v>24117400</v>
       </c>
       <c r="I10" s="3">
-        <v>23731100</v>
+        <v>24287900</v>
       </c>
       <c r="J10" s="3">
-        <v>23640400</v>
+        <v>24195000</v>
       </c>
       <c r="K10" s="3">
         <v>24211700</v>
@@ -939,25 +939,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5634300</v>
+        <v>5766500</v>
       </c>
       <c r="E14" s="3">
-        <v>398000</v>
+        <v>407300</v>
       </c>
       <c r="F14" s="3">
-        <v>287300</v>
+        <v>294000</v>
       </c>
       <c r="G14" s="3">
-        <v>292200</v>
+        <v>299100</v>
       </c>
       <c r="H14" s="3">
-        <v>1215800</v>
+        <v>1244400</v>
       </c>
       <c r="I14" s="3">
-        <v>2200300</v>
+        <v>2251900</v>
       </c>
       <c r="J14" s="3">
-        <v>578500</v>
+        <v>592100</v>
       </c>
       <c r="K14" s="3">
         <v>825800</v>
@@ -978,25 +978,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8533800</v>
+        <v>8734000</v>
       </c>
       <c r="E15" s="3">
-        <v>8495900</v>
+        <v>8695200</v>
       </c>
       <c r="F15" s="3">
-        <v>8362200</v>
+        <v>8558400</v>
       </c>
       <c r="G15" s="3">
-        <v>7028700</v>
+        <v>7193600</v>
       </c>
       <c r="H15" s="3">
-        <v>6828200</v>
+        <v>6988400</v>
       </c>
       <c r="I15" s="3">
-        <v>6710500</v>
+        <v>6867900</v>
       </c>
       <c r="J15" s="3">
-        <v>6448200</v>
+        <v>6599500</v>
       </c>
       <c r="K15" s="3">
         <v>6586900</v>
@@ -1031,25 +1031,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>39897000</v>
+        <v>40833000</v>
       </c>
       <c r="E17" s="3">
-        <v>36653500</v>
+        <v>37513400</v>
       </c>
       <c r="F17" s="3">
-        <v>36213600</v>
+        <v>37063200</v>
       </c>
       <c r="G17" s="3">
-        <v>36457000</v>
+        <v>37312300</v>
       </c>
       <c r="H17" s="3">
-        <v>35987200</v>
+        <v>36831500</v>
       </c>
       <c r="I17" s="3">
-        <v>37496300</v>
+        <v>38376000</v>
       </c>
       <c r="J17" s="3">
-        <v>35401700</v>
+        <v>36232300</v>
       </c>
       <c r="K17" s="3">
         <v>38044400</v>
@@ -1070,25 +1070,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2514400</v>
+        <v>2573400</v>
       </c>
       <c r="E18" s="3">
-        <v>5506600</v>
+        <v>5635800</v>
       </c>
       <c r="F18" s="3">
-        <v>5914600</v>
+        <v>6053300</v>
       </c>
       <c r="G18" s="3">
-        <v>4816400</v>
+        <v>4929400</v>
       </c>
       <c r="H18" s="3">
-        <v>4765600</v>
+        <v>4877400</v>
       </c>
       <c r="I18" s="3">
-        <v>3315400</v>
+        <v>3393100</v>
       </c>
       <c r="J18" s="3">
-        <v>4729700</v>
+        <v>4840600</v>
       </c>
       <c r="K18" s="3">
         <v>4986500</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>356100</v>
+        <v>364400</v>
       </c>
       <c r="E20" s="3">
-        <v>-40900</v>
+        <v>-41900</v>
       </c>
       <c r="F20" s="3">
-        <v>123700</v>
+        <v>126600</v>
       </c>
       <c r="G20" s="3">
-        <v>32900</v>
+        <v>33700</v>
       </c>
       <c r="H20" s="3">
-        <v>-357100</v>
+        <v>-365400</v>
       </c>
       <c r="I20" s="3">
-        <v>123700</v>
+        <v>126600</v>
       </c>
       <c r="J20" s="3">
-        <v>131700</v>
+        <v>134700</v>
       </c>
       <c r="K20" s="3">
         <v>87300</v>
@@ -1165,25 +1165,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11395600</v>
+        <v>11502300</v>
       </c>
       <c r="E21" s="3">
-        <v>13953900</v>
+        <v>14121400</v>
       </c>
       <c r="F21" s="3">
-        <v>14393900</v>
+        <v>14574100</v>
       </c>
       <c r="G21" s="3">
-        <v>11871700</v>
+        <v>12017900</v>
       </c>
       <c r="H21" s="3">
-        <v>11230500</v>
+        <v>11365500</v>
       </c>
       <c r="I21" s="3">
-        <v>10143500</v>
+        <v>10255100</v>
       </c>
       <c r="J21" s="3">
-        <v>11303700</v>
+        <v>11447500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1204,25 +1204,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1136000</v>
+        <v>1162700</v>
       </c>
       <c r="E22" s="3">
-        <v>1269700</v>
+        <v>1299500</v>
       </c>
       <c r="F22" s="3">
-        <v>1381400</v>
+        <v>1413800</v>
       </c>
       <c r="G22" s="3">
-        <v>1391400</v>
+        <v>1424000</v>
       </c>
       <c r="H22" s="3">
-        <v>1353500</v>
+        <v>1385200</v>
       </c>
       <c r="I22" s="3">
-        <v>1464200</v>
+        <v>1498500</v>
       </c>
       <c r="J22" s="3">
-        <v>1710500</v>
+        <v>1750700</v>
       </c>
       <c r="K22" s="3">
         <v>1874200</v>
@@ -1243,25 +1243,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1734500</v>
+        <v>1775200</v>
       </c>
       <c r="E23" s="3">
-        <v>4196100</v>
+        <v>4294500</v>
       </c>
       <c r="F23" s="3">
-        <v>4656900</v>
+        <v>4766100</v>
       </c>
       <c r="G23" s="3">
-        <v>3458000</v>
+        <v>3539100</v>
       </c>
       <c r="H23" s="3">
-        <v>3055000</v>
+        <v>3126700</v>
       </c>
       <c r="I23" s="3">
-        <v>1974900</v>
+        <v>2021200</v>
       </c>
       <c r="J23" s="3">
-        <v>3150800</v>
+        <v>3224700</v>
       </c>
       <c r="K23" s="3">
         <v>3199600</v>
@@ -1282,25 +1282,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>959500</v>
+        <v>982000</v>
       </c>
       <c r="E24" s="3">
-        <v>-845800</v>
+        <v>-865600</v>
       </c>
       <c r="F24" s="3">
-        <v>1443200</v>
+        <v>1477100</v>
       </c>
       <c r="G24" s="3">
-        <v>1305600</v>
+        <v>1336200</v>
       </c>
       <c r="H24" s="3">
-        <v>1049300</v>
+        <v>1073900</v>
       </c>
       <c r="I24" s="3">
-        <v>967500</v>
+        <v>990200</v>
       </c>
       <c r="J24" s="3">
-        <v>647300</v>
+        <v>662500</v>
       </c>
       <c r="K24" s="3">
         <v>1716000</v>
@@ -1360,25 +1360,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>775000</v>
+        <v>793200</v>
       </c>
       <c r="E26" s="3">
-        <v>5041900</v>
+        <v>5160100</v>
       </c>
       <c r="F26" s="3">
-        <v>3213600</v>
+        <v>3289000</v>
       </c>
       <c r="G26" s="3">
-        <v>2152400</v>
+        <v>2202900</v>
       </c>
       <c r="H26" s="3">
-        <v>2005800</v>
+        <v>2052800</v>
       </c>
       <c r="I26" s="3">
-        <v>1007400</v>
+        <v>1031000</v>
       </c>
       <c r="J26" s="3">
-        <v>2503500</v>
+        <v>2562200</v>
       </c>
       <c r="K26" s="3">
         <v>1483600</v>
@@ -1399,25 +1399,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E27" s="3">
-        <v>4555100</v>
+        <v>4662000</v>
       </c>
       <c r="F27" s="3">
-        <v>2728900</v>
+        <v>2792900</v>
       </c>
       <c r="G27" s="3">
-        <v>1656700</v>
+        <v>1695500</v>
       </c>
       <c r="H27" s="3">
-        <v>1543000</v>
+        <v>1579200</v>
       </c>
       <c r="I27" s="3">
-        <v>394000</v>
+        <v>403200</v>
       </c>
       <c r="J27" s="3">
-        <v>2198300</v>
+        <v>2249800</v>
       </c>
       <c r="K27" s="3">
         <v>1156400</v>
@@ -1489,13 +1489,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>28900</v>
+        <v>29600</v>
       </c>
       <c r="I29" s="3">
-        <v>2247100</v>
+        <v>2299900</v>
       </c>
       <c r="J29" s="3">
-        <v>446800</v>
+        <v>457300</v>
       </c>
       <c r="K29" s="3">
         <v>-147300</v>
@@ -1594,25 +1594,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-356100</v>
+        <v>-364400</v>
       </c>
       <c r="E32" s="3">
-        <v>40900</v>
+        <v>41900</v>
       </c>
       <c r="F32" s="3">
-        <v>-123700</v>
+        <v>-126600</v>
       </c>
       <c r="G32" s="3">
-        <v>-32900</v>
+        <v>-33700</v>
       </c>
       <c r="H32" s="3">
-        <v>357100</v>
+        <v>365400</v>
       </c>
       <c r="I32" s="3">
-        <v>-123700</v>
+        <v>-126600</v>
       </c>
       <c r="J32" s="3">
-        <v>-131700</v>
+        <v>-134700</v>
       </c>
       <c r="K32" s="3">
         <v>-87300</v>
@@ -1633,25 +1633,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E33" s="3">
-        <v>4555100</v>
+        <v>4662000</v>
       </c>
       <c r="F33" s="3">
-        <v>2728900</v>
+        <v>2792900</v>
       </c>
       <c r="G33" s="3">
-        <v>1656700</v>
+        <v>1695500</v>
       </c>
       <c r="H33" s="3">
-        <v>1571900</v>
+        <v>1608800</v>
       </c>
       <c r="I33" s="3">
-        <v>2641100</v>
+        <v>2703100</v>
       </c>
       <c r="J33" s="3">
-        <v>2645100</v>
+        <v>2707200</v>
       </c>
       <c r="K33" s="3">
         <v>1009100</v>
@@ -1711,25 +1711,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E35" s="3">
-        <v>4555100</v>
+        <v>4662000</v>
       </c>
       <c r="F35" s="3">
-        <v>2728900</v>
+        <v>2792900</v>
       </c>
       <c r="G35" s="3">
-        <v>1656700</v>
+        <v>1695500</v>
       </c>
       <c r="H35" s="3">
-        <v>1571900</v>
+        <v>1608800</v>
       </c>
       <c r="I35" s="3">
-        <v>2641100</v>
+        <v>2703100</v>
       </c>
       <c r="J35" s="3">
-        <v>2645100</v>
+        <v>2707200</v>
       </c>
       <c r="K35" s="3">
         <v>1009100</v>
@@ -1828,25 +1828,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8598600</v>
+        <v>8800300</v>
       </c>
       <c r="E41" s="3">
-        <v>8123800</v>
+        <v>8314400</v>
       </c>
       <c r="F41" s="3">
-        <v>6464100</v>
+        <v>6615800</v>
       </c>
       <c r="G41" s="3">
-        <v>5619400</v>
+        <v>5751200</v>
       </c>
       <c r="H41" s="3">
-        <v>5794900</v>
+        <v>5930800</v>
       </c>
       <c r="I41" s="3">
-        <v>6338500</v>
+        <v>6487200</v>
       </c>
       <c r="J41" s="3">
-        <v>4457400</v>
+        <v>4562000</v>
       </c>
       <c r="K41" s="3">
         <v>4875300</v>
@@ -1867,25 +1867,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2302000</v>
+        <v>2356000</v>
       </c>
       <c r="E42" s="3">
-        <v>3244500</v>
+        <v>3320700</v>
       </c>
       <c r="F42" s="3">
-        <v>4820400</v>
+        <v>4933500</v>
       </c>
       <c r="G42" s="3">
-        <v>2801700</v>
+        <v>2867400</v>
       </c>
       <c r="H42" s="3">
-        <v>8799100</v>
+        <v>9005500</v>
       </c>
       <c r="I42" s="3">
-        <v>1852200</v>
+        <v>1895600</v>
       </c>
       <c r="J42" s="3">
-        <v>1278700</v>
+        <v>1308700</v>
       </c>
       <c r="K42" s="3">
         <v>1398500</v>
@@ -1906,25 +1906,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11189800</v>
+        <v>11452400</v>
       </c>
       <c r="E43" s="3">
-        <v>10142600</v>
+        <v>10380500</v>
       </c>
       <c r="F43" s="3">
-        <v>10739000</v>
+        <v>10991000</v>
       </c>
       <c r="G43" s="3">
-        <v>10593400</v>
+        <v>10841900</v>
       </c>
       <c r="H43" s="3">
-        <v>7540300</v>
+        <v>7717200</v>
       </c>
       <c r="I43" s="3">
-        <v>9124200</v>
+        <v>9338300</v>
       </c>
       <c r="J43" s="3">
-        <v>5917600</v>
+        <v>6056400</v>
       </c>
       <c r="K43" s="3">
         <v>6472400</v>
@@ -1945,25 +1945,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>949500</v>
+        <v>971800</v>
       </c>
       <c r="E44" s="3">
-        <v>811900</v>
+        <v>830900</v>
       </c>
       <c r="F44" s="3">
-        <v>903600</v>
+        <v>924800</v>
       </c>
       <c r="G44" s="3">
-        <v>962500</v>
+        <v>985100</v>
       </c>
       <c r="H44" s="3">
-        <v>824800</v>
+        <v>844200</v>
       </c>
       <c r="I44" s="3">
-        <v>816900</v>
+        <v>836000</v>
       </c>
       <c r="J44" s="3">
-        <v>761000</v>
+        <v>778900</v>
       </c>
       <c r="K44" s="3">
         <v>832400</v>
@@ -1984,25 +1984,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2726900</v>
+        <v>2790900</v>
       </c>
       <c r="E45" s="3">
-        <v>2705900</v>
+        <v>2769400</v>
       </c>
       <c r="F45" s="3">
-        <v>1994800</v>
+        <v>2041600</v>
       </c>
       <c r="G45" s="3">
-        <v>1857200</v>
+        <v>1900700</v>
       </c>
       <c r="H45" s="3">
-        <v>1578900</v>
+        <v>1615900</v>
       </c>
       <c r="I45" s="3">
-        <v>1665700</v>
+        <v>1704700</v>
       </c>
       <c r="J45" s="3">
-        <v>1860200</v>
+        <v>1903800</v>
       </c>
       <c r="K45" s="3">
         <v>2034500</v>
@@ -2023,25 +2023,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>25766800</v>
+        <v>26371300</v>
       </c>
       <c r="E46" s="3">
-        <v>25028800</v>
+        <v>25616000</v>
       </c>
       <c r="F46" s="3">
-        <v>24922000</v>
+        <v>25506700</v>
       </c>
       <c r="G46" s="3">
-        <v>21834100</v>
+        <v>22346300</v>
       </c>
       <c r="H46" s="3">
-        <v>21680500</v>
+        <v>22189100</v>
       </c>
       <c r="I46" s="3">
-        <v>19797400</v>
+        <v>20261900</v>
       </c>
       <c r="J46" s="3">
-        <v>14274800</v>
+        <v>14609700</v>
       </c>
       <c r="K46" s="3">
         <v>15613100</v>
@@ -2062,25 +2062,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3281400</v>
+        <v>3358400</v>
       </c>
       <c r="E47" s="3">
-        <v>2816700</v>
+        <v>2882700</v>
       </c>
       <c r="F47" s="3">
-        <v>2563300</v>
+        <v>2623500</v>
       </c>
       <c r="G47" s="3">
-        <v>3992600</v>
+        <v>4086300</v>
       </c>
       <c r="H47" s="3">
-        <v>7479500</v>
+        <v>7655000</v>
       </c>
       <c r="I47" s="3">
-        <v>5023900</v>
+        <v>5141800</v>
       </c>
       <c r="J47" s="3">
-        <v>994400</v>
+        <v>1017700</v>
       </c>
       <c r="K47" s="3">
         <v>1087600</v>
@@ -2101,25 +2101,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38086700</v>
+        <v>38980300</v>
       </c>
       <c r="E48" s="3">
-        <v>35990200</v>
+        <v>36834500</v>
       </c>
       <c r="F48" s="3">
-        <v>69626500</v>
+        <v>71260000</v>
       </c>
       <c r="G48" s="3">
-        <v>27621000</v>
+        <v>28269000</v>
       </c>
       <c r="H48" s="3">
-        <v>53191300</v>
+        <v>54439300</v>
       </c>
       <c r="I48" s="3">
-        <v>25844600</v>
+        <v>26451000</v>
       </c>
       <c r="J48" s="3">
-        <v>25057700</v>
+        <v>25645600</v>
       </c>
       <c r="K48" s="3">
         <v>27406900</v>
@@ -2140,25 +2140,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>39030300</v>
+        <v>39945900</v>
       </c>
       <c r="E49" s="3">
-        <v>42619900</v>
+        <v>43619800</v>
       </c>
       <c r="F49" s="3">
-        <v>84541600</v>
+        <v>86525000</v>
       </c>
       <c r="G49" s="3">
-        <v>41139800</v>
+        <v>42104900</v>
       </c>
       <c r="H49" s="3">
-        <v>55444500</v>
+        <v>56745300</v>
       </c>
       <c r="I49" s="3">
-        <v>41649400</v>
+        <v>42626600</v>
       </c>
       <c r="J49" s="3">
-        <v>41290400</v>
+        <v>42259100</v>
       </c>
       <c r="K49" s="3">
         <v>45161500</v>
@@ -2257,25 +2257,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1624800</v>
+        <v>1662900</v>
       </c>
       <c r="E52" s="3">
-        <v>997400</v>
+        <v>1020800</v>
       </c>
       <c r="F52" s="3">
-        <v>1675600</v>
+        <v>1714900</v>
       </c>
       <c r="G52" s="3">
-        <v>1753400</v>
+        <v>1794600</v>
       </c>
       <c r="H52" s="3">
-        <v>1904000</v>
+        <v>1948700</v>
       </c>
       <c r="I52" s="3">
-        <v>3128800</v>
+        <v>3202200</v>
       </c>
       <c r="J52" s="3">
-        <v>9575000</v>
+        <v>9799700</v>
       </c>
       <c r="K52" s="3">
         <v>10472700</v>
@@ -2335,25 +2335,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>107790000</v>
+        <v>110319000</v>
       </c>
       <c r="E54" s="3">
-        <v>107453000</v>
+        <v>109974000</v>
       </c>
       <c r="F54" s="3">
-        <v>106464000</v>
+        <v>108961000</v>
       </c>
       <c r="G54" s="3">
-        <v>96340900</v>
+        <v>98601100</v>
       </c>
       <c r="H54" s="3">
-        <v>95101100</v>
+        <v>97332300</v>
       </c>
       <c r="I54" s="3">
-        <v>94421900</v>
+        <v>96637100</v>
       </c>
       <c r="J54" s="3">
-        <v>91192300</v>
+        <v>93331700</v>
       </c>
       <c r="K54" s="3">
         <v>99741900</v>
@@ -2408,25 +2408,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6720500</v>
+        <v>6878200</v>
       </c>
       <c r="E57" s="3">
-        <v>6458200</v>
+        <v>6609700</v>
       </c>
       <c r="F57" s="3">
-        <v>6664600</v>
+        <v>6821000</v>
       </c>
       <c r="G57" s="3">
-        <v>6718500</v>
+        <v>6876100</v>
       </c>
       <c r="H57" s="3">
-        <v>6510000</v>
+        <v>6662800</v>
       </c>
       <c r="I57" s="3">
-        <v>6194900</v>
+        <v>6340200</v>
       </c>
       <c r="J57" s="3">
-        <v>6210800</v>
+        <v>6356500</v>
       </c>
       <c r="K57" s="3">
         <v>6793100</v>
@@ -2447,25 +2447,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7930300</v>
+        <v>8116400</v>
       </c>
       <c r="E58" s="3">
-        <v>9768500</v>
+        <v>9997700</v>
       </c>
       <c r="F58" s="3">
-        <v>9518200</v>
+        <v>9741500</v>
       </c>
       <c r="G58" s="3">
-        <v>11972800</v>
+        <v>12253700</v>
       </c>
       <c r="H58" s="3">
-        <v>15265200</v>
+        <v>15623300</v>
       </c>
       <c r="I58" s="3">
-        <v>8465900</v>
+        <v>8664600</v>
       </c>
       <c r="J58" s="3">
-        <v>2771800</v>
+        <v>2836800</v>
       </c>
       <c r="K58" s="3">
         <v>3031600</v>
@@ -2486,25 +2486,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12554300</v>
+        <v>12848800</v>
       </c>
       <c r="E59" s="3">
-        <v>11993700</v>
+        <v>12275100</v>
       </c>
       <c r="F59" s="3">
-        <v>11512000</v>
+        <v>11782100</v>
       </c>
       <c r="G59" s="3">
-        <v>11526000</v>
+        <v>11796400</v>
       </c>
       <c r="H59" s="3">
-        <v>11953800</v>
+        <v>12234300</v>
       </c>
       <c r="I59" s="3">
-        <v>11175900</v>
+        <v>11438100</v>
       </c>
       <c r="J59" s="3">
-        <v>12587200</v>
+        <v>12882500</v>
       </c>
       <c r="K59" s="3">
         <v>13767300</v>
@@ -2525,25 +2525,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27205100</v>
+        <v>27843300</v>
       </c>
       <c r="E60" s="3">
-        <v>28220400</v>
+        <v>28882500</v>
       </c>
       <c r="F60" s="3">
-        <v>27694800</v>
+        <v>28344600</v>
       </c>
       <c r="G60" s="3">
-        <v>30217200</v>
+        <v>30926200</v>
       </c>
       <c r="H60" s="3">
-        <v>28981500</v>
+        <v>29661400</v>
       </c>
       <c r="I60" s="3">
-        <v>25836600</v>
+        <v>26442800</v>
       </c>
       <c r="J60" s="3">
-        <v>21569800</v>
+        <v>22075800</v>
       </c>
       <c r="K60" s="3">
         <v>23592000</v>
@@ -2564,25 +2564,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>38517600</v>
+        <v>39421300</v>
       </c>
       <c r="E61" s="3">
-        <v>35870500</v>
+        <v>36712100</v>
       </c>
       <c r="F61" s="3">
-        <v>38640300</v>
+        <v>39546800</v>
       </c>
       <c r="G61" s="3">
-        <v>26421100</v>
+        <v>27041000</v>
       </c>
       <c r="H61" s="3">
-        <v>26224600</v>
+        <v>26839900</v>
       </c>
       <c r="I61" s="3">
-        <v>28678200</v>
+        <v>29351100</v>
       </c>
       <c r="J61" s="3">
-        <v>29451200</v>
+        <v>30142200</v>
       </c>
       <c r="K61" s="3">
         <v>32212400</v>
@@ -2603,25 +2603,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6798300</v>
+        <v>6957800</v>
       </c>
       <c r="E62" s="3">
-        <v>6420300</v>
+        <v>6570900</v>
       </c>
       <c r="F62" s="3">
-        <v>5804900</v>
+        <v>5941100</v>
       </c>
       <c r="G62" s="3">
-        <v>6540000</v>
+        <v>6693400</v>
       </c>
       <c r="H62" s="3">
-        <v>6656600</v>
+        <v>6812800</v>
       </c>
       <c r="I62" s="3">
-        <v>6819200</v>
+        <v>6979200</v>
       </c>
       <c r="J62" s="3">
-        <v>6990800</v>
+        <v>7154800</v>
       </c>
       <c r="K62" s="3">
         <v>7646200</v>
@@ -2759,25 +2759,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>75533100</v>
+        <v>77305200</v>
       </c>
       <c r="E66" s="3">
-        <v>73147300</v>
+        <v>74863400</v>
       </c>
       <c r="F66" s="3">
-        <v>74821000</v>
+        <v>76576300</v>
       </c>
       <c r="G66" s="3">
-        <v>65751600</v>
+        <v>67294200</v>
       </c>
       <c r="H66" s="3">
-        <v>64206600</v>
+        <v>65713000</v>
       </c>
       <c r="I66" s="3">
-        <v>63813700</v>
+        <v>65310800</v>
       </c>
       <c r="J66" s="3">
-        <v>60365600</v>
+        <v>61781900</v>
       </c>
       <c r="K66" s="3">
         <v>66025100</v>
@@ -2971,25 +2971,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-398000</v>
+        <v>-407300</v>
       </c>
       <c r="E72" s="3">
-        <v>1846200</v>
+        <v>1889500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1072200</v>
+        <v>-1097400</v>
       </c>
       <c r="G72" s="3">
-        <v>-2056600</v>
+        <v>-2104900</v>
       </c>
       <c r="H72" s="3">
-        <v>-1846200</v>
+        <v>-1889500</v>
       </c>
       <c r="I72" s="3">
-        <v>-4811500</v>
+        <v>-4924300</v>
       </c>
       <c r="J72" s="3">
-        <v>3511800</v>
+        <v>3594200</v>
       </c>
       <c r="K72" s="3">
         <v>3841100</v>
@@ -3127,25 +3127,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32256900</v>
+        <v>33013700</v>
       </c>
       <c r="E76" s="3">
-        <v>34305600</v>
+        <v>35110400</v>
       </c>
       <c r="F76" s="3">
-        <v>31642500</v>
+        <v>32384900</v>
       </c>
       <c r="G76" s="3">
-        <v>30589300</v>
+        <v>31306900</v>
       </c>
       <c r="H76" s="3">
-        <v>30894500</v>
+        <v>31619300</v>
       </c>
       <c r="I76" s="3">
-        <v>30608200</v>
+        <v>31326300</v>
       </c>
       <c r="J76" s="3">
-        <v>30826600</v>
+        <v>31549900</v>
       </c>
       <c r="K76" s="3">
         <v>33716800</v>
@@ -3249,25 +3249,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E81" s="3">
-        <v>4555100</v>
+        <v>4662000</v>
       </c>
       <c r="F81" s="3">
-        <v>2728900</v>
+        <v>2792900</v>
       </c>
       <c r="G81" s="3">
-        <v>1656700</v>
+        <v>1695500</v>
       </c>
       <c r="H81" s="3">
-        <v>1571900</v>
+        <v>1608800</v>
       </c>
       <c r="I81" s="3">
-        <v>2641100</v>
+        <v>2703100</v>
       </c>
       <c r="J81" s="3">
-        <v>2645100</v>
+        <v>2707200</v>
       </c>
       <c r="K81" s="3">
         <v>1009100</v>
@@ -3305,25 +3305,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8532800</v>
+        <v>8732900</v>
       </c>
       <c r="E83" s="3">
-        <v>8495900</v>
+        <v>8695200</v>
       </c>
       <c r="F83" s="3">
-        <v>8363200</v>
+        <v>8559400</v>
       </c>
       <c r="G83" s="3">
-        <v>7028700</v>
+        <v>7193600</v>
       </c>
       <c r="H83" s="3">
-        <v>6828200</v>
+        <v>6988400</v>
       </c>
       <c r="I83" s="3">
-        <v>6710500</v>
+        <v>6867900</v>
       </c>
       <c r="J83" s="3">
-        <v>6448200</v>
+        <v>6599500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3539,25 +3539,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11206800</v>
+        <v>11469700</v>
       </c>
       <c r="E89" s="3">
-        <v>12664000</v>
+        <v>12961100</v>
       </c>
       <c r="F89" s="3">
-        <v>10163500</v>
+        <v>10402000</v>
       </c>
       <c r="G89" s="3">
-        <v>9481300</v>
+        <v>9703700</v>
       </c>
       <c r="H89" s="3">
-        <v>10147500</v>
+        <v>10385600</v>
       </c>
       <c r="I89" s="3">
-        <v>8727300</v>
+        <v>8932000</v>
       </c>
       <c r="J89" s="3">
-        <v>9502200</v>
+        <v>9725200</v>
       </c>
       <c r="K89" s="3">
         <v>9602200</v>
@@ -3595,25 +3595,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8726300</v>
+        <v>-8931000</v>
       </c>
       <c r="E91" s="3">
-        <v>-8523800</v>
+        <v>-8723800</v>
       </c>
       <c r="F91" s="3">
-        <v>-8400100</v>
+        <v>-8597200</v>
       </c>
       <c r="G91" s="3">
-        <v>-7622100</v>
+        <v>-7801000</v>
       </c>
       <c r="H91" s="3">
-        <v>-7507400</v>
+        <v>-7683600</v>
       </c>
       <c r="I91" s="3">
-        <v>-8469900</v>
+        <v>-8668600</v>
       </c>
       <c r="J91" s="3">
-        <v>-7750800</v>
+        <v>-7932600</v>
       </c>
       <c r="K91" s="3">
         <v>-6666600</v>
@@ -3712,25 +3712,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5960500</v>
+        <v>-6100300</v>
       </c>
       <c r="E94" s="3">
-        <v>-5549500</v>
+        <v>-5679700</v>
       </c>
       <c r="F94" s="3">
-        <v>-9345600</v>
+        <v>-9564900</v>
       </c>
       <c r="G94" s="3">
-        <v>-8529800</v>
+        <v>-8729900</v>
       </c>
       <c r="H94" s="3">
-        <v>-7920400</v>
+        <v>-8106200</v>
       </c>
       <c r="I94" s="3">
-        <v>-4866300</v>
+        <v>-4980500</v>
       </c>
       <c r="J94" s="3">
-        <v>-9381500</v>
+        <v>-9601600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3768,25 +3768,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2121500</v>
+        <v>-2171200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1590900</v>
+        <v>-1628200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1852200</v>
+        <v>-1895600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1855200</v>
+        <v>-1898700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1724500</v>
+        <v>-1765000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1591900</v>
+        <v>-1629200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1584900</v>
+        <v>-1622100</v>
       </c>
       <c r="K96" s="3">
         <v>-2013800</v>
@@ -3924,25 +3924,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4821400</v>
+        <v>-4934500</v>
       </c>
       <c r="E100" s="3">
-        <v>-5395900</v>
+        <v>-5522500</v>
       </c>
       <c r="F100" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1128100</v>
+        <v>-1154500</v>
       </c>
       <c r="H100" s="3">
-        <v>-2730900</v>
+        <v>-2795000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1878100</v>
+        <v>-1922200</v>
       </c>
       <c r="J100" s="3">
-        <v>-3913800</v>
+        <v>-4005600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3963,25 +3963,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>49900</v>
+        <v>51000</v>
       </c>
       <c r="E101" s="3">
-        <v>-58800</v>
+        <v>-60200</v>
       </c>
       <c r="F101" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G101" s="3">
         <v>1000</v>
       </c>
       <c r="H101" s="3">
-        <v>-39900</v>
+        <v>-40800</v>
       </c>
       <c r="I101" s="3">
-        <v>-101700</v>
+        <v>-104100</v>
       </c>
       <c r="J101" s="3">
-        <v>1510100</v>
+        <v>1545500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4002,25 +4002,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>474800</v>
+        <v>485900</v>
       </c>
       <c r="E102" s="3">
-        <v>1659700</v>
+        <v>1698600</v>
       </c>
       <c r="F102" s="3">
-        <v>844800</v>
+        <v>864600</v>
       </c>
       <c r="G102" s="3">
-        <v>-175500</v>
+        <v>-179700</v>
       </c>
       <c r="H102" s="3">
-        <v>-543600</v>
+        <v>-556300</v>
       </c>
       <c r="I102" s="3">
-        <v>1881100</v>
+        <v>1925200</v>
       </c>
       <c r="J102" s="3">
-        <v>-2283000</v>
+        <v>-2336600</v>
       </c>
       <c r="K102" s="3">
         <v>898900</v>

--- a/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>43406500</v>
+        <v>44988300</v>
       </c>
       <c r="E8" s="3">
-        <v>43149200</v>
+        <v>44721700</v>
       </c>
       <c r="F8" s="3">
-        <v>43116600</v>
+        <v>44687800</v>
       </c>
       <c r="G8" s="3">
-        <v>42241700</v>
+        <v>43781100</v>
       </c>
       <c r="H8" s="3">
-        <v>41708900</v>
+        <v>43228800</v>
       </c>
       <c r="I8" s="3">
-        <v>41769100</v>
+        <v>43291200</v>
       </c>
       <c r="J8" s="3">
-        <v>41072900</v>
+        <v>42569700</v>
       </c>
       <c r="K8" s="3">
         <v>43030900</v>
@@ -766,25 +766,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17397500</v>
+        <v>18031500</v>
       </c>
       <c r="E9" s="3">
-        <v>17153500</v>
+        <v>17778600</v>
       </c>
       <c r="F9" s="3">
-        <v>17145400</v>
+        <v>17770200</v>
       </c>
       <c r="G9" s="3">
-        <v>17743500</v>
+        <v>18390200</v>
       </c>
       <c r="H9" s="3">
-        <v>17591400</v>
+        <v>18232500</v>
       </c>
       <c r="I9" s="3">
-        <v>17481200</v>
+        <v>18118300</v>
       </c>
       <c r="J9" s="3">
-        <v>16877900</v>
+        <v>17493000</v>
       </c>
       <c r="K9" s="3">
         <v>18819300</v>
@@ -805,25 +805,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>26009000</v>
+        <v>26956800</v>
       </c>
       <c r="E10" s="3">
-        <v>25995700</v>
+        <v>26943000</v>
       </c>
       <c r="F10" s="3">
-        <v>25971200</v>
+        <v>26917600</v>
       </c>
       <c r="G10" s="3">
-        <v>24498200</v>
+        <v>25390900</v>
       </c>
       <c r="H10" s="3">
-        <v>24117400</v>
+        <v>24996300</v>
       </c>
       <c r="I10" s="3">
-        <v>24287900</v>
+        <v>25173000</v>
       </c>
       <c r="J10" s="3">
-        <v>24195000</v>
+        <v>25076700</v>
       </c>
       <c r="K10" s="3">
         <v>24211700</v>
@@ -939,25 +939,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5766500</v>
+        <v>5976600</v>
       </c>
       <c r="E14" s="3">
-        <v>407300</v>
+        <v>422100</v>
       </c>
       <c r="F14" s="3">
-        <v>294000</v>
+        <v>304700</v>
       </c>
       <c r="G14" s="3">
-        <v>299100</v>
+        <v>310000</v>
       </c>
       <c r="H14" s="3">
-        <v>1244400</v>
+        <v>1289700</v>
       </c>
       <c r="I14" s="3">
-        <v>2251900</v>
+        <v>2333900</v>
       </c>
       <c r="J14" s="3">
-        <v>592100</v>
+        <v>613600</v>
       </c>
       <c r="K14" s="3">
         <v>825800</v>
@@ -978,25 +978,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8734000</v>
+        <v>9052200</v>
       </c>
       <c r="E15" s="3">
-        <v>8695200</v>
+        <v>9012000</v>
       </c>
       <c r="F15" s="3">
-        <v>8558400</v>
+        <v>8870300</v>
       </c>
       <c r="G15" s="3">
-        <v>7193600</v>
+        <v>7455700</v>
       </c>
       <c r="H15" s="3">
-        <v>6988400</v>
+        <v>7243100</v>
       </c>
       <c r="I15" s="3">
-        <v>6867900</v>
+        <v>7118200</v>
       </c>
       <c r="J15" s="3">
-        <v>6599500</v>
+        <v>6840000</v>
       </c>
       <c r="K15" s="3">
         <v>6586900</v>
@@ -1031,25 +1031,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40833000</v>
+        <v>42321100</v>
       </c>
       <c r="E17" s="3">
-        <v>37513400</v>
+        <v>38880400</v>
       </c>
       <c r="F17" s="3">
-        <v>37063200</v>
+        <v>38413900</v>
       </c>
       <c r="G17" s="3">
-        <v>37312300</v>
+        <v>38672000</v>
       </c>
       <c r="H17" s="3">
-        <v>36831500</v>
+        <v>38173700</v>
       </c>
       <c r="I17" s="3">
-        <v>38376000</v>
+        <v>39774500</v>
       </c>
       <c r="J17" s="3">
-        <v>36232300</v>
+        <v>37552700</v>
       </c>
       <c r="K17" s="3">
         <v>38044400</v>
@@ -1070,25 +1070,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2573400</v>
+        <v>2667200</v>
       </c>
       <c r="E18" s="3">
-        <v>5635800</v>
+        <v>5841200</v>
       </c>
       <c r="F18" s="3">
-        <v>6053300</v>
+        <v>6273900</v>
       </c>
       <c r="G18" s="3">
-        <v>4929400</v>
+        <v>5109100</v>
       </c>
       <c r="H18" s="3">
-        <v>4877400</v>
+        <v>5055100</v>
       </c>
       <c r="I18" s="3">
-        <v>3393100</v>
+        <v>3516800</v>
       </c>
       <c r="J18" s="3">
-        <v>4840600</v>
+        <v>5017000</v>
       </c>
       <c r="K18" s="3">
         <v>4986500</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>364400</v>
+        <v>377700</v>
       </c>
       <c r="E20" s="3">
-        <v>-41900</v>
+        <v>-43400</v>
       </c>
       <c r="F20" s="3">
-        <v>126600</v>
+        <v>131200</v>
       </c>
       <c r="G20" s="3">
-        <v>33700</v>
+        <v>34900</v>
       </c>
       <c r="H20" s="3">
-        <v>-365400</v>
+        <v>-378800</v>
       </c>
       <c r="I20" s="3">
-        <v>126600</v>
+        <v>131200</v>
       </c>
       <c r="J20" s="3">
-        <v>134700</v>
+        <v>139700</v>
       </c>
       <c r="K20" s="3">
         <v>87300</v>
@@ -1165,25 +1165,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11502300</v>
+        <v>12026300</v>
       </c>
       <c r="E21" s="3">
-        <v>14121400</v>
+        <v>14639000</v>
       </c>
       <c r="F21" s="3">
-        <v>14574100</v>
+        <v>13835500</v>
       </c>
       <c r="G21" s="3">
-        <v>12017900</v>
+        <v>12362400</v>
       </c>
       <c r="H21" s="3">
-        <v>11365500</v>
+        <v>11770400</v>
       </c>
       <c r="I21" s="3">
-        <v>10255100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>11447500</v>
+        <v>10464700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1204,25 +1204,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1162700</v>
+        <v>1205100</v>
       </c>
       <c r="E22" s="3">
-        <v>1299500</v>
+        <v>1346800</v>
       </c>
       <c r="F22" s="3">
-        <v>1413800</v>
+        <v>1465300</v>
       </c>
       <c r="G22" s="3">
-        <v>1424000</v>
+        <v>1475900</v>
       </c>
       <c r="H22" s="3">
-        <v>1385200</v>
+        <v>1435700</v>
       </c>
       <c r="I22" s="3">
-        <v>1498500</v>
+        <v>1553100</v>
       </c>
       <c r="J22" s="3">
-        <v>1750700</v>
+        <v>1814500</v>
       </c>
       <c r="K22" s="3">
         <v>1874200</v>
@@ -1243,25 +1243,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1775200</v>
+        <v>1839900</v>
       </c>
       <c r="E23" s="3">
-        <v>4294500</v>
+        <v>4451000</v>
       </c>
       <c r="F23" s="3">
-        <v>4766100</v>
+        <v>4939800</v>
       </c>
       <c r="G23" s="3">
-        <v>3539100</v>
+        <v>3668100</v>
       </c>
       <c r="H23" s="3">
-        <v>3126700</v>
+        <v>3240700</v>
       </c>
       <c r="I23" s="3">
-        <v>2021200</v>
+        <v>2094800</v>
       </c>
       <c r="J23" s="3">
-        <v>3224700</v>
+        <v>3342200</v>
       </c>
       <c r="K23" s="3">
         <v>3199600</v>
@@ -1282,25 +1282,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>982000</v>
+        <v>1017800</v>
       </c>
       <c r="E24" s="3">
-        <v>-865600</v>
+        <v>-897200</v>
       </c>
       <c r="F24" s="3">
-        <v>1477100</v>
+        <v>1530900</v>
       </c>
       <c r="G24" s="3">
-        <v>1336200</v>
+        <v>1384900</v>
       </c>
       <c r="H24" s="3">
-        <v>1073900</v>
+        <v>1113000</v>
       </c>
       <c r="I24" s="3">
-        <v>990200</v>
+        <v>1026300</v>
       </c>
       <c r="J24" s="3">
-        <v>662500</v>
+        <v>686600</v>
       </c>
       <c r="K24" s="3">
         <v>1716000</v>
@@ -1360,25 +1360,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>793200</v>
+        <v>822100</v>
       </c>
       <c r="E26" s="3">
-        <v>5160100</v>
+        <v>5348200</v>
       </c>
       <c r="F26" s="3">
-        <v>3289000</v>
+        <v>3408900</v>
       </c>
       <c r="G26" s="3">
-        <v>2202900</v>
+        <v>2283200</v>
       </c>
       <c r="H26" s="3">
-        <v>2052800</v>
+        <v>2127600</v>
       </c>
       <c r="I26" s="3">
-        <v>1031000</v>
+        <v>1068600</v>
       </c>
       <c r="J26" s="3">
-        <v>2562200</v>
+        <v>2655600</v>
       </c>
       <c r="K26" s="3">
         <v>1483600</v>
@@ -1399,25 +1399,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="E27" s="3">
-        <v>4662000</v>
+        <v>4831900</v>
       </c>
       <c r="F27" s="3">
-        <v>2792900</v>
+        <v>2894700</v>
       </c>
       <c r="G27" s="3">
-        <v>1695500</v>
+        <v>1757300</v>
       </c>
       <c r="H27" s="3">
-        <v>1579200</v>
+        <v>1636700</v>
       </c>
       <c r="I27" s="3">
-        <v>403200</v>
+        <v>417900</v>
       </c>
       <c r="J27" s="3">
-        <v>2249800</v>
+        <v>2331800</v>
       </c>
       <c r="K27" s="3">
         <v>1156400</v>
@@ -1489,13 +1489,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>29600</v>
+        <v>30700</v>
       </c>
       <c r="I29" s="3">
-        <v>2299900</v>
+        <v>2383700</v>
       </c>
       <c r="J29" s="3">
-        <v>457300</v>
+        <v>474000</v>
       </c>
       <c r="K29" s="3">
         <v>-147300</v>
@@ -1594,25 +1594,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-364400</v>
+        <v>-377700</v>
       </c>
       <c r="E32" s="3">
-        <v>41900</v>
+        <v>43400</v>
       </c>
       <c r="F32" s="3">
-        <v>-126600</v>
+        <v>-131200</v>
       </c>
       <c r="G32" s="3">
-        <v>-33700</v>
+        <v>-34900</v>
       </c>
       <c r="H32" s="3">
-        <v>365400</v>
+        <v>378800</v>
       </c>
       <c r="I32" s="3">
-        <v>-126600</v>
+        <v>-131200</v>
       </c>
       <c r="J32" s="3">
-        <v>-134700</v>
+        <v>-139700</v>
       </c>
       <c r="K32" s="3">
         <v>-87300</v>
@@ -1633,25 +1633,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="E33" s="3">
-        <v>4662000</v>
+        <v>4831900</v>
       </c>
       <c r="F33" s="3">
-        <v>2792900</v>
+        <v>2894700</v>
       </c>
       <c r="G33" s="3">
-        <v>1695500</v>
+        <v>1757300</v>
       </c>
       <c r="H33" s="3">
-        <v>1608800</v>
+        <v>1667400</v>
       </c>
       <c r="I33" s="3">
-        <v>2703100</v>
+        <v>2801600</v>
       </c>
       <c r="J33" s="3">
-        <v>2707200</v>
+        <v>2805800</v>
       </c>
       <c r="K33" s="3">
         <v>1009100</v>
@@ -1711,25 +1711,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="E35" s="3">
-        <v>4662000</v>
+        <v>4831900</v>
       </c>
       <c r="F35" s="3">
-        <v>2792900</v>
+        <v>2894700</v>
       </c>
       <c r="G35" s="3">
-        <v>1695500</v>
+        <v>1757300</v>
       </c>
       <c r="H35" s="3">
-        <v>1608800</v>
+        <v>1667400</v>
       </c>
       <c r="I35" s="3">
-        <v>2703100</v>
+        <v>2801600</v>
       </c>
       <c r="J35" s="3">
-        <v>2707200</v>
+        <v>2805800</v>
       </c>
       <c r="K35" s="3">
         <v>1009100</v>
@@ -1828,25 +1828,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8800300</v>
+        <v>9121000</v>
       </c>
       <c r="E41" s="3">
-        <v>8314400</v>
+        <v>8617400</v>
       </c>
       <c r="F41" s="3">
-        <v>6615800</v>
+        <v>6856900</v>
       </c>
       <c r="G41" s="3">
-        <v>5751200</v>
+        <v>5960800</v>
       </c>
       <c r="H41" s="3">
-        <v>5930800</v>
+        <v>6147000</v>
       </c>
       <c r="I41" s="3">
-        <v>6487200</v>
+        <v>6723600</v>
       </c>
       <c r="J41" s="3">
-        <v>4562000</v>
+        <v>4728200</v>
       </c>
       <c r="K41" s="3">
         <v>4875300</v>
@@ -1867,25 +1867,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2356000</v>
+        <v>2441900</v>
       </c>
       <c r="E42" s="3">
-        <v>3320700</v>
+        <v>3441700</v>
       </c>
       <c r="F42" s="3">
-        <v>4933500</v>
+        <v>5113300</v>
       </c>
       <c r="G42" s="3">
-        <v>2867400</v>
+        <v>2971900</v>
       </c>
       <c r="H42" s="3">
-        <v>9005500</v>
+        <v>9333700</v>
       </c>
       <c r="I42" s="3">
-        <v>1895600</v>
+        <v>1964700</v>
       </c>
       <c r="J42" s="3">
-        <v>1308700</v>
+        <v>1356400</v>
       </c>
       <c r="K42" s="3">
         <v>1398500</v>
@@ -1906,25 +1906,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11452400</v>
+        <v>11869700</v>
       </c>
       <c r="E43" s="3">
-        <v>10380500</v>
+        <v>10758800</v>
       </c>
       <c r="F43" s="3">
-        <v>10991000</v>
+        <v>11391500</v>
       </c>
       <c r="G43" s="3">
-        <v>10841900</v>
+        <v>11237000</v>
       </c>
       <c r="H43" s="3">
-        <v>7717200</v>
+        <v>7998500</v>
       </c>
       <c r="I43" s="3">
-        <v>9338300</v>
+        <v>9678600</v>
       </c>
       <c r="J43" s="3">
-        <v>6056400</v>
+        <v>6277100</v>
       </c>
       <c r="K43" s="3">
         <v>6472400</v>
@@ -1945,25 +1945,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>971800</v>
+        <v>1007200</v>
       </c>
       <c r="E44" s="3">
-        <v>830900</v>
+        <v>861200</v>
       </c>
       <c r="F44" s="3">
-        <v>924800</v>
+        <v>958500</v>
       </c>
       <c r="G44" s="3">
-        <v>985100</v>
+        <v>1021000</v>
       </c>
       <c r="H44" s="3">
-        <v>844200</v>
+        <v>875000</v>
       </c>
       <c r="I44" s="3">
-        <v>836000</v>
+        <v>866500</v>
       </c>
       <c r="J44" s="3">
-        <v>778900</v>
+        <v>807300</v>
       </c>
       <c r="K44" s="3">
         <v>832400</v>
@@ -1984,25 +1984,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2790900</v>
+        <v>2892600</v>
       </c>
       <c r="E45" s="3">
-        <v>2769400</v>
+        <v>2870400</v>
       </c>
       <c r="F45" s="3">
-        <v>2041600</v>
+        <v>2116000</v>
       </c>
       <c r="G45" s="3">
-        <v>1900700</v>
+        <v>1970000</v>
       </c>
       <c r="H45" s="3">
-        <v>1615900</v>
+        <v>1674800</v>
       </c>
       <c r="I45" s="3">
-        <v>1704700</v>
+        <v>1766900</v>
       </c>
       <c r="J45" s="3">
-        <v>1903800</v>
+        <v>1973200</v>
       </c>
       <c r="K45" s="3">
         <v>2034500</v>
@@ -2023,25 +2023,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26371300</v>
+        <v>27332400</v>
       </c>
       <c r="E46" s="3">
-        <v>25616000</v>
+        <v>26549500</v>
       </c>
       <c r="F46" s="3">
-        <v>25506700</v>
+        <v>26436200</v>
       </c>
       <c r="G46" s="3">
-        <v>22346300</v>
+        <v>23160700</v>
       </c>
       <c r="H46" s="3">
-        <v>22189100</v>
+        <v>22997700</v>
       </c>
       <c r="I46" s="3">
-        <v>20261900</v>
+        <v>21000200</v>
       </c>
       <c r="J46" s="3">
-        <v>14609700</v>
+        <v>15142100</v>
       </c>
       <c r="K46" s="3">
         <v>15613100</v>
@@ -2062,25 +2062,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3358400</v>
+        <v>3480800</v>
       </c>
       <c r="E47" s="3">
-        <v>2882700</v>
+        <v>2987800</v>
       </c>
       <c r="F47" s="3">
-        <v>2623500</v>
+        <v>2719100</v>
       </c>
       <c r="G47" s="3">
-        <v>4086300</v>
+        <v>4235200</v>
       </c>
       <c r="H47" s="3">
-        <v>7655000</v>
+        <v>7933900</v>
       </c>
       <c r="I47" s="3">
-        <v>5141800</v>
+        <v>5329100</v>
       </c>
       <c r="J47" s="3">
-        <v>1017700</v>
+        <v>1054800</v>
       </c>
       <c r="K47" s="3">
         <v>1087600</v>
@@ -2101,25 +2101,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38980300</v>
+        <v>40400800</v>
       </c>
       <c r="E48" s="3">
-        <v>36834500</v>
+        <v>38176900</v>
       </c>
       <c r="F48" s="3">
-        <v>71260000</v>
+        <v>73856900</v>
       </c>
       <c r="G48" s="3">
-        <v>28269000</v>
+        <v>29299200</v>
       </c>
       <c r="H48" s="3">
-        <v>54439300</v>
+        <v>56423100</v>
       </c>
       <c r="I48" s="3">
-        <v>26451000</v>
+        <v>27414900</v>
       </c>
       <c r="J48" s="3">
-        <v>25645600</v>
+        <v>26580100</v>
       </c>
       <c r="K48" s="3">
         <v>27406900</v>
@@ -2140,25 +2140,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>39945900</v>
+        <v>41401700</v>
       </c>
       <c r="E49" s="3">
-        <v>43619800</v>
+        <v>45209400</v>
       </c>
       <c r="F49" s="3">
-        <v>86525000</v>
+        <v>89678200</v>
       </c>
       <c r="G49" s="3">
-        <v>42104900</v>
+        <v>43639300</v>
       </c>
       <c r="H49" s="3">
-        <v>56745300</v>
+        <v>58813200</v>
       </c>
       <c r="I49" s="3">
-        <v>42626600</v>
+        <v>44180000</v>
       </c>
       <c r="J49" s="3">
-        <v>42259100</v>
+        <v>43799100</v>
       </c>
       <c r="K49" s="3">
         <v>45161500</v>
@@ -2257,25 +2257,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1662900</v>
+        <v>1723500</v>
       </c>
       <c r="E52" s="3">
-        <v>1020800</v>
+        <v>1058000</v>
       </c>
       <c r="F52" s="3">
-        <v>1714900</v>
+        <v>1777400</v>
       </c>
       <c r="G52" s="3">
-        <v>1794600</v>
+        <v>1860000</v>
       </c>
       <c r="H52" s="3">
-        <v>1948700</v>
+        <v>2019700</v>
       </c>
       <c r="I52" s="3">
-        <v>3202200</v>
+        <v>3318900</v>
       </c>
       <c r="J52" s="3">
-        <v>9799700</v>
+        <v>10156800</v>
       </c>
       <c r="K52" s="3">
         <v>10472700</v>
@@ -2335,25 +2335,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>110319000</v>
+        <v>114339000</v>
       </c>
       <c r="E54" s="3">
-        <v>109974000</v>
+        <v>113982000</v>
       </c>
       <c r="F54" s="3">
-        <v>108961000</v>
+        <v>112932000</v>
       </c>
       <c r="G54" s="3">
-        <v>98601100</v>
+        <v>102194000</v>
       </c>
       <c r="H54" s="3">
-        <v>97332300</v>
+        <v>100879000</v>
       </c>
       <c r="I54" s="3">
-        <v>96637100</v>
+        <v>100159000</v>
       </c>
       <c r="J54" s="3">
-        <v>93331700</v>
+        <v>96732900</v>
       </c>
       <c r="K54" s="3">
         <v>99741900</v>
@@ -2408,25 +2408,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6878200</v>
+        <v>7128800</v>
       </c>
       <c r="E57" s="3">
-        <v>6609700</v>
+        <v>6850600</v>
       </c>
       <c r="F57" s="3">
-        <v>6821000</v>
+        <v>7069600</v>
       </c>
       <c r="G57" s="3">
-        <v>6876100</v>
+        <v>7126700</v>
       </c>
       <c r="H57" s="3">
-        <v>6662800</v>
+        <v>6905600</v>
       </c>
       <c r="I57" s="3">
-        <v>6340200</v>
+        <v>6571200</v>
       </c>
       <c r="J57" s="3">
-        <v>6356500</v>
+        <v>6588200</v>
       </c>
       <c r="K57" s="3">
         <v>6793100</v>
@@ -2447,25 +2447,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8116400</v>
+        <v>8412200</v>
       </c>
       <c r="E58" s="3">
-        <v>9997700</v>
+        <v>10362100</v>
       </c>
       <c r="F58" s="3">
-        <v>9741500</v>
+        <v>10096500</v>
       </c>
       <c r="G58" s="3">
-        <v>12253700</v>
+        <v>12700200</v>
       </c>
       <c r="H58" s="3">
-        <v>15623300</v>
+        <v>16192700</v>
       </c>
       <c r="I58" s="3">
-        <v>8664600</v>
+        <v>8980300</v>
       </c>
       <c r="J58" s="3">
-        <v>2836800</v>
+        <v>2940200</v>
       </c>
       <c r="K58" s="3">
         <v>3031600</v>
@@ -2486,25 +2486,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12848800</v>
+        <v>13317000</v>
       </c>
       <c r="E59" s="3">
-        <v>12275100</v>
+        <v>12722500</v>
       </c>
       <c r="F59" s="3">
-        <v>11782100</v>
+        <v>12211400</v>
       </c>
       <c r="G59" s="3">
-        <v>11796400</v>
+        <v>12226200</v>
       </c>
       <c r="H59" s="3">
-        <v>12234300</v>
+        <v>12680100</v>
       </c>
       <c r="I59" s="3">
-        <v>11438100</v>
+        <v>11854900</v>
       </c>
       <c r="J59" s="3">
-        <v>12882500</v>
+        <v>13352000</v>
       </c>
       <c r="K59" s="3">
         <v>13767300</v>
@@ -2525,25 +2525,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27843300</v>
+        <v>28858000</v>
       </c>
       <c r="E60" s="3">
-        <v>28882500</v>
+        <v>29935100</v>
       </c>
       <c r="F60" s="3">
-        <v>28344600</v>
+        <v>29377500</v>
       </c>
       <c r="G60" s="3">
-        <v>30926200</v>
+        <v>32053200</v>
       </c>
       <c r="H60" s="3">
-        <v>29661400</v>
+        <v>30742300</v>
       </c>
       <c r="I60" s="3">
-        <v>26442800</v>
+        <v>27406400</v>
       </c>
       <c r="J60" s="3">
-        <v>22075800</v>
+        <v>22880300</v>
       </c>
       <c r="K60" s="3">
         <v>23592000</v>
@@ -2564,25 +2564,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39421300</v>
+        <v>40857800</v>
       </c>
       <c r="E61" s="3">
-        <v>36712100</v>
+        <v>38049900</v>
       </c>
       <c r="F61" s="3">
-        <v>39546800</v>
+        <v>40988000</v>
       </c>
       <c r="G61" s="3">
-        <v>27041000</v>
+        <v>28026400</v>
       </c>
       <c r="H61" s="3">
-        <v>26839900</v>
+        <v>27818000</v>
       </c>
       <c r="I61" s="3">
-        <v>29351100</v>
+        <v>30420700</v>
       </c>
       <c r="J61" s="3">
-        <v>30142200</v>
+        <v>31240600</v>
       </c>
       <c r="K61" s="3">
         <v>32212400</v>
@@ -2603,25 +2603,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6957800</v>
+        <v>7211300</v>
       </c>
       <c r="E62" s="3">
-        <v>6570900</v>
+        <v>6810300</v>
       </c>
       <c r="F62" s="3">
-        <v>5941100</v>
+        <v>6157600</v>
       </c>
       <c r="G62" s="3">
-        <v>6693400</v>
+        <v>6937300</v>
       </c>
       <c r="H62" s="3">
-        <v>6812800</v>
+        <v>7061100</v>
       </c>
       <c r="I62" s="3">
-        <v>6979200</v>
+        <v>7233500</v>
       </c>
       <c r="J62" s="3">
-        <v>7154800</v>
+        <v>7415500</v>
       </c>
       <c r="K62" s="3">
         <v>7646200</v>
@@ -2759,25 +2759,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>77305200</v>
+        <v>80122300</v>
       </c>
       <c r="E66" s="3">
-        <v>74863400</v>
+        <v>77591600</v>
       </c>
       <c r="F66" s="3">
-        <v>76576300</v>
+        <v>79366900</v>
       </c>
       <c r="G66" s="3">
-        <v>67294200</v>
+        <v>69746500</v>
       </c>
       <c r="H66" s="3">
-        <v>65713000</v>
+        <v>68107700</v>
       </c>
       <c r="I66" s="3">
-        <v>65310800</v>
+        <v>67690800</v>
       </c>
       <c r="J66" s="3">
-        <v>61781900</v>
+        <v>64033300</v>
       </c>
       <c r="K66" s="3">
         <v>66025100</v>
@@ -2971,25 +2971,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-407300</v>
+        <v>-422100</v>
       </c>
       <c r="E72" s="3">
-        <v>1889500</v>
+        <v>1958400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1097400</v>
+        <v>-1137400</v>
       </c>
       <c r="G72" s="3">
-        <v>-2104900</v>
+        <v>-2181600</v>
       </c>
       <c r="H72" s="3">
-        <v>-1889500</v>
+        <v>-1958400</v>
       </c>
       <c r="I72" s="3">
-        <v>-4924300</v>
+        <v>-5103800</v>
       </c>
       <c r="J72" s="3">
-        <v>3594200</v>
+        <v>3725200</v>
       </c>
       <c r="K72" s="3">
         <v>3841100</v>
@@ -3127,25 +3127,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33013700</v>
+        <v>34216800</v>
       </c>
       <c r="E76" s="3">
-        <v>35110400</v>
+        <v>36389900</v>
       </c>
       <c r="F76" s="3">
-        <v>32384900</v>
+        <v>33565100</v>
       </c>
       <c r="G76" s="3">
-        <v>31306900</v>
+        <v>32447800</v>
       </c>
       <c r="H76" s="3">
-        <v>31619300</v>
+        <v>32771600</v>
       </c>
       <c r="I76" s="3">
-        <v>31326300</v>
+        <v>32467900</v>
       </c>
       <c r="J76" s="3">
-        <v>31549900</v>
+        <v>32699600</v>
       </c>
       <c r="K76" s="3">
         <v>33716800</v>
@@ -3249,25 +3249,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="E81" s="3">
-        <v>4662000</v>
+        <v>4831900</v>
       </c>
       <c r="F81" s="3">
-        <v>2792900</v>
+        <v>2894700</v>
       </c>
       <c r="G81" s="3">
-        <v>1695500</v>
+        <v>1757300</v>
       </c>
       <c r="H81" s="3">
-        <v>1608800</v>
+        <v>1667400</v>
       </c>
       <c r="I81" s="3">
-        <v>2703100</v>
+        <v>2801600</v>
       </c>
       <c r="J81" s="3">
-        <v>2707200</v>
+        <v>2805800</v>
       </c>
       <c r="K81" s="3">
         <v>1009100</v>
@@ -3305,25 +3305,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8732900</v>
+        <v>9012000</v>
       </c>
       <c r="E83" s="3">
-        <v>8695200</v>
+        <v>8871300</v>
       </c>
       <c r="F83" s="3">
-        <v>8559400</v>
+        <v>7455700</v>
       </c>
       <c r="G83" s="3">
-        <v>7193600</v>
+        <v>7243100</v>
       </c>
       <c r="H83" s="3">
-        <v>6988400</v>
+        <v>7118200</v>
       </c>
       <c r="I83" s="3">
-        <v>6867900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>6599500</v>
+        <v>6840000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3539,25 +3539,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11469700</v>
+        <v>13433400</v>
       </c>
       <c r="E89" s="3">
-        <v>12961100</v>
+        <v>10781000</v>
       </c>
       <c r="F89" s="3">
-        <v>10402000</v>
+        <v>10057300</v>
       </c>
       <c r="G89" s="3">
-        <v>9703700</v>
+        <v>10764100</v>
       </c>
       <c r="H89" s="3">
-        <v>10385600</v>
+        <v>9257500</v>
       </c>
       <c r="I89" s="3">
-        <v>8932000</v>
+        <v>10079600</v>
       </c>
       <c r="J89" s="3">
-        <v>9725200</v>
+        <v>9312500</v>
       </c>
       <c r="K89" s="3">
         <v>9602200</v>
@@ -3595,25 +3595,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8931000</v>
+        <v>-9041700</v>
       </c>
       <c r="E91" s="3">
-        <v>-8723800</v>
+        <v>-8910500</v>
       </c>
       <c r="F91" s="3">
-        <v>-8597200</v>
+        <v>-8085200</v>
       </c>
       <c r="G91" s="3">
-        <v>-7801000</v>
+        <v>-7963600</v>
       </c>
       <c r="H91" s="3">
-        <v>-7683600</v>
+        <v>-8984500</v>
       </c>
       <c r="I91" s="3">
-        <v>-8668600</v>
+        <v>-8221700</v>
       </c>
       <c r="J91" s="3">
-        <v>-7932600</v>
+        <v>-6465400</v>
       </c>
       <c r="K91" s="3">
         <v>-6666600</v>
@@ -3712,25 +3712,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6100300</v>
+        <v>-5886700</v>
       </c>
       <c r="E94" s="3">
-        <v>-5679700</v>
+        <v>-9913500</v>
       </c>
       <c r="F94" s="3">
-        <v>-9564900</v>
+        <v>-9048000</v>
       </c>
       <c r="G94" s="3">
-        <v>-8729900</v>
+        <v>-8401600</v>
       </c>
       <c r="H94" s="3">
-        <v>-8106200</v>
+        <v>-5162000</v>
       </c>
       <c r="I94" s="3">
-        <v>-4980500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-9601600</v>
+        <v>-9951500</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3768,25 +3768,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2171200</v>
+        <v>-1687500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1628200</v>
+        <v>-1964700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1895600</v>
+        <v>-1967900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1898700</v>
+        <v>-1829300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1765000</v>
+        <v>-1688600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1629200</v>
+        <v>-1681200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1622100</v>
+        <v>-1953100</v>
       </c>
       <c r="K96" s="3">
         <v>-2013800</v>
@@ -3924,25 +3924,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4934500</v>
+        <v>-5723800</v>
       </c>
       <c r="E100" s="3">
-        <v>-5522500</v>
+        <v>25400</v>
       </c>
       <c r="F100" s="3">
-        <v>24500</v>
+        <v>-1196600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1154500</v>
+        <v>-2896800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2795000</v>
+        <v>-1992200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1922200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-4005600</v>
+        <v>-4151600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3963,25 +3963,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>51000</v>
+        <v>-62400</v>
       </c>
       <c r="E101" s="3">
-        <v>-60200</v>
+        <v>3200</v>
       </c>
       <c r="F101" s="3">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="G101" s="3">
-        <v>1000</v>
+        <v>-42300</v>
       </c>
       <c r="H101" s="3">
-        <v>-40800</v>
+        <v>-107900</v>
       </c>
       <c r="I101" s="3">
-        <v>-104100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1545500</v>
+        <v>1601800</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4002,25 +4002,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>485900</v>
+        <v>1760500</v>
       </c>
       <c r="E102" s="3">
-        <v>1698600</v>
+        <v>896100</v>
       </c>
       <c r="F102" s="3">
-        <v>864600</v>
+        <v>-186200</v>
       </c>
       <c r="G102" s="3">
-        <v>-179700</v>
+        <v>-576600</v>
       </c>
       <c r="H102" s="3">
-        <v>-556300</v>
+        <v>1995400</v>
       </c>
       <c r="I102" s="3">
-        <v>1925200</v>
+        <v>-2421800</v>
       </c>
       <c r="J102" s="3">
-        <v>-2336600</v>
+        <v>871800</v>
       </c>
       <c r="K102" s="3">
         <v>898900</v>

--- a/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>44988300</v>
+        <v>46813900</v>
       </c>
       <c r="E8" s="3">
-        <v>44721700</v>
+        <v>45791900</v>
       </c>
       <c r="F8" s="3">
-        <v>44687800</v>
+        <v>45520600</v>
       </c>
       <c r="G8" s="3">
-        <v>43781100</v>
+        <v>45486100</v>
       </c>
       <c r="H8" s="3">
-        <v>43228800</v>
+        <v>44563200</v>
       </c>
       <c r="I8" s="3">
-        <v>43291200</v>
+        <v>44001100</v>
       </c>
       <c r="J8" s="3">
+        <v>44064600</v>
+      </c>
+      <c r="K8" s="3">
         <v>42569700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>43030900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>49021500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47779500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>53146600</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18031500</v>
+        <v>19162400</v>
       </c>
       <c r="E9" s="3">
-        <v>17778600</v>
+        <v>18353600</v>
       </c>
       <c r="F9" s="3">
-        <v>17770200</v>
+        <v>18096200</v>
       </c>
       <c r="G9" s="3">
-        <v>18390200</v>
+        <v>18087600</v>
       </c>
       <c r="H9" s="3">
-        <v>18232500</v>
+        <v>18718700</v>
       </c>
       <c r="I9" s="3">
-        <v>18118300</v>
+        <v>18558200</v>
       </c>
       <c r="J9" s="3">
+        <v>18441900</v>
+      </c>
+      <c r="K9" s="3">
         <v>17493000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18819300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21489700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20971800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>23051300</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>26956800</v>
+        <v>27651600</v>
       </c>
       <c r="E10" s="3">
-        <v>26943000</v>
+        <v>27438300</v>
       </c>
       <c r="F10" s="3">
-        <v>26917600</v>
+        <v>27424300</v>
       </c>
       <c r="G10" s="3">
-        <v>25390900</v>
+        <v>27398500</v>
       </c>
       <c r="H10" s="3">
-        <v>24996300</v>
+        <v>25844500</v>
       </c>
       <c r="I10" s="3">
-        <v>25173000</v>
+        <v>25442800</v>
       </c>
       <c r="J10" s="3">
+        <v>25622700</v>
+      </c>
+      <c r="K10" s="3">
         <v>25076700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24211700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27531700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26807700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>30095300</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,8 +867,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,9 +906,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,87 +948,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5976600</v>
+        <v>1218000</v>
       </c>
       <c r="E14" s="3">
-        <v>422100</v>
+        <v>6083400</v>
       </c>
       <c r="F14" s="3">
-        <v>304700</v>
+        <v>429700</v>
       </c>
       <c r="G14" s="3">
-        <v>310000</v>
+        <v>310100</v>
       </c>
       <c r="H14" s="3">
-        <v>1289700</v>
+        <v>315500</v>
       </c>
       <c r="I14" s="3">
-        <v>2333900</v>
+        <v>1312700</v>
       </c>
       <c r="J14" s="3">
+        <v>2375600</v>
+      </c>
+      <c r="K14" s="3">
         <v>613600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>825800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1171100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2062000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>569300</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9052200</v>
+        <v>9200000</v>
       </c>
       <c r="E15" s="3">
-        <v>9012000</v>
+        <v>9214000</v>
       </c>
       <c r="F15" s="3">
-        <v>8870300</v>
+        <v>9173000</v>
       </c>
       <c r="G15" s="3">
-        <v>7455700</v>
+        <v>9028700</v>
       </c>
       <c r="H15" s="3">
-        <v>7243100</v>
+        <v>7588900</v>
       </c>
       <c r="I15" s="3">
-        <v>7118200</v>
+        <v>7372500</v>
       </c>
       <c r="J15" s="3">
+        <v>7245400</v>
+      </c>
+      <c r="K15" s="3">
         <v>6840000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6586900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7239400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6949200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7905600</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1025,86 +1050,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42321100</v>
+        <v>41643700</v>
       </c>
       <c r="E17" s="3">
-        <v>38880400</v>
+        <v>43077100</v>
       </c>
       <c r="F17" s="3">
-        <v>38413900</v>
+        <v>39575000</v>
       </c>
       <c r="G17" s="3">
-        <v>38672000</v>
+        <v>39100100</v>
       </c>
       <c r="H17" s="3">
-        <v>38173700</v>
+        <v>39362800</v>
       </c>
       <c r="I17" s="3">
-        <v>39774500</v>
+        <v>38855600</v>
       </c>
       <c r="J17" s="3">
+        <v>40485000</v>
+      </c>
+      <c r="K17" s="3">
         <v>37552700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38044400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>42696000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43318300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>43817200</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2667200</v>
+        <v>5170200</v>
       </c>
       <c r="E18" s="3">
-        <v>5841200</v>
+        <v>2714900</v>
       </c>
       <c r="F18" s="3">
-        <v>6273900</v>
+        <v>5945600</v>
       </c>
       <c r="G18" s="3">
-        <v>5109100</v>
+        <v>6386000</v>
       </c>
       <c r="H18" s="3">
-        <v>5055100</v>
+        <v>5200400</v>
       </c>
       <c r="I18" s="3">
-        <v>3516800</v>
+        <v>5145400</v>
       </c>
       <c r="J18" s="3">
+        <v>3579600</v>
+      </c>
+      <c r="K18" s="3">
         <v>5017000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4986500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6325500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4461200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9329400</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1120,203 +1152,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>377700</v>
+        <v>270300</v>
       </c>
       <c r="E20" s="3">
-        <v>-43400</v>
+        <v>384500</v>
       </c>
       <c r="F20" s="3">
-        <v>131200</v>
+        <v>-44200</v>
       </c>
       <c r="G20" s="3">
-        <v>34900</v>
+        <v>133500</v>
       </c>
       <c r="H20" s="3">
-        <v>-378800</v>
+        <v>35500</v>
       </c>
       <c r="I20" s="3">
-        <v>131200</v>
+        <v>-385500</v>
       </c>
       <c r="J20" s="3">
+        <v>133500</v>
+      </c>
+      <c r="K20" s="3">
         <v>139700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>87300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>45000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>38700</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12026300</v>
+        <v>14699300</v>
       </c>
       <c r="E21" s="3">
-        <v>14639000</v>
+        <v>12372200</v>
       </c>
       <c r="F21" s="3">
-        <v>13835500</v>
+        <v>15134200</v>
       </c>
       <c r="G21" s="3">
-        <v>12362400</v>
+        <v>15608100</v>
       </c>
       <c r="H21" s="3">
-        <v>11770400</v>
+        <v>12874200</v>
       </c>
       <c r="I21" s="3">
-        <v>10464700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>12180300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>11005700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>13531700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11466200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17279200</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1205100</v>
+        <v>1261000</v>
       </c>
       <c r="E22" s="3">
-        <v>1346800</v>
+        <v>1226600</v>
       </c>
       <c r="F22" s="3">
-        <v>1465300</v>
+        <v>1370900</v>
       </c>
       <c r="G22" s="3">
-        <v>1475900</v>
+        <v>1491500</v>
       </c>
       <c r="H22" s="3">
-        <v>1435700</v>
+        <v>1502300</v>
       </c>
       <c r="I22" s="3">
-        <v>1553100</v>
+        <v>1461400</v>
       </c>
       <c r="J22" s="3">
+        <v>1580900</v>
+      </c>
+      <c r="K22" s="3">
         <v>1814500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1874200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2089800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1942400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2425100</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1839900</v>
+        <v>4179400</v>
       </c>
       <c r="E23" s="3">
-        <v>4451000</v>
+        <v>1872700</v>
       </c>
       <c r="F23" s="3">
-        <v>4939800</v>
+        <v>4530500</v>
       </c>
       <c r="G23" s="3">
-        <v>3668100</v>
+        <v>5028000</v>
       </c>
       <c r="H23" s="3">
-        <v>3240700</v>
+        <v>3733600</v>
       </c>
       <c r="I23" s="3">
-        <v>2094800</v>
+        <v>3298500</v>
       </c>
       <c r="J23" s="3">
+        <v>2132300</v>
+      </c>
+      <c r="K23" s="3">
         <v>3342200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3199600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4232200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2563800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6943100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1017800</v>
+        <v>1362300</v>
       </c>
       <c r="E24" s="3">
-        <v>-897200</v>
+        <v>1036000</v>
       </c>
       <c r="F24" s="3">
-        <v>1530900</v>
+        <v>-913200</v>
       </c>
       <c r="G24" s="3">
-        <v>1384900</v>
+        <v>1558300</v>
       </c>
       <c r="H24" s="3">
-        <v>1113000</v>
+        <v>1409700</v>
       </c>
       <c r="I24" s="3">
-        <v>1026300</v>
+        <v>1132900</v>
       </c>
       <c r="J24" s="3">
+        <v>1044600</v>
+      </c>
+      <c r="K24" s="3">
         <v>686600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1716000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1680700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1351600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2449700</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1353,87 +1401,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>822100</v>
+        <v>2817200</v>
       </c>
       <c r="E26" s="3">
-        <v>5348200</v>
+        <v>836800</v>
       </c>
       <c r="F26" s="3">
-        <v>3408900</v>
+        <v>5443700</v>
       </c>
       <c r="G26" s="3">
-        <v>2283200</v>
+        <v>3469800</v>
       </c>
       <c r="H26" s="3">
-        <v>2127600</v>
+        <v>2324000</v>
       </c>
       <c r="I26" s="3">
-        <v>1068600</v>
+        <v>2165600</v>
       </c>
       <c r="J26" s="3">
+        <v>1087700</v>
+      </c>
+      <c r="K26" s="3">
         <v>2655600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1483600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2551500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1212200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4493300</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8500</v>
+        <v>2095600</v>
       </c>
       <c r="E27" s="3">
-        <v>4831900</v>
+        <v>8600</v>
       </c>
       <c r="F27" s="3">
-        <v>2894700</v>
+        <v>4918200</v>
       </c>
       <c r="G27" s="3">
-        <v>1757300</v>
+        <v>2946400</v>
       </c>
       <c r="H27" s="3">
-        <v>1636700</v>
+        <v>1788700</v>
       </c>
       <c r="I27" s="3">
-        <v>417900</v>
+        <v>1666000</v>
       </c>
       <c r="J27" s="3">
+        <v>425400</v>
+      </c>
+      <c r="K27" s="3">
         <v>2331800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1156400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2240500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>900400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4572000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1470,9 +1527,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1482,36 +1542,39 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>30700</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>2383700</v>
+        <v>31200</v>
       </c>
       <c r="J29" s="3">
+        <v>2426300</v>
+      </c>
+      <c r="K29" s="3">
         <v>474000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-147300</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1548,9 +1611,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1587,87 +1653,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-377700</v>
+        <v>-270300</v>
       </c>
       <c r="E32" s="3">
-        <v>43400</v>
+        <v>-384500</v>
       </c>
       <c r="F32" s="3">
-        <v>-131200</v>
+        <v>44200</v>
       </c>
       <c r="G32" s="3">
-        <v>-34900</v>
+        <v>-133500</v>
       </c>
       <c r="H32" s="3">
-        <v>378800</v>
+        <v>-35500</v>
       </c>
       <c r="I32" s="3">
-        <v>-131200</v>
+        <v>385500</v>
       </c>
       <c r="J32" s="3">
+        <v>-133500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-139700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-87300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-45000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-38700</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8500</v>
+        <v>2095600</v>
       </c>
       <c r="E33" s="3">
-        <v>4831900</v>
+        <v>8600</v>
       </c>
       <c r="F33" s="3">
-        <v>2894700</v>
+        <v>4918200</v>
       </c>
       <c r="G33" s="3">
-        <v>1757300</v>
+        <v>2946400</v>
       </c>
       <c r="H33" s="3">
-        <v>1667400</v>
+        <v>1788700</v>
       </c>
       <c r="I33" s="3">
-        <v>2801600</v>
+        <v>1697200</v>
       </c>
       <c r="J33" s="3">
+        <v>2851600</v>
+      </c>
+      <c r="K33" s="3">
         <v>2805800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1009100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2240500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>900400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4572000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1704,92 +1779,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8500</v>
+        <v>2095600</v>
       </c>
       <c r="E35" s="3">
-        <v>4831900</v>
+        <v>8600</v>
       </c>
       <c r="F35" s="3">
-        <v>2894700</v>
+        <v>4918200</v>
       </c>
       <c r="G35" s="3">
-        <v>1757300</v>
+        <v>2946400</v>
       </c>
       <c r="H35" s="3">
-        <v>1667400</v>
+        <v>1788700</v>
       </c>
       <c r="I35" s="3">
-        <v>2801600</v>
+        <v>1697200</v>
       </c>
       <c r="J35" s="3">
+        <v>2851600</v>
+      </c>
+      <c r="K35" s="3">
         <v>2805800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1009100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2240500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>900400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4572000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1805,8 +1889,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1822,359 +1907,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9121000</v>
+        <v>6465700</v>
       </c>
       <c r="E41" s="3">
-        <v>8617400</v>
+        <v>9284000</v>
       </c>
       <c r="F41" s="3">
-        <v>6856900</v>
+        <v>8771400</v>
       </c>
       <c r="G41" s="3">
-        <v>5960800</v>
+        <v>6979400</v>
       </c>
       <c r="H41" s="3">
-        <v>6147000</v>
+        <v>6067300</v>
       </c>
       <c r="I41" s="3">
-        <v>6723600</v>
+        <v>6256800</v>
       </c>
       <c r="J41" s="3">
+        <v>6843700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4728200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4875300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8973900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10459500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9442100</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2441900</v>
+        <v>4896700</v>
       </c>
       <c r="E42" s="3">
-        <v>3441700</v>
+        <v>2485500</v>
       </c>
       <c r="F42" s="3">
-        <v>5113300</v>
+        <v>3503200</v>
       </c>
       <c r="G42" s="3">
-        <v>2971900</v>
+        <v>5204700</v>
       </c>
       <c r="H42" s="3">
-        <v>9333700</v>
+        <v>3025000</v>
       </c>
       <c r="I42" s="3">
-        <v>1964700</v>
+        <v>9500400</v>
       </c>
       <c r="J42" s="3">
+        <v>1999800</v>
+      </c>
+      <c r="K42" s="3">
         <v>1356400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1398500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>250000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>235000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1112800</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11869700</v>
+        <v>12949700</v>
       </c>
       <c r="E43" s="3">
-        <v>10758800</v>
+        <v>12081700</v>
       </c>
       <c r="F43" s="3">
-        <v>11391500</v>
+        <v>10951000</v>
       </c>
       <c r="G43" s="3">
-        <v>11237000</v>
+        <v>11595000</v>
       </c>
       <c r="H43" s="3">
-        <v>7998500</v>
+        <v>11437800</v>
       </c>
       <c r="I43" s="3">
-        <v>9678600</v>
+        <v>8141400</v>
       </c>
       <c r="J43" s="3">
+        <v>9851500</v>
+      </c>
+      <c r="K43" s="3">
         <v>6277100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6472400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11713200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11697000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7270600</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1007200</v>
+        <v>1128600</v>
       </c>
       <c r="E44" s="3">
-        <v>861200</v>
+        <v>1025200</v>
       </c>
       <c r="F44" s="3">
-        <v>958500</v>
+        <v>876600</v>
       </c>
       <c r="G44" s="3">
-        <v>1021000</v>
+        <v>975700</v>
       </c>
       <c r="H44" s="3">
-        <v>875000</v>
+        <v>1039200</v>
       </c>
       <c r="I44" s="3">
-        <v>866500</v>
+        <v>890600</v>
       </c>
       <c r="J44" s="3">
+        <v>882000</v>
+      </c>
+      <c r="K44" s="3">
         <v>807300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>832400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>762000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>643400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>740700</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2892600</v>
+        <v>3423500</v>
       </c>
       <c r="E45" s="3">
-        <v>2870400</v>
+        <v>2944200</v>
       </c>
       <c r="F45" s="3">
-        <v>2116000</v>
+        <v>2921600</v>
       </c>
       <c r="G45" s="3">
-        <v>1970000</v>
+        <v>2153800</v>
       </c>
       <c r="H45" s="3">
-        <v>1674800</v>
+        <v>2005200</v>
       </c>
       <c r="I45" s="3">
-        <v>1766900</v>
+        <v>1704700</v>
       </c>
       <c r="J45" s="3">
+        <v>1798400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1973200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2034500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1541900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1173800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3190400</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27332400</v>
+        <v>28864200</v>
       </c>
       <c r="E46" s="3">
-        <v>26549500</v>
+        <v>27820600</v>
       </c>
       <c r="F46" s="3">
-        <v>26436200</v>
+        <v>27023700</v>
       </c>
       <c r="G46" s="3">
-        <v>23160700</v>
+        <v>26908500</v>
       </c>
       <c r="H46" s="3">
-        <v>22997700</v>
+        <v>23574400</v>
       </c>
       <c r="I46" s="3">
-        <v>21000200</v>
+        <v>23408600</v>
       </c>
       <c r="J46" s="3">
+        <v>21375400</v>
+      </c>
+      <c r="K46" s="3">
         <v>15142100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15613100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16082900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17707400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21756600</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3480800</v>
+        <v>3358900</v>
       </c>
       <c r="E47" s="3">
-        <v>2987800</v>
+        <v>3543000</v>
       </c>
       <c r="F47" s="3">
-        <v>2719100</v>
+        <v>3041200</v>
       </c>
       <c r="G47" s="3">
-        <v>4235200</v>
+        <v>2767600</v>
       </c>
       <c r="H47" s="3">
-        <v>7933900</v>
+        <v>4310800</v>
       </c>
       <c r="I47" s="3">
-        <v>5329100</v>
+        <v>8075700</v>
       </c>
       <c r="J47" s="3">
+        <v>5424300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1054800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1087600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12350800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10534200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12992900</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40400800</v>
+        <v>42619400</v>
       </c>
       <c r="E48" s="3">
-        <v>38176900</v>
+        <v>41122500</v>
       </c>
       <c r="F48" s="3">
-        <v>73856900</v>
+        <v>38858900</v>
       </c>
       <c r="G48" s="3">
-        <v>29299200</v>
+        <v>75176200</v>
       </c>
       <c r="H48" s="3">
-        <v>56423100</v>
+        <v>29822600</v>
       </c>
       <c r="I48" s="3">
-        <v>27414900</v>
+        <v>57431100</v>
       </c>
       <c r="J48" s="3">
+        <v>27904600</v>
+      </c>
+      <c r="K48" s="3">
         <v>26580100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27406900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>55400800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>51961800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27741800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>41401700</v>
+        <v>40985700</v>
       </c>
       <c r="E49" s="3">
-        <v>45209400</v>
+        <v>42141300</v>
       </c>
       <c r="F49" s="3">
-        <v>89678200</v>
+        <v>46017000</v>
       </c>
       <c r="G49" s="3">
-        <v>43639300</v>
+        <v>91280200</v>
       </c>
       <c r="H49" s="3">
-        <v>58813200</v>
+        <v>44418900</v>
       </c>
       <c r="I49" s="3">
-        <v>44180000</v>
+        <v>59863800</v>
       </c>
       <c r="J49" s="3">
+        <v>44969200</v>
+      </c>
+      <c r="K49" s="3">
         <v>43799100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45161500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>57987000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>82549800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45406500</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2211,9 +2324,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2250,48 +2366,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1723500</v>
+        <v>2254000</v>
       </c>
       <c r="E52" s="3">
-        <v>1058000</v>
+        <v>1754300</v>
       </c>
       <c r="F52" s="3">
-        <v>1777400</v>
+        <v>1076900</v>
       </c>
       <c r="G52" s="3">
-        <v>1860000</v>
+        <v>1809200</v>
       </c>
       <c r="H52" s="3">
-        <v>2019700</v>
+        <v>1893200</v>
       </c>
       <c r="I52" s="3">
-        <v>3318900</v>
+        <v>2055800</v>
       </c>
       <c r="J52" s="3">
+        <v>3378200</v>
+      </c>
+      <c r="K52" s="3">
         <v>10156800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10472700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5683100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4554500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4885400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2328,48 +2450,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>114339000</v>
+        <v>118082000</v>
       </c>
       <c r="E54" s="3">
-        <v>113982000</v>
+        <v>116382000</v>
       </c>
       <c r="F54" s="3">
-        <v>112932000</v>
+        <v>116018000</v>
       </c>
       <c r="G54" s="3">
-        <v>102194000</v>
+        <v>114949000</v>
       </c>
       <c r="H54" s="3">
-        <v>100879000</v>
+        <v>104020000</v>
       </c>
       <c r="I54" s="3">
-        <v>100159000</v>
+        <v>102681000</v>
       </c>
       <c r="J54" s="3">
+        <v>101948000</v>
+      </c>
+      <c r="K54" s="3">
         <v>96732900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>99741900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>102673000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>98798000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>112783000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2385,8 +2513,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2402,242 +2531,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7128800</v>
+        <v>7610500</v>
       </c>
       <c r="E57" s="3">
-        <v>6850600</v>
+        <v>7256200</v>
       </c>
       <c r="F57" s="3">
-        <v>7069600</v>
+        <v>6972900</v>
       </c>
       <c r="G57" s="3">
-        <v>7126700</v>
+        <v>7195800</v>
       </c>
       <c r="H57" s="3">
-        <v>6905600</v>
+        <v>7254000</v>
       </c>
       <c r="I57" s="3">
-        <v>6571200</v>
+        <v>7028900</v>
       </c>
       <c r="J57" s="3">
+        <v>6688600</v>
+      </c>
+      <c r="K57" s="3">
         <v>6588200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6793100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6720300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6215800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9567700</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8412200</v>
+        <v>9955900</v>
       </c>
       <c r="E58" s="3">
-        <v>10362100</v>
+        <v>8562400</v>
       </c>
       <c r="F58" s="3">
-        <v>10096500</v>
+        <v>10547200</v>
       </c>
       <c r="G58" s="3">
-        <v>12700200</v>
+        <v>10276900</v>
       </c>
       <c r="H58" s="3">
-        <v>16192700</v>
+        <v>12927100</v>
       </c>
       <c r="I58" s="3">
-        <v>8980300</v>
+        <v>16482000</v>
       </c>
       <c r="J58" s="3">
+        <v>9140700</v>
+      </c>
+      <c r="K58" s="3">
         <v>2940200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3031600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17060200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>16259200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8755400</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13317000</v>
+        <v>13903900</v>
       </c>
       <c r="E59" s="3">
-        <v>12722500</v>
+        <v>13554900</v>
       </c>
       <c r="F59" s="3">
-        <v>12211400</v>
+        <v>12949700</v>
       </c>
       <c r="G59" s="3">
-        <v>12226200</v>
+        <v>12429600</v>
       </c>
       <c r="H59" s="3">
-        <v>12680100</v>
+        <v>12444700</v>
       </c>
       <c r="I59" s="3">
-        <v>11854900</v>
+        <v>12906600</v>
       </c>
       <c r="J59" s="3">
+        <v>12066700</v>
+      </c>
+      <c r="K59" s="3">
         <v>13352000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13767300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11215600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16813700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12397800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28858000</v>
+        <v>31470200</v>
       </c>
       <c r="E60" s="3">
-        <v>29935100</v>
+        <v>29373500</v>
       </c>
       <c r="F60" s="3">
-        <v>29377500</v>
+        <v>30469800</v>
       </c>
       <c r="G60" s="3">
-        <v>32053200</v>
+        <v>29902300</v>
       </c>
       <c r="H60" s="3">
-        <v>30742300</v>
+        <v>32625800</v>
       </c>
       <c r="I60" s="3">
-        <v>27406400</v>
+        <v>31291500</v>
       </c>
       <c r="J60" s="3">
+        <v>27896000</v>
+      </c>
+      <c r="K60" s="3">
         <v>22880300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23592000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26503000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27358900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>30721000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40857800</v>
+        <v>41817100</v>
       </c>
       <c r="E61" s="3">
-        <v>38049900</v>
+        <v>41587700</v>
       </c>
       <c r="F61" s="3">
-        <v>40988000</v>
+        <v>38729600</v>
       </c>
       <c r="G61" s="3">
-        <v>28026400</v>
+        <v>41720200</v>
       </c>
       <c r="H61" s="3">
-        <v>27818000</v>
+        <v>28527100</v>
       </c>
       <c r="I61" s="3">
-        <v>30420700</v>
+        <v>28314900</v>
       </c>
       <c r="J61" s="3">
+        <v>30964100</v>
+      </c>
+      <c r="K61" s="3">
         <v>31240600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32212400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36267600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35029500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>40134900</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7211300</v>
+        <v>7150600</v>
       </c>
       <c r="E62" s="3">
-        <v>6810300</v>
+        <v>7340200</v>
       </c>
       <c r="F62" s="3">
-        <v>6157600</v>
+        <v>6932000</v>
       </c>
       <c r="G62" s="3">
-        <v>6937300</v>
+        <v>6267600</v>
       </c>
       <c r="H62" s="3">
-        <v>7061100</v>
+        <v>7061200</v>
       </c>
       <c r="I62" s="3">
-        <v>7233500</v>
+        <v>7187200</v>
       </c>
       <c r="J62" s="3">
+        <v>7362800</v>
+      </c>
+      <c r="K62" s="3">
         <v>7415500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7646200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8402100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10722000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7191900</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2674,9 +2822,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2713,9 +2864,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2752,48 +2906,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>80122300</v>
+        <v>83853900</v>
       </c>
       <c r="E66" s="3">
-        <v>77591600</v>
+        <v>81553600</v>
       </c>
       <c r="F66" s="3">
-        <v>79366900</v>
+        <v>78977700</v>
       </c>
       <c r="G66" s="3">
-        <v>69746500</v>
+        <v>80784700</v>
       </c>
       <c r="H66" s="3">
-        <v>68107700</v>
+        <v>70992500</v>
       </c>
       <c r="I66" s="3">
-        <v>67690800</v>
+        <v>69324400</v>
       </c>
       <c r="J66" s="3">
+        <v>68900100</v>
+      </c>
+      <c r="K66" s="3">
         <v>64033300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>66025100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>73547200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72110100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>80417700</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2809,8 +2969,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2847,9 +3008,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2886,9 +3050,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2925,9 +3092,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2964,48 +3134,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-422100</v>
+        <v>-337100</v>
       </c>
       <c r="E72" s="3">
-        <v>1958400</v>
+        <v>-429700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1137400</v>
+        <v>1993300</v>
       </c>
       <c r="G72" s="3">
-        <v>-2181600</v>
+        <v>-1157700</v>
       </c>
       <c r="H72" s="3">
-        <v>-1958400</v>
+        <v>-2220600</v>
       </c>
       <c r="I72" s="3">
-        <v>-5103800</v>
+        <v>-1993300</v>
       </c>
       <c r="J72" s="3">
+        <v>-5195000</v>
+      </c>
+      <c r="K72" s="3">
         <v>3725200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3841100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3632900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3381800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1462600</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3042,9 +3218,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3081,9 +3260,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3120,48 +3302,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34216800</v>
+        <v>34228200</v>
       </c>
       <c r="E76" s="3">
-        <v>36389900</v>
+        <v>34828000</v>
       </c>
       <c r="F76" s="3">
-        <v>33565100</v>
+        <v>37040000</v>
       </c>
       <c r="G76" s="3">
-        <v>32447800</v>
+        <v>34164700</v>
       </c>
       <c r="H76" s="3">
-        <v>32771600</v>
+        <v>33027400</v>
       </c>
       <c r="I76" s="3">
-        <v>32467900</v>
+        <v>33357000</v>
       </c>
       <c r="J76" s="3">
+        <v>33047900</v>
+      </c>
+      <c r="K76" s="3">
         <v>32699600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33716800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29126300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26688000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32365500</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3198,92 +3386,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8500</v>
+        <v>2095600</v>
       </c>
       <c r="E81" s="3">
-        <v>4831900</v>
+        <v>8600</v>
       </c>
       <c r="F81" s="3">
-        <v>2894700</v>
+        <v>4918200</v>
       </c>
       <c r="G81" s="3">
-        <v>1757300</v>
+        <v>2946400</v>
       </c>
       <c r="H81" s="3">
-        <v>1667400</v>
+        <v>1788700</v>
       </c>
       <c r="I81" s="3">
-        <v>2801600</v>
+        <v>1697200</v>
       </c>
       <c r="J81" s="3">
+        <v>2851600</v>
+      </c>
+      <c r="K81" s="3">
         <v>2805800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1009100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2240500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>900400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4572000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3299,47 +3496,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9012000</v>
+        <v>9198900</v>
       </c>
       <c r="E83" s="3">
-        <v>8871300</v>
+        <v>9212900</v>
       </c>
       <c r="F83" s="3">
-        <v>7455700</v>
+        <v>9173000</v>
       </c>
       <c r="G83" s="3">
-        <v>7243100</v>
+        <v>9029800</v>
       </c>
       <c r="H83" s="3">
-        <v>7118200</v>
+        <v>7588900</v>
       </c>
       <c r="I83" s="3">
-        <v>6840000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>7372500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>7245400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>7239400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6949200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7905600</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3376,9 +3577,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3415,9 +3619,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3454,9 +3661,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3493,9 +3703,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3532,48 +3745,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13433400</v>
+        <v>12099000</v>
       </c>
       <c r="E89" s="3">
-        <v>10781000</v>
+        <v>12100000</v>
       </c>
       <c r="F89" s="3">
-        <v>10057300</v>
+        <v>13673400</v>
       </c>
       <c r="G89" s="3">
-        <v>10764100</v>
+        <v>10973600</v>
       </c>
       <c r="H89" s="3">
-        <v>9257500</v>
+        <v>10237000</v>
       </c>
       <c r="I89" s="3">
-        <v>10079600</v>
+        <v>10956400</v>
       </c>
       <c r="J89" s="3">
+        <v>9422900</v>
+      </c>
+      <c r="K89" s="3">
         <v>9312500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9602200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8683200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10997600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15117500</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3589,47 +3808,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9041700</v>
+        <v>-9452000</v>
       </c>
       <c r="E91" s="3">
-        <v>-8910500</v>
+        <v>-9421800</v>
       </c>
       <c r="F91" s="3">
-        <v>-8085200</v>
+        <v>-9203200</v>
       </c>
       <c r="G91" s="3">
-        <v>-7963600</v>
+        <v>-9069700</v>
       </c>
       <c r="H91" s="3">
-        <v>-8984500</v>
+        <v>-8229700</v>
       </c>
       <c r="I91" s="3">
-        <v>-8221700</v>
+        <v>-8105800</v>
       </c>
       <c r="J91" s="3">
+        <v>-9145000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6465400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6666600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7317200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7425800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7877400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3666,9 +3889,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3705,48 +3931,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5886700</v>
+        <v>-11251500</v>
       </c>
       <c r="E94" s="3">
-        <v>-9913500</v>
+        <v>-6435600</v>
       </c>
       <c r="F94" s="3">
-        <v>-9048000</v>
+        <v>-5991900</v>
       </c>
       <c r="G94" s="3">
-        <v>-8401600</v>
+        <v>-10090600</v>
       </c>
       <c r="H94" s="3">
-        <v>-5162000</v>
+        <v>-9209600</v>
       </c>
       <c r="I94" s="3">
-        <v>-9951500</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-8551700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-5254200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-7229800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5171600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7404400</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3762,47 +3994,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1687500</v>
+        <v>-2004100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1964700</v>
+        <v>-2290600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1967900</v>
+        <v>-1717700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1829300</v>
+        <v>-1999800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1688600</v>
+        <v>-2003000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1681200</v>
+        <v>-1862000</v>
       </c>
       <c r="J96" s="3">
+        <v>-1718700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1953100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2013800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1571800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3987900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-4346600</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3839,9 +4075,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3878,9 +4117,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3917,124 +4159,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5723800</v>
+        <v>-3600100</v>
       </c>
       <c r="E100" s="3">
-        <v>25400</v>
+        <v>-5205700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1196600</v>
+        <v>-5826000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2896800</v>
+        <v>25800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1992200</v>
+        <v>-1218000</v>
       </c>
       <c r="I100" s="3">
-        <v>-4151600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-2948600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-2027800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-4231000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5569100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3357100</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-62400</v>
+        <v>-65700</v>
       </c>
       <c r="E101" s="3">
+        <v>53800</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="G101" s="3">
         <v>3200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
-        <v>-42300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-107900</v>
-      </c>
       <c r="I101" s="3">
-        <v>1601800</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>-43100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-109800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-77800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>28500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-91600</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1760500</v>
+        <v>-2818200</v>
       </c>
       <c r="E102" s="3">
-        <v>896100</v>
+        <v>512600</v>
       </c>
       <c r="F102" s="3">
-        <v>-186200</v>
+        <v>1792000</v>
       </c>
       <c r="G102" s="3">
-        <v>-576600</v>
+        <v>912100</v>
       </c>
       <c r="H102" s="3">
-        <v>1995400</v>
+        <v>-189500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2421800</v>
+        <v>-586900</v>
       </c>
       <c r="J102" s="3">
+        <v>2031000</v>
+      </c>
+      <c r="K102" s="3">
         <v>871800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>898900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2855300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>285500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4264500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>46813900</v>
+        <v>47126900</v>
       </c>
       <c r="E8" s="3">
-        <v>45791900</v>
+        <v>46098100</v>
       </c>
       <c r="F8" s="3">
-        <v>45520600</v>
+        <v>45824900</v>
       </c>
       <c r="G8" s="3">
-        <v>45486100</v>
+        <v>45790200</v>
       </c>
       <c r="H8" s="3">
-        <v>44563200</v>
+        <v>44861100</v>
       </c>
       <c r="I8" s="3">
-        <v>44001100</v>
+        <v>44295200</v>
       </c>
       <c r="J8" s="3">
-        <v>44064600</v>
+        <v>44359200</v>
       </c>
       <c r="K8" s="3">
         <v>42569700</v>
@@ -772,25 +772,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19162400</v>
+        <v>19290500</v>
       </c>
       <c r="E9" s="3">
-        <v>18353600</v>
+        <v>18476300</v>
       </c>
       <c r="F9" s="3">
-        <v>18096200</v>
+        <v>18217200</v>
       </c>
       <c r="G9" s="3">
-        <v>18087600</v>
+        <v>18208500</v>
       </c>
       <c r="H9" s="3">
-        <v>18718700</v>
+        <v>18843800</v>
       </c>
       <c r="I9" s="3">
-        <v>18558200</v>
+        <v>18682300</v>
       </c>
       <c r="J9" s="3">
-        <v>18441900</v>
+        <v>18565200</v>
       </c>
       <c r="K9" s="3">
         <v>17493000</v>
@@ -814,25 +814,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>27651600</v>
+        <v>27836400</v>
       </c>
       <c r="E10" s="3">
-        <v>27438300</v>
+        <v>27621800</v>
       </c>
       <c r="F10" s="3">
-        <v>27424300</v>
+        <v>27607700</v>
       </c>
       <c r="G10" s="3">
-        <v>27398500</v>
+        <v>27581700</v>
       </c>
       <c r="H10" s="3">
-        <v>25844500</v>
+        <v>26017300</v>
       </c>
       <c r="I10" s="3">
-        <v>25442800</v>
+        <v>25612900</v>
       </c>
       <c r="J10" s="3">
-        <v>25622700</v>
+        <v>25794000</v>
       </c>
       <c r="K10" s="3">
         <v>25076700</v>
@@ -958,25 +958,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1218000</v>
+        <v>1226100</v>
       </c>
       <c r="E14" s="3">
-        <v>6083400</v>
+        <v>6124100</v>
       </c>
       <c r="F14" s="3">
-        <v>429700</v>
+        <v>432600</v>
       </c>
       <c r="G14" s="3">
-        <v>310100</v>
+        <v>312200</v>
       </c>
       <c r="H14" s="3">
-        <v>315500</v>
+        <v>317600</v>
       </c>
       <c r="I14" s="3">
-        <v>1312700</v>
+        <v>1321500</v>
       </c>
       <c r="J14" s="3">
-        <v>2375600</v>
+        <v>2391500</v>
       </c>
       <c r="K14" s="3">
         <v>613600</v>
@@ -1000,25 +1000,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9200000</v>
+        <v>9261500</v>
       </c>
       <c r="E15" s="3">
-        <v>9214000</v>
+        <v>9275600</v>
       </c>
       <c r="F15" s="3">
-        <v>9173000</v>
+        <v>9234400</v>
       </c>
       <c r="G15" s="3">
-        <v>9028700</v>
+        <v>9089100</v>
       </c>
       <c r="H15" s="3">
-        <v>7588900</v>
+        <v>7639700</v>
       </c>
       <c r="I15" s="3">
-        <v>7372500</v>
+        <v>7421700</v>
       </c>
       <c r="J15" s="3">
-        <v>7245400</v>
+        <v>7293800</v>
       </c>
       <c r="K15" s="3">
         <v>6840000</v>
@@ -1057,25 +1057,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41643700</v>
+        <v>41922100</v>
       </c>
       <c r="E17" s="3">
-        <v>43077100</v>
+        <v>43365100</v>
       </c>
       <c r="F17" s="3">
-        <v>39575000</v>
+        <v>39839600</v>
       </c>
       <c r="G17" s="3">
-        <v>39100100</v>
+        <v>39361500</v>
       </c>
       <c r="H17" s="3">
-        <v>39362800</v>
+        <v>39626000</v>
       </c>
       <c r="I17" s="3">
-        <v>38855600</v>
+        <v>39115400</v>
       </c>
       <c r="J17" s="3">
-        <v>40485000</v>
+        <v>40755700</v>
       </c>
       <c r="K17" s="3">
         <v>37552700</v>
@@ -1099,25 +1099,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5170200</v>
+        <v>5204800</v>
       </c>
       <c r="E18" s="3">
-        <v>2714900</v>
+        <v>2733000</v>
       </c>
       <c r="F18" s="3">
-        <v>5945600</v>
+        <v>5985300</v>
       </c>
       <c r="G18" s="3">
-        <v>6386000</v>
+        <v>6428700</v>
       </c>
       <c r="H18" s="3">
-        <v>5200400</v>
+        <v>5235100</v>
       </c>
       <c r="I18" s="3">
-        <v>5145400</v>
+        <v>5179800</v>
       </c>
       <c r="J18" s="3">
-        <v>3579600</v>
+        <v>3603500</v>
       </c>
       <c r="K18" s="3">
         <v>5017000</v>
@@ -1159,25 +1159,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>270300</v>
+        <v>272100</v>
       </c>
       <c r="E20" s="3">
-        <v>384500</v>
+        <v>387000</v>
       </c>
       <c r="F20" s="3">
-        <v>-44200</v>
+        <v>-44400</v>
       </c>
       <c r="G20" s="3">
-        <v>133500</v>
+        <v>134400</v>
       </c>
       <c r="H20" s="3">
-        <v>35500</v>
+        <v>35800</v>
       </c>
       <c r="I20" s="3">
-        <v>-385500</v>
+        <v>-388100</v>
       </c>
       <c r="J20" s="3">
-        <v>133500</v>
+        <v>134400</v>
       </c>
       <c r="K20" s="3">
         <v>139700</v>
@@ -1201,25 +1201,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14699300</v>
+        <v>14737300</v>
       </c>
       <c r="E21" s="3">
-        <v>12372200</v>
+        <v>12394500</v>
       </c>
       <c r="F21" s="3">
-        <v>15134200</v>
+        <v>15175200</v>
       </c>
       <c r="G21" s="3">
-        <v>15608100</v>
+        <v>15653300</v>
       </c>
       <c r="H21" s="3">
-        <v>12874200</v>
+        <v>12910500</v>
       </c>
       <c r="I21" s="3">
-        <v>12180300</v>
+        <v>12213500</v>
       </c>
       <c r="J21" s="3">
-        <v>11005700</v>
+        <v>11031800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1243,25 +1243,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1261000</v>
+        <v>1269500</v>
       </c>
       <c r="E22" s="3">
-        <v>1226600</v>
+        <v>1234800</v>
       </c>
       <c r="F22" s="3">
-        <v>1370900</v>
+        <v>1380100</v>
       </c>
       <c r="G22" s="3">
-        <v>1491500</v>
+        <v>1501500</v>
       </c>
       <c r="H22" s="3">
-        <v>1502300</v>
+        <v>1512300</v>
       </c>
       <c r="I22" s="3">
-        <v>1461400</v>
+        <v>1471100</v>
       </c>
       <c r="J22" s="3">
-        <v>1580900</v>
+        <v>1591500</v>
       </c>
       <c r="K22" s="3">
         <v>1814500</v>
@@ -1285,25 +1285,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4179400</v>
+        <v>4207400</v>
       </c>
       <c r="E23" s="3">
-        <v>1872700</v>
+        <v>1885200</v>
       </c>
       <c r="F23" s="3">
-        <v>4530500</v>
+        <v>4560800</v>
       </c>
       <c r="G23" s="3">
-        <v>5028000</v>
+        <v>5061700</v>
       </c>
       <c r="H23" s="3">
-        <v>3733600</v>
+        <v>3758600</v>
       </c>
       <c r="I23" s="3">
-        <v>3298500</v>
+        <v>3320600</v>
       </c>
       <c r="J23" s="3">
-        <v>2132300</v>
+        <v>2146500</v>
       </c>
       <c r="K23" s="3">
         <v>3342200</v>
@@ -1327,25 +1327,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1362300</v>
+        <v>1371400</v>
       </c>
       <c r="E24" s="3">
-        <v>1036000</v>
+        <v>1042900</v>
       </c>
       <c r="F24" s="3">
-        <v>-913200</v>
+        <v>-919300</v>
       </c>
       <c r="G24" s="3">
-        <v>1558300</v>
+        <v>1568700</v>
       </c>
       <c r="H24" s="3">
-        <v>1409700</v>
+        <v>1419100</v>
       </c>
       <c r="I24" s="3">
-        <v>1132900</v>
+        <v>1140500</v>
       </c>
       <c r="J24" s="3">
-        <v>1044600</v>
+        <v>1051600</v>
       </c>
       <c r="K24" s="3">
         <v>686600</v>
@@ -1411,25 +1411,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2817200</v>
+        <v>2836000</v>
       </c>
       <c r="E26" s="3">
-        <v>836800</v>
+        <v>842300</v>
       </c>
       <c r="F26" s="3">
-        <v>5443700</v>
+        <v>5480100</v>
       </c>
       <c r="G26" s="3">
-        <v>3469800</v>
+        <v>3493000</v>
       </c>
       <c r="H26" s="3">
-        <v>2324000</v>
+        <v>2339500</v>
       </c>
       <c r="I26" s="3">
-        <v>2165600</v>
+        <v>2180100</v>
       </c>
       <c r="J26" s="3">
-        <v>1087700</v>
+        <v>1094900</v>
       </c>
       <c r="K26" s="3">
         <v>2655600</v>
@@ -1453,25 +1453,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2095600</v>
+        <v>2109700</v>
       </c>
       <c r="E27" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="F27" s="3">
-        <v>4918200</v>
+        <v>4951100</v>
       </c>
       <c r="G27" s="3">
-        <v>2946400</v>
+        <v>2966100</v>
       </c>
       <c r="H27" s="3">
-        <v>1788700</v>
+        <v>1800700</v>
       </c>
       <c r="I27" s="3">
-        <v>1666000</v>
+        <v>1677100</v>
       </c>
       <c r="J27" s="3">
-        <v>425400</v>
+        <v>428200</v>
       </c>
       <c r="K27" s="3">
         <v>2331800</v>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>31200</v>
+        <v>31400</v>
       </c>
       <c r="J29" s="3">
-        <v>2426300</v>
+        <v>2442500</v>
       </c>
       <c r="K29" s="3">
         <v>474000</v>
@@ -1663,25 +1663,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-270300</v>
+        <v>-272100</v>
       </c>
       <c r="E32" s="3">
-        <v>-384500</v>
+        <v>-387000</v>
       </c>
       <c r="F32" s="3">
-        <v>44200</v>
+        <v>44400</v>
       </c>
       <c r="G32" s="3">
-        <v>-133500</v>
+        <v>-134400</v>
       </c>
       <c r="H32" s="3">
-        <v>-35500</v>
+        <v>-35800</v>
       </c>
       <c r="I32" s="3">
-        <v>385500</v>
+        <v>388100</v>
       </c>
       <c r="J32" s="3">
-        <v>-133500</v>
+        <v>-134400</v>
       </c>
       <c r="K32" s="3">
         <v>-139700</v>
@@ -1705,25 +1705,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2095600</v>
+        <v>2109700</v>
       </c>
       <c r="E33" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="F33" s="3">
-        <v>4918200</v>
+        <v>4951100</v>
       </c>
       <c r="G33" s="3">
-        <v>2946400</v>
+        <v>2966100</v>
       </c>
       <c r="H33" s="3">
-        <v>1788700</v>
+        <v>1800700</v>
       </c>
       <c r="I33" s="3">
-        <v>1697200</v>
+        <v>1708500</v>
       </c>
       <c r="J33" s="3">
-        <v>2851600</v>
+        <v>2870700</v>
       </c>
       <c r="K33" s="3">
         <v>2805800</v>
@@ -1789,25 +1789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2095600</v>
+        <v>2109700</v>
       </c>
       <c r="E35" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="F35" s="3">
-        <v>4918200</v>
+        <v>4951100</v>
       </c>
       <c r="G35" s="3">
-        <v>2946400</v>
+        <v>2966100</v>
       </c>
       <c r="H35" s="3">
-        <v>1788700</v>
+        <v>1800700</v>
       </c>
       <c r="I35" s="3">
-        <v>1697200</v>
+        <v>1708500</v>
       </c>
       <c r="J35" s="3">
-        <v>2851600</v>
+        <v>2870700</v>
       </c>
       <c r="K35" s="3">
         <v>2805800</v>
@@ -1914,25 +1914,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6465700</v>
+        <v>6508900</v>
       </c>
       <c r="E41" s="3">
-        <v>9284000</v>
+        <v>9346000</v>
       </c>
       <c r="F41" s="3">
-        <v>8771400</v>
+        <v>8830000</v>
       </c>
       <c r="G41" s="3">
-        <v>6979400</v>
+        <v>7026100</v>
       </c>
       <c r="H41" s="3">
-        <v>6067300</v>
+        <v>6107800</v>
       </c>
       <c r="I41" s="3">
-        <v>6256800</v>
+        <v>6298600</v>
       </c>
       <c r="J41" s="3">
-        <v>6843700</v>
+        <v>6889500</v>
       </c>
       <c r="K41" s="3">
         <v>4728200</v>
@@ -1956,25 +1956,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4896700</v>
+        <v>4929400</v>
       </c>
       <c r="E42" s="3">
-        <v>2485500</v>
+        <v>2502100</v>
       </c>
       <c r="F42" s="3">
-        <v>3503200</v>
+        <v>3526600</v>
       </c>
       <c r="G42" s="3">
-        <v>5204700</v>
+        <v>5239500</v>
       </c>
       <c r="H42" s="3">
-        <v>3025000</v>
+        <v>3045200</v>
       </c>
       <c r="I42" s="3">
-        <v>9500400</v>
+        <v>9563900</v>
       </c>
       <c r="J42" s="3">
-        <v>1999800</v>
+        <v>2013200</v>
       </c>
       <c r="K42" s="3">
         <v>1356400</v>
@@ -1998,25 +1998,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12949700</v>
+        <v>13036300</v>
       </c>
       <c r="E43" s="3">
-        <v>12081700</v>
+        <v>12162500</v>
       </c>
       <c r="F43" s="3">
-        <v>10951000</v>
+        <v>11024200</v>
       </c>
       <c r="G43" s="3">
-        <v>11595000</v>
+        <v>11672500</v>
       </c>
       <c r="H43" s="3">
-        <v>11437800</v>
+        <v>11514200</v>
       </c>
       <c r="I43" s="3">
-        <v>8141400</v>
+        <v>8195800</v>
       </c>
       <c r="J43" s="3">
-        <v>9851500</v>
+        <v>9917300</v>
       </c>
       <c r="K43" s="3">
         <v>6277100</v>
@@ -2040,25 +2040,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1128600</v>
+        <v>1136100</v>
       </c>
       <c r="E44" s="3">
-        <v>1025200</v>
+        <v>1032100</v>
       </c>
       <c r="F44" s="3">
-        <v>876600</v>
+        <v>882500</v>
       </c>
       <c r="G44" s="3">
-        <v>975700</v>
+        <v>982200</v>
       </c>
       <c r="H44" s="3">
-        <v>1039200</v>
+        <v>1046200</v>
       </c>
       <c r="I44" s="3">
-        <v>890600</v>
+        <v>896600</v>
       </c>
       <c r="J44" s="3">
-        <v>882000</v>
+        <v>887900</v>
       </c>
       <c r="K44" s="3">
         <v>807300</v>
@@ -2082,25 +2082,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3423500</v>
+        <v>3446400</v>
       </c>
       <c r="E45" s="3">
-        <v>2944200</v>
+        <v>2963900</v>
       </c>
       <c r="F45" s="3">
-        <v>2921600</v>
+        <v>2941200</v>
       </c>
       <c r="G45" s="3">
-        <v>2153800</v>
+        <v>2168200</v>
       </c>
       <c r="H45" s="3">
-        <v>2005200</v>
+        <v>2018600</v>
       </c>
       <c r="I45" s="3">
-        <v>1704700</v>
+        <v>1716100</v>
       </c>
       <c r="J45" s="3">
-        <v>1798400</v>
+        <v>1810400</v>
       </c>
       <c r="K45" s="3">
         <v>1973200</v>
@@ -2124,25 +2124,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28864200</v>
+        <v>29057100</v>
       </c>
       <c r="E46" s="3">
-        <v>27820600</v>
+        <v>28006600</v>
       </c>
       <c r="F46" s="3">
-        <v>27023700</v>
+        <v>27204400</v>
       </c>
       <c r="G46" s="3">
-        <v>26908500</v>
+        <v>27088400</v>
       </c>
       <c r="H46" s="3">
-        <v>23574400</v>
+        <v>23732000</v>
       </c>
       <c r="I46" s="3">
-        <v>23408600</v>
+        <v>23565100</v>
       </c>
       <c r="J46" s="3">
-        <v>21375400</v>
+        <v>21518300</v>
       </c>
       <c r="K46" s="3">
         <v>15142100</v>
@@ -2166,25 +2166,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3358900</v>
+        <v>3381300</v>
       </c>
       <c r="E47" s="3">
-        <v>3543000</v>
+        <v>3566700</v>
       </c>
       <c r="F47" s="3">
-        <v>3041200</v>
+        <v>3061500</v>
       </c>
       <c r="G47" s="3">
-        <v>2767600</v>
+        <v>2786100</v>
       </c>
       <c r="H47" s="3">
-        <v>4310800</v>
+        <v>4339700</v>
       </c>
       <c r="I47" s="3">
-        <v>8075700</v>
+        <v>8129700</v>
       </c>
       <c r="J47" s="3">
-        <v>5424300</v>
+        <v>5460600</v>
       </c>
       <c r="K47" s="3">
         <v>1054800</v>
@@ -2208,25 +2208,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42619400</v>
+        <v>42904300</v>
       </c>
       <c r="E48" s="3">
-        <v>41122500</v>
+        <v>41397400</v>
       </c>
       <c r="F48" s="3">
-        <v>38858900</v>
+        <v>39118700</v>
       </c>
       <c r="G48" s="3">
-        <v>75176200</v>
+        <v>75678900</v>
       </c>
       <c r="H48" s="3">
-        <v>29822600</v>
+        <v>30022000</v>
       </c>
       <c r="I48" s="3">
-        <v>57431100</v>
+        <v>57815100</v>
       </c>
       <c r="J48" s="3">
-        <v>27904600</v>
+        <v>28091200</v>
       </c>
       <c r="K48" s="3">
         <v>26580100</v>
@@ -2250,25 +2250,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>40985700</v>
+        <v>41259800</v>
       </c>
       <c r="E49" s="3">
-        <v>42141300</v>
+        <v>42423000</v>
       </c>
       <c r="F49" s="3">
-        <v>46017000</v>
+        <v>46324700</v>
       </c>
       <c r="G49" s="3">
-        <v>91280200</v>
+        <v>91890500</v>
       </c>
       <c r="H49" s="3">
-        <v>44418900</v>
+        <v>44715900</v>
       </c>
       <c r="I49" s="3">
-        <v>59863800</v>
+        <v>60264000</v>
       </c>
       <c r="J49" s="3">
-        <v>44969200</v>
+        <v>45269800</v>
       </c>
       <c r="K49" s="3">
         <v>43799100</v>
@@ -2376,25 +2376,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2254000</v>
+        <v>2269000</v>
       </c>
       <c r="E52" s="3">
-        <v>1754300</v>
+        <v>1766000</v>
       </c>
       <c r="F52" s="3">
-        <v>1076900</v>
+        <v>1084100</v>
       </c>
       <c r="G52" s="3">
-        <v>1809200</v>
+        <v>1821300</v>
       </c>
       <c r="H52" s="3">
-        <v>1893200</v>
+        <v>1905800</v>
       </c>
       <c r="I52" s="3">
-        <v>2055800</v>
+        <v>2069500</v>
       </c>
       <c r="J52" s="3">
-        <v>3378200</v>
+        <v>3400800</v>
       </c>
       <c r="K52" s="3">
         <v>10156800</v>
@@ -2460,25 +2460,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>118082000</v>
+        <v>118872000</v>
       </c>
       <c r="E54" s="3">
-        <v>116382000</v>
+        <v>117160000</v>
       </c>
       <c r="F54" s="3">
-        <v>116018000</v>
+        <v>116793000</v>
       </c>
       <c r="G54" s="3">
-        <v>114949000</v>
+        <v>115718000</v>
       </c>
       <c r="H54" s="3">
-        <v>104020000</v>
+        <v>104715000</v>
       </c>
       <c r="I54" s="3">
-        <v>102681000</v>
+        <v>103368000</v>
       </c>
       <c r="J54" s="3">
-        <v>101948000</v>
+        <v>102630000</v>
       </c>
       <c r="K54" s="3">
         <v>96732900</v>
@@ -2538,25 +2538,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7610500</v>
+        <v>7661300</v>
       </c>
       <c r="E57" s="3">
-        <v>7256200</v>
+        <v>7304700</v>
       </c>
       <c r="F57" s="3">
-        <v>6972900</v>
+        <v>7019500</v>
       </c>
       <c r="G57" s="3">
-        <v>7195800</v>
+        <v>7244000</v>
       </c>
       <c r="H57" s="3">
-        <v>7254000</v>
+        <v>7302500</v>
       </c>
       <c r="I57" s="3">
-        <v>7028900</v>
+        <v>7075900</v>
       </c>
       <c r="J57" s="3">
-        <v>6688600</v>
+        <v>6733300</v>
       </c>
       <c r="K57" s="3">
         <v>6588200</v>
@@ -2580,25 +2580,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9955900</v>
+        <v>10022500</v>
       </c>
       <c r="E58" s="3">
-        <v>8562400</v>
+        <v>8619700</v>
       </c>
       <c r="F58" s="3">
-        <v>10547200</v>
+        <v>10617700</v>
       </c>
       <c r="G58" s="3">
-        <v>10276900</v>
+        <v>10345600</v>
       </c>
       <c r="H58" s="3">
-        <v>12927100</v>
+        <v>13013500</v>
       </c>
       <c r="I58" s="3">
-        <v>16482000</v>
+        <v>16592200</v>
       </c>
       <c r="J58" s="3">
-        <v>9140700</v>
+        <v>9201800</v>
       </c>
       <c r="K58" s="3">
         <v>2940200</v>
@@ -2622,25 +2622,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13903900</v>
+        <v>13996800</v>
       </c>
       <c r="E59" s="3">
-        <v>13554900</v>
+        <v>13645600</v>
       </c>
       <c r="F59" s="3">
-        <v>12949700</v>
+        <v>13036300</v>
       </c>
       <c r="G59" s="3">
-        <v>12429600</v>
+        <v>12512700</v>
       </c>
       <c r="H59" s="3">
-        <v>12444700</v>
+        <v>12527900</v>
       </c>
       <c r="I59" s="3">
-        <v>12906600</v>
+        <v>12992900</v>
       </c>
       <c r="J59" s="3">
-        <v>12066700</v>
+        <v>12147300</v>
       </c>
       <c r="K59" s="3">
         <v>13352000</v>
@@ -2664,25 +2664,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31470200</v>
+        <v>31680700</v>
       </c>
       <c r="E60" s="3">
-        <v>29373500</v>
+        <v>29569900</v>
       </c>
       <c r="F60" s="3">
-        <v>30469800</v>
+        <v>30673500</v>
       </c>
       <c r="G60" s="3">
-        <v>29902300</v>
+        <v>30102200</v>
       </c>
       <c r="H60" s="3">
-        <v>32625800</v>
+        <v>32843900</v>
       </c>
       <c r="I60" s="3">
-        <v>31291500</v>
+        <v>31500700</v>
       </c>
       <c r="J60" s="3">
-        <v>27896000</v>
+        <v>28082500</v>
       </c>
       <c r="K60" s="3">
         <v>22880300</v>
@@ -2706,25 +2706,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>41817100</v>
+        <v>42096700</v>
       </c>
       <c r="E61" s="3">
-        <v>41587700</v>
+        <v>41865800</v>
       </c>
       <c r="F61" s="3">
-        <v>38729600</v>
+        <v>38988600</v>
       </c>
       <c r="G61" s="3">
-        <v>41720200</v>
+        <v>41999100</v>
       </c>
       <c r="H61" s="3">
-        <v>28527100</v>
+        <v>28717800</v>
       </c>
       <c r="I61" s="3">
-        <v>28314900</v>
+        <v>28504200</v>
       </c>
       <c r="J61" s="3">
-        <v>30964100</v>
+        <v>31171100</v>
       </c>
       <c r="K61" s="3">
         <v>31240600</v>
@@ -2748,25 +2748,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7150600</v>
+        <v>7198400</v>
       </c>
       <c r="E62" s="3">
-        <v>7340200</v>
+        <v>7389200</v>
       </c>
       <c r="F62" s="3">
-        <v>6932000</v>
+        <v>6978400</v>
       </c>
       <c r="G62" s="3">
-        <v>6267600</v>
+        <v>6309500</v>
       </c>
       <c r="H62" s="3">
-        <v>7061200</v>
+        <v>7108400</v>
       </c>
       <c r="I62" s="3">
-        <v>7187200</v>
+        <v>7235300</v>
       </c>
       <c r="J62" s="3">
-        <v>7362800</v>
+        <v>7412000</v>
       </c>
       <c r="K62" s="3">
         <v>7415500</v>
@@ -2916,25 +2916,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>83853900</v>
+        <v>84414500</v>
       </c>
       <c r="E66" s="3">
-        <v>81553600</v>
+        <v>82098900</v>
       </c>
       <c r="F66" s="3">
-        <v>78977700</v>
+        <v>79505700</v>
       </c>
       <c r="G66" s="3">
-        <v>80784700</v>
+        <v>81324800</v>
       </c>
       <c r="H66" s="3">
-        <v>70992500</v>
+        <v>71467100</v>
       </c>
       <c r="I66" s="3">
-        <v>69324400</v>
+        <v>69787900</v>
       </c>
       <c r="J66" s="3">
-        <v>68900100</v>
+        <v>69360700</v>
       </c>
       <c r="K66" s="3">
         <v>64033300</v>
@@ -3144,25 +3144,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-337100</v>
+        <v>-339300</v>
       </c>
       <c r="E72" s="3">
-        <v>-429700</v>
+        <v>-432600</v>
       </c>
       <c r="F72" s="3">
-        <v>1993300</v>
+        <v>2006700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1157700</v>
+        <v>-1165400</v>
       </c>
       <c r="H72" s="3">
-        <v>-2220600</v>
+        <v>-2235400</v>
       </c>
       <c r="I72" s="3">
-        <v>-1993300</v>
+        <v>-2006700</v>
       </c>
       <c r="J72" s="3">
-        <v>-5195000</v>
+        <v>-5229700</v>
       </c>
       <c r="K72" s="3">
         <v>3725200</v>
@@ -3312,25 +3312,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34228200</v>
+        <v>34457000</v>
       </c>
       <c r="E76" s="3">
-        <v>34828000</v>
+        <v>35060900</v>
       </c>
       <c r="F76" s="3">
-        <v>37040000</v>
+        <v>37287600</v>
       </c>
       <c r="G76" s="3">
-        <v>34164700</v>
+        <v>34393100</v>
       </c>
       <c r="H76" s="3">
-        <v>33027400</v>
+        <v>33248300</v>
       </c>
       <c r="I76" s="3">
-        <v>33357000</v>
+        <v>33580000</v>
       </c>
       <c r="J76" s="3">
-        <v>33047900</v>
+        <v>33268900</v>
       </c>
       <c r="K76" s="3">
         <v>32699600</v>
@@ -3443,25 +3443,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2095600</v>
+        <v>2109700</v>
       </c>
       <c r="E81" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="F81" s="3">
-        <v>4918200</v>
+        <v>4951100</v>
       </c>
       <c r="G81" s="3">
-        <v>2946400</v>
+        <v>2966100</v>
       </c>
       <c r="H81" s="3">
-        <v>1788700</v>
+        <v>1800700</v>
       </c>
       <c r="I81" s="3">
-        <v>1697200</v>
+        <v>1708500</v>
       </c>
       <c r="J81" s="3">
-        <v>2851600</v>
+        <v>2870700</v>
       </c>
       <c r="K81" s="3">
         <v>2805800</v>
@@ -3503,25 +3503,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9198900</v>
+        <v>9260400</v>
       </c>
       <c r="E83" s="3">
-        <v>9212900</v>
+        <v>9274500</v>
       </c>
       <c r="F83" s="3">
-        <v>9173000</v>
+        <v>9234400</v>
       </c>
       <c r="G83" s="3">
-        <v>9029800</v>
+        <v>9090200</v>
       </c>
       <c r="H83" s="3">
-        <v>7588900</v>
+        <v>7639700</v>
       </c>
       <c r="I83" s="3">
-        <v>7372500</v>
+        <v>7421700</v>
       </c>
       <c r="J83" s="3">
-        <v>7245400</v>
+        <v>7293800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3755,25 +3755,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12099000</v>
+        <v>12179900</v>
       </c>
       <c r="E89" s="3">
-        <v>12100000</v>
+        <v>12180900</v>
       </c>
       <c r="F89" s="3">
-        <v>13673400</v>
+        <v>13764800</v>
       </c>
       <c r="G89" s="3">
-        <v>10973600</v>
+        <v>11047000</v>
       </c>
       <c r="H89" s="3">
-        <v>10237000</v>
+        <v>10305500</v>
       </c>
       <c r="I89" s="3">
-        <v>10956400</v>
+        <v>11029600</v>
       </c>
       <c r="J89" s="3">
-        <v>9422900</v>
+        <v>9485900</v>
       </c>
       <c r="K89" s="3">
         <v>9312500</v>
@@ -3815,25 +3815,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9452000</v>
+        <v>-9515100</v>
       </c>
       <c r="E91" s="3">
-        <v>-9421800</v>
+        <v>-9484800</v>
       </c>
       <c r="F91" s="3">
-        <v>-9203200</v>
+        <v>-9264700</v>
       </c>
       <c r="G91" s="3">
-        <v>-9069700</v>
+        <v>-9130300</v>
       </c>
       <c r="H91" s="3">
-        <v>-8229700</v>
+        <v>-8284700</v>
       </c>
       <c r="I91" s="3">
-        <v>-8105800</v>
+        <v>-8160000</v>
       </c>
       <c r="J91" s="3">
-        <v>-9145000</v>
+        <v>-9206200</v>
       </c>
       <c r="K91" s="3">
         <v>-6465400</v>
@@ -3941,25 +3941,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11251500</v>
+        <v>-11326700</v>
       </c>
       <c r="E94" s="3">
-        <v>-6435600</v>
+        <v>-6478600</v>
       </c>
       <c r="F94" s="3">
-        <v>-5991900</v>
+        <v>-6031900</v>
       </c>
       <c r="G94" s="3">
-        <v>-10090600</v>
+        <v>-10158000</v>
       </c>
       <c r="H94" s="3">
-        <v>-9209600</v>
+        <v>-9271200</v>
       </c>
       <c r="I94" s="3">
-        <v>-8551700</v>
+        <v>-8608800</v>
       </c>
       <c r="J94" s="3">
-        <v>-5254200</v>
+        <v>-5289300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -4001,25 +4001,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2004100</v>
+        <v>-2017500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2290600</v>
+        <v>-2305900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1717700</v>
+        <v>-1729100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1999800</v>
+        <v>-2013200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2003000</v>
+        <v>-2016400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1862000</v>
+        <v>-1874400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1718700</v>
+        <v>-1730200</v>
       </c>
       <c r="K96" s="3">
         <v>-1953100</v>
@@ -4169,25 +4169,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3600100</v>
+        <v>-3624100</v>
       </c>
       <c r="E100" s="3">
-        <v>-5205700</v>
+        <v>-5240500</v>
       </c>
       <c r="F100" s="3">
-        <v>-5826000</v>
+        <v>-5865000</v>
       </c>
       <c r="G100" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1218000</v>
+        <v>-1226100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2948600</v>
+        <v>-2968300</v>
       </c>
       <c r="J100" s="3">
-        <v>-2027800</v>
+        <v>-2041400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4211,25 +4211,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-65700</v>
+        <v>-66100</v>
       </c>
       <c r="E101" s="3">
-        <v>53800</v>
+        <v>54200</v>
       </c>
       <c r="F101" s="3">
-        <v>-63500</v>
+        <v>-64000</v>
       </c>
       <c r="G101" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H101" s="3">
         <v>1100</v>
       </c>
       <c r="I101" s="3">
-        <v>-43100</v>
+        <v>-43400</v>
       </c>
       <c r="J101" s="3">
-        <v>-109800</v>
+        <v>-110600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4253,25 +4253,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2818200</v>
+        <v>-2837100</v>
       </c>
       <c r="E102" s="3">
-        <v>512600</v>
+        <v>516000</v>
       </c>
       <c r="F102" s="3">
-        <v>1792000</v>
+        <v>1803900</v>
       </c>
       <c r="G102" s="3">
-        <v>912100</v>
+        <v>918200</v>
       </c>
       <c r="H102" s="3">
-        <v>-189500</v>
+        <v>-190800</v>
       </c>
       <c r="I102" s="3">
-        <v>-586900</v>
+        <v>-590800</v>
       </c>
       <c r="J102" s="3">
-        <v>2031000</v>
+        <v>2044600</v>
       </c>
       <c r="K102" s="3">
         <v>871800</v>

--- a/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ORAN_YR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47126900</v>
+        <v>47166000</v>
       </c>
       <c r="E8" s="3">
-        <v>46098100</v>
+        <v>46136400</v>
       </c>
       <c r="F8" s="3">
-        <v>45824900</v>
+        <v>45863000</v>
       </c>
       <c r="G8" s="3">
-        <v>45790200</v>
+        <v>45828200</v>
       </c>
       <c r="H8" s="3">
-        <v>44861100</v>
+        <v>44898400</v>
       </c>
       <c r="I8" s="3">
-        <v>44295200</v>
+        <v>44332000</v>
       </c>
       <c r="J8" s="3">
-        <v>44359200</v>
+        <v>44396000</v>
       </c>
       <c r="K8" s="3">
         <v>42569700</v>
@@ -772,25 +772,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19290500</v>
+        <v>19306500</v>
       </c>
       <c r="E9" s="3">
-        <v>18476300</v>
+        <v>18491700</v>
       </c>
       <c r="F9" s="3">
-        <v>18217200</v>
+        <v>18232300</v>
       </c>
       <c r="G9" s="3">
-        <v>18208500</v>
+        <v>18223700</v>
       </c>
       <c r="H9" s="3">
-        <v>18843800</v>
+        <v>18859500</v>
       </c>
       <c r="I9" s="3">
-        <v>18682300</v>
+        <v>18697800</v>
       </c>
       <c r="J9" s="3">
-        <v>18565200</v>
+        <v>18580600</v>
       </c>
       <c r="K9" s="3">
         <v>17493000</v>
@@ -814,25 +814,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>27836400</v>
+        <v>27859500</v>
       </c>
       <c r="E10" s="3">
-        <v>27621800</v>
+        <v>27644700</v>
       </c>
       <c r="F10" s="3">
-        <v>27607700</v>
+        <v>27630600</v>
       </c>
       <c r="G10" s="3">
-        <v>27581700</v>
+        <v>27604600</v>
       </c>
       <c r="H10" s="3">
-        <v>26017300</v>
+        <v>26038900</v>
       </c>
       <c r="I10" s="3">
-        <v>25612900</v>
+        <v>25634200</v>
       </c>
       <c r="J10" s="3">
-        <v>25794000</v>
+        <v>25815400</v>
       </c>
       <c r="K10" s="3">
         <v>25076700</v>
@@ -958,25 +958,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1226100</v>
+        <v>1227100</v>
       </c>
       <c r="E14" s="3">
-        <v>6124100</v>
+        <v>6129200</v>
       </c>
       <c r="F14" s="3">
-        <v>432600</v>
+        <v>432900</v>
       </c>
       <c r="G14" s="3">
-        <v>312200</v>
+        <v>312500</v>
       </c>
       <c r="H14" s="3">
-        <v>317600</v>
+        <v>317900</v>
       </c>
       <c r="I14" s="3">
-        <v>1321500</v>
+        <v>1322600</v>
       </c>
       <c r="J14" s="3">
-        <v>2391500</v>
+        <v>2393500</v>
       </c>
       <c r="K14" s="3">
         <v>613600</v>
@@ -1000,25 +1000,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9261500</v>
+        <v>9269200</v>
       </c>
       <c r="E15" s="3">
-        <v>9275600</v>
+        <v>9283300</v>
       </c>
       <c r="F15" s="3">
-        <v>9234400</v>
+        <v>9242000</v>
       </c>
       <c r="G15" s="3">
-        <v>9089100</v>
+        <v>9096600</v>
       </c>
       <c r="H15" s="3">
-        <v>7639700</v>
+        <v>7646000</v>
       </c>
       <c r="I15" s="3">
-        <v>7421700</v>
+        <v>7427900</v>
       </c>
       <c r="J15" s="3">
-        <v>7293800</v>
+        <v>7299900</v>
       </c>
       <c r="K15" s="3">
         <v>6840000</v>
@@ -1057,25 +1057,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41922100</v>
+        <v>41957000</v>
       </c>
       <c r="E17" s="3">
-        <v>43365100</v>
+        <v>43401100</v>
       </c>
       <c r="F17" s="3">
-        <v>39839600</v>
+        <v>39872700</v>
       </c>
       <c r="G17" s="3">
-        <v>39361500</v>
+        <v>39394200</v>
       </c>
       <c r="H17" s="3">
-        <v>39626000</v>
+        <v>39658900</v>
       </c>
       <c r="I17" s="3">
-        <v>39115400</v>
+        <v>39147900</v>
       </c>
       <c r="J17" s="3">
-        <v>40755700</v>
+        <v>40789500</v>
       </c>
       <c r="K17" s="3">
         <v>37552700</v>
@@ -1099,25 +1099,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5204800</v>
+        <v>5209100</v>
       </c>
       <c r="E18" s="3">
-        <v>2733000</v>
+        <v>2735300</v>
       </c>
       <c r="F18" s="3">
-        <v>5985300</v>
+        <v>5990300</v>
       </c>
       <c r="G18" s="3">
-        <v>6428700</v>
+        <v>6434100</v>
       </c>
       <c r="H18" s="3">
-        <v>5235100</v>
+        <v>5239500</v>
       </c>
       <c r="I18" s="3">
-        <v>5179800</v>
+        <v>5184100</v>
       </c>
       <c r="J18" s="3">
-        <v>3603500</v>
+        <v>3606500</v>
       </c>
       <c r="K18" s="3">
         <v>5017000</v>
@@ -1159,25 +1159,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>272100</v>
+        <v>272300</v>
       </c>
       <c r="E20" s="3">
-        <v>387000</v>
+        <v>387300</v>
       </c>
       <c r="F20" s="3">
-        <v>-44400</v>
+        <v>-44500</v>
       </c>
       <c r="G20" s="3">
-        <v>134400</v>
+        <v>134500</v>
       </c>
       <c r="H20" s="3">
         <v>35800</v>
       </c>
       <c r="I20" s="3">
-        <v>-388100</v>
+        <v>-388400</v>
       </c>
       <c r="J20" s="3">
-        <v>134400</v>
+        <v>134500</v>
       </c>
       <c r="K20" s="3">
         <v>139700</v>
@@ -1201,25 +1201,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14737300</v>
+        <v>14746100</v>
       </c>
       <c r="E21" s="3">
-        <v>12394500</v>
+        <v>12401400</v>
       </c>
       <c r="F21" s="3">
-        <v>15175200</v>
+        <v>15184400</v>
       </c>
       <c r="G21" s="3">
-        <v>15653300</v>
+        <v>15663000</v>
       </c>
       <c r="H21" s="3">
-        <v>12910500</v>
+        <v>12918400</v>
       </c>
       <c r="I21" s="3">
-        <v>12213500</v>
+        <v>12220900</v>
       </c>
       <c r="J21" s="3">
-        <v>11031800</v>
+        <v>11038300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1243,25 +1243,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1269500</v>
+        <v>1270500</v>
       </c>
       <c r="E22" s="3">
-        <v>1234800</v>
+        <v>1235800</v>
       </c>
       <c r="F22" s="3">
-        <v>1380100</v>
+        <v>1381200</v>
       </c>
       <c r="G22" s="3">
-        <v>1501500</v>
+        <v>1502700</v>
       </c>
       <c r="H22" s="3">
-        <v>1512300</v>
+        <v>1513600</v>
       </c>
       <c r="I22" s="3">
-        <v>1471100</v>
+        <v>1472300</v>
       </c>
       <c r="J22" s="3">
-        <v>1591500</v>
+        <v>1592800</v>
       </c>
       <c r="K22" s="3">
         <v>1814500</v>
@@ -1285,25 +1285,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4207400</v>
+        <v>4210900</v>
       </c>
       <c r="E23" s="3">
-        <v>1885200</v>
+        <v>1886800</v>
       </c>
       <c r="F23" s="3">
-        <v>4560800</v>
+        <v>4564600</v>
       </c>
       <c r="G23" s="3">
-        <v>5061700</v>
+        <v>5065900</v>
       </c>
       <c r="H23" s="3">
-        <v>3758600</v>
+        <v>3761700</v>
       </c>
       <c r="I23" s="3">
-        <v>3320600</v>
+        <v>3323400</v>
       </c>
       <c r="J23" s="3">
-        <v>2146500</v>
+        <v>2148300</v>
       </c>
       <c r="K23" s="3">
         <v>3342200</v>
@@ -1327,25 +1327,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1371400</v>
+        <v>1372500</v>
       </c>
       <c r="E24" s="3">
-        <v>1042900</v>
+        <v>1043800</v>
       </c>
       <c r="F24" s="3">
-        <v>-919300</v>
+        <v>-920100</v>
       </c>
       <c r="G24" s="3">
-        <v>1568700</v>
+        <v>1570000</v>
       </c>
       <c r="H24" s="3">
-        <v>1419100</v>
+        <v>1420300</v>
       </c>
       <c r="I24" s="3">
-        <v>1140500</v>
+        <v>1141400</v>
       </c>
       <c r="J24" s="3">
-        <v>1051600</v>
+        <v>1052500</v>
       </c>
       <c r="K24" s="3">
         <v>686600</v>
@@ -1411,25 +1411,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2836000</v>
+        <v>2838400</v>
       </c>
       <c r="E26" s="3">
-        <v>842300</v>
+        <v>843000</v>
       </c>
       <c r="F26" s="3">
-        <v>5480100</v>
+        <v>5484700</v>
       </c>
       <c r="G26" s="3">
-        <v>3493000</v>
+        <v>3495900</v>
       </c>
       <c r="H26" s="3">
-        <v>2339500</v>
+        <v>2341400</v>
       </c>
       <c r="I26" s="3">
-        <v>2180100</v>
+        <v>2181900</v>
       </c>
       <c r="J26" s="3">
-        <v>1094900</v>
+        <v>1095900</v>
       </c>
       <c r="K26" s="3">
         <v>2655600</v>
@@ -1453,25 +1453,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2109700</v>
+        <v>2111400</v>
       </c>
       <c r="E27" s="3">
         <v>8700</v>
       </c>
       <c r="F27" s="3">
-        <v>4951100</v>
+        <v>4955200</v>
       </c>
       <c r="G27" s="3">
-        <v>2966100</v>
+        <v>2968600</v>
       </c>
       <c r="H27" s="3">
-        <v>1800700</v>
+        <v>1802200</v>
       </c>
       <c r="I27" s="3">
-        <v>1677100</v>
+        <v>1678500</v>
       </c>
       <c r="J27" s="3">
-        <v>428200</v>
+        <v>428600</v>
       </c>
       <c r="K27" s="3">
         <v>2331800</v>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>31400</v>
+        <v>31500</v>
       </c>
       <c r="J29" s="3">
-        <v>2442500</v>
+        <v>2444500</v>
       </c>
       <c r="K29" s="3">
         <v>474000</v>
@@ -1663,25 +1663,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-272100</v>
+        <v>-272300</v>
       </c>
       <c r="E32" s="3">
-        <v>-387000</v>
+        <v>-387300</v>
       </c>
       <c r="F32" s="3">
-        <v>44400</v>
+        <v>44500</v>
       </c>
       <c r="G32" s="3">
-        <v>-134400</v>
+        <v>-134500</v>
       </c>
       <c r="H32" s="3">
         <v>-35800</v>
       </c>
       <c r="I32" s="3">
-        <v>388100</v>
+        <v>388400</v>
       </c>
       <c r="J32" s="3">
-        <v>-134400</v>
+        <v>-134500</v>
       </c>
       <c r="K32" s="3">
         <v>-139700</v>
@@ -1705,25 +1705,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2109700</v>
+        <v>2111400</v>
       </c>
       <c r="E33" s="3">
         <v>8700</v>
       </c>
       <c r="F33" s="3">
-        <v>4951100</v>
+        <v>4955200</v>
       </c>
       <c r="G33" s="3">
-        <v>2966100</v>
+        <v>2968600</v>
       </c>
       <c r="H33" s="3">
-        <v>1800700</v>
+        <v>1802200</v>
       </c>
       <c r="I33" s="3">
-        <v>1708500</v>
+        <v>1710000</v>
       </c>
       <c r="J33" s="3">
-        <v>2870700</v>
+        <v>2873100</v>
       </c>
       <c r="K33" s="3">
         <v>2805800</v>
@@ -1789,25 +1789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2109700</v>
+        <v>2111400</v>
       </c>
       <c r="E35" s="3">
         <v>8700</v>
       </c>
       <c r="F35" s="3">
-        <v>4951100</v>
+        <v>4955200</v>
       </c>
       <c r="G35" s="3">
-        <v>2966100</v>
+        <v>2968600</v>
       </c>
       <c r="H35" s="3">
-        <v>1800700</v>
+        <v>1802200</v>
       </c>
       <c r="I35" s="3">
-        <v>1708500</v>
+        <v>1710000</v>
       </c>
       <c r="J35" s="3">
-        <v>2870700</v>
+        <v>2873100</v>
       </c>
       <c r="K35" s="3">
         <v>2805800</v>
@@ -1914,25 +1914,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6508900</v>
+        <v>6514300</v>
       </c>
       <c r="E41" s="3">
-        <v>9346000</v>
+        <v>9353800</v>
       </c>
       <c r="F41" s="3">
-        <v>8830000</v>
+        <v>8837300</v>
       </c>
       <c r="G41" s="3">
-        <v>7026100</v>
+        <v>7031900</v>
       </c>
       <c r="H41" s="3">
-        <v>6107800</v>
+        <v>6112900</v>
       </c>
       <c r="I41" s="3">
-        <v>6298600</v>
+        <v>6303800</v>
       </c>
       <c r="J41" s="3">
-        <v>6889500</v>
+        <v>6895200</v>
       </c>
       <c r="K41" s="3">
         <v>4728200</v>
@@ -1956,25 +1956,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4929400</v>
+        <v>4933500</v>
       </c>
       <c r="E42" s="3">
-        <v>2502100</v>
+        <v>2504200</v>
       </c>
       <c r="F42" s="3">
-        <v>3526600</v>
+        <v>3529500</v>
       </c>
       <c r="G42" s="3">
-        <v>5239500</v>
+        <v>5243800</v>
       </c>
       <c r="H42" s="3">
-        <v>3045200</v>
+        <v>3047800</v>
       </c>
       <c r="I42" s="3">
-        <v>9563900</v>
+        <v>9571900</v>
       </c>
       <c r="J42" s="3">
-        <v>2013200</v>
+        <v>2014800</v>
       </c>
       <c r="K42" s="3">
         <v>1356400</v>
@@ -1998,25 +1998,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13036300</v>
+        <v>13047100</v>
       </c>
       <c r="E43" s="3">
-        <v>12162500</v>
+        <v>12172600</v>
       </c>
       <c r="F43" s="3">
-        <v>11024200</v>
+        <v>11033400</v>
       </c>
       <c r="G43" s="3">
-        <v>11672500</v>
+        <v>11682200</v>
       </c>
       <c r="H43" s="3">
-        <v>11514200</v>
+        <v>11523800</v>
       </c>
       <c r="I43" s="3">
-        <v>8195800</v>
+        <v>8202600</v>
       </c>
       <c r="J43" s="3">
-        <v>9917300</v>
+        <v>9925600</v>
       </c>
       <c r="K43" s="3">
         <v>6277100</v>
@@ -2040,25 +2040,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1136100</v>
+        <v>1137100</v>
       </c>
       <c r="E44" s="3">
-        <v>1032100</v>
+        <v>1032900</v>
       </c>
       <c r="F44" s="3">
-        <v>882500</v>
+        <v>883200</v>
       </c>
       <c r="G44" s="3">
-        <v>982200</v>
+        <v>983000</v>
       </c>
       <c r="H44" s="3">
-        <v>1046200</v>
+        <v>1047000</v>
       </c>
       <c r="I44" s="3">
-        <v>896600</v>
+        <v>897300</v>
       </c>
       <c r="J44" s="3">
-        <v>887900</v>
+        <v>888600</v>
       </c>
       <c r="K44" s="3">
         <v>807300</v>
@@ -2082,25 +2082,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3446400</v>
+        <v>3449200</v>
       </c>
       <c r="E45" s="3">
-        <v>2963900</v>
+        <v>2966400</v>
       </c>
       <c r="F45" s="3">
-        <v>2941200</v>
+        <v>2943600</v>
       </c>
       <c r="G45" s="3">
-        <v>2168200</v>
+        <v>2170000</v>
       </c>
       <c r="H45" s="3">
-        <v>2018600</v>
+        <v>2020300</v>
       </c>
       <c r="I45" s="3">
-        <v>1716100</v>
+        <v>1717600</v>
       </c>
       <c r="J45" s="3">
-        <v>1810400</v>
+        <v>1812000</v>
       </c>
       <c r="K45" s="3">
         <v>1973200</v>
@@ -2124,25 +2124,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29057100</v>
+        <v>29081300</v>
       </c>
       <c r="E46" s="3">
-        <v>28006600</v>
+        <v>28029900</v>
       </c>
       <c r="F46" s="3">
-        <v>27204400</v>
+        <v>27227000</v>
       </c>
       <c r="G46" s="3">
-        <v>27088400</v>
+        <v>27110900</v>
       </c>
       <c r="H46" s="3">
-        <v>23732000</v>
+        <v>23751700</v>
       </c>
       <c r="I46" s="3">
-        <v>23565100</v>
+        <v>23584600</v>
       </c>
       <c r="J46" s="3">
-        <v>21518300</v>
+        <v>21536200</v>
       </c>
       <c r="K46" s="3">
         <v>15142100</v>
@@ -2166,25 +2166,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3381300</v>
+        <v>3384100</v>
       </c>
       <c r="E47" s="3">
-        <v>3566700</v>
+        <v>3569700</v>
       </c>
       <c r="F47" s="3">
-        <v>3061500</v>
+        <v>3064000</v>
       </c>
       <c r="G47" s="3">
-        <v>2786100</v>
+        <v>2788400</v>
       </c>
       <c r="H47" s="3">
-        <v>4339700</v>
+        <v>4343300</v>
       </c>
       <c r="I47" s="3">
-        <v>8129700</v>
+        <v>8136400</v>
       </c>
       <c r="J47" s="3">
-        <v>5460600</v>
+        <v>5465100</v>
       </c>
       <c r="K47" s="3">
         <v>1054800</v>
@@ -2208,25 +2208,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42904300</v>
+        <v>42940000</v>
       </c>
       <c r="E48" s="3">
-        <v>41397400</v>
+        <v>41431800</v>
       </c>
       <c r="F48" s="3">
-        <v>39118700</v>
+        <v>39151100</v>
       </c>
       <c r="G48" s="3">
-        <v>75678900</v>
+        <v>75741700</v>
       </c>
       <c r="H48" s="3">
-        <v>30022000</v>
+        <v>30046900</v>
       </c>
       <c r="I48" s="3">
-        <v>57815100</v>
+        <v>57863000</v>
       </c>
       <c r="J48" s="3">
-        <v>28091200</v>
+        <v>28114500</v>
       </c>
       <c r="K48" s="3">
         <v>26580100</v>
@@ -2250,25 +2250,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>41259800</v>
+        <v>41294000</v>
       </c>
       <c r="E49" s="3">
-        <v>42423000</v>
+        <v>42458200</v>
       </c>
       <c r="F49" s="3">
-        <v>46324700</v>
+        <v>46363100</v>
       </c>
       <c r="G49" s="3">
-        <v>91890500</v>
+        <v>91966800</v>
       </c>
       <c r="H49" s="3">
-        <v>44715900</v>
+        <v>44753000</v>
       </c>
       <c r="I49" s="3">
-        <v>60264000</v>
+        <v>60314100</v>
       </c>
       <c r="J49" s="3">
-        <v>45269800</v>
+        <v>45307400</v>
       </c>
       <c r="K49" s="3">
         <v>43799100</v>
@@ -2376,25 +2376,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2269000</v>
+        <v>2270900</v>
       </c>
       <c r="E52" s="3">
-        <v>1766000</v>
+        <v>1767500</v>
       </c>
       <c r="F52" s="3">
-        <v>1084100</v>
+        <v>1085000</v>
       </c>
       <c r="G52" s="3">
-        <v>1821300</v>
+        <v>1822800</v>
       </c>
       <c r="H52" s="3">
-        <v>1905800</v>
+        <v>1907400</v>
       </c>
       <c r="I52" s="3">
-        <v>2069500</v>
+        <v>2071300</v>
       </c>
       <c r="J52" s="3">
-        <v>3400800</v>
+        <v>3403600</v>
       </c>
       <c r="K52" s="3">
         <v>10156800</v>
@@ -2460,25 +2460,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>118872000</v>
+        <v>118970000</v>
       </c>
       <c r="E54" s="3">
-        <v>117160000</v>
+        <v>117257000</v>
       </c>
       <c r="F54" s="3">
-        <v>116793000</v>
+        <v>116890000</v>
       </c>
       <c r="G54" s="3">
-        <v>115718000</v>
+        <v>115814000</v>
       </c>
       <c r="H54" s="3">
-        <v>104715000</v>
+        <v>104802000</v>
       </c>
       <c r="I54" s="3">
-        <v>103368000</v>
+        <v>103454000</v>
       </c>
       <c r="J54" s="3">
-        <v>102630000</v>
+        <v>102715000</v>
       </c>
       <c r="K54" s="3">
         <v>96732900</v>
@@ -2538,25 +2538,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7661300</v>
+        <v>7667700</v>
       </c>
       <c r="E57" s="3">
-        <v>7304700</v>
+        <v>7310700</v>
       </c>
       <c r="F57" s="3">
-        <v>7019500</v>
+        <v>7025400</v>
       </c>
       <c r="G57" s="3">
-        <v>7244000</v>
+        <v>7250000</v>
       </c>
       <c r="H57" s="3">
-        <v>7302500</v>
+        <v>7308600</v>
       </c>
       <c r="I57" s="3">
-        <v>7075900</v>
+        <v>7081800</v>
       </c>
       <c r="J57" s="3">
-        <v>6733300</v>
+        <v>6738900</v>
       </c>
       <c r="K57" s="3">
         <v>6588200</v>
@@ -2580,25 +2580,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10022500</v>
+        <v>10030800</v>
       </c>
       <c r="E58" s="3">
-        <v>8619700</v>
+        <v>8626800</v>
       </c>
       <c r="F58" s="3">
-        <v>10617700</v>
+        <v>10626500</v>
       </c>
       <c r="G58" s="3">
-        <v>10345600</v>
+        <v>10354200</v>
       </c>
       <c r="H58" s="3">
-        <v>13013500</v>
+        <v>13024300</v>
       </c>
       <c r="I58" s="3">
-        <v>16592200</v>
+        <v>16605900</v>
       </c>
       <c r="J58" s="3">
-        <v>9201800</v>
+        <v>9209500</v>
       </c>
       <c r="K58" s="3">
         <v>2940200</v>
@@ -2622,25 +2622,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13996800</v>
+        <v>14008400</v>
       </c>
       <c r="E59" s="3">
-        <v>13645600</v>
+        <v>13656900</v>
       </c>
       <c r="F59" s="3">
-        <v>13036300</v>
+        <v>13047100</v>
       </c>
       <c r="G59" s="3">
-        <v>12512700</v>
+        <v>12523100</v>
       </c>
       <c r="H59" s="3">
-        <v>12527900</v>
+        <v>12538300</v>
       </c>
       <c r="I59" s="3">
-        <v>12992900</v>
+        <v>13003700</v>
       </c>
       <c r="J59" s="3">
-        <v>12147300</v>
+        <v>12157400</v>
       </c>
       <c r="K59" s="3">
         <v>13352000</v>
@@ -2664,25 +2664,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31680700</v>
+        <v>31707000</v>
       </c>
       <c r="E60" s="3">
-        <v>29569900</v>
+        <v>29594500</v>
       </c>
       <c r="F60" s="3">
-        <v>30673500</v>
+        <v>30699000</v>
       </c>
       <c r="G60" s="3">
-        <v>30102200</v>
+        <v>30127200</v>
       </c>
       <c r="H60" s="3">
-        <v>32843900</v>
+        <v>32871200</v>
       </c>
       <c r="I60" s="3">
-        <v>31500700</v>
+        <v>31526800</v>
       </c>
       <c r="J60" s="3">
-        <v>28082500</v>
+        <v>28105800</v>
       </c>
       <c r="K60" s="3">
         <v>22880300</v>
@@ -2706,25 +2706,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42096700</v>
+        <v>42131600</v>
       </c>
       <c r="E61" s="3">
-        <v>41865800</v>
+        <v>41900500</v>
       </c>
       <c r="F61" s="3">
-        <v>38988600</v>
+        <v>39020900</v>
       </c>
       <c r="G61" s="3">
-        <v>41999100</v>
+        <v>42034000</v>
       </c>
       <c r="H61" s="3">
-        <v>28717800</v>
+        <v>28741600</v>
       </c>
       <c r="I61" s="3">
-        <v>28504200</v>
+        <v>28527900</v>
       </c>
       <c r="J61" s="3">
-        <v>31171100</v>
+        <v>31197000</v>
       </c>
       <c r="K61" s="3">
         <v>31240600</v>
@@ -2748,25 +2748,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7198400</v>
+        <v>7204400</v>
       </c>
       <c r="E62" s="3">
-        <v>7389200</v>
+        <v>7395400</v>
       </c>
       <c r="F62" s="3">
-        <v>6978400</v>
+        <v>6984100</v>
       </c>
       <c r="G62" s="3">
-        <v>6309500</v>
+        <v>6314700</v>
       </c>
       <c r="H62" s="3">
-        <v>7108400</v>
+        <v>7114300</v>
       </c>
       <c r="I62" s="3">
-        <v>7235300</v>
+        <v>7241300</v>
       </c>
       <c r="J62" s="3">
-        <v>7412000</v>
+        <v>7418100</v>
       </c>
       <c r="K62" s="3">
         <v>7415500</v>
@@ -2916,25 +2916,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>84414500</v>
+        <v>84484600</v>
       </c>
       <c r="E66" s="3">
-        <v>82098900</v>
+        <v>82167100</v>
       </c>
       <c r="F66" s="3">
-        <v>79505700</v>
+        <v>79571700</v>
       </c>
       <c r="G66" s="3">
-        <v>81324800</v>
+        <v>81392400</v>
       </c>
       <c r="H66" s="3">
-        <v>71467100</v>
+        <v>71526500</v>
       </c>
       <c r="I66" s="3">
-        <v>69787900</v>
+        <v>69845800</v>
       </c>
       <c r="J66" s="3">
-        <v>69360700</v>
+        <v>69418300</v>
       </c>
       <c r="K66" s="3">
         <v>64033300</v>
@@ -3144,25 +3144,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-339300</v>
+        <v>-339600</v>
       </c>
       <c r="E72" s="3">
-        <v>-432600</v>
+        <v>-432900</v>
       </c>
       <c r="F72" s="3">
-        <v>2006700</v>
+        <v>2008300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1165400</v>
+        <v>-1166400</v>
       </c>
       <c r="H72" s="3">
-        <v>-2235400</v>
+        <v>-2237300</v>
       </c>
       <c r="I72" s="3">
-        <v>-2006700</v>
+        <v>-2008300</v>
       </c>
       <c r="J72" s="3">
-        <v>-5229700</v>
+        <v>-5234000</v>
       </c>
       <c r="K72" s="3">
         <v>3725200</v>
@@ -3312,25 +3312,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34457000</v>
+        <v>34485600</v>
       </c>
       <c r="E76" s="3">
-        <v>35060900</v>
+        <v>35090000</v>
       </c>
       <c r="F76" s="3">
-        <v>37287600</v>
+        <v>37318600</v>
       </c>
       <c r="G76" s="3">
-        <v>34393100</v>
+        <v>34421600</v>
       </c>
       <c r="H76" s="3">
-        <v>33248300</v>
+        <v>33275900</v>
       </c>
       <c r="I76" s="3">
-        <v>33580000</v>
+        <v>33607900</v>
       </c>
       <c r="J76" s="3">
-        <v>33268900</v>
+        <v>33296500</v>
       </c>
       <c r="K76" s="3">
         <v>32699600</v>
@@ -3443,25 +3443,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2109700</v>
+        <v>2111400</v>
       </c>
       <c r="E81" s="3">
         <v>8700</v>
       </c>
       <c r="F81" s="3">
-        <v>4951100</v>
+        <v>4955200</v>
       </c>
       <c r="G81" s="3">
-        <v>2966100</v>
+        <v>2968600</v>
       </c>
       <c r="H81" s="3">
-        <v>1800700</v>
+        <v>1802200</v>
       </c>
       <c r="I81" s="3">
-        <v>1708500</v>
+        <v>1710000</v>
       </c>
       <c r="J81" s="3">
-        <v>2870700</v>
+        <v>2873100</v>
       </c>
       <c r="K81" s="3">
         <v>2805800</v>
@@ -3503,25 +3503,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9260400</v>
+        <v>9268100</v>
       </c>
       <c r="E83" s="3">
-        <v>9274500</v>
+        <v>9282200</v>
       </c>
       <c r="F83" s="3">
-        <v>9234400</v>
+        <v>9242000</v>
       </c>
       <c r="G83" s="3">
-        <v>9090200</v>
+        <v>9097700</v>
       </c>
       <c r="H83" s="3">
-        <v>7639700</v>
+        <v>7646000</v>
       </c>
       <c r="I83" s="3">
-        <v>7421700</v>
+        <v>7427900</v>
       </c>
       <c r="J83" s="3">
-        <v>7293800</v>
+        <v>7299900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3755,25 +3755,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12179900</v>
+        <v>12190000</v>
       </c>
       <c r="E89" s="3">
-        <v>12180900</v>
+        <v>12191100</v>
       </c>
       <c r="F89" s="3">
-        <v>13764800</v>
+        <v>13776200</v>
       </c>
       <c r="G89" s="3">
-        <v>11047000</v>
+        <v>11056200</v>
       </c>
       <c r="H89" s="3">
-        <v>10305500</v>
+        <v>10314000</v>
       </c>
       <c r="I89" s="3">
-        <v>11029600</v>
+        <v>11038800</v>
       </c>
       <c r="J89" s="3">
-        <v>9485900</v>
+        <v>9493800</v>
       </c>
       <c r="K89" s="3">
         <v>9312500</v>
@@ -3815,25 +3815,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9515100</v>
+        <v>-9523000</v>
       </c>
       <c r="E91" s="3">
-        <v>-9484800</v>
+        <v>-9492700</v>
       </c>
       <c r="F91" s="3">
-        <v>-9264700</v>
+        <v>-9272400</v>
       </c>
       <c r="G91" s="3">
-        <v>-9130300</v>
+        <v>-9137900</v>
       </c>
       <c r="H91" s="3">
-        <v>-8284700</v>
+        <v>-8291600</v>
       </c>
       <c r="I91" s="3">
-        <v>-8160000</v>
+        <v>-8166800</v>
       </c>
       <c r="J91" s="3">
-        <v>-9206200</v>
+        <v>-9213800</v>
       </c>
       <c r="K91" s="3">
         <v>-6465400</v>
@@ -3941,25 +3941,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11326700</v>
+        <v>-11336100</v>
       </c>
       <c r="E94" s="3">
-        <v>-6478600</v>
+        <v>-6484000</v>
       </c>
       <c r="F94" s="3">
-        <v>-6031900</v>
+        <v>-6036900</v>
       </c>
       <c r="G94" s="3">
-        <v>-10158000</v>
+        <v>-10166500</v>
       </c>
       <c r="H94" s="3">
-        <v>-9271200</v>
+        <v>-9278900</v>
       </c>
       <c r="I94" s="3">
-        <v>-8608800</v>
+        <v>-8616000</v>
       </c>
       <c r="J94" s="3">
-        <v>-5289300</v>
+        <v>-5293700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -4001,25 +4001,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2017500</v>
+        <v>-2019200</v>
       </c>
       <c r="E96" s="3">
-        <v>-2305900</v>
+        <v>-2307800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1729100</v>
+        <v>-1730600</v>
       </c>
       <c r="G96" s="3">
-        <v>-2013200</v>
+        <v>-2014800</v>
       </c>
       <c r="H96" s="3">
-        <v>-2016400</v>
+        <v>-2018100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1874400</v>
+        <v>-1876000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1730200</v>
+        <v>-1731700</v>
       </c>
       <c r="K96" s="3">
         <v>-1953100</v>
@@ -4169,25 +4169,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3624100</v>
+        <v>-3627200</v>
       </c>
       <c r="E100" s="3">
-        <v>-5240500</v>
+        <v>-5244900</v>
       </c>
       <c r="F100" s="3">
-        <v>-5865000</v>
+        <v>-5869900</v>
       </c>
       <c r="G100" s="3">
         <v>26000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1226100</v>
+        <v>-1227100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2968300</v>
+        <v>-2970700</v>
       </c>
       <c r="J100" s="3">
-        <v>-2041400</v>
+        <v>-2043100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4211,10 +4211,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-66100</v>
+        <v>-66200</v>
       </c>
       <c r="E101" s="3">
-        <v>54200</v>
+        <v>54300</v>
       </c>
       <c r="F101" s="3">
         <v>-64000</v>
@@ -4229,7 +4229,7 @@
         <v>-43400</v>
       </c>
       <c r="J101" s="3">
-        <v>-110600</v>
+        <v>-110700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4253,25 +4253,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2837100</v>
+        <v>-2839400</v>
       </c>
       <c r="E102" s="3">
-        <v>516000</v>
+        <v>516500</v>
       </c>
       <c r="F102" s="3">
-        <v>1803900</v>
+        <v>1805400</v>
       </c>
       <c r="G102" s="3">
-        <v>918200</v>
+        <v>919000</v>
       </c>
       <c r="H102" s="3">
-        <v>-190800</v>
+        <v>-191000</v>
       </c>
       <c r="I102" s="3">
-        <v>-590800</v>
+        <v>-591300</v>
       </c>
       <c r="J102" s="3">
-        <v>2044600</v>
+        <v>2046300</v>
       </c>
       <c r="K102" s="3">
         <v>871800</v>
